--- a/書類やスケジュール/タワーディフェンス・コーディングルール.xlsx
+++ b/書類やスケジュール/タワーディフェンス・コーディングルール.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="195">
   <si>
     <t>目次</t>
     <rPh sb="0" eb="2">
@@ -734,25 +734,6 @@
     </rPh>
     <rPh sb="13" eb="14">
       <t>ガタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>定数は定数記述用のヘッダーに書くこと</t>
-    <rPh sb="0" eb="2">
-      <t>テイスウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>テイスウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>キジュツ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>カ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1355,27 +1336,15 @@
     <t>13 -</t>
   </si>
   <si>
-    <t>14 -</t>
-  </si>
-  <si>
     <t>15 -</t>
   </si>
   <si>
-    <t>16 -</t>
-  </si>
-  <si>
-    <t>17 -</t>
-  </si>
-  <si>
     <t>3 -</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>10 -</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>18 -</t>
   </si>
   <si>
     <t>1 -</t>
@@ -1400,33 +1369,1249 @@
     <t>Google</t>
   </si>
   <si>
-    <t xml:space="preserve">
-　｛｝を使う全ての関数などの書き方は
-　関数名{
-　○○
-　｝</t>
+    <t>可読性の向上</t>
+    <rPh sb="0" eb="3">
+      <t>カドクセイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">フラグは先頭に「 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>is</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 」を付け
+trueの状態の変数名をつける</t>
+    </r>
+    <rPh sb="4" eb="6">
+      <t>セントウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="25" eb="28">
+      <t>ヘンスウメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">bool  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>is</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Move</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{ }の
+付け方</t>
     <rPh sb="5" eb="6">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{ } の開始位置は関数名の横</t>
+    <rPh sb="5" eb="7">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>カンスウメイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ヨコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>関数内が一行の場合にも{ }をつけること</t>
+    <rPh sb="0" eb="2">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イチギョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コードの追記が容易になる為</t>
+    <rPh sb="4" eb="6">
+      <t>ツイキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヨウイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>タメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>関数 {
+　○○;
+}</t>
+    <rPh sb="0" eb="2">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>関数{ ○○; }</t>
+    <rPh sb="0" eb="2">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コメント</t>
+  </si>
+  <si>
+    <t>コメント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">変数宣言時に用途を記述すること
+</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>センゲン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヨウト</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キジュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>曖昧さの除去</t>
+    <rPh sb="0" eb="2">
+      <t>アイマイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジョキョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>既存のコードを修正した際に変更が必要な他のコメントも同時に変更または
+削除すること</t>
+    <rPh sb="0" eb="2">
+      <t>キゾン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コメントのみを読んでしまった場合に
+エラーの原因になる為</t>
+    <rPh sb="7" eb="8">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ゲンイン</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>タメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コードの欠陥をわかりやすくするため
+コードを曖昧なままにしておくと後々の
+仕様変更や機能追加が不便になるので
+明記できる部分はなるべく記述すること
+参考URL：https://qiita.com/taka-kawa/items/673716d77795c937d422</t>
+    <rPh sb="4" eb="6">
+      <t>ケッカン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>アイマイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ノチノチ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>フベン</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>メイキ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>キジュツ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>サンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>禁止事項</t>
+  </si>
+  <si>
+    <t>禁止事項</t>
+    <rPh sb="0" eb="2">
+      <t>キンシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不要なソースは/**/でコメントアウトし
+リリース時に削除すること
+※ほんとに不要なものは先に削除可</t>
+    <rPh sb="0" eb="2">
+      <t>フヨウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>フヨウ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実装時に同じミスを繰り返さない為
+また、保守性の向上</t>
+    <rPh sb="0" eb="2">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>タメ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>ホシュセイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>コウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">完成されたソース以外は下記のものを記述すること
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">TODO: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+後に追加、修正するべき機能がある
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">FIXME: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+既知の不具合があるコード、修正が必要
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">XXX: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+危険！動くけどなぜかわからない。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">REVIEW: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+意図した通りに動くか、見直す必要有り
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">CHANGED: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+コードをどのように変更したか
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NOTE:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ なぜ、こうなったという情報を残す
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BAD:+コメント</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+悪いコード
+どこが悪いかをコメントで記すこと
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>キジュツ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="124" eb="125">
+      <t>アリ</t>
+    </rPh>
+    <rPh sb="186" eb="187">
+      <t>ワル</t>
+    </rPh>
+    <rPh sb="195" eb="196">
+      <t>ワル</t>
+    </rPh>
+    <rPh sb="204" eb="205">
+      <t>シル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> // TODO:</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> // BAD: 何が原因かもわからないし動かない
+ // BAD: コードが美しくない、リファクタリングが必要 </t>
+    <rPh sb="9" eb="10">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ゲンイン</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ウツク</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gotoの使用禁止</t>
+    <rPh sb="5" eb="7">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キンシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソースを追えなくなる為</t>
+    <rPh sb="4" eb="5">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>タメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保守性の向上</t>
+    <rPh sb="0" eb="3">
+      <t>ホシュセイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その他</t>
+  </si>
+  <si>
+    <t>その他</t>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ネットからのサンプルコードはURLを載せること</t>
+    <rPh sb="18" eb="19">
+      <t>ノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ローカル変数の宣言はメソッドの先頭で行うこと( i,j,kは除く)</t>
+    <rPh sb="4" eb="6">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センゲン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>セントウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ノゾ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>信頼性の向上のため</t>
+    <rPh sb="0" eb="3">
+      <t>シンライセイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マジックナンバーは使用せず代わりにEnumを使用すること
+(初期化のi=0などは除く)</t>
+    <rPh sb="9" eb="11">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="30" eb="33">
+      <t>ショキカ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ノゾ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>100行を超えるようなメソッドの場合はいくつかのメソッドに分けること</t>
+    <rPh sb="3" eb="4">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入れ子は最大でも3段階まで</t>
+    <rPh sb="0" eb="1">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ダンカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブロック内のコードは最大でも50行まで</t>
+    <rPh sb="4" eb="5">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>可読性の向上
+バグの発見のしやすさの向上</t>
+    <rPh sb="0" eb="3">
+      <t>カドクセイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウジョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ハッケン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>コウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイル</t>
+  </si>
+  <si>
+    <t>記入事項</t>
+    <rPh sb="0" eb="2">
+      <t>キニュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>多重インクルード防止のため</t>
+    <rPh sb="0" eb="2">
+      <t>タジュウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ボウシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>条件式は左に可変値、右に固定値</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カヘン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>コテイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例)</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>if(可変値 == TRUE){  }</t>
+    <rPh sb="3" eb="5">
+      <t>カヘン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>trueとfalseは大文字のTRUE,FALSEを使用</t>
+    <rPh sb="11" eb="14">
+      <t>オオモジ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヘッダーファイルの先頭には
+#pragma onceを記入すること</t>
+    <rPh sb="9" eb="11">
+      <t>セントウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>キニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヘッダーファイルにはマクロを定義する
+#ifndef _FILENAME_INCLUDE_
+define _FILENAME_INCLUDE_
+// 内容(クラスなどの宣言)
+#endif _FILENAME_INCLUDE_</t>
+    <rPh sb="14" eb="16">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>センゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ファイルのインクルードは
+.cppでは同名のヘッダーのみインクルードすること
+.hに.cppで必要になる全てのインクルードを定義すること
+インクルードしたファイルがインクルードしているというのはしないこと
+</t>
+    <rPh sb="19" eb="21">
+      <t>ドウメイ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保守性の向上
+オブジェクトを切り離した際にも動作
+するようにするため</t>
+    <rPh sb="0" eb="3">
+      <t>ホシュセイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウジョウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メモリの確保と解放は同一ソースで行う</t>
+    <rPh sb="4" eb="6">
+      <t>カクホ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カイホウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ドウイツ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デバッグやテストのコードはテスト完了後そのまま(コメントアウト等)にせず
+また、その状態でプッシュをしないこと</t>
+    <rPh sb="16" eb="18">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>関数</t>
+  </si>
+  <si>
+    <t>関数</t>
+    <rPh sb="0" eb="2">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>関数の宣言時には下記のコメントを記述すること</t>
+    <rPh sb="0" eb="2">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>センゲン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>キジュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>命名時に略称を使う場合はプロジェクト外部の人が見てもわかるもののみ使用可</t>
+    <rPh sb="0" eb="2">
+      <t>メイメイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>リャクショウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
       <t>ツカ</t>
     </rPh>
+    <rPh sb="9" eb="11">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="33" eb="36">
+      <t>シヨウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>後々になんの変数かなどがわからなくなってしまうため</t>
+    <rPh sb="0" eb="2">
+      <t>ノチノチ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">例)
+/**************************************************
+関数名：型 関数名(引数の型)
+概要　：大まかな説明
+引数　：型　用途
+戻り値：FALSE : ○○　
+　　　　TRUE : ○○
+詳細　：詳細な説明、参考URL等
+**************************************************/
+</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="55" eb="58">
+      <t>カンスウメイ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="61" eb="64">
+      <t>カンスウメイ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ガイヨウ</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="86" eb="87">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>ヨウト</t>
+    </rPh>
+    <rPh sb="91" eb="92">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="93" eb="94">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="121" eb="123">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="125" eb="127">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="128" eb="130">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="131" eb="133">
+      <t>サンコウ</t>
+    </rPh>
+    <rPh sb="136" eb="137">
+      <t>トウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>関数からの戻り値は　成功は0  失敗は-1</t>
+    <rPh sb="0" eb="2">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>モド</t>
+    </rPh>
     <rPh sb="7" eb="8">
-      <t>スベ</t>
+      <t>チ</t>
     </rPh>
     <rPh sb="10" eb="12">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シッパイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>定数は定数記述用のヘッダーに書くこと
+(そのファイルでしか使用されないと確信があるものは除く)</t>
+    <rPh sb="0" eb="2">
+      <t>テイスウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>テイスウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キジュツ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>カクシン</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ノゾ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイル関数などのシステムより戻り値がある場合はNULLでエラーを確認する</t>
+    <rPh sb="4" eb="6">
       <t>カンスウ</t>
     </rPh>
     <rPh sb="15" eb="16">
-      <t>カ</t>
+      <t>モド</t>
     </rPh>
     <rPh sb="17" eb="18">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="21" eb="24">
-      <t>カンスウメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・｛　｝の書き方について</t>
+      <t>チ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>共通の単語</t>
+    <rPh sb="0" eb="2">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タンゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>単語名</t>
+    <rPh sb="0" eb="2">
+      <t>タンゴ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>意味</t>
+    <rPh sb="0" eb="2">
+      <t>イミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>効果音</t>
+    <rPh sb="0" eb="3">
+      <t>コウカオン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UserInterface</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MAP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BGM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BackGroundMusic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Init</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Initializeの略</t>
+    <rPh sb="11" eb="12">
+      <t>リャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※随時更新予定</t>
+    <rPh sb="1" eb="3">
+      <t>ズイジ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{ } について</t>
+  </si>
+  <si>
+    <t>14 -</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>16 -</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>単語</t>
+  </si>
+  <si>
+    <t>コーディングルールの作成
+コミットルールの作成</t>
+    <rPh sb="10" eb="12">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>サクセイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1554,7 +2739,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -2024,140 +3209,116 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2167,21 +3328,268 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2191,21 +3599,27 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2224,65 +3638,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2301,36 +3664,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2615,8 +3948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:J3"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17:J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2627,273 +3960,274 @@
   <sheetData>
     <row r="1" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="12"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="18"/>
     </row>
     <row r="3" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="13"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="15"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="21"/>
     </row>
     <row r="4" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="5" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="29" t="s">
+      <c r="C5" s="23"/>
+      <c r="D5" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="30"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="36"/>
     </row>
     <row r="6" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="40"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="46"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="33" t="s">
+      <c r="C7" s="25"/>
+      <c r="D7" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="34"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="40"/>
     </row>
     <row r="8" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="35" t="s">
+      <c r="C8" s="27"/>
+      <c r="D8" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="37"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="43"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="35" t="s">
+      <c r="C9" s="27"/>
+      <c r="D9" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="37"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="43"/>
     </row>
     <row r="10" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="31" t="s">
+      <c r="C10" s="34"/>
+      <c r="D10" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="32"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="38"/>
     </row>
     <row r="12" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="23"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="29"/>
     </row>
     <row r="14" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="24"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="26"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="32"/>
     </row>
     <row r="15" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="16" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="2">
-        <v>43650</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="44" t="s">
+      <c r="C16" s="47">
+        <v>43654</v>
+      </c>
+      <c r="D16" s="47"/>
+      <c r="E16" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="9"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="50"/>
     </row>
     <row r="17" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="4"/>
+      <c r="C17" s="57" t="s">
+        <v>194</v>
+      </c>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="54"/>
     </row>
     <row r="18" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="42"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="4"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="54"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B19" s="42"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="4"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="54"/>
     </row>
     <row r="20" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="43"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="6"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="56"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B21" s="41" t="s">
+      <c r="B21" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="44" t="s">
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="9"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="50"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B22" s="42" t="s">
+      <c r="B22" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="4"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="54"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B23" s="42"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="4"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="54"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B24" s="42"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="4"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="54"/>
     </row>
     <row r="25" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="43"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="6"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B6:J6"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="F21:J21"/>
     <mergeCell ref="B22:B25"/>
@@ -2914,6 +4248,7 @@
     <mergeCell ref="D7:J7"/>
     <mergeCell ref="D8:J8"/>
     <mergeCell ref="D9:J9"/>
+    <mergeCell ref="B6:J6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2923,10 +4258,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J35"/>
+  <dimension ref="B1:J37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:D14"/>
+    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37:D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2937,274 +4272,302 @@
   <sheetData>
     <row r="1" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="12"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="18"/>
     </row>
     <row r="3" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="13"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="15"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="21"/>
     </row>
     <row r="4" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="5" spans="2:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="86" t="s">
+      <c r="B5" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="87"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
     </row>
     <row r="6" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="52"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="54"/>
+      <c r="D7" s="64"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="53"/>
+      <c r="D8" s="58"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="53" t="s">
+      <c r="C9" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="53"/>
+      <c r="D9" s="58"/>
     </row>
     <row r="10" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B10" s="1"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B11" s="80" t="s">
+      <c r="B11" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="81"/>
-      <c r="D11" s="82"/>
-      <c r="G11" s="80" t="s">
+      <c r="C11" s="68"/>
+      <c r="D11" s="69"/>
+      <c r="G11" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="H11" s="81"/>
-      <c r="I11" s="82"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="69"/>
     </row>
     <row r="12" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="83"/>
-      <c r="C12" s="84"/>
-      <c r="D12" s="85"/>
-      <c r="G12" s="83"/>
-      <c r="H12" s="84"/>
-      <c r="I12" s="85"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="72"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="72"/>
     </row>
     <row r="13" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="50"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B14" s="46" t="s">
-        <v>117</v>
-      </c>
-      <c r="C14" s="53" t="s">
+      <c r="B14" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C14" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="53"/>
+      <c r="D14" s="58"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B15" s="46" t="s">
+      <c r="B15" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" s="58" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="58"/>
+    </row>
+    <row r="16" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="5"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="60"/>
+      <c r="D17" s="7"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B18" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C18" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="58"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B19" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="58"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B20" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="58"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B21" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="58"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B22" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" s="58"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B23" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="58"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B24" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="58"/>
+    </row>
+    <row r="25" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="5"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+    </row>
+    <row r="26" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="65" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" s="66"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B27" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C27" s="58" t="s">
+        <v>190</v>
+      </c>
+      <c r="D27" s="58"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B28" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C15" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="53"/>
-    </row>
-    <row r="16" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="46"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-    </row>
-    <row r="17" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="50"/>
-      <c r="D17" s="48"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B18" s="46" t="s">
-        <v>114</v>
-      </c>
-      <c r="C18" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="53"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B19" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="53"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B20" s="46" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="53" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="53"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B21" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="53" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="53"/>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B22" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="53" t="s">
-        <v>85</v>
-      </c>
-      <c r="D22" s="53"/>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B23" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" s="53" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" s="53"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B24" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" s="53"/>
-    </row>
-    <row r="25" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="46"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
-    </row>
-    <row r="26" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="88" t="s">
-        <v>105</v>
-      </c>
-      <c r="C26" s="89"/>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B27" s="46" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B28" s="46" t="s">
+      <c r="C28" s="58" t="s">
+        <v>126</v>
+      </c>
+      <c r="D28" s="58"/>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B29" s="5" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B29" s="46" t="s">
+      <c r="C29" s="58" t="s">
+        <v>133</v>
+      </c>
+      <c r="D29" s="58"/>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B30" s="5" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B30" s="46" t="s">
+      <c r="C30" s="58" t="s">
+        <v>143</v>
+      </c>
+      <c r="D30" s="58"/>
+    </row>
+    <row r="31" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="32" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="59" t="s">
+        <v>154</v>
+      </c>
+      <c r="C32" s="60"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B33" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C33" s="58" t="s">
+        <v>153</v>
+      </c>
+      <c r="D33" s="58"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B34" s="5" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B31" s="46" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B32" s="46" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B33" s="46" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B34" s="46" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B35" s="46" t="s">
-        <v>116</v>
-      </c>
+      <c r="C34" s="58" t="s">
+        <v>167</v>
+      </c>
+      <c r="D34" s="58"/>
+    </row>
+    <row r="35" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="36" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B36" s="59" t="s">
+        <v>176</v>
+      </c>
+      <c r="C36" s="60"/>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B37" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C37" s="58" t="s">
+        <v>193</v>
+      </c>
+      <c r="D37" s="58"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B17:C17"/>
+  <mergeCells count="29">
     <mergeCell ref="G11:I12"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C18:D18"/>
@@ -3220,7 +4583,20 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C37:D37"/>
     <mergeCell ref="C9:D9"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B17:C17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -3231,11 +4607,18 @@
     <hyperlink ref="C15:D15" location="コーディングルール!B13" display="各種ケース"/>
     <hyperlink ref="C18:D18" location="コーディングルール!B22" display="全般"/>
     <hyperlink ref="C19:D19" location="コーディングルール!B34" display="変数"/>
-    <hyperlink ref="C20:D20" location="コーディングルール!B39" display="関数"/>
-    <hyperlink ref="C21:D21" location="コーディングルール!B46" display="定数"/>
-    <hyperlink ref="C22:D22" location="コーディングルール!B52" display="列挙型"/>
-    <hyperlink ref="C23:D23" location="コーディングルール!B60" display="クラス"/>
-    <hyperlink ref="C24:D24" location="コーディングルール!B72" display="構造体"/>
+    <hyperlink ref="C20:D20" location="コーディングルール!B41" display="関数"/>
+    <hyperlink ref="C21:D21" location="コーディングルール!B49" display="定数"/>
+    <hyperlink ref="C22:D22" location="コーディングルール!B55" display="列挙型"/>
+    <hyperlink ref="C23:D23" location="コーディングルール!B63" display="クラス"/>
+    <hyperlink ref="C24:D24" location="コーディングルール!B74" display="構造体"/>
+    <hyperlink ref="C27:D27" location="コーディングルール!B85" display="{ } について"/>
+    <hyperlink ref="C28:D28" location="コーディングルール!B92" display="コメント"/>
+    <hyperlink ref="C29:D29" location="コーディングルール!B101" display="禁止事項"/>
+    <hyperlink ref="C30:D30" location="コーディングルール!B106" display="その他"/>
+    <hyperlink ref="C33:D33" location="コーディングルール!B124" display="ファイル"/>
+    <hyperlink ref="C34:D34" location="コーディングルール!B130" display="関数"/>
+    <hyperlink ref="C37:D37" location="コーディングルール!B139" display="単語"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -3244,10 +4627,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J95"/>
+  <dimension ref="B1:J145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60:B68"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3258,1180 +4641,1744 @@
   <sheetData>
     <row r="1" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="12"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="18"/>
     </row>
     <row r="3" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="13"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="15"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="21"/>
     </row>
     <row r="4" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="5" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B5" s="80" t="s">
+      <c r="B5" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="81"/>
-      <c r="D5" s="82"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="69"/>
     </row>
     <row r="6" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="83"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="85"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="72"/>
     </row>
     <row r="7" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="8" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="98" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="96" t="s">
-        <v>118</v>
-      </c>
-      <c r="D8" s="97"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="97"/>
-      <c r="G8" s="97"/>
-      <c r="H8" s="97"/>
-      <c r="I8" s="97"/>
-      <c r="J8" s="98"/>
+      <c r="C8" s="114" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" s="115"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="115"/>
+      <c r="G8" s="115"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="115"/>
+      <c r="J8" s="116"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B9" s="57"/>
-      <c r="C9" s="90" t="s">
-        <v>119</v>
-      </c>
-      <c r="D9" s="91"/>
-      <c r="E9" s="91"/>
-      <c r="F9" s="91"/>
-      <c r="G9" s="91"/>
-      <c r="H9" s="91"/>
-      <c r="I9" s="91"/>
-      <c r="J9" s="92"/>
+      <c r="B9" s="99"/>
+      <c r="C9" s="117" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" s="118"/>
+      <c r="E9" s="118"/>
+      <c r="F9" s="118"/>
+      <c r="G9" s="118"/>
+      <c r="H9" s="118"/>
+      <c r="I9" s="118"/>
+      <c r="J9" s="119"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B10" s="57"/>
-      <c r="C10" s="90" t="s">
-        <v>120</v>
-      </c>
-      <c r="D10" s="91"/>
-      <c r="E10" s="91"/>
-      <c r="F10" s="91"/>
-      <c r="G10" s="91"/>
-      <c r="H10" s="91"/>
-      <c r="I10" s="91"/>
-      <c r="J10" s="92"/>
+      <c r="B10" s="99"/>
+      <c r="C10" s="117" t="s">
+        <v>115</v>
+      </c>
+      <c r="D10" s="118"/>
+      <c r="E10" s="118"/>
+      <c r="F10" s="118"/>
+      <c r="G10" s="118"/>
+      <c r="H10" s="118"/>
+      <c r="I10" s="118"/>
+      <c r="J10" s="119"/>
     </row>
     <row r="11" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="58"/>
-      <c r="C11" s="93" t="s">
-        <v>121</v>
-      </c>
-      <c r="D11" s="94"/>
-      <c r="E11" s="94"/>
-      <c r="F11" s="94"/>
-      <c r="G11" s="94"/>
-      <c r="H11" s="94"/>
-      <c r="I11" s="94"/>
-      <c r="J11" s="95"/>
+      <c r="B11" s="100"/>
+      <c r="C11" s="120" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" s="121"/>
+      <c r="E11" s="121"/>
+      <c r="F11" s="121"/>
+      <c r="G11" s="121"/>
+      <c r="H11" s="121"/>
+      <c r="I11" s="121"/>
+      <c r="J11" s="122"/>
     </row>
     <row r="12" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B13" s="62" t="s">
+      <c r="B13" s="101" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="63" t="s">
+      <c r="C13" s="106" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="61"/>
-      <c r="E13" s="66" t="s">
+      <c r="D13" s="107"/>
+      <c r="E13" s="110" t="s">
         <v>53</v>
       </c>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="67"/>
+      <c r="F13" s="110"/>
+      <c r="G13" s="110"/>
+      <c r="H13" s="110"/>
+      <c r="I13" s="110"/>
+      <c r="J13" s="111"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B14" s="59"/>
-      <c r="C14" s="64" t="s">
+      <c r="B14" s="102"/>
+      <c r="C14" s="108" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="36"/>
-      <c r="E14" s="68" t="s">
+      <c r="D14" s="42"/>
+      <c r="E14" s="112" t="s">
         <v>54</v>
       </c>
-      <c r="F14" s="68"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="68"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="69"/>
+      <c r="F14" s="112"/>
+      <c r="G14" s="112"/>
+      <c r="H14" s="112"/>
+      <c r="I14" s="112"/>
+      <c r="J14" s="113"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B15" s="59"/>
-      <c r="C15" s="64" t="s">
+      <c r="B15" s="102"/>
+      <c r="C15" s="108" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="36"/>
-      <c r="E15" s="68" t="s">
+      <c r="D15" s="42"/>
+      <c r="E15" s="112" t="s">
         <v>56</v>
       </c>
-      <c r="F15" s="68"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="68"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="69"/>
+      <c r="F15" s="112"/>
+      <c r="G15" s="112"/>
+      <c r="H15" s="112"/>
+      <c r="I15" s="112"/>
+      <c r="J15" s="113"/>
     </row>
     <row r="16" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="60"/>
-      <c r="C16" s="65" t="s">
+      <c r="B16" s="103"/>
+      <c r="C16" s="109" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="31"/>
-      <c r="E16" s="70" t="s">
+      <c r="D16" s="37"/>
+      <c r="E16" s="104" t="s">
         <v>57</v>
       </c>
-      <c r="F16" s="70"/>
-      <c r="G16" s="70"/>
-      <c r="H16" s="70"/>
-      <c r="I16" s="70"/>
-      <c r="J16" s="71"/>
+      <c r="F16" s="104"/>
+      <c r="G16" s="104"/>
+      <c r="H16" s="104"/>
+      <c r="I16" s="104"/>
+      <c r="J16" s="105"/>
     </row>
     <row r="18" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="19" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B19" s="80" t="s">
+      <c r="B19" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="81"/>
-      <c r="D19" s="82"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="69"/>
     </row>
     <row r="20" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="83"/>
-      <c r="C20" s="84"/>
-      <c r="D20" s="85"/>
+      <c r="B20" s="70"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="72"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B22" s="74" t="s">
+      <c r="B22" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="75" t="s">
+      <c r="C22" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="75"/>
-      <c r="E22" s="75"/>
-      <c r="F22" s="75"/>
-      <c r="G22" s="75" t="s">
+      <c r="D22" s="81"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="81"/>
+      <c r="G22" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="H22" s="75"/>
-      <c r="I22" s="75"/>
-      <c r="J22" s="75"/>
+      <c r="H22" s="81"/>
+      <c r="I22" s="81"/>
+      <c r="J22" s="81"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B23" s="74"/>
-      <c r="C23" s="72" t="s">
+      <c r="B23" s="77"/>
+      <c r="C23" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="72"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="72" t="s">
+      <c r="D23" s="82"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="82"/>
+      <c r="G23" s="82" t="s">
         <v>58</v>
       </c>
-      <c r="H23" s="72"/>
-      <c r="I23" s="72"/>
-      <c r="J23" s="72"/>
+      <c r="H23" s="82"/>
+      <c r="I23" s="82"/>
+      <c r="J23" s="82"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B24" s="74"/>
-      <c r="C24" s="72" t="s">
+      <c r="B24" s="77"/>
+      <c r="C24" s="82" t="s">
         <v>60</v>
       </c>
-      <c r="D24" s="72"/>
-      <c r="E24" s="72"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="72" t="s">
+      <c r="D24" s="82"/>
+      <c r="E24" s="82"/>
+      <c r="F24" s="82"/>
+      <c r="G24" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="H24" s="72"/>
-      <c r="I24" s="72"/>
-      <c r="J24" s="72"/>
+      <c r="H24" s="82"/>
+      <c r="I24" s="82"/>
+      <c r="J24" s="82"/>
     </row>
     <row r="25" spans="2:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="74"/>
-      <c r="C25" s="72" t="s">
+      <c r="B25" s="77"/>
+      <c r="C25" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="D25" s="72"/>
-      <c r="E25" s="72"/>
-      <c r="F25" s="72"/>
-      <c r="G25" s="73" t="s">
+      <c r="D25" s="82"/>
+      <c r="E25" s="82"/>
+      <c r="F25" s="82"/>
+      <c r="G25" s="75" t="s">
         <v>63</v>
       </c>
-      <c r="H25" s="73"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
+      <c r="H25" s="75"/>
+      <c r="I25" s="75"/>
+      <c r="J25" s="75"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B26" s="74"/>
-      <c r="C26" s="72" t="s">
+      <c r="B26" s="77"/>
+      <c r="C26" s="82" t="s">
         <v>64</v>
       </c>
-      <c r="D26" s="72"/>
-      <c r="E26" s="72"/>
-      <c r="F26" s="72"/>
-      <c r="G26" s="72" t="s">
+      <c r="D26" s="82"/>
+      <c r="E26" s="82"/>
+      <c r="F26" s="82"/>
+      <c r="G26" s="82" t="s">
         <v>65</v>
       </c>
-      <c r="H26" s="72"/>
-      <c r="I26" s="72"/>
-      <c r="J26" s="72"/>
+      <c r="H26" s="82"/>
+      <c r="I26" s="82"/>
+      <c r="J26" s="82"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B27" s="74"/>
-      <c r="C27" s="72" t="s">
+      <c r="B27" s="77"/>
+      <c r="C27" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="D27" s="72"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="72" t="s">
+      <c r="D27" s="82"/>
+      <c r="E27" s="82"/>
+      <c r="F27" s="82"/>
+      <c r="G27" s="82" t="s">
         <v>74</v>
       </c>
-      <c r="H27" s="72"/>
-      <c r="I27" s="72"/>
-      <c r="J27" s="72"/>
+      <c r="H27" s="82"/>
+      <c r="I27" s="82"/>
+      <c r="J27" s="82"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B28" s="74"/>
-      <c r="C28" s="72" t="s">
+      <c r="B28" s="77"/>
+      <c r="C28" s="82" t="s">
         <v>70</v>
       </c>
-      <c r="D28" s="72"/>
-      <c r="E28" s="72"/>
-      <c r="F28" s="72"/>
-      <c r="G28" s="72" t="s">
+      <c r="D28" s="82"/>
+      <c r="E28" s="82"/>
+      <c r="F28" s="82"/>
+      <c r="G28" s="82" t="s">
         <v>69</v>
       </c>
-      <c r="H28" s="72"/>
-      <c r="I28" s="72"/>
-      <c r="J28" s="72"/>
+      <c r="H28" s="82"/>
+      <c r="I28" s="82"/>
+      <c r="J28" s="82"/>
     </row>
     <row r="29" spans="2:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="74"/>
-      <c r="C29" s="36" t="s">
+      <c r="B29" s="77"/>
+      <c r="C29" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="72" t="s">
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="82" t="s">
         <v>75</v>
       </c>
-      <c r="H29" s="68"/>
-      <c r="I29" s="68"/>
-      <c r="J29" s="68"/>
+      <c r="H29" s="112"/>
+      <c r="I29" s="112"/>
+      <c r="J29" s="112"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B30" s="74"/>
-      <c r="C30" s="68" t="s">
+      <c r="B30" s="77"/>
+      <c r="C30" s="112" t="s">
         <v>80</v>
       </c>
-      <c r="D30" s="68"/>
-      <c r="E30" s="68"/>
-      <c r="F30" s="68"/>
-      <c r="G30" s="68" t="s">
+      <c r="D30" s="112"/>
+      <c r="E30" s="112"/>
+      <c r="F30" s="112"/>
+      <c r="G30" s="112" t="s">
         <v>58</v>
       </c>
-      <c r="H30" s="68"/>
-      <c r="I30" s="68"/>
-      <c r="J30" s="68"/>
+      <c r="H30" s="112"/>
+      <c r="I30" s="112"/>
+      <c r="J30" s="112"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B31" s="74"/>
-      <c r="C31" s="68" t="s">
+      <c r="B31" s="77"/>
+      <c r="C31" s="112" t="s">
         <v>79</v>
       </c>
-      <c r="D31" s="68"/>
-      <c r="E31" s="68"/>
-      <c r="F31" s="68"/>
-      <c r="G31" s="68" t="s">
+      <c r="D31" s="112"/>
+      <c r="E31" s="112"/>
+      <c r="F31" s="112"/>
+      <c r="G31" s="112" t="s">
         <v>58</v>
       </c>
-      <c r="H31" s="68"/>
-      <c r="I31" s="68"/>
-      <c r="J31" s="68"/>
+      <c r="H31" s="112"/>
+      <c r="I31" s="112"/>
+      <c r="J31" s="112"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B32" s="55"/>
-      <c r="C32" s="55"/>
-      <c r="D32" s="55"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="55"/>
-      <c r="G32" s="55"/>
-      <c r="H32" s="55"/>
-      <c r="I32" s="55"/>
-      <c r="J32" s="55"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B33" s="55"/>
-      <c r="C33" s="55"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="55"/>
-      <c r="H33" s="55"/>
-      <c r="I33" s="55"/>
-      <c r="J33" s="55"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B34" s="100" t="s">
+      <c r="B34" s="92" t="s">
         <v>40</v>
       </c>
-      <c r="C34" s="75" t="s">
+      <c r="C34" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="D34" s="75"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="75"/>
-      <c r="G34" s="75" t="s">
+      <c r="D34" s="81"/>
+      <c r="E34" s="81"/>
+      <c r="F34" s="81"/>
+      <c r="G34" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="H34" s="75"/>
-      <c r="I34" s="75"/>
-      <c r="J34" s="75"/>
+      <c r="H34" s="81"/>
+      <c r="I34" s="81"/>
+      <c r="J34" s="81"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B35" s="101"/>
-      <c r="C35" s="72" t="s">
+      <c r="B35" s="93"/>
+      <c r="C35" s="82" t="s">
         <v>66</v>
       </c>
-      <c r="D35" s="72"/>
-      <c r="E35" s="72"/>
-      <c r="F35" s="72"/>
-      <c r="G35" s="72" t="s">
+      <c r="D35" s="82"/>
+      <c r="E35" s="82"/>
+      <c r="F35" s="82"/>
+      <c r="G35" s="82" t="s">
         <v>67</v>
       </c>
-      <c r="H35" s="72"/>
-      <c r="I35" s="72"/>
-      <c r="J35" s="72"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B36" s="102"/>
-      <c r="C36" s="76" t="s">
+      <c r="H35" s="82"/>
+      <c r="I35" s="82"/>
+      <c r="J35" s="82"/>
+    </row>
+    <row r="36" spans="2:10" s="9" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B36" s="93"/>
+      <c r="C36" s="95" t="s">
+        <v>118</v>
+      </c>
+      <c r="D36" s="96"/>
+      <c r="E36" s="96"/>
+      <c r="F36" s="97"/>
+      <c r="G36" s="78" t="s">
+        <v>117</v>
+      </c>
+      <c r="H36" s="79"/>
+      <c r="I36" s="79"/>
+      <c r="J36" s="80"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B37" s="93"/>
+      <c r="C37" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="D36" s="72" t="s">
+      <c r="D37" s="82" t="s">
         <v>77</v>
       </c>
-      <c r="E36" s="72"/>
-      <c r="F36" s="72"/>
-      <c r="G36" s="72"/>
-      <c r="H36" s="72"/>
-      <c r="I36" s="72"/>
-      <c r="J36" s="72"/>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B37" s="55"/>
-      <c r="C37" s="55"/>
-      <c r="D37" s="55"/>
-      <c r="E37" s="55"/>
-      <c r="F37" s="55"/>
-      <c r="G37" s="55"/>
-      <c r="H37" s="55"/>
-      <c r="I37" s="55"/>
-      <c r="J37" s="55"/>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B38" s="55"/>
-      <c r="C38" s="55"/>
-      <c r="D38" s="55"/>
-      <c r="E38" s="55"/>
-      <c r="F38" s="55"/>
-      <c r="G38" s="55"/>
-      <c r="H38" s="55"/>
-      <c r="I38" s="55"/>
-      <c r="J38" s="55"/>
+      <c r="E37" s="82"/>
+      <c r="F37" s="82"/>
+      <c r="G37" s="82"/>
+      <c r="H37" s="82"/>
+      <c r="I37" s="82"/>
+      <c r="J37" s="82"/>
+    </row>
+    <row r="38" spans="2:10" s="9" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B38" s="94"/>
+      <c r="C38" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D38" s="82" t="s">
+        <v>119</v>
+      </c>
+      <c r="E38" s="82"/>
+      <c r="F38" s="82"/>
+      <c r="G38" s="82"/>
+      <c r="H38" s="82"/>
+      <c r="I38" s="82"/>
+      <c r="J38" s="82"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B39" s="74" t="s">
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B41" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="C39" s="75" t="s">
+      <c r="C41" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="D39" s="75"/>
-      <c r="E39" s="75"/>
-      <c r="F39" s="75"/>
-      <c r="G39" s="75" t="s">
+      <c r="D41" s="81"/>
+      <c r="E41" s="81"/>
+      <c r="F41" s="81"/>
+      <c r="G41" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="H39" s="75"/>
-      <c r="I39" s="75"/>
-      <c r="J39" s="75"/>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B40" s="74"/>
-      <c r="C40" s="72" t="s">
+      <c r="H41" s="81"/>
+      <c r="I41" s="81"/>
+      <c r="J41" s="81"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B42" s="77"/>
+      <c r="C42" s="82" t="s">
         <v>72</v>
       </c>
-      <c r="D40" s="72"/>
-      <c r="E40" s="72"/>
-      <c r="F40" s="72"/>
-      <c r="G40" s="72" t="s">
+      <c r="D42" s="82"/>
+      <c r="E42" s="82"/>
+      <c r="F42" s="82"/>
+      <c r="G42" s="82" t="s">
         <v>67</v>
       </c>
-      <c r="H40" s="72"/>
-      <c r="I40" s="72"/>
-      <c r="J40" s="72"/>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B41" s="74"/>
-      <c r="C41" s="72" t="s">
+      <c r="H42" s="82"/>
+      <c r="I42" s="82"/>
+      <c r="J42" s="82"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B43" s="77"/>
+      <c r="C43" s="82" t="s">
+        <v>96</v>
+      </c>
+      <c r="D43" s="82"/>
+      <c r="E43" s="82"/>
+      <c r="F43" s="82"/>
+      <c r="G43" s="82" t="s">
+        <v>78</v>
+      </c>
+      <c r="H43" s="82"/>
+      <c r="I43" s="82"/>
+      <c r="J43" s="82"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B44" s="77"/>
+      <c r="C44" s="82" t="s">
+        <v>81</v>
+      </c>
+      <c r="D44" s="82"/>
+      <c r="E44" s="82"/>
+      <c r="F44" s="82"/>
+      <c r="G44" s="82" t="s">
+        <v>58</v>
+      </c>
+      <c r="H44" s="82"/>
+      <c r="I44" s="82"/>
+      <c r="J44" s="82"/>
+    </row>
+    <row r="45" spans="2:10" s="9" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B45" s="77"/>
+      <c r="C45" s="78" t="s">
+        <v>173</v>
+      </c>
+      <c r="D45" s="79"/>
+      <c r="E45" s="79"/>
+      <c r="F45" s="80"/>
+      <c r="G45" s="82" t="s">
+        <v>58</v>
+      </c>
+      <c r="H45" s="82"/>
+      <c r="I45" s="82"/>
+      <c r="J45" s="82"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B46" s="77"/>
+      <c r="C46" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D46" s="82" t="s">
         <v>97</v>
       </c>
-      <c r="D41" s="72"/>
-      <c r="E41" s="72"/>
-      <c r="F41" s="72"/>
-      <c r="G41" s="72" t="s">
-        <v>78</v>
-      </c>
-      <c r="H41" s="72"/>
-      <c r="I41" s="72"/>
-      <c r="J41" s="72"/>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B42" s="74"/>
-      <c r="C42" s="72" t="s">
-        <v>81</v>
-      </c>
-      <c r="D42" s="72"/>
-      <c r="E42" s="72"/>
-      <c r="F42" s="72"/>
-      <c r="G42" s="72" t="s">
+      <c r="E46" s="82"/>
+      <c r="F46" s="82"/>
+      <c r="G46" s="82"/>
+      <c r="H46" s="82"/>
+      <c r="I46" s="82"/>
+      <c r="J46" s="82"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B49" s="77" t="s">
+        <v>42</v>
+      </c>
+      <c r="C49" s="81" t="s">
+        <v>47</v>
+      </c>
+      <c r="D49" s="81"/>
+      <c r="E49" s="81"/>
+      <c r="F49" s="81"/>
+      <c r="G49" s="81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" s="81"/>
+      <c r="I49" s="81"/>
+      <c r="J49" s="81"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B50" s="77"/>
+      <c r="C50" s="82" t="s">
+        <v>73</v>
+      </c>
+      <c r="D50" s="82"/>
+      <c r="E50" s="82"/>
+      <c r="F50" s="82"/>
+      <c r="G50" s="82" t="s">
+        <v>67</v>
+      </c>
+      <c r="H50" s="82"/>
+      <c r="I50" s="82"/>
+      <c r="J50" s="82"/>
+    </row>
+    <row r="51" spans="2:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B51" s="77"/>
+      <c r="C51" s="75" t="s">
+        <v>174</v>
+      </c>
+      <c r="D51" s="75"/>
+      <c r="E51" s="75"/>
+      <c r="F51" s="75"/>
+      <c r="G51" s="75" t="s">
+        <v>82</v>
+      </c>
+      <c r="H51" s="75"/>
+      <c r="I51" s="75"/>
+      <c r="J51" s="75"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B52" s="77"/>
+      <c r="C52" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D52" s="82" t="s">
+        <v>83</v>
+      </c>
+      <c r="E52" s="82"/>
+      <c r="F52" s="82"/>
+      <c r="G52" s="82"/>
+      <c r="H52" s="82"/>
+      <c r="I52" s="82"/>
+      <c r="J52" s="82"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="10"/>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B55" s="77" t="s">
+        <v>84</v>
+      </c>
+      <c r="C55" s="81" t="s">
+        <v>47</v>
+      </c>
+      <c r="D55" s="81"/>
+      <c r="E55" s="81"/>
+      <c r="F55" s="81"/>
+      <c r="G55" s="81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" s="81"/>
+      <c r="I55" s="81"/>
+      <c r="J55" s="81"/>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B56" s="77"/>
+      <c r="C56" s="82" t="s">
+        <v>85</v>
+      </c>
+      <c r="D56" s="82"/>
+      <c r="E56" s="82"/>
+      <c r="F56" s="82"/>
+      <c r="G56" s="82" t="s">
+        <v>67</v>
+      </c>
+      <c r="H56" s="82"/>
+      <c r="I56" s="82"/>
+      <c r="J56" s="82"/>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B57" s="77"/>
+      <c r="C57" s="82" t="s">
+        <v>91</v>
+      </c>
+      <c r="D57" s="82"/>
+      <c r="E57" s="82"/>
+      <c r="F57" s="82"/>
+      <c r="G57" s="82" t="s">
         <v>58</v>
       </c>
-      <c r="H42" s="72"/>
-      <c r="I42" s="72"/>
-      <c r="J42" s="72"/>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B43" s="74"/>
-      <c r="C43" s="77" t="s">
+      <c r="H57" s="82"/>
+      <c r="I57" s="82"/>
+      <c r="J57" s="82"/>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B58" s="77"/>
+      <c r="C58" s="82" t="s">
+        <v>86</v>
+      </c>
+      <c r="D58" s="82"/>
+      <c r="E58" s="82"/>
+      <c r="F58" s="82"/>
+      <c r="G58" s="82" t="s">
+        <v>67</v>
+      </c>
+      <c r="H58" s="82"/>
+      <c r="I58" s="82"/>
+      <c r="J58" s="82"/>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B59" s="77"/>
+      <c r="C59" s="82" t="s">
+        <v>90</v>
+      </c>
+      <c r="D59" s="82"/>
+      <c r="E59" s="82"/>
+      <c r="F59" s="82"/>
+      <c r="G59" s="82" t="s">
+        <v>58</v>
+      </c>
+      <c r="H59" s="82"/>
+      <c r="I59" s="82"/>
+      <c r="J59" s="82"/>
+    </row>
+    <row r="60" spans="2:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B60" s="77"/>
+      <c r="C60" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="D43" s="72" t="s">
-        <v>98</v>
-      </c>
-      <c r="E43" s="72"/>
-      <c r="F43" s="72"/>
-      <c r="G43" s="72"/>
-      <c r="H43" s="72"/>
-      <c r="I43" s="72"/>
-      <c r="J43" s="72"/>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B44" s="55"/>
-      <c r="C44" s="55"/>
-      <c r="D44" s="55"/>
-      <c r="E44" s="55"/>
-      <c r="F44" s="55"/>
-      <c r="G44" s="55"/>
-      <c r="H44" s="55"/>
-      <c r="I44" s="55"/>
-      <c r="J44" s="55"/>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B45" s="55"/>
-      <c r="C45" s="55"/>
-      <c r="D45" s="55"/>
-      <c r="E45" s="55"/>
-      <c r="F45" s="55"/>
-      <c r="G45" s="55"/>
-      <c r="H45" s="55"/>
-      <c r="I45" s="55"/>
-      <c r="J45" s="55"/>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B46" s="74" t="s">
-        <v>42</v>
-      </c>
-      <c r="C46" s="75" t="s">
-        <v>47</v>
-      </c>
-      <c r="D46" s="75"/>
-      <c r="E46" s="75"/>
-      <c r="F46" s="75"/>
-      <c r="G46" s="75" t="s">
-        <v>46</v>
-      </c>
-      <c r="H46" s="75"/>
-      <c r="I46" s="75"/>
-      <c r="J46" s="75"/>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B47" s="74"/>
-      <c r="C47" s="72" t="s">
-        <v>73</v>
-      </c>
-      <c r="D47" s="72"/>
-      <c r="E47" s="72"/>
-      <c r="F47" s="72"/>
-      <c r="G47" s="72" t="s">
-        <v>67</v>
-      </c>
-      <c r="H47" s="72"/>
-      <c r="I47" s="72"/>
-      <c r="J47" s="72"/>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B48" s="74"/>
-      <c r="C48" s="72" t="s">
-        <v>82</v>
-      </c>
-      <c r="D48" s="72"/>
-      <c r="E48" s="72"/>
-      <c r="F48" s="72"/>
-      <c r="G48" s="72" t="s">
-        <v>83</v>
-      </c>
-      <c r="H48" s="72"/>
-      <c r="I48" s="72"/>
-      <c r="J48" s="72"/>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B49" s="74"/>
-      <c r="C49" s="77" t="s">
-        <v>76</v>
-      </c>
-      <c r="D49" s="72" t="s">
-        <v>84</v>
-      </c>
-      <c r="E49" s="72"/>
-      <c r="F49" s="72"/>
-      <c r="G49" s="72"/>
-      <c r="H49" s="72"/>
-      <c r="I49" s="72"/>
-      <c r="J49" s="72"/>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B50" s="55"/>
-      <c r="C50" s="55"/>
-      <c r="D50" s="55"/>
-      <c r="E50" s="55"/>
-      <c r="F50" s="55"/>
-      <c r="G50" s="55"/>
-      <c r="H50" s="55"/>
-      <c r="I50" s="55"/>
-      <c r="J50" s="55"/>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B51" s="55"/>
-      <c r="C51" s="55"/>
-      <c r="D51" s="55"/>
-      <c r="E51" s="55"/>
-      <c r="F51" s="55"/>
-      <c r="G51" s="55"/>
-      <c r="H51" s="55"/>
-      <c r="I51" s="55"/>
-      <c r="J51" s="55"/>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B52" s="74" t="s">
-        <v>85</v>
-      </c>
-      <c r="C52" s="75" t="s">
-        <v>47</v>
-      </c>
-      <c r="D52" s="75"/>
-      <c r="E52" s="75"/>
-      <c r="F52" s="75"/>
-      <c r="G52" s="75" t="s">
-        <v>46</v>
-      </c>
-      <c r="H52" s="75"/>
-      <c r="I52" s="75"/>
-      <c r="J52" s="75"/>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B53" s="74"/>
-      <c r="C53" s="72" t="s">
-        <v>86</v>
-      </c>
-      <c r="D53" s="72"/>
-      <c r="E53" s="72"/>
-      <c r="F53" s="72"/>
-      <c r="G53" s="72" t="s">
-        <v>67</v>
-      </c>
-      <c r="H53" s="72"/>
-      <c r="I53" s="72"/>
-      <c r="J53" s="72"/>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B54" s="74"/>
-      <c r="C54" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="D54" s="72"/>
-      <c r="E54" s="72"/>
-      <c r="F54" s="72"/>
-      <c r="G54" s="72" t="s">
-        <v>58</v>
-      </c>
-      <c r="H54" s="72"/>
-      <c r="I54" s="72"/>
-      <c r="J54" s="72"/>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B55" s="74"/>
-      <c r="C55" s="72" t="s">
-        <v>87</v>
-      </c>
-      <c r="D55" s="72"/>
-      <c r="E55" s="72"/>
-      <c r="F55" s="72"/>
-      <c r="G55" s="72" t="s">
-        <v>67</v>
-      </c>
-      <c r="H55" s="72"/>
-      <c r="I55" s="72"/>
-      <c r="J55" s="72"/>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B56" s="74"/>
-      <c r="C56" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="D56" s="72"/>
-      <c r="E56" s="72"/>
-      <c r="F56" s="72"/>
-      <c r="G56" s="72" t="s">
-        <v>58</v>
-      </c>
-      <c r="H56" s="72"/>
-      <c r="I56" s="72"/>
-      <c r="J56" s="72"/>
-    </row>
-    <row r="57" spans="2:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B57" s="74"/>
-      <c r="C57" s="78" t="s">
-        <v>76</v>
-      </c>
-      <c r="D57" s="79" t="s">
-        <v>90</v>
-      </c>
-      <c r="E57" s="73"/>
-      <c r="F57" s="73"/>
-      <c r="G57" s="73"/>
-      <c r="H57" s="73"/>
-      <c r="I57" s="73"/>
-      <c r="J57" s="73"/>
-    </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B58" s="55"/>
-      <c r="C58" s="55"/>
-      <c r="D58" s="55"/>
-      <c r="E58" s="55"/>
-      <c r="F58" s="55"/>
-      <c r="G58" s="55"/>
-      <c r="H58" s="55"/>
-      <c r="I58" s="55"/>
-      <c r="J58" s="55"/>
-    </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B60" s="74" t="s">
-        <v>43</v>
-      </c>
-      <c r="C60" s="75" t="s">
-        <v>47</v>
-      </c>
-      <c r="D60" s="75"/>
+      <c r="D60" s="91" t="s">
+        <v>89</v>
+      </c>
       <c r="E60" s="75"/>
       <c r="F60" s="75"/>
-      <c r="G60" s="75" t="s">
-        <v>46</v>
-      </c>
+      <c r="G60" s="75"/>
       <c r="H60" s="75"/>
       <c r="I60" s="75"/>
       <c r="J60" s="75"/>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B61" s="74"/>
-      <c r="C61" s="72" t="s">
+      <c r="B61" s="10"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="10"/>
+      <c r="J61" s="10"/>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B63" s="77" t="s">
+        <v>43</v>
+      </c>
+      <c r="C63" s="81" t="s">
+        <v>47</v>
+      </c>
+      <c r="D63" s="81"/>
+      <c r="E63" s="81"/>
+      <c r="F63" s="81"/>
+      <c r="G63" s="81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" s="81"/>
+      <c r="I63" s="81"/>
+      <c r="J63" s="81"/>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B64" s="77"/>
+      <c r="C64" s="82" t="s">
+        <v>87</v>
+      </c>
+      <c r="D64" s="82"/>
+      <c r="E64" s="82"/>
+      <c r="F64" s="82"/>
+      <c r="G64" s="82" t="s">
+        <v>67</v>
+      </c>
+      <c r="H64" s="82"/>
+      <c r="I64" s="82"/>
+      <c r="J64" s="82"/>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B65" s="77"/>
+      <c r="C65" s="82" t="s">
+        <v>93</v>
+      </c>
+      <c r="D65" s="82"/>
+      <c r="E65" s="82"/>
+      <c r="F65" s="82"/>
+      <c r="G65" s="82" t="s">
+        <v>58</v>
+      </c>
+      <c r="H65" s="82"/>
+      <c r="I65" s="82"/>
+      <c r="J65" s="82"/>
+    </row>
+    <row r="66" spans="2:10" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B66" s="77"/>
+      <c r="C66" s="82" t="s">
+        <v>102</v>
+      </c>
+      <c r="D66" s="82"/>
+      <c r="E66" s="82"/>
+      <c r="F66" s="82"/>
+      <c r="G66" s="75" t="s">
+        <v>58</v>
+      </c>
+      <c r="H66" s="75"/>
+      <c r="I66" s="75"/>
+      <c r="J66" s="75"/>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B67" s="77"/>
+      <c r="C67" s="82" t="s">
         <v>88</v>
       </c>
-      <c r="D61" s="72"/>
-      <c r="E61" s="72"/>
-      <c r="F61" s="72"/>
-      <c r="G61" s="72" t="s">
+      <c r="D67" s="82"/>
+      <c r="E67" s="82"/>
+      <c r="F67" s="82"/>
+      <c r="G67" s="82" t="s">
         <v>67</v>
       </c>
-      <c r="H61" s="72"/>
-      <c r="I61" s="72"/>
-      <c r="J61" s="72"/>
-    </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B62" s="74"/>
-      <c r="C62" s="72" t="s">
+      <c r="H67" s="82"/>
+      <c r="I67" s="82"/>
+      <c r="J67" s="82"/>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B68" s="77"/>
+      <c r="C68" s="82" t="s">
+        <v>92</v>
+      </c>
+      <c r="D68" s="82"/>
+      <c r="E68" s="82"/>
+      <c r="F68" s="82"/>
+      <c r="G68" s="82" t="s">
+        <v>58</v>
+      </c>
+      <c r="H68" s="82"/>
+      <c r="I68" s="82"/>
+      <c r="J68" s="82"/>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B69" s="77"/>
+      <c r="C69" s="82" t="s">
+        <v>98</v>
+      </c>
+      <c r="D69" s="82"/>
+      <c r="E69" s="82"/>
+      <c r="F69" s="82"/>
+      <c r="G69" s="82" t="s">
+        <v>67</v>
+      </c>
+      <c r="H69" s="82"/>
+      <c r="I69" s="82"/>
+      <c r="J69" s="82"/>
+    </row>
+    <row r="70" spans="2:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B70" s="77"/>
+      <c r="C70" s="82" t="s">
+        <v>95</v>
+      </c>
+      <c r="D70" s="82"/>
+      <c r="E70" s="82"/>
+      <c r="F70" s="82"/>
+      <c r="G70" s="75" t="s">
+        <v>78</v>
+      </c>
+      <c r="H70" s="75"/>
+      <c r="I70" s="75"/>
+      <c r="J70" s="75"/>
+    </row>
+    <row r="71" spans="2:10" ht="113.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B71" s="77"/>
+      <c r="C71" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D71" s="91" t="s">
         <v>94</v>
       </c>
-      <c r="D62" s="72"/>
-      <c r="E62" s="72"/>
-      <c r="F62" s="72"/>
-      <c r="G62" s="72" t="s">
-        <v>58</v>
-      </c>
-      <c r="H62" s="72"/>
-      <c r="I62" s="72"/>
-      <c r="J62" s="72"/>
-    </row>
-    <row r="63" spans="2:10" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B63" s="74"/>
-      <c r="C63" s="72" t="s">
-        <v>103</v>
-      </c>
-      <c r="D63" s="72"/>
-      <c r="E63" s="72"/>
-      <c r="F63" s="72"/>
-      <c r="G63" s="73" t="s">
-        <v>58</v>
-      </c>
-      <c r="H63" s="73"/>
-      <c r="I63" s="73"/>
-      <c r="J63" s="73"/>
-    </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B64" s="74"/>
-      <c r="C64" s="72" t="s">
-        <v>89</v>
-      </c>
-      <c r="D64" s="72"/>
-      <c r="E64" s="72"/>
-      <c r="F64" s="72"/>
-      <c r="G64" s="72" t="s">
-        <v>67</v>
-      </c>
-      <c r="H64" s="72"/>
-      <c r="I64" s="72"/>
-      <c r="J64" s="72"/>
-    </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B65" s="74"/>
-      <c r="C65" s="72" t="s">
-        <v>93</v>
-      </c>
-      <c r="D65" s="72"/>
-      <c r="E65" s="72"/>
-      <c r="F65" s="72"/>
-      <c r="G65" s="72" t="s">
-        <v>58</v>
-      </c>
-      <c r="H65" s="72"/>
-      <c r="I65" s="72"/>
-      <c r="J65" s="72"/>
-    </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B66" s="74"/>
-      <c r="C66" s="72" t="s">
-        <v>99</v>
-      </c>
-      <c r="D66" s="72"/>
-      <c r="E66" s="72"/>
-      <c r="F66" s="72"/>
-      <c r="G66" s="72" t="s">
-        <v>67</v>
-      </c>
-      <c r="H66" s="72"/>
-      <c r="I66" s="72"/>
-      <c r="J66" s="72"/>
-    </row>
-    <row r="67" spans="2:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B67" s="74"/>
-      <c r="C67" s="72" t="s">
-        <v>96</v>
-      </c>
-      <c r="D67" s="72"/>
-      <c r="E67" s="72"/>
-      <c r="F67" s="72"/>
-      <c r="G67" s="73" t="s">
-        <v>78</v>
-      </c>
-      <c r="H67" s="73"/>
-      <c r="I67" s="73"/>
-      <c r="J67" s="73"/>
-    </row>
-    <row r="68" spans="2:10" ht="113.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B68" s="74"/>
-      <c r="C68" s="78" t="s">
-        <v>76</v>
-      </c>
-      <c r="D68" s="79" t="s">
-        <v>95</v>
-      </c>
-      <c r="E68" s="73"/>
-      <c r="F68" s="73"/>
-      <c r="G68" s="73"/>
-      <c r="H68" s="73"/>
-      <c r="I68" s="73"/>
-      <c r="J68" s="73"/>
-    </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B71" s="74" t="s">
-        <v>44</v>
-      </c>
-      <c r="C71" s="75" t="s">
-        <v>47</v>
-      </c>
-      <c r="D71" s="75"/>
       <c r="E71" s="75"/>
       <c r="F71" s="75"/>
-      <c r="G71" s="75" t="s">
-        <v>46</v>
-      </c>
+      <c r="G71" s="75"/>
       <c r="H71" s="75"/>
       <c r="I71" s="75"/>
       <c r="J71" s="75"/>
     </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B72" s="74"/>
-      <c r="C72" s="72" t="s">
+    <row r="74" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B74" s="77" t="s">
+        <v>44</v>
+      </c>
+      <c r="C74" s="81" t="s">
+        <v>47</v>
+      </c>
+      <c r="D74" s="81"/>
+      <c r="E74" s="81"/>
+      <c r="F74" s="81"/>
+      <c r="G74" s="81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" s="81"/>
+      <c r="I74" s="81"/>
+      <c r="J74" s="81"/>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B75" s="77"/>
+      <c r="C75" s="82" t="s">
+        <v>87</v>
+      </c>
+      <c r="D75" s="82"/>
+      <c r="E75" s="82"/>
+      <c r="F75" s="82"/>
+      <c r="G75" s="82" t="s">
+        <v>67</v>
+      </c>
+      <c r="H75" s="82"/>
+      <c r="I75" s="82"/>
+      <c r="J75" s="82"/>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B76" s="77"/>
+      <c r="C76" s="82" t="s">
+        <v>99</v>
+      </c>
+      <c r="D76" s="82"/>
+      <c r="E76" s="82"/>
+      <c r="F76" s="82"/>
+      <c r="G76" s="82" t="s">
+        <v>58</v>
+      </c>
+      <c r="H76" s="82"/>
+      <c r="I76" s="82"/>
+      <c r="J76" s="82"/>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B77" s="77"/>
+      <c r="C77" s="82" t="s">
         <v>88</v>
       </c>
-      <c r="D72" s="72"/>
-      <c r="E72" s="72"/>
-      <c r="F72" s="72"/>
-      <c r="G72" s="72" t="s">
+      <c r="D77" s="82"/>
+      <c r="E77" s="82"/>
+      <c r="F77" s="82"/>
+      <c r="G77" s="82" t="s">
         <v>67</v>
       </c>
-      <c r="H72" s="72"/>
-      <c r="I72" s="72"/>
-      <c r="J72" s="72"/>
-    </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B73" s="74"/>
-      <c r="C73" s="72" t="s">
+      <c r="H77" s="82"/>
+      <c r="I77" s="82"/>
+      <c r="J77" s="82"/>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B78" s="77"/>
+      <c r="C78" s="82" t="s">
+        <v>101</v>
+      </c>
+      <c r="D78" s="82"/>
+      <c r="E78" s="82"/>
+      <c r="F78" s="82"/>
+      <c r="G78" s="82" t="s">
+        <v>78</v>
+      </c>
+      <c r="H78" s="82"/>
+      <c r="I78" s="82"/>
+      <c r="J78" s="82"/>
+    </row>
+    <row r="79" spans="2:10" ht="72.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B79" s="77"/>
+      <c r="C79" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D79" s="91" t="s">
         <v>100</v>
       </c>
-      <c r="D73" s="72"/>
-      <c r="E73" s="72"/>
-      <c r="F73" s="72"/>
-      <c r="G73" s="72" t="s">
-        <v>58</v>
-      </c>
-      <c r="H73" s="72"/>
-      <c r="I73" s="72"/>
-      <c r="J73" s="72"/>
-    </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B74" s="74"/>
-      <c r="C74" s="72" t="s">
-        <v>89</v>
-      </c>
-      <c r="D74" s="72"/>
-      <c r="E74" s="72"/>
-      <c r="F74" s="72"/>
-      <c r="G74" s="72" t="s">
-        <v>67</v>
-      </c>
-      <c r="H74" s="72"/>
-      <c r="I74" s="72"/>
-      <c r="J74" s="72"/>
-    </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B75" s="74"/>
-      <c r="C75" s="72" t="s">
-        <v>102</v>
-      </c>
-      <c r="D75" s="72"/>
-      <c r="E75" s="72"/>
-      <c r="F75" s="72"/>
-      <c r="G75" s="72" t="s">
-        <v>78</v>
-      </c>
-      <c r="H75" s="72"/>
-      <c r="I75" s="72"/>
-      <c r="J75" s="72"/>
-    </row>
-    <row r="76" spans="2:10" ht="72.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B76" s="74"/>
-      <c r="C76" s="78" t="s">
+      <c r="E79" s="75"/>
+      <c r="F79" s="75"/>
+      <c r="G79" s="75"/>
+      <c r="H79" s="75"/>
+      <c r="I79" s="75"/>
+      <c r="J79" s="75"/>
+    </row>
+    <row r="81" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B82" s="67" t="s">
+        <v>103</v>
+      </c>
+      <c r="C82" s="68"/>
+      <c r="D82" s="69"/>
+    </row>
+    <row r="83" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B83" s="70"/>
+      <c r="C83" s="71"/>
+      <c r="D83" s="72"/>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B84" s="15"/>
+      <c r="C84" s="15"/>
+      <c r="D84" s="15"/>
+      <c r="E84" s="15"/>
+      <c r="F84" s="15"/>
+      <c r="G84" s="15"/>
+      <c r="H84" s="15"/>
+      <c r="I84" s="15"/>
+      <c r="J84" s="15"/>
+    </row>
+    <row r="85" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B85" s="92" t="s">
+        <v>120</v>
+      </c>
+      <c r="C85" s="81" t="s">
+        <v>47</v>
+      </c>
+      <c r="D85" s="81"/>
+      <c r="E85" s="81"/>
+      <c r="F85" s="81"/>
+      <c r="G85" s="81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" s="81"/>
+      <c r="I85" s="81"/>
+      <c r="J85" s="81"/>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B86" s="93"/>
+      <c r="C86" s="82" t="s">
+        <v>121</v>
+      </c>
+      <c r="D86" s="82"/>
+      <c r="E86" s="82"/>
+      <c r="F86" s="82"/>
+      <c r="G86" s="82" t="s">
+        <v>117</v>
+      </c>
+      <c r="H86" s="82"/>
+      <c r="I86" s="82"/>
+      <c r="J86" s="82"/>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B87" s="93"/>
+      <c r="C87" s="95" t="s">
+        <v>122</v>
+      </c>
+      <c r="D87" s="96"/>
+      <c r="E87" s="96"/>
+      <c r="F87" s="97"/>
+      <c r="G87" s="95" t="s">
+        <v>123</v>
+      </c>
+      <c r="H87" s="96"/>
+      <c r="I87" s="96"/>
+      <c r="J87" s="97"/>
+    </row>
+    <row r="88" spans="2:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B88" s="93"/>
+      <c r="C88" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="D76" s="79" t="s">
-        <v>101</v>
-      </c>
-      <c r="E76" s="73"/>
-      <c r="F76" s="73"/>
-      <c r="G76" s="73"/>
-      <c r="H76" s="73"/>
-      <c r="I76" s="73"/>
-      <c r="J76" s="73"/>
-    </row>
-    <row r="78" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B79" s="80" t="s">
-        <v>104</v>
-      </c>
-      <c r="C79" s="81"/>
-      <c r="D79" s="82"/>
-    </row>
-    <row r="80" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B80" s="83"/>
-      <c r="C80" s="84"/>
-      <c r="D80" s="85"/>
-    </row>
-    <row r="82" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B82" s="105" t="s">
-        <v>123</v>
-      </c>
-      <c r="C82" s="105"/>
-      <c r="D82" s="105"/>
-      <c r="E82" s="105"/>
-      <c r="F82" s="105"/>
-      <c r="G82" s="105"/>
-      <c r="H82" s="105"/>
-      <c r="I82" s="105"/>
-      <c r="J82" s="105"/>
-    </row>
-    <row r="83" spans="2:10" ht="206.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B83" s="104" t="s">
-        <v>122</v>
-      </c>
-      <c r="C83" s="104"/>
-      <c r="D83" s="104"/>
-      <c r="E83" s="104"/>
-      <c r="F83" s="104"/>
-      <c r="G83" s="104"/>
-      <c r="H83" s="104"/>
-      <c r="I83" s="104"/>
-      <c r="J83" s="104"/>
-    </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B84" s="103"/>
-      <c r="C84" s="103"/>
-      <c r="D84" s="103"/>
-      <c r="E84" s="103"/>
-      <c r="F84" s="103"/>
-      <c r="G84" s="103"/>
-      <c r="H84" s="103"/>
-      <c r="I84" s="103"/>
-      <c r="J84" s="103"/>
-    </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B85" s="103"/>
-      <c r="C85" s="103"/>
-      <c r="D85" s="103"/>
-      <c r="E85" s="103"/>
-      <c r="F85" s="103"/>
-      <c r="G85" s="103"/>
-      <c r="H85" s="103"/>
-      <c r="I85" s="103"/>
-      <c r="J85" s="103"/>
-    </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B86" s="103"/>
-      <c r="C86" s="103"/>
-      <c r="D86" s="103"/>
-      <c r="E86" s="103"/>
-      <c r="F86" s="103"/>
-      <c r="G86" s="103"/>
-      <c r="H86" s="103"/>
-      <c r="I86" s="103"/>
-      <c r="J86" s="103"/>
-    </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B87" s="103"/>
-      <c r="C87" s="103"/>
-      <c r="D87" s="103"/>
-      <c r="E87" s="103"/>
-      <c r="F87" s="103"/>
-      <c r="G87" s="103"/>
-      <c r="H87" s="103"/>
-      <c r="I87" s="103"/>
-      <c r="J87" s="103"/>
-    </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B88" s="103"/>
-      <c r="C88" s="103"/>
-      <c r="D88" s="103"/>
-      <c r="E88" s="103"/>
-      <c r="F88" s="103"/>
-      <c r="G88" s="103"/>
-      <c r="H88" s="103"/>
-      <c r="I88" s="103"/>
-      <c r="J88" s="103"/>
+      <c r="D88" s="91" t="s">
+        <v>124</v>
+      </c>
+      <c r="E88" s="75"/>
+      <c r="F88" s="75"/>
+      <c r="G88" s="75"/>
+      <c r="H88" s="75"/>
+      <c r="I88" s="75"/>
+      <c r="J88" s="75"/>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B89" s="103"/>
-      <c r="C89" s="103"/>
-      <c r="D89" s="103"/>
-      <c r="E89" s="103"/>
-      <c r="F89" s="103"/>
-      <c r="G89" s="103"/>
-      <c r="H89" s="103"/>
-      <c r="I89" s="103"/>
-      <c r="J89" s="103"/>
-    </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B90" s="99"/>
-      <c r="C90" s="99"/>
-      <c r="D90" s="99"/>
-      <c r="E90" s="99"/>
-      <c r="F90" s="99"/>
-      <c r="G90" s="99"/>
-      <c r="H90" s="99"/>
-      <c r="I90" s="99"/>
-      <c r="J90" s="99"/>
-    </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B91" s="99"/>
-      <c r="C91" s="99"/>
-      <c r="D91" s="99"/>
-      <c r="E91" s="99"/>
-      <c r="F91" s="99"/>
-      <c r="G91" s="99"/>
-      <c r="H91" s="99"/>
-      <c r="I91" s="99"/>
-      <c r="J91" s="99"/>
+      <c r="B89" s="94"/>
+      <c r="C89" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D89" s="91" t="s">
+        <v>125</v>
+      </c>
+      <c r="E89" s="75"/>
+      <c r="F89" s="75"/>
+      <c r="G89" s="75"/>
+      <c r="H89" s="75"/>
+      <c r="I89" s="75"/>
+      <c r="J89" s="75"/>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B92" s="99"/>
-      <c r="C92" s="99"/>
-      <c r="D92" s="99"/>
-      <c r="E92" s="99"/>
-      <c r="F92" s="99"/>
-      <c r="G92" s="99"/>
-      <c r="H92" s="99"/>
-      <c r="I92" s="99"/>
-      <c r="J92" s="99"/>
-    </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B93" s="99"/>
-      <c r="C93" s="99"/>
-      <c r="D93" s="99"/>
-      <c r="E93" s="99"/>
-      <c r="F93" s="99"/>
-      <c r="G93" s="99"/>
-      <c r="H93" s="99"/>
-      <c r="I93" s="99"/>
-      <c r="J93" s="99"/>
+      <c r="B92" s="92" t="s">
+        <v>127</v>
+      </c>
+      <c r="C92" s="81" t="s">
+        <v>47</v>
+      </c>
+      <c r="D92" s="81"/>
+      <c r="E92" s="81"/>
+      <c r="F92" s="81"/>
+      <c r="G92" s="81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" s="81"/>
+      <c r="I92" s="81"/>
+      <c r="J92" s="81"/>
+    </row>
+    <row r="93" spans="2:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B93" s="93"/>
+      <c r="C93" s="82" t="s">
+        <v>135</v>
+      </c>
+      <c r="D93" s="82"/>
+      <c r="E93" s="82"/>
+      <c r="F93" s="82"/>
+      <c r="G93" s="75" t="s">
+        <v>136</v>
+      </c>
+      <c r="H93" s="75"/>
+      <c r="I93" s="75"/>
+      <c r="J93" s="75"/>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B94" s="99"/>
-      <c r="C94" s="99"/>
-      <c r="D94" s="99"/>
-      <c r="E94" s="99"/>
-      <c r="F94" s="99"/>
-      <c r="G94" s="99"/>
-      <c r="H94" s="99"/>
-      <c r="I94" s="99"/>
-      <c r="J94" s="99"/>
-    </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B95" s="99"/>
-      <c r="C95" s="99"/>
-      <c r="D95" s="99"/>
-      <c r="E95" s="99"/>
-      <c r="F95" s="99"/>
-      <c r="G95" s="99"/>
-      <c r="H95" s="99"/>
-      <c r="I95" s="99"/>
-      <c r="J95" s="99"/>
+      <c r="B94" s="93"/>
+      <c r="C94" s="78" t="s">
+        <v>128</v>
+      </c>
+      <c r="D94" s="89"/>
+      <c r="E94" s="89"/>
+      <c r="F94" s="90"/>
+      <c r="G94" s="95" t="s">
+        <v>129</v>
+      </c>
+      <c r="H94" s="96"/>
+      <c r="I94" s="96"/>
+      <c r="J94" s="97"/>
+    </row>
+    <row r="95" spans="2:10" s="9" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B95" s="93"/>
+      <c r="C95" s="78" t="s">
+        <v>130</v>
+      </c>
+      <c r="D95" s="79"/>
+      <c r="E95" s="79"/>
+      <c r="F95" s="80"/>
+      <c r="G95" s="78" t="s">
+        <v>131</v>
+      </c>
+      <c r="H95" s="79"/>
+      <c r="I95" s="79"/>
+      <c r="J95" s="80"/>
+    </row>
+    <row r="96" spans="2:10" s="9" customFormat="1" ht="339" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B96" s="93"/>
+      <c r="C96" s="78" t="s">
+        <v>137</v>
+      </c>
+      <c r="D96" s="79"/>
+      <c r="E96" s="79"/>
+      <c r="F96" s="80"/>
+      <c r="G96" s="78" t="s">
+        <v>132</v>
+      </c>
+      <c r="H96" s="79"/>
+      <c r="I96" s="79"/>
+      <c r="J96" s="80"/>
+    </row>
+    <row r="97" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B97" s="93"/>
+      <c r="C97" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D97" s="91" t="s">
+        <v>138</v>
+      </c>
+      <c r="E97" s="75"/>
+      <c r="F97" s="75"/>
+      <c r="G97" s="75"/>
+      <c r="H97" s="75"/>
+      <c r="I97" s="75"/>
+      <c r="J97" s="75"/>
+    </row>
+    <row r="98" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B98" s="94"/>
+      <c r="C98" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D98" s="91" t="s">
+        <v>139</v>
+      </c>
+      <c r="E98" s="75"/>
+      <c r="F98" s="75"/>
+      <c r="G98" s="75"/>
+      <c r="H98" s="75"/>
+      <c r="I98" s="75"/>
+      <c r="J98" s="75"/>
+    </row>
+    <row r="101" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B101" s="92" t="s">
+        <v>134</v>
+      </c>
+      <c r="C101" s="81" t="s">
+        <v>47</v>
+      </c>
+      <c r="D101" s="81"/>
+      <c r="E101" s="81"/>
+      <c r="F101" s="81"/>
+      <c r="G101" s="81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" s="81"/>
+      <c r="I101" s="81"/>
+      <c r="J101" s="81"/>
+    </row>
+    <row r="102" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B102" s="93"/>
+      <c r="C102" s="82" t="s">
+        <v>140</v>
+      </c>
+      <c r="D102" s="82"/>
+      <c r="E102" s="82"/>
+      <c r="F102" s="82"/>
+      <c r="G102" s="82" t="s">
+        <v>141</v>
+      </c>
+      <c r="H102" s="82"/>
+      <c r="I102" s="82"/>
+      <c r="J102" s="82"/>
+    </row>
+    <row r="103" spans="2:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B103" s="94"/>
+      <c r="C103" s="78" t="s">
+        <v>166</v>
+      </c>
+      <c r="D103" s="79"/>
+      <c r="E103" s="79"/>
+      <c r="F103" s="80"/>
+      <c r="G103" s="78" t="s">
+        <v>142</v>
+      </c>
+      <c r="H103" s="79"/>
+      <c r="I103" s="79"/>
+      <c r="J103" s="80"/>
+    </row>
+    <row r="105" spans="2:10" s="9" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="106" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B106" s="77" t="s">
+        <v>144</v>
+      </c>
+      <c r="C106" s="81" t="s">
+        <v>47</v>
+      </c>
+      <c r="D106" s="81"/>
+      <c r="E106" s="81"/>
+      <c r="F106" s="81"/>
+      <c r="G106" s="81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H106" s="81"/>
+      <c r="I106" s="81"/>
+      <c r="J106" s="81"/>
+    </row>
+    <row r="107" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B107" s="77"/>
+      <c r="C107" s="82" t="s">
+        <v>145</v>
+      </c>
+      <c r="D107" s="82"/>
+      <c r="E107" s="82"/>
+      <c r="F107" s="82"/>
+      <c r="G107" s="75" t="s">
+        <v>147</v>
+      </c>
+      <c r="H107" s="75"/>
+      <c r="I107" s="75"/>
+      <c r="J107" s="75"/>
+    </row>
+    <row r="108" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B108" s="77"/>
+      <c r="C108" s="78" t="s">
+        <v>146</v>
+      </c>
+      <c r="D108" s="79"/>
+      <c r="E108" s="79"/>
+      <c r="F108" s="80"/>
+      <c r="G108" s="78" t="s">
+        <v>117</v>
+      </c>
+      <c r="H108" s="79"/>
+      <c r="I108" s="79"/>
+      <c r="J108" s="80"/>
+    </row>
+    <row r="109" spans="2:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B109" s="77"/>
+      <c r="C109" s="75" t="s">
+        <v>148</v>
+      </c>
+      <c r="D109" s="75"/>
+      <c r="E109" s="75"/>
+      <c r="F109" s="75"/>
+      <c r="G109" s="75" t="s">
+        <v>117</v>
+      </c>
+      <c r="H109" s="75"/>
+      <c r="I109" s="75"/>
+      <c r="J109" s="75"/>
+    </row>
+    <row r="110" spans="2:10" ht="39" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B110" s="77"/>
+      <c r="C110" s="78" t="s">
+        <v>149</v>
+      </c>
+      <c r="D110" s="79"/>
+      <c r="E110" s="79"/>
+      <c r="F110" s="80"/>
+      <c r="G110" s="78" t="s">
+        <v>152</v>
+      </c>
+      <c r="H110" s="89"/>
+      <c r="I110" s="89"/>
+      <c r="J110" s="90"/>
+    </row>
+    <row r="111" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B111" s="77"/>
+      <c r="C111" s="75" t="s">
+        <v>150</v>
+      </c>
+      <c r="D111" s="73"/>
+      <c r="E111" s="73"/>
+      <c r="F111" s="73"/>
+      <c r="G111" s="75" t="s">
+        <v>117</v>
+      </c>
+      <c r="H111" s="75"/>
+      <c r="I111" s="75"/>
+      <c r="J111" s="75"/>
+    </row>
+    <row r="112" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B112" s="77"/>
+      <c r="C112" s="75" t="s">
+        <v>151</v>
+      </c>
+      <c r="D112" s="73"/>
+      <c r="E112" s="73"/>
+      <c r="F112" s="73"/>
+      <c r="G112" s="75" t="s">
+        <v>117</v>
+      </c>
+      <c r="H112" s="75"/>
+      <c r="I112" s="75"/>
+      <c r="J112" s="75"/>
+    </row>
+    <row r="113" spans="2:10" s="9" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B113" s="77"/>
+      <c r="C113" s="78" t="s">
+        <v>170</v>
+      </c>
+      <c r="D113" s="79"/>
+      <c r="E113" s="79"/>
+      <c r="F113" s="80"/>
+      <c r="G113" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="H113" s="79"/>
+      <c r="I113" s="79"/>
+      <c r="J113" s="80"/>
+    </row>
+    <row r="114" spans="2:10" s="9" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B114" s="77"/>
+      <c r="C114" s="78" t="s">
+        <v>175</v>
+      </c>
+      <c r="D114" s="79"/>
+      <c r="E114" s="79"/>
+      <c r="F114" s="80"/>
+      <c r="G114" s="78" t="s">
+        <v>142</v>
+      </c>
+      <c r="H114" s="79"/>
+      <c r="I114" s="79"/>
+      <c r="J114" s="80"/>
+    </row>
+    <row r="115" spans="2:10" s="9" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B115" s="77"/>
+      <c r="C115" s="78" t="s">
+        <v>165</v>
+      </c>
+      <c r="D115" s="79"/>
+      <c r="E115" s="79"/>
+      <c r="F115" s="80"/>
+      <c r="G115" s="78" t="s">
+        <v>142</v>
+      </c>
+      <c r="H115" s="79"/>
+      <c r="I115" s="79"/>
+      <c r="J115" s="80"/>
+    </row>
+    <row r="116" spans="2:10" s="9" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B116" s="77"/>
+      <c r="C116" s="75" t="s">
+        <v>157</v>
+      </c>
+      <c r="D116" s="75"/>
+      <c r="E116" s="75"/>
+      <c r="F116" s="75"/>
+      <c r="G116" s="75" t="s">
+        <v>117</v>
+      </c>
+      <c r="H116" s="75"/>
+      <c r="I116" s="75"/>
+      <c r="J116" s="75"/>
+    </row>
+    <row r="117" spans="2:10" s="9" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B117" s="77"/>
+      <c r="C117" s="76" t="s">
+        <v>160</v>
+      </c>
+      <c r="D117" s="76"/>
+      <c r="E117" s="76"/>
+      <c r="F117" s="76"/>
+      <c r="G117" s="75" t="s">
+        <v>117</v>
+      </c>
+      <c r="H117" s="75"/>
+      <c r="I117" s="75"/>
+      <c r="J117" s="75"/>
+    </row>
+    <row r="118" spans="2:10" s="9" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B118" s="77"/>
+      <c r="C118" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="D118" s="73" t="s">
+        <v>159</v>
+      </c>
+      <c r="E118" s="73"/>
+      <c r="F118" s="73"/>
+      <c r="G118" s="73"/>
+      <c r="H118" s="73"/>
+      <c r="I118" s="73"/>
+      <c r="J118" s="73"/>
+    </row>
+    <row r="120" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="121" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B121" s="67" t="s">
+        <v>154</v>
+      </c>
+      <c r="C121" s="68"/>
+      <c r="D121" s="69"/>
+    </row>
+    <row r="122" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B122" s="70"/>
+      <c r="C122" s="71"/>
+      <c r="D122" s="72"/>
+    </row>
+    <row r="124" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B124" s="77" t="s">
+        <v>156</v>
+      </c>
+      <c r="C124" s="81" t="s">
+        <v>47</v>
+      </c>
+      <c r="D124" s="81"/>
+      <c r="E124" s="81"/>
+      <c r="F124" s="81"/>
+      <c r="G124" s="81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H124" s="81"/>
+      <c r="I124" s="81"/>
+      <c r="J124" s="81"/>
+    </row>
+    <row r="125" spans="2:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B125" s="77"/>
+      <c r="C125" s="82" t="s">
+        <v>161</v>
+      </c>
+      <c r="D125" s="82"/>
+      <c r="E125" s="82"/>
+      <c r="F125" s="82"/>
+      <c r="G125" s="75" t="s">
+        <v>155</v>
+      </c>
+      <c r="H125" s="75"/>
+      <c r="I125" s="75"/>
+      <c r="J125" s="75"/>
+    </row>
+    <row r="126" spans="2:10" s="9" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B126" s="77"/>
+      <c r="C126" s="78" t="s">
+        <v>162</v>
+      </c>
+      <c r="D126" s="79"/>
+      <c r="E126" s="79"/>
+      <c r="F126" s="80"/>
+      <c r="G126" s="75" t="s">
+        <v>155</v>
+      </c>
+      <c r="H126" s="75"/>
+      <c r="I126" s="75"/>
+      <c r="J126" s="75"/>
+    </row>
+    <row r="127" spans="2:10" ht="130.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B127" s="77"/>
+      <c r="C127" s="78" t="s">
+        <v>163</v>
+      </c>
+      <c r="D127" s="79"/>
+      <c r="E127" s="79"/>
+      <c r="F127" s="80"/>
+      <c r="G127" s="78" t="s">
+        <v>164</v>
+      </c>
+      <c r="H127" s="79"/>
+      <c r="I127" s="79"/>
+      <c r="J127" s="80"/>
+    </row>
+    <row r="130" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B130" s="77" t="s">
+        <v>168</v>
+      </c>
+      <c r="C130" s="81" t="s">
+        <v>47</v>
+      </c>
+      <c r="D130" s="81"/>
+      <c r="E130" s="81"/>
+      <c r="F130" s="81"/>
+      <c r="G130" s="81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H130" s="81"/>
+      <c r="I130" s="81"/>
+      <c r="J130" s="81"/>
+    </row>
+    <row r="131" spans="2:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B131" s="77"/>
+      <c r="C131" s="82" t="s">
+        <v>169</v>
+      </c>
+      <c r="D131" s="82"/>
+      <c r="E131" s="82"/>
+      <c r="F131" s="82"/>
+      <c r="G131" s="75" t="s">
+        <v>117</v>
+      </c>
+      <c r="H131" s="75"/>
+      <c r="I131" s="75"/>
+      <c r="J131" s="75"/>
+    </row>
+    <row r="132" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B132" s="77"/>
+      <c r="C132" s="83" t="s">
+        <v>172</v>
+      </c>
+      <c r="D132" s="84"/>
+      <c r="E132" s="84"/>
+      <c r="F132" s="84"/>
+      <c r="G132" s="84"/>
+      <c r="H132" s="84"/>
+      <c r="I132" s="84"/>
+      <c r="J132" s="85"/>
+    </row>
+    <row r="133" spans="2:10" ht="150.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B133" s="77"/>
+      <c r="C133" s="86"/>
+      <c r="D133" s="87"/>
+      <c r="E133" s="87"/>
+      <c r="F133" s="87"/>
+      <c r="G133" s="87"/>
+      <c r="H133" s="87"/>
+      <c r="I133" s="87"/>
+      <c r="J133" s="88"/>
+    </row>
+    <row r="135" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="136" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B136" s="67" t="s">
+        <v>176</v>
+      </c>
+      <c r="C136" s="68"/>
+      <c r="D136" s="69"/>
+    </row>
+    <row r="137" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B137" s="70"/>
+      <c r="C137" s="71"/>
+      <c r="D137" s="72"/>
+      <c r="E137" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="139" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B139" s="74" t="s">
+        <v>177</v>
+      </c>
+      <c r="C139" s="74"/>
+      <c r="D139" s="74" t="s">
+        <v>178</v>
+      </c>
+      <c r="E139" s="74"/>
+      <c r="F139" s="74"/>
+      <c r="G139" s="74"/>
+      <c r="H139" s="74"/>
+      <c r="I139" s="74"/>
+      <c r="J139" s="74"/>
+    </row>
+    <row r="140" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B140" s="73" t="s">
+        <v>179</v>
+      </c>
+      <c r="C140" s="73"/>
+      <c r="D140" s="73" t="s">
+        <v>180</v>
+      </c>
+      <c r="E140" s="73"/>
+      <c r="F140" s="73"/>
+      <c r="G140" s="73"/>
+      <c r="H140" s="73"/>
+      <c r="I140" s="73"/>
+      <c r="J140" s="73"/>
+    </row>
+    <row r="141" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B141" s="73" t="s">
+        <v>185</v>
+      </c>
+      <c r="C141" s="73"/>
+      <c r="D141" s="73" t="s">
+        <v>186</v>
+      </c>
+      <c r="E141" s="73"/>
+      <c r="F141" s="73"/>
+      <c r="G141" s="73"/>
+      <c r="H141" s="73"/>
+      <c r="I141" s="73"/>
+      <c r="J141" s="73"/>
+    </row>
+    <row r="142" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B142" s="73" t="s">
+        <v>182</v>
+      </c>
+      <c r="C142" s="73"/>
+      <c r="D142" s="73" t="s">
+        <v>183</v>
+      </c>
+      <c r="E142" s="73"/>
+      <c r="F142" s="73"/>
+      <c r="G142" s="73"/>
+      <c r="H142" s="73"/>
+      <c r="I142" s="73"/>
+      <c r="J142" s="73"/>
+    </row>
+    <row r="143" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B143" s="73" t="s">
+        <v>184</v>
+      </c>
+      <c r="C143" s="73"/>
+      <c r="D143" s="73" t="s">
+        <v>181</v>
+      </c>
+      <c r="E143" s="73"/>
+      <c r="F143" s="73"/>
+      <c r="G143" s="73"/>
+      <c r="H143" s="73"/>
+      <c r="I143" s="73"/>
+      <c r="J143" s="73"/>
+    </row>
+    <row r="144" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B144" s="73" t="s">
+        <v>187</v>
+      </c>
+      <c r="C144" s="73"/>
+      <c r="D144" s="73" t="s">
+        <v>188</v>
+      </c>
+      <c r="E144" s="73"/>
+      <c r="F144" s="73"/>
+      <c r="G144" s="73"/>
+      <c r="H144" s="73"/>
+      <c r="I144" s="73"/>
+      <c r="J144" s="73"/>
+    </row>
+    <row r="145" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B145" s="73"/>
+      <c r="C145" s="73"/>
+      <c r="D145" s="73"/>
+      <c r="E145" s="73"/>
+      <c r="F145" s="73"/>
+      <c r="G145" s="73"/>
+      <c r="H145" s="73"/>
+      <c r="I145" s="73"/>
+      <c r="J145" s="73"/>
     </row>
   </sheetData>
-  <mergeCells count="110">
-    <mergeCell ref="B90:J91"/>
-    <mergeCell ref="B92:J93"/>
-    <mergeCell ref="B94:J95"/>
+  <mergeCells count="196">
     <mergeCell ref="C8:J8"/>
     <mergeCell ref="C9:J9"/>
     <mergeCell ref="C10:J10"/>
     <mergeCell ref="C11:J11"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B82:J82"/>
-    <mergeCell ref="B83:J83"/>
-    <mergeCell ref="B79:D80"/>
+    <mergeCell ref="B82:D83"/>
+    <mergeCell ref="C69:F69"/>
+    <mergeCell ref="G69:J69"/>
     <mergeCell ref="C66:F66"/>
     <mergeCell ref="G66:J66"/>
-    <mergeCell ref="C63:F63"/>
-    <mergeCell ref="G63:J63"/>
-    <mergeCell ref="C67:F67"/>
-    <mergeCell ref="G67:J67"/>
-    <mergeCell ref="B71:B76"/>
-    <mergeCell ref="C71:F71"/>
-    <mergeCell ref="G71:J71"/>
-    <mergeCell ref="C72:F72"/>
-    <mergeCell ref="G72:J72"/>
-    <mergeCell ref="C73:F73"/>
-    <mergeCell ref="G73:J73"/>
+    <mergeCell ref="C70:F70"/>
+    <mergeCell ref="G70:J70"/>
+    <mergeCell ref="B74:B79"/>
     <mergeCell ref="C74:F74"/>
     <mergeCell ref="G74:J74"/>
     <mergeCell ref="C75:F75"/>
     <mergeCell ref="G75:J75"/>
-    <mergeCell ref="D76:J76"/>
-    <mergeCell ref="C54:F54"/>
-    <mergeCell ref="G54:J54"/>
-    <mergeCell ref="C56:F56"/>
-    <mergeCell ref="G56:J56"/>
-    <mergeCell ref="G42:J42"/>
-    <mergeCell ref="D43:J43"/>
-    <mergeCell ref="D49:J49"/>
-    <mergeCell ref="D57:J57"/>
-    <mergeCell ref="B60:B68"/>
-    <mergeCell ref="C60:F60"/>
-    <mergeCell ref="G60:J60"/>
-    <mergeCell ref="C61:F61"/>
-    <mergeCell ref="G61:J61"/>
-    <mergeCell ref="C62:F62"/>
-    <mergeCell ref="G62:J62"/>
+    <mergeCell ref="C76:F76"/>
+    <mergeCell ref="G76:J76"/>
+    <mergeCell ref="C77:F77"/>
+    <mergeCell ref="G77:J77"/>
+    <mergeCell ref="C78:F78"/>
+    <mergeCell ref="G78:J78"/>
+    <mergeCell ref="D79:J79"/>
+    <mergeCell ref="C57:F57"/>
+    <mergeCell ref="G57:J57"/>
+    <mergeCell ref="C59:F59"/>
+    <mergeCell ref="G59:J59"/>
+    <mergeCell ref="B63:B71"/>
+    <mergeCell ref="C63:F63"/>
+    <mergeCell ref="G63:J63"/>
+    <mergeCell ref="C64:F64"/>
+    <mergeCell ref="G64:J64"/>
     <mergeCell ref="C65:F65"/>
     <mergeCell ref="G65:J65"/>
-    <mergeCell ref="D68:J68"/>
-    <mergeCell ref="C64:F64"/>
-    <mergeCell ref="G64:J64"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="B52:B57"/>
-    <mergeCell ref="C52:F52"/>
-    <mergeCell ref="G52:J52"/>
-    <mergeCell ref="C53:F53"/>
-    <mergeCell ref="G53:J53"/>
-    <mergeCell ref="C55:F55"/>
-    <mergeCell ref="G55:J55"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="G46:J46"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="G47:J47"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="G48:J48"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="G39:J39"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="G40:J40"/>
+    <mergeCell ref="C68:F68"/>
+    <mergeCell ref="G68:J68"/>
+    <mergeCell ref="D71:J71"/>
+    <mergeCell ref="C67:F67"/>
+    <mergeCell ref="G67:J67"/>
+    <mergeCell ref="B41:B46"/>
     <mergeCell ref="C41:F41"/>
     <mergeCell ref="G41:J41"/>
     <mergeCell ref="C42:F42"/>
+    <mergeCell ref="G42:J42"/>
+    <mergeCell ref="G44:J44"/>
+    <mergeCell ref="D46:J46"/>
+    <mergeCell ref="D52:J52"/>
+    <mergeCell ref="D60:J60"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="G45:J45"/>
+    <mergeCell ref="B55:B60"/>
+    <mergeCell ref="C55:F55"/>
+    <mergeCell ref="G55:J55"/>
+    <mergeCell ref="C56:F56"/>
+    <mergeCell ref="G56:J56"/>
+    <mergeCell ref="C58:F58"/>
+    <mergeCell ref="G58:J58"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="G49:J49"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="G50:J50"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="G51:J51"/>
+    <mergeCell ref="C44:F44"/>
     <mergeCell ref="G34:J34"/>
     <mergeCell ref="C35:F35"/>
     <mergeCell ref="G35:J35"/>
@@ -4441,6 +6388,36 @@
     <mergeCell ref="G24:J24"/>
     <mergeCell ref="G25:J25"/>
     <mergeCell ref="G26:J26"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="D37:J37"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="E14:J14"/>
+    <mergeCell ref="E15:J15"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="G43:J43"/>
+    <mergeCell ref="G86:J86"/>
+    <mergeCell ref="C87:F87"/>
+    <mergeCell ref="G87:J87"/>
+    <mergeCell ref="D88:J88"/>
+    <mergeCell ref="B2:J3"/>
+    <mergeCell ref="B5:D6"/>
+    <mergeCell ref="B19:D20"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="E16:J16"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="D38:J38"/>
     <mergeCell ref="B22:B31"/>
     <mergeCell ref="C23:F23"/>
     <mergeCell ref="C24:F24"/>
@@ -4451,21 +6428,88 @@
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="E13:J13"/>
-    <mergeCell ref="E14:J14"/>
-    <mergeCell ref="E15:J15"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="D36:J36"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="G31:J31"/>
-    <mergeCell ref="B2:J3"/>
-    <mergeCell ref="B5:D6"/>
-    <mergeCell ref="B19:D20"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="E16:J16"/>
+    <mergeCell ref="B92:B98"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="C101:F101"/>
+    <mergeCell ref="G101:J101"/>
+    <mergeCell ref="C102:F102"/>
+    <mergeCell ref="G102:J102"/>
+    <mergeCell ref="C103:F103"/>
+    <mergeCell ref="G103:J103"/>
+    <mergeCell ref="D89:J89"/>
+    <mergeCell ref="B85:B89"/>
+    <mergeCell ref="C92:F92"/>
+    <mergeCell ref="G92:J92"/>
+    <mergeCell ref="C93:F93"/>
+    <mergeCell ref="G93:J93"/>
+    <mergeCell ref="C94:F94"/>
+    <mergeCell ref="G94:J94"/>
+    <mergeCell ref="D97:J97"/>
+    <mergeCell ref="C95:F95"/>
+    <mergeCell ref="G95:J95"/>
+    <mergeCell ref="C96:F96"/>
+    <mergeCell ref="G96:J96"/>
+    <mergeCell ref="C85:F85"/>
+    <mergeCell ref="G85:J85"/>
+    <mergeCell ref="C86:F86"/>
+    <mergeCell ref="C106:F106"/>
+    <mergeCell ref="G106:J106"/>
+    <mergeCell ref="C107:F107"/>
+    <mergeCell ref="G107:J107"/>
+    <mergeCell ref="C108:F108"/>
+    <mergeCell ref="G108:J108"/>
+    <mergeCell ref="C109:F109"/>
+    <mergeCell ref="G109:J109"/>
+    <mergeCell ref="D98:J98"/>
+    <mergeCell ref="C127:F127"/>
+    <mergeCell ref="G127:J127"/>
+    <mergeCell ref="C126:F126"/>
+    <mergeCell ref="G126:J126"/>
+    <mergeCell ref="C110:F110"/>
+    <mergeCell ref="G110:J110"/>
+    <mergeCell ref="C111:F111"/>
+    <mergeCell ref="G111:J111"/>
+    <mergeCell ref="C112:F112"/>
+    <mergeCell ref="G112:J112"/>
+    <mergeCell ref="C116:F116"/>
+    <mergeCell ref="G116:J116"/>
+    <mergeCell ref="D118:J118"/>
+    <mergeCell ref="C117:F117"/>
+    <mergeCell ref="G117:J117"/>
+    <mergeCell ref="B106:B118"/>
+    <mergeCell ref="C115:F115"/>
+    <mergeCell ref="G115:J115"/>
+    <mergeCell ref="B130:B133"/>
+    <mergeCell ref="C130:F130"/>
+    <mergeCell ref="G130:J130"/>
+    <mergeCell ref="C131:F131"/>
+    <mergeCell ref="G131:J131"/>
+    <mergeCell ref="C132:J133"/>
+    <mergeCell ref="C113:F113"/>
+    <mergeCell ref="G113:J113"/>
+    <mergeCell ref="C114:F114"/>
+    <mergeCell ref="G114:J114"/>
+    <mergeCell ref="B121:D122"/>
+    <mergeCell ref="B124:B127"/>
+    <mergeCell ref="C124:F124"/>
+    <mergeCell ref="G124:J124"/>
+    <mergeCell ref="C125:F125"/>
+    <mergeCell ref="G125:J125"/>
+    <mergeCell ref="B143:C143"/>
+    <mergeCell ref="D143:J143"/>
+    <mergeCell ref="B144:C144"/>
+    <mergeCell ref="D144:J144"/>
+    <mergeCell ref="B145:C145"/>
+    <mergeCell ref="D145:J145"/>
+    <mergeCell ref="B136:D137"/>
+    <mergeCell ref="B139:C139"/>
+    <mergeCell ref="D139:J139"/>
+    <mergeCell ref="B140:C140"/>
+    <mergeCell ref="D140:J140"/>
+    <mergeCell ref="B141:C141"/>
+    <mergeCell ref="D141:J141"/>
+    <mergeCell ref="B142:C142"/>
+    <mergeCell ref="D142:J142"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -4474,6 +6518,7 @@
     <hyperlink ref="C11:J11" r:id="rId3" location="Default_Arguments" display="Google"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -4493,28 +6538,28 @@
   <sheetData>
     <row r="1" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="12"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="18"/>
     </row>
     <row r="3" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="13"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="15"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/書類やスケジュール/タワーディフェンス・コーディングルール.xlsx
+++ b/書類やスケジュール/タワーディフェンス・コーディングルール.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="概要&amp;更新履歴" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="259">
   <si>
     <t>目次</t>
     <rPh sb="0" eb="2">
@@ -2614,15 +2614,520 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>ブランチ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>feature/作業ファイル名/イニシャル-日付-時間(24時間表記)
+例)feature/CodingRule/T.D-0708-17</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>書式</t>
+    <rPh sb="0" eb="2">
+      <t>ショシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>理由</t>
+    <rPh sb="0" eb="2">
+      <t>リユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リモート覧での表記をまとめるために作業ファイル名でまとめています。
+また、いつの作業かをわかるように日付です。</t>
+    <rPh sb="4" eb="5">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウキ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ver</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>書式</t>
+    <rPh sb="0" eb="2">
+      <t>ショシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>理由</t>
+    <rPh sb="0" eb="2">
+      <t>リユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※各数字の間には小数点を記述すること</t>
+    <rPh sb="1" eb="2">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ショウスウテン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キジュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バージョン
+全て小文字</t>
+    <rPh sb="6" eb="7">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>コモジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>masterに上げた際に更新する</t>
+    <rPh sb="7" eb="8">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完成したオブジェクトの数</t>
+    <rPh sb="0" eb="2">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>摘出したバグの数</t>
+    <rPh sb="0" eb="2">
+      <t>テキシュツ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タグ(ver)の付け方</t>
+    <rPh sb="8" eb="9">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コミットの仕方</t>
+  </si>
+  <si>
+    <t>コミットの仕方</t>
+    <rPh sb="5" eb="7">
+      <t>シカタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1行目</t>
+    <rPh sb="1" eb="3">
+      <t>ギョウメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2行目</t>
+    <rPh sb="1" eb="3">
+      <t>ギョウメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3行目</t>
+    <rPh sb="1" eb="2">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(改行)</t>
+    <rPh sb="1" eb="3">
+      <t>カイギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細な内容</t>
+    <rPh sb="0" eb="2">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>説明</t>
+    <rPh sb="0" eb="2">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なにも書かない</t>
+    <rPh sb="3" eb="4">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なにをしたか詳細に記述</t>
+    <rPh sb="6" eb="8">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キジュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[update]コーディングルール完成
+コーディングルール、コミットルールなどが詳細に書かれています。
+また、目次から各項目に飛べるようにしました。</t>
+    <rPh sb="17" eb="19">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>モクジ</t>
+    </rPh>
+    <rPh sb="60" eb="63">
+      <t>カクコウモク</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[要件]タイトル</t>
+    <rPh sb="1" eb="3">
+      <t>ヨウケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要件は下記に記述、タイトルは簡潔に</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウケン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キジュツ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カンケツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要件</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>add</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>remove</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>update</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fix</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hotfix</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>change</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>upgrade</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>revert</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規ファイルの追加</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイルの削除</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリティカルなバグの修正</t>
+    <rPh sb="10" eb="12">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>細かなバグの修正</t>
+    <rPh sb="0" eb="1">
+      <t>コマ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>既存ファイルに機能の追加など</t>
+    <rPh sb="0" eb="2">
+      <t>キゾン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仕様変更</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>clean</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>disable</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無効化(コメントアウト等)</t>
+    <rPh sb="0" eb="3">
+      <t>ムコウカ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>トウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バージョンアップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変更取り消し</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プルリクエスト</t>
+  </si>
+  <si>
+    <t>プルリクエスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>整理(コメントの削除やリファクタリング等)</t>
+    <rPh sb="0" eb="2">
+      <t>セイリ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>トウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プルリクエストを
+送る際の記述事項</t>
+    <rPh sb="9" eb="10">
+      <t>オク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>キジュツ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・なにをしたかを詳細に
+・完成させたオブジェクトの数
+・バグの摘出数</t>
+    <rPh sb="8" eb="10">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>テキシュツ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最後に</t>
+  </si>
+  <si>
+    <t>最後に</t>
+    <rPh sb="0" eb="2">
+      <t>サイゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コミットは細かく行いましょう！！！</t>
+    <rPh sb="5" eb="6">
+      <t>コマ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>17 -</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>18 -</t>
+  </si>
+  <si>
+    <t>19 -</t>
+  </si>
+  <si>
+    <t>20 -</t>
+  </si>
+  <si>
+    <t>21 -</t>
+  </si>
+  <si>
+    <t>ブランチ</t>
+  </si>
+  <si>
+    <t>タグ(ver)の付け方</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2718,6 +3223,22 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -2739,7 +3260,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="46">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -3116,76 +3637,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -3313,7 +3764,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3346,6 +3797,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3481,6 +3936,12 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3491,12 +3952,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3521,148 +3976,120 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -3960,271 +4387,271 @@
   <sheetData>
     <row r="1" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="18"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="20"/>
     </row>
     <row r="3" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="19"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="23"/>
     </row>
     <row r="4" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="5" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="35" t="s">
+      <c r="C5" s="25"/>
+      <c r="D5" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="36"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="38"/>
     </row>
     <row r="6" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="46"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="48"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="39" t="s">
+      <c r="C7" s="27"/>
+      <c r="D7" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="40"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="42"/>
     </row>
     <row r="8" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="41" t="s">
+      <c r="C8" s="29"/>
+      <c r="D8" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="43"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="45"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="41" t="s">
+      <c r="C9" s="29"/>
+      <c r="D9" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="43"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="45"/>
     </row>
     <row r="10" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="37" t="s">
+      <c r="C10" s="36"/>
+      <c r="D10" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="38"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="40"/>
     </row>
     <row r="12" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="29"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="31"/>
     </row>
     <row r="14" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="30"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="32"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="34"/>
     </row>
     <row r="15" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="16" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="47">
-        <v>43654</v>
-      </c>
-      <c r="D16" s="47"/>
+      <c r="C16" s="49">
+        <v>43656</v>
+      </c>
+      <c r="D16" s="49"/>
       <c r="E16" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="48" t="s">
+      <c r="F16" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="50"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="52"/>
     </row>
     <row r="17" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="51" t="s">
+      <c r="B17" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="57" t="s">
+      <c r="C17" s="59" t="s">
         <v>194</v>
       </c>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="54"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="56"/>
     </row>
     <row r="18" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="51"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="54"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="56"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B19" s="51"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="54"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="56"/>
     </row>
     <row r="20" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="52"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="55"/>
-      <c r="J20" s="56"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="58"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B21" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
       <c r="E21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F21" s="48"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="52"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B22" s="51" t="s">
+      <c r="B22" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="54"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="56"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B23" s="51"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="54"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="56"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B24" s="51"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="54"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="56"/>
     </row>
     <row r="25" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="52"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="56"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -4260,8 +4687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J37"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37:D37"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16:I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4272,35 +4699,35 @@
   <sheetData>
     <row r="1" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="18"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="20"/>
     </row>
     <row r="3" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="19"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="23"/>
     </row>
     <row r="4" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="5" spans="2:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="62"/>
+      <c r="C5" s="66"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -4313,10 +4740,10 @@
       <c r="B6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="63" t="s">
+      <c r="C6" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="63"/>
+      <c r="D6" s="67"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -4328,246 +4755,280 @@
       <c r="B7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="64" t="s">
+      <c r="C7" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="64"/>
+      <c r="D7" s="68"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="58" t="s">
+      <c r="C8" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="58"/>
+      <c r="D8" s="60"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B9" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="58" t="s">
+      <c r="C9" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="58"/>
+      <c r="D9" s="60"/>
     </row>
     <row r="10" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B10" s="1"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B11" s="67" t="s">
+      <c r="B11" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="68"/>
-      <c r="D11" s="69"/>
-      <c r="G11" s="67" t="s">
+      <c r="C11" s="70"/>
+      <c r="D11" s="71"/>
+      <c r="G11" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="H11" s="68"/>
-      <c r="I11" s="69"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="71"/>
     </row>
     <row r="12" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="70"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="72"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="72"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="74"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="74"/>
     </row>
     <row r="13" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="59" t="s">
+      <c r="B13" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="60"/>
+      <c r="C13" s="62"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
+      <c r="G13" s="114" t="s">
+        <v>252</v>
+      </c>
+      <c r="H13" s="115" t="s">
+        <v>209</v>
+      </c>
+      <c r="I13" s="115"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B14" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C14" s="58" t="s">
+      <c r="C14" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="58"/>
+      <c r="D14" s="60"/>
+      <c r="G14" s="114" t="s">
+        <v>253</v>
+      </c>
+      <c r="H14" s="115" t="s">
+        <v>257</v>
+      </c>
+      <c r="I14" s="115"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B15" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C15" s="58" t="s">
+      <c r="C15" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="58"/>
+      <c r="D15" s="60"/>
+      <c r="G15" s="114" t="s">
+        <v>254</v>
+      </c>
+      <c r="H15" s="115" t="s">
+        <v>258</v>
+      </c>
+      <c r="I15" s="115"/>
     </row>
     <row r="16" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="5"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
-    </row>
-    <row r="17" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="59" t="s">
+      <c r="G16" s="114" t="s">
+        <v>255</v>
+      </c>
+      <c r="H16" s="115" t="s">
+        <v>244</v>
+      </c>
+      <c r="I16" s="115"/>
+    </row>
+    <row r="17" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="60"/>
+      <c r="C17" s="62"/>
       <c r="D17" s="7"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="G17" s="114" t="s">
+        <v>256</v>
+      </c>
+      <c r="H17" s="115" t="s">
+        <v>249</v>
+      </c>
+      <c r="I17" s="115"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B18" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C18" s="58" t="s">
+      <c r="C18" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="58"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="D18" s="60"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B19" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="58" t="s">
+      <c r="C19" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="58"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="D19" s="60"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B20" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="58" t="s">
+      <c r="C20" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="58"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="D20" s="60"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B21" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="58" t="s">
+      <c r="C21" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="58"/>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="D21" s="60"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B22" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="58" t="s">
+      <c r="C22" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="D22" s="58"/>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="D22" s="60"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B23" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="58" t="s">
+      <c r="C23" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="58"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="D23" s="60"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B24" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="58" t="s">
+      <c r="C24" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="58"/>
-    </row>
-    <row r="25" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D24" s="60"/>
+    </row>
+    <row r="25" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B25" s="5"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
     </row>
-    <row r="26" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="65" t="s">
+    <row r="26" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="63" t="s">
         <v>104</v>
       </c>
-      <c r="C26" s="66"/>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C26" s="64"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B27" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C27" s="58" t="s">
+      <c r="C27" s="60" t="s">
         <v>190</v>
       </c>
-      <c r="D27" s="58"/>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="D27" s="60"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B28" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C28" s="58" t="s">
+      <c r="C28" s="60" t="s">
         <v>126</v>
       </c>
-      <c r="D28" s="58"/>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="D28" s="60"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B29" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C29" s="58" t="s">
+      <c r="C29" s="60" t="s">
         <v>133</v>
       </c>
-      <c r="D29" s="58"/>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="D29" s="60"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B30" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C30" s="58" t="s">
+      <c r="C30" s="60" t="s">
         <v>143</v>
       </c>
-      <c r="D30" s="58"/>
-    </row>
-    <row r="31" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="32" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="59" t="s">
+      <c r="D30" s="60"/>
+    </row>
+    <row r="31" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="32" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="61" t="s">
         <v>154</v>
       </c>
-      <c r="C32" s="60"/>
+      <c r="C32" s="62"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B33" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="C33" s="58" t="s">
+      <c r="C33" s="60" t="s">
         <v>153</v>
       </c>
-      <c r="D33" s="58"/>
+      <c r="D33" s="60"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B34" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C34" s="58" t="s">
+      <c r="C34" s="60" t="s">
         <v>167</v>
       </c>
-      <c r="D34" s="58"/>
+      <c r="D34" s="60"/>
     </row>
     <row r="35" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="36" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="59" t="s">
+      <c r="B36" s="61" t="s">
         <v>176</v>
       </c>
-      <c r="C36" s="60"/>
+      <c r="C36" s="62"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B37" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="C37" s="58" t="s">
+      <c r="C37" s="60" t="s">
         <v>193</v>
       </c>
-      <c r="D37" s="58"/>
+      <c r="D37" s="60"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="34">
     <mergeCell ref="G11:I12"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C18:D18"/>
@@ -4578,6 +5039,11 @@
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
     <mergeCell ref="B2:J3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="C6:D6"/>
@@ -4619,6 +5085,11 @@
     <hyperlink ref="C33:D33" location="コーディングルール!B124" display="ファイル"/>
     <hyperlink ref="C34:D34" location="コーディングルール!B130" display="関数"/>
     <hyperlink ref="C37:D37" location="コーディングルール!B139" display="単語"/>
+    <hyperlink ref="H13:I13" location="コミットルール!B5" display="コミットの仕方"/>
+    <hyperlink ref="H14:I14" location="コミットルール!B30" display="ブランチ"/>
+    <hyperlink ref="H15:I15" location="コミットルール!B39" display="タグ(ver)の付け方"/>
+    <hyperlink ref="H16:I16" location="コミットルール!B49" display="プルリクエスト"/>
+    <hyperlink ref="H17:I17" location="コミットルール!B57" display="最後に"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -4629,8 +5100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J145"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView showGridLines="0" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4641,172 +5112,170 @@
   <sheetData>
     <row r="1" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="18"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="20"/>
     </row>
     <row r="3" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="19"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="23"/>
     </row>
     <row r="4" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="5" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="68"/>
-      <c r="D5" s="69"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="71"/>
     </row>
     <row r="6" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="70"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="72"/>
-    </row>
-    <row r="7" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="74"/>
+    </row>
     <row r="8" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="98" t="s">
+      <c r="B8" s="108" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="114" t="s">
+      <c r="C8" s="92" t="s">
         <v>113</v>
       </c>
-      <c r="D8" s="115"/>
-      <c r="E8" s="115"/>
-      <c r="F8" s="115"/>
-      <c r="G8" s="115"/>
-      <c r="H8" s="115"/>
-      <c r="I8" s="115"/>
-      <c r="J8" s="116"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="92"/>
+      <c r="I8" s="92"/>
+      <c r="J8" s="92"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B9" s="99"/>
-      <c r="C9" s="117" t="s">
+      <c r="B9" s="108"/>
+      <c r="C9" s="113" t="s">
         <v>114</v>
       </c>
-      <c r="D9" s="118"/>
-      <c r="E9" s="118"/>
-      <c r="F9" s="118"/>
-      <c r="G9" s="118"/>
-      <c r="H9" s="118"/>
-      <c r="I9" s="118"/>
-      <c r="J9" s="119"/>
+      <c r="D9" s="113"/>
+      <c r="E9" s="113"/>
+      <c r="F9" s="113"/>
+      <c r="G9" s="113"/>
+      <c r="H9" s="113"/>
+      <c r="I9" s="113"/>
+      <c r="J9" s="113"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B10" s="99"/>
-      <c r="C10" s="117" t="s">
+      <c r="B10" s="108"/>
+      <c r="C10" s="113" t="s">
         <v>115</v>
       </c>
-      <c r="D10" s="118"/>
-      <c r="E10" s="118"/>
-      <c r="F10" s="118"/>
-      <c r="G10" s="118"/>
-      <c r="H10" s="118"/>
-      <c r="I10" s="118"/>
-      <c r="J10" s="119"/>
-    </row>
-    <row r="11" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="100"/>
-      <c r="C11" s="120" t="s">
+      <c r="D10" s="113"/>
+      <c r="E10" s="113"/>
+      <c r="F10" s="113"/>
+      <c r="G10" s="113"/>
+      <c r="H10" s="113"/>
+      <c r="I10" s="113"/>
+      <c r="J10" s="113"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B11" s="108"/>
+      <c r="C11" s="113" t="s">
         <v>116</v>
       </c>
-      <c r="D11" s="121"/>
-      <c r="E11" s="121"/>
-      <c r="F11" s="121"/>
-      <c r="G11" s="121"/>
-      <c r="H11" s="121"/>
-      <c r="I11" s="121"/>
-      <c r="J11" s="122"/>
-    </row>
-    <row r="12" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+      <c r="D11" s="113"/>
+      <c r="E11" s="113"/>
+      <c r="F11" s="113"/>
+      <c r="G11" s="113"/>
+      <c r="H11" s="113"/>
+      <c r="I11" s="113"/>
+      <c r="J11" s="113"/>
+    </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B13" s="101" t="s">
+      <c r="B13" s="77" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="106" t="s">
+      <c r="C13" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="107"/>
-      <c r="E13" s="110" t="s">
+      <c r="D13" s="44"/>
+      <c r="E13" s="100" t="s">
         <v>53</v>
       </c>
-      <c r="F13" s="110"/>
-      <c r="G13" s="110"/>
-      <c r="H13" s="110"/>
-      <c r="I13" s="110"/>
-      <c r="J13" s="111"/>
+      <c r="F13" s="100"/>
+      <c r="G13" s="100"/>
+      <c r="H13" s="100"/>
+      <c r="I13" s="100"/>
+      <c r="J13" s="100"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B14" s="102"/>
-      <c r="C14" s="108" t="s">
+      <c r="B14" s="108"/>
+      <c r="C14" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="42"/>
-      <c r="E14" s="112" t="s">
+      <c r="D14" s="44"/>
+      <c r="E14" s="100" t="s">
         <v>54</v>
       </c>
-      <c r="F14" s="112"/>
-      <c r="G14" s="112"/>
-      <c r="H14" s="112"/>
-      <c r="I14" s="112"/>
-      <c r="J14" s="113"/>
+      <c r="F14" s="100"/>
+      <c r="G14" s="100"/>
+      <c r="H14" s="100"/>
+      <c r="I14" s="100"/>
+      <c r="J14" s="100"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B15" s="102"/>
-      <c r="C15" s="108" t="s">
+      <c r="B15" s="108"/>
+      <c r="C15" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="42"/>
-      <c r="E15" s="112" t="s">
+      <c r="D15" s="44"/>
+      <c r="E15" s="100" t="s">
         <v>56</v>
       </c>
-      <c r="F15" s="112"/>
-      <c r="G15" s="112"/>
-      <c r="H15" s="112"/>
-      <c r="I15" s="112"/>
-      <c r="J15" s="113"/>
-    </row>
-    <row r="16" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="103"/>
-      <c r="C16" s="109" t="s">
+      <c r="F15" s="100"/>
+      <c r="G15" s="100"/>
+      <c r="H15" s="100"/>
+      <c r="I15" s="100"/>
+      <c r="J15" s="100"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B16" s="108"/>
+      <c r="C16" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="37"/>
-      <c r="E16" s="104" t="s">
+      <c r="D16" s="44"/>
+      <c r="E16" s="100" t="s">
         <v>57</v>
       </c>
-      <c r="F16" s="104"/>
-      <c r="G16" s="104"/>
-      <c r="H16" s="104"/>
-      <c r="I16" s="104"/>
-      <c r="J16" s="105"/>
+      <c r="F16" s="100"/>
+      <c r="G16" s="100"/>
+      <c r="H16" s="100"/>
+      <c r="I16" s="100"/>
+      <c r="J16" s="100"/>
     </row>
     <row r="18" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="19" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B19" s="67" t="s">
+      <c r="B19" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="68"/>
-      <c r="D19" s="69"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="71"/>
     </row>
     <row r="20" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="70"/>
-      <c r="C20" s="71"/>
-      <c r="D20" s="72"/>
+      <c r="B20" s="72"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="74"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B22" s="77" t="s">
@@ -4863,12 +5332,12 @@
       <c r="D25" s="82"/>
       <c r="E25" s="82"/>
       <c r="F25" s="82"/>
-      <c r="G25" s="75" t="s">
+      <c r="G25" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="H25" s="75"/>
-      <c r="I25" s="75"/>
-      <c r="J25" s="75"/>
+      <c r="H25" s="83"/>
+      <c r="I25" s="83"/>
+      <c r="J25" s="83"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B26" s="77"/>
@@ -4917,48 +5386,48 @@
     </row>
     <row r="29" spans="2:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="77"/>
-      <c r="C29" s="42" t="s">
+      <c r="C29" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
       <c r="G29" s="82" t="s">
         <v>75</v>
       </c>
-      <c r="H29" s="112"/>
-      <c r="I29" s="112"/>
-      <c r="J29" s="112"/>
+      <c r="H29" s="100"/>
+      <c r="I29" s="100"/>
+      <c r="J29" s="100"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B30" s="77"/>
-      <c r="C30" s="112" t="s">
+      <c r="C30" s="100" t="s">
         <v>80</v>
       </c>
-      <c r="D30" s="112"/>
-      <c r="E30" s="112"/>
-      <c r="F30" s="112"/>
-      <c r="G30" s="112" t="s">
+      <c r="D30" s="100"/>
+      <c r="E30" s="100"/>
+      <c r="F30" s="100"/>
+      <c r="G30" s="100" t="s">
         <v>58</v>
       </c>
-      <c r="H30" s="112"/>
-      <c r="I30" s="112"/>
-      <c r="J30" s="112"/>
+      <c r="H30" s="100"/>
+      <c r="I30" s="100"/>
+      <c r="J30" s="100"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B31" s="77"/>
-      <c r="C31" s="112" t="s">
+      <c r="C31" s="100" t="s">
         <v>79</v>
       </c>
-      <c r="D31" s="112"/>
-      <c r="E31" s="112"/>
-      <c r="F31" s="112"/>
-      <c r="G31" s="112" t="s">
+      <c r="D31" s="100"/>
+      <c r="E31" s="100"/>
+      <c r="F31" s="100"/>
+      <c r="G31" s="100" t="s">
         <v>58</v>
       </c>
-      <c r="H31" s="112"/>
-      <c r="I31" s="112"/>
-      <c r="J31" s="112"/>
+      <c r="H31" s="100"/>
+      <c r="I31" s="100"/>
+      <c r="J31" s="100"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B32" s="10"/>
@@ -4983,7 +5452,7 @@
       <c r="J33" s="10"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B34" s="92" t="s">
+      <c r="B34" s="94" t="s">
         <v>40</v>
       </c>
       <c r="C34" s="81" t="s">
@@ -5000,7 +5469,7 @@
       <c r="J34" s="81"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B35" s="93"/>
+      <c r="B35" s="95"/>
       <c r="C35" s="82" t="s">
         <v>66</v>
       </c>
@@ -5015,13 +5484,13 @@
       <c r="J35" s="82"/>
     </row>
     <row r="36" spans="2:10" s="9" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="93"/>
-      <c r="C36" s="95" t="s">
+      <c r="B36" s="95"/>
+      <c r="C36" s="97" t="s">
         <v>118</v>
       </c>
-      <c r="D36" s="96"/>
-      <c r="E36" s="96"/>
-      <c r="F36" s="97"/>
+      <c r="D36" s="98"/>
+      <c r="E36" s="98"/>
+      <c r="F36" s="99"/>
       <c r="G36" s="78" t="s">
         <v>117</v>
       </c>
@@ -5030,7 +5499,7 @@
       <c r="J36" s="80"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B37" s="93"/>
+      <c r="B37" s="95"/>
       <c r="C37" s="12" t="s">
         <v>76</v>
       </c>
@@ -5045,7 +5514,7 @@
       <c r="J37" s="82"/>
     </row>
     <row r="38" spans="2:10" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="94"/>
+      <c r="B38" s="96"/>
       <c r="C38" s="12" t="s">
         <v>76</v>
       </c>
@@ -5229,18 +5698,18 @@
     </row>
     <row r="51" spans="2:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B51" s="77"/>
-      <c r="C51" s="75" t="s">
+      <c r="C51" s="83" t="s">
         <v>174</v>
       </c>
-      <c r="D51" s="75"/>
-      <c r="E51" s="75"/>
-      <c r="F51" s="75"/>
-      <c r="G51" s="75" t="s">
+      <c r="D51" s="83"/>
+      <c r="E51" s="83"/>
+      <c r="F51" s="83"/>
+      <c r="G51" s="83" t="s">
         <v>82</v>
       </c>
-      <c r="H51" s="75"/>
-      <c r="I51" s="75"/>
-      <c r="J51" s="75"/>
+      <c r="H51" s="83"/>
+      <c r="I51" s="83"/>
+      <c r="J51" s="83"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B52" s="77"/>
@@ -5361,15 +5830,15 @@
       <c r="C60" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="D60" s="91" t="s">
+      <c r="D60" s="93" t="s">
         <v>89</v>
       </c>
-      <c r="E60" s="75"/>
-      <c r="F60" s="75"/>
-      <c r="G60" s="75"/>
-      <c r="H60" s="75"/>
-      <c r="I60" s="75"/>
-      <c r="J60" s="75"/>
+      <c r="E60" s="83"/>
+      <c r="F60" s="83"/>
+      <c r="G60" s="83"/>
+      <c r="H60" s="83"/>
+      <c r="I60" s="83"/>
+      <c r="J60" s="83"/>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B61" s="10"/>
@@ -5437,12 +5906,12 @@
       <c r="D66" s="82"/>
       <c r="E66" s="82"/>
       <c r="F66" s="82"/>
-      <c r="G66" s="75" t="s">
+      <c r="G66" s="83" t="s">
         <v>58</v>
       </c>
-      <c r="H66" s="75"/>
-      <c r="I66" s="75"/>
-      <c r="J66" s="75"/>
+      <c r="H66" s="83"/>
+      <c r="I66" s="83"/>
+      <c r="J66" s="83"/>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B67" s="77"/>
@@ -5497,27 +5966,27 @@
       <c r="D70" s="82"/>
       <c r="E70" s="82"/>
       <c r="F70" s="82"/>
-      <c r="G70" s="75" t="s">
+      <c r="G70" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="H70" s="75"/>
-      <c r="I70" s="75"/>
-      <c r="J70" s="75"/>
+      <c r="H70" s="83"/>
+      <c r="I70" s="83"/>
+      <c r="J70" s="83"/>
     </row>
     <row r="71" spans="2:10" ht="113.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B71" s="77"/>
       <c r="C71" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="D71" s="91" t="s">
+      <c r="D71" s="93" t="s">
         <v>94</v>
       </c>
-      <c r="E71" s="75"/>
-      <c r="F71" s="75"/>
-      <c r="G71" s="75"/>
-      <c r="H71" s="75"/>
-      <c r="I71" s="75"/>
-      <c r="J71" s="75"/>
+      <c r="E71" s="83"/>
+      <c r="F71" s="83"/>
+      <c r="G71" s="83"/>
+      <c r="H71" s="83"/>
+      <c r="I71" s="83"/>
+      <c r="J71" s="83"/>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B74" s="77" t="s">
@@ -5601,28 +6070,28 @@
       <c r="C79" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="D79" s="91" t="s">
+      <c r="D79" s="93" t="s">
         <v>100</v>
       </c>
-      <c r="E79" s="75"/>
-      <c r="F79" s="75"/>
-      <c r="G79" s="75"/>
-      <c r="H79" s="75"/>
-      <c r="I79" s="75"/>
-      <c r="J79" s="75"/>
+      <c r="E79" s="83"/>
+      <c r="F79" s="83"/>
+      <c r="G79" s="83"/>
+      <c r="H79" s="83"/>
+      <c r="I79" s="83"/>
+      <c r="J79" s="83"/>
     </row>
     <row r="81" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="82" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B82" s="67" t="s">
+      <c r="B82" s="69" t="s">
         <v>103</v>
       </c>
-      <c r="C82" s="68"/>
-      <c r="D82" s="69"/>
+      <c r="C82" s="70"/>
+      <c r="D82" s="71"/>
     </row>
     <row r="83" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="70"/>
-      <c r="C83" s="71"/>
-      <c r="D83" s="72"/>
+      <c r="B83" s="72"/>
+      <c r="C83" s="73"/>
+      <c r="D83" s="74"/>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B84" s="15"/>
@@ -5636,7 +6105,7 @@
       <c r="J84" s="15"/>
     </row>
     <row r="85" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="92" t="s">
+      <c r="B85" s="94" t="s">
         <v>120</v>
       </c>
       <c r="C85" s="81" t="s">
@@ -5653,7 +6122,7 @@
       <c r="J85" s="81"/>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B86" s="93"/>
+      <c r="B86" s="95"/>
       <c r="C86" s="82" t="s">
         <v>121</v>
       </c>
@@ -5668,52 +6137,52 @@
       <c r="J86" s="82"/>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B87" s="93"/>
-      <c r="C87" s="95" t="s">
+      <c r="B87" s="95"/>
+      <c r="C87" s="97" t="s">
         <v>122</v>
       </c>
-      <c r="D87" s="96"/>
-      <c r="E87" s="96"/>
-      <c r="F87" s="97"/>
-      <c r="G87" s="95" t="s">
+      <c r="D87" s="98"/>
+      <c r="E87" s="98"/>
+      <c r="F87" s="99"/>
+      <c r="G87" s="97" t="s">
         <v>123</v>
       </c>
-      <c r="H87" s="96"/>
-      <c r="I87" s="96"/>
-      <c r="J87" s="97"/>
+      <c r="H87" s="98"/>
+      <c r="I87" s="98"/>
+      <c r="J87" s="99"/>
     </row>
     <row r="88" spans="2:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B88" s="93"/>
+      <c r="B88" s="95"/>
       <c r="C88" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="D88" s="91" t="s">
+      <c r="D88" s="93" t="s">
         <v>124</v>
       </c>
-      <c r="E88" s="75"/>
-      <c r="F88" s="75"/>
-      <c r="G88" s="75"/>
-      <c r="H88" s="75"/>
-      <c r="I88" s="75"/>
-      <c r="J88" s="75"/>
+      <c r="E88" s="83"/>
+      <c r="F88" s="83"/>
+      <c r="G88" s="83"/>
+      <c r="H88" s="83"/>
+      <c r="I88" s="83"/>
+      <c r="J88" s="83"/>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B89" s="94"/>
+      <c r="B89" s="96"/>
       <c r="C89" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="D89" s="91" t="s">
+      <c r="D89" s="93" t="s">
         <v>125</v>
       </c>
-      <c r="E89" s="75"/>
-      <c r="F89" s="75"/>
-      <c r="G89" s="75"/>
-      <c r="H89" s="75"/>
-      <c r="I89" s="75"/>
-      <c r="J89" s="75"/>
+      <c r="E89" s="83"/>
+      <c r="F89" s="83"/>
+      <c r="G89" s="83"/>
+      <c r="H89" s="83"/>
+      <c r="I89" s="83"/>
+      <c r="J89" s="83"/>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B92" s="92" t="s">
+      <c r="B92" s="94" t="s">
         <v>127</v>
       </c>
       <c r="C92" s="81" t="s">
@@ -5730,37 +6199,37 @@
       <c r="J92" s="81"/>
     </row>
     <row r="93" spans="2:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B93" s="93"/>
+      <c r="B93" s="95"/>
       <c r="C93" s="82" t="s">
         <v>135</v>
       </c>
       <c r="D93" s="82"/>
       <c r="E93" s="82"/>
       <c r="F93" s="82"/>
-      <c r="G93" s="75" t="s">
+      <c r="G93" s="83" t="s">
         <v>136</v>
       </c>
-      <c r="H93" s="75"/>
-      <c r="I93" s="75"/>
-      <c r="J93" s="75"/>
+      <c r="H93" s="83"/>
+      <c r="I93" s="83"/>
+      <c r="J93" s="83"/>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B94" s="93"/>
+      <c r="B94" s="95"/>
       <c r="C94" s="78" t="s">
         <v>128</v>
       </c>
-      <c r="D94" s="89"/>
-      <c r="E94" s="89"/>
-      <c r="F94" s="90"/>
-      <c r="G94" s="95" t="s">
+      <c r="D94" s="90"/>
+      <c r="E94" s="90"/>
+      <c r="F94" s="91"/>
+      <c r="G94" s="97" t="s">
         <v>129</v>
       </c>
-      <c r="H94" s="96"/>
-      <c r="I94" s="96"/>
-      <c r="J94" s="97"/>
+      <c r="H94" s="98"/>
+      <c r="I94" s="98"/>
+      <c r="J94" s="99"/>
     </row>
     <row r="95" spans="2:10" s="9" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B95" s="93"/>
+      <c r="B95" s="95"/>
       <c r="C95" s="78" t="s">
         <v>130</v>
       </c>
@@ -5775,7 +6244,7 @@
       <c r="J95" s="80"/>
     </row>
     <row r="96" spans="2:10" s="9" customFormat="1" ht="339" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B96" s="93"/>
+      <c r="B96" s="95"/>
       <c r="C96" s="78" t="s">
         <v>137</v>
       </c>
@@ -5790,37 +6259,37 @@
       <c r="J96" s="80"/>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B97" s="93"/>
+      <c r="B97" s="95"/>
       <c r="C97" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="D97" s="91" t="s">
+      <c r="D97" s="93" t="s">
         <v>138</v>
       </c>
-      <c r="E97" s="75"/>
-      <c r="F97" s="75"/>
-      <c r="G97" s="75"/>
-      <c r="H97" s="75"/>
-      <c r="I97" s="75"/>
-      <c r="J97" s="75"/>
+      <c r="E97" s="83"/>
+      <c r="F97" s="83"/>
+      <c r="G97" s="83"/>
+      <c r="H97" s="83"/>
+      <c r="I97" s="83"/>
+      <c r="J97" s="83"/>
     </row>
     <row r="98" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B98" s="94"/>
+      <c r="B98" s="96"/>
       <c r="C98" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="D98" s="91" t="s">
+      <c r="D98" s="93" t="s">
         <v>139</v>
       </c>
-      <c r="E98" s="75"/>
-      <c r="F98" s="75"/>
-      <c r="G98" s="75"/>
-      <c r="H98" s="75"/>
-      <c r="I98" s="75"/>
-      <c r="J98" s="75"/>
+      <c r="E98" s="83"/>
+      <c r="F98" s="83"/>
+      <c r="G98" s="83"/>
+      <c r="H98" s="83"/>
+      <c r="I98" s="83"/>
+      <c r="J98" s="83"/>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B101" s="92" t="s">
+      <c r="B101" s="94" t="s">
         <v>134</v>
       </c>
       <c r="C101" s="81" t="s">
@@ -5837,7 +6306,7 @@
       <c r="J101" s="81"/>
     </row>
     <row r="102" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B102" s="93"/>
+      <c r="B102" s="95"/>
       <c r="C102" s="82" t="s">
         <v>140</v>
       </c>
@@ -5852,7 +6321,7 @@
       <c r="J102" s="82"/>
     </row>
     <row r="103" spans="2:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B103" s="94"/>
+      <c r="B103" s="96"/>
       <c r="C103" s="78" t="s">
         <v>166</v>
       </c>
@@ -5892,12 +6361,12 @@
       <c r="D107" s="82"/>
       <c r="E107" s="82"/>
       <c r="F107" s="82"/>
-      <c r="G107" s="75" t="s">
+      <c r="G107" s="83" t="s">
         <v>147</v>
       </c>
-      <c r="H107" s="75"/>
-      <c r="I107" s="75"/>
-      <c r="J107" s="75"/>
+      <c r="H107" s="83"/>
+      <c r="I107" s="83"/>
+      <c r="J107" s="83"/>
     </row>
     <row r="108" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="77"/>
@@ -5916,18 +6385,18 @@
     </row>
     <row r="109" spans="2:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B109" s="77"/>
-      <c r="C109" s="75" t="s">
+      <c r="C109" s="83" t="s">
         <v>148</v>
       </c>
-      <c r="D109" s="75"/>
-      <c r="E109" s="75"/>
-      <c r="F109" s="75"/>
-      <c r="G109" s="75" t="s">
+      <c r="D109" s="83"/>
+      <c r="E109" s="83"/>
+      <c r="F109" s="83"/>
+      <c r="G109" s="83" t="s">
         <v>117</v>
       </c>
-      <c r="H109" s="75"/>
-      <c r="I109" s="75"/>
-      <c r="J109" s="75"/>
+      <c r="H109" s="83"/>
+      <c r="I109" s="83"/>
+      <c r="J109" s="83"/>
     </row>
     <row r="110" spans="2:10" ht="39" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B110" s="77"/>
@@ -5940,39 +6409,39 @@
       <c r="G110" s="78" t="s">
         <v>152</v>
       </c>
-      <c r="H110" s="89"/>
-      <c r="I110" s="89"/>
-      <c r="J110" s="90"/>
+      <c r="H110" s="90"/>
+      <c r="I110" s="90"/>
+      <c r="J110" s="91"/>
     </row>
     <row r="111" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B111" s="77"/>
-      <c r="C111" s="75" t="s">
+      <c r="C111" s="83" t="s">
         <v>150</v>
       </c>
-      <c r="D111" s="73"/>
-      <c r="E111" s="73"/>
-      <c r="F111" s="73"/>
-      <c r="G111" s="75" t="s">
+      <c r="D111" s="75"/>
+      <c r="E111" s="75"/>
+      <c r="F111" s="75"/>
+      <c r="G111" s="83" t="s">
         <v>117</v>
       </c>
-      <c r="H111" s="75"/>
-      <c r="I111" s="75"/>
-      <c r="J111" s="75"/>
+      <c r="H111" s="83"/>
+      <c r="I111" s="83"/>
+      <c r="J111" s="83"/>
     </row>
     <row r="112" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B112" s="77"/>
-      <c r="C112" s="75" t="s">
+      <c r="C112" s="83" t="s">
         <v>151</v>
       </c>
-      <c r="D112" s="73"/>
-      <c r="E112" s="73"/>
-      <c r="F112" s="73"/>
-      <c r="G112" s="75" t="s">
+      <c r="D112" s="75"/>
+      <c r="E112" s="75"/>
+      <c r="F112" s="75"/>
+      <c r="G112" s="83" t="s">
         <v>117</v>
       </c>
-      <c r="H112" s="75"/>
-      <c r="I112" s="75"/>
-      <c r="J112" s="75"/>
+      <c r="H112" s="83"/>
+      <c r="I112" s="83"/>
+      <c r="J112" s="83"/>
     </row>
     <row r="113" spans="2:10" s="9" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B113" s="77"/>
@@ -6021,61 +6490,61 @@
     </row>
     <row r="116" spans="2:10" s="9" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B116" s="77"/>
-      <c r="C116" s="75" t="s">
+      <c r="C116" s="83" t="s">
         <v>157</v>
       </c>
-      <c r="D116" s="75"/>
-      <c r="E116" s="75"/>
-      <c r="F116" s="75"/>
-      <c r="G116" s="75" t="s">
+      <c r="D116" s="83"/>
+      <c r="E116" s="83"/>
+      <c r="F116" s="83"/>
+      <c r="G116" s="83" t="s">
         <v>117</v>
       </c>
-      <c r="H116" s="75"/>
-      <c r="I116" s="75"/>
-      <c r="J116" s="75"/>
+      <c r="H116" s="83"/>
+      <c r="I116" s="83"/>
+      <c r="J116" s="83"/>
     </row>
     <row r="117" spans="2:10" s="9" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B117" s="77"/>
-      <c r="C117" s="76" t="s">
+      <c r="C117" s="92" t="s">
         <v>160</v>
       </c>
-      <c r="D117" s="76"/>
-      <c r="E117" s="76"/>
-      <c r="F117" s="76"/>
-      <c r="G117" s="75" t="s">
+      <c r="D117" s="92"/>
+      <c r="E117" s="92"/>
+      <c r="F117" s="92"/>
+      <c r="G117" s="83" t="s">
         <v>117</v>
       </c>
-      <c r="H117" s="75"/>
-      <c r="I117" s="75"/>
-      <c r="J117" s="75"/>
+      <c r="H117" s="83"/>
+      <c r="I117" s="83"/>
+      <c r="J117" s="83"/>
     </row>
     <row r="118" spans="2:10" s="9" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B118" s="77"/>
       <c r="C118" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="D118" s="73" t="s">
+      <c r="D118" s="75" t="s">
         <v>159</v>
       </c>
-      <c r="E118" s="73"/>
-      <c r="F118" s="73"/>
-      <c r="G118" s="73"/>
-      <c r="H118" s="73"/>
-      <c r="I118" s="73"/>
-      <c r="J118" s="73"/>
+      <c r="E118" s="75"/>
+      <c r="F118" s="75"/>
+      <c r="G118" s="75"/>
+      <c r="H118" s="75"/>
+      <c r="I118" s="75"/>
+      <c r="J118" s="75"/>
     </row>
     <row r="120" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="121" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B121" s="67" t="s">
+      <c r="B121" s="69" t="s">
         <v>154</v>
       </c>
-      <c r="C121" s="68"/>
-      <c r="D121" s="69"/>
+      <c r="C121" s="70"/>
+      <c r="D121" s="71"/>
     </row>
     <row r="122" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B122" s="70"/>
-      <c r="C122" s="71"/>
-      <c r="D122" s="72"/>
+      <c r="B122" s="72"/>
+      <c r="C122" s="73"/>
+      <c r="D122" s="74"/>
     </row>
     <row r="124" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B124" s="77" t="s">
@@ -6102,12 +6571,12 @@
       <c r="D125" s="82"/>
       <c r="E125" s="82"/>
       <c r="F125" s="82"/>
-      <c r="G125" s="75" t="s">
+      <c r="G125" s="83" t="s">
         <v>155</v>
       </c>
-      <c r="H125" s="75"/>
-      <c r="I125" s="75"/>
-      <c r="J125" s="75"/>
+      <c r="H125" s="83"/>
+      <c r="I125" s="83"/>
+      <c r="J125" s="83"/>
     </row>
     <row r="126" spans="2:10" s="9" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B126" s="77"/>
@@ -6117,12 +6586,12 @@
       <c r="D126" s="79"/>
       <c r="E126" s="79"/>
       <c r="F126" s="80"/>
-      <c r="G126" s="75" t="s">
+      <c r="G126" s="83" t="s">
         <v>155</v>
       </c>
-      <c r="H126" s="75"/>
-      <c r="I126" s="75"/>
-      <c r="J126" s="75"/>
+      <c r="H126" s="83"/>
+      <c r="I126" s="83"/>
+      <c r="J126" s="83"/>
     </row>
     <row r="127" spans="2:10" ht="130.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B127" s="77"/>
@@ -6164,153 +6633,153 @@
       <c r="D131" s="82"/>
       <c r="E131" s="82"/>
       <c r="F131" s="82"/>
-      <c r="G131" s="75" t="s">
+      <c r="G131" s="83" t="s">
         <v>117</v>
       </c>
-      <c r="H131" s="75"/>
-      <c r="I131" s="75"/>
-      <c r="J131" s="75"/>
+      <c r="H131" s="83"/>
+      <c r="I131" s="83"/>
+      <c r="J131" s="83"/>
     </row>
     <row r="132" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B132" s="77"/>
-      <c r="C132" s="83" t="s">
+      <c r="C132" s="84" t="s">
         <v>172</v>
       </c>
-      <c r="D132" s="84"/>
-      <c r="E132" s="84"/>
-      <c r="F132" s="84"/>
-      <c r="G132" s="84"/>
-      <c r="H132" s="84"/>
-      <c r="I132" s="84"/>
-      <c r="J132" s="85"/>
+      <c r="D132" s="85"/>
+      <c r="E132" s="85"/>
+      <c r="F132" s="85"/>
+      <c r="G132" s="85"/>
+      <c r="H132" s="85"/>
+      <c r="I132" s="85"/>
+      <c r="J132" s="86"/>
     </row>
     <row r="133" spans="2:10" ht="150.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B133" s="77"/>
-      <c r="C133" s="86"/>
-      <c r="D133" s="87"/>
-      <c r="E133" s="87"/>
-      <c r="F133" s="87"/>
-      <c r="G133" s="87"/>
-      <c r="H133" s="87"/>
-      <c r="I133" s="87"/>
-      <c r="J133" s="88"/>
+      <c r="C133" s="87"/>
+      <c r="D133" s="88"/>
+      <c r="E133" s="88"/>
+      <c r="F133" s="88"/>
+      <c r="G133" s="88"/>
+      <c r="H133" s="88"/>
+      <c r="I133" s="88"/>
+      <c r="J133" s="89"/>
     </row>
     <row r="135" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="136" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B136" s="67" t="s">
+      <c r="B136" s="69" t="s">
         <v>176</v>
       </c>
-      <c r="C136" s="68"/>
-      <c r="D136" s="69"/>
+      <c r="C136" s="70"/>
+      <c r="D136" s="71"/>
     </row>
     <row r="137" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B137" s="70"/>
-      <c r="C137" s="71"/>
-      <c r="D137" s="72"/>
+      <c r="B137" s="72"/>
+      <c r="C137" s="73"/>
+      <c r="D137" s="74"/>
       <c r="E137" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="139" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B139" s="74" t="s">
+      <c r="B139" s="76" t="s">
         <v>177</v>
       </c>
-      <c r="C139" s="74"/>
-      <c r="D139" s="74" t="s">
+      <c r="C139" s="76"/>
+      <c r="D139" s="76" t="s">
         <v>178</v>
       </c>
-      <c r="E139" s="74"/>
-      <c r="F139" s="74"/>
-      <c r="G139" s="74"/>
-      <c r="H139" s="74"/>
-      <c r="I139" s="74"/>
-      <c r="J139" s="74"/>
+      <c r="E139" s="76"/>
+      <c r="F139" s="76"/>
+      <c r="G139" s="76"/>
+      <c r="H139" s="76"/>
+      <c r="I139" s="76"/>
+      <c r="J139" s="76"/>
     </row>
     <row r="140" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B140" s="73" t="s">
+      <c r="B140" s="75" t="s">
         <v>179</v>
       </c>
-      <c r="C140" s="73"/>
-      <c r="D140" s="73" t="s">
+      <c r="C140" s="75"/>
+      <c r="D140" s="75" t="s">
         <v>180</v>
       </c>
-      <c r="E140" s="73"/>
-      <c r="F140" s="73"/>
-      <c r="G140" s="73"/>
-      <c r="H140" s="73"/>
-      <c r="I140" s="73"/>
-      <c r="J140" s="73"/>
+      <c r="E140" s="75"/>
+      <c r="F140" s="75"/>
+      <c r="G140" s="75"/>
+      <c r="H140" s="75"/>
+      <c r="I140" s="75"/>
+      <c r="J140" s="75"/>
     </row>
     <row r="141" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B141" s="73" t="s">
+      <c r="B141" s="75" t="s">
         <v>185</v>
       </c>
-      <c r="C141" s="73"/>
-      <c r="D141" s="73" t="s">
+      <c r="C141" s="75"/>
+      <c r="D141" s="75" t="s">
         <v>186</v>
       </c>
-      <c r="E141" s="73"/>
-      <c r="F141" s="73"/>
-      <c r="G141" s="73"/>
-      <c r="H141" s="73"/>
-      <c r="I141" s="73"/>
-      <c r="J141" s="73"/>
+      <c r="E141" s="75"/>
+      <c r="F141" s="75"/>
+      <c r="G141" s="75"/>
+      <c r="H141" s="75"/>
+      <c r="I141" s="75"/>
+      <c r="J141" s="75"/>
     </row>
     <row r="142" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B142" s="73" t="s">
+      <c r="B142" s="75" t="s">
         <v>182</v>
       </c>
-      <c r="C142" s="73"/>
-      <c r="D142" s="73" t="s">
+      <c r="C142" s="75"/>
+      <c r="D142" s="75" t="s">
         <v>183</v>
       </c>
-      <c r="E142" s="73"/>
-      <c r="F142" s="73"/>
-      <c r="G142" s="73"/>
-      <c r="H142" s="73"/>
-      <c r="I142" s="73"/>
-      <c r="J142" s="73"/>
+      <c r="E142" s="75"/>
+      <c r="F142" s="75"/>
+      <c r="G142" s="75"/>
+      <c r="H142" s="75"/>
+      <c r="I142" s="75"/>
+      <c r="J142" s="75"/>
     </row>
     <row r="143" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B143" s="73" t="s">
+      <c r="B143" s="75" t="s">
         <v>184</v>
       </c>
-      <c r="C143" s="73"/>
-      <c r="D143" s="73" t="s">
+      <c r="C143" s="75"/>
+      <c r="D143" s="75" t="s">
         <v>181</v>
       </c>
-      <c r="E143" s="73"/>
-      <c r="F143" s="73"/>
-      <c r="G143" s="73"/>
-      <c r="H143" s="73"/>
-      <c r="I143" s="73"/>
-      <c r="J143" s="73"/>
+      <c r="E143" s="75"/>
+      <c r="F143" s="75"/>
+      <c r="G143" s="75"/>
+      <c r="H143" s="75"/>
+      <c r="I143" s="75"/>
+      <c r="J143" s="75"/>
     </row>
     <row r="144" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B144" s="73" t="s">
+      <c r="B144" s="75" t="s">
         <v>187</v>
       </c>
-      <c r="C144" s="73"/>
-      <c r="D144" s="73" t="s">
+      <c r="C144" s="75"/>
+      <c r="D144" s="75" t="s">
         <v>188</v>
       </c>
-      <c r="E144" s="73"/>
-      <c r="F144" s="73"/>
-      <c r="G144" s="73"/>
-      <c r="H144" s="73"/>
-      <c r="I144" s="73"/>
-      <c r="J144" s="73"/>
+      <c r="E144" s="75"/>
+      <c r="F144" s="75"/>
+      <c r="G144" s="75"/>
+      <c r="H144" s="75"/>
+      <c r="I144" s="75"/>
+      <c r="J144" s="75"/>
     </row>
     <row r="145" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B145" s="73"/>
-      <c r="C145" s="73"/>
-      <c r="D145" s="73"/>
-      <c r="E145" s="73"/>
-      <c r="F145" s="73"/>
-      <c r="G145" s="73"/>
-      <c r="H145" s="73"/>
-      <c r="I145" s="73"/>
-      <c r="J145" s="73"/>
+      <c r="B145" s="75"/>
+      <c r="C145" s="75"/>
+      <c r="D145" s="75"/>
+      <c r="E145" s="75"/>
+      <c r="F145" s="75"/>
+      <c r="G145" s="75"/>
+      <c r="H145" s="75"/>
+      <c r="I145" s="75"/>
+      <c r="J145" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="196">
@@ -6461,11 +6930,6 @@
     <mergeCell ref="C109:F109"/>
     <mergeCell ref="G109:J109"/>
     <mergeCell ref="D98:J98"/>
-    <mergeCell ref="C127:F127"/>
-    <mergeCell ref="G127:J127"/>
-    <mergeCell ref="C126:F126"/>
-    <mergeCell ref="G126:J126"/>
-    <mergeCell ref="C110:F110"/>
     <mergeCell ref="G110:J110"/>
     <mergeCell ref="C111:F111"/>
     <mergeCell ref="G111:J111"/>
@@ -6495,6 +6959,11 @@
     <mergeCell ref="G124:J124"/>
     <mergeCell ref="C125:F125"/>
     <mergeCell ref="G125:J125"/>
+    <mergeCell ref="C127:F127"/>
+    <mergeCell ref="G127:J127"/>
+    <mergeCell ref="C126:F126"/>
+    <mergeCell ref="G126:J126"/>
+    <mergeCell ref="C110:F110"/>
     <mergeCell ref="B143:C143"/>
     <mergeCell ref="D143:J143"/>
     <mergeCell ref="B144:C144"/>
@@ -6524,10 +6993,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J3"/>
+  <dimension ref="B1:J63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:J3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6538,34 +7007,625 @@
   <sheetData>
     <row r="1" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="18"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="20"/>
     </row>
     <row r="3" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="19"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="23"/>
+    </row>
+    <row r="4" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B5" s="69" t="s">
+        <v>210</v>
+      </c>
+      <c r="C5" s="70"/>
+      <c r="D5" s="71"/>
+    </row>
+    <row r="6" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="72"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="74"/>
+    </row>
+    <row r="8" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="106" t="s">
+        <v>211</v>
+      </c>
+      <c r="C8" s="75" t="s">
+        <v>221</v>
+      </c>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="109" t="s">
+        <v>216</v>
+      </c>
+      <c r="G8" s="107" t="s">
+        <v>222</v>
+      </c>
+      <c r="H8" s="90"/>
+      <c r="I8" s="90"/>
+      <c r="J8" s="91"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B9" s="106" t="s">
+        <v>212</v>
+      </c>
+      <c r="C9" s="75" t="s">
+        <v>214</v>
+      </c>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="110"/>
+      <c r="G9" s="75" t="s">
+        <v>217</v>
+      </c>
+      <c r="H9" s="75"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="75"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B10" s="106" t="s">
+        <v>213</v>
+      </c>
+      <c r="C10" s="75" t="s">
+        <v>215</v>
+      </c>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="111"/>
+      <c r="G10" s="75" t="s">
+        <v>218</v>
+      </c>
+      <c r="H10" s="75"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="75"/>
+    </row>
+    <row r="12" spans="2:10" s="16" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="109" t="s">
+        <v>223</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="D12" s="76" t="s">
+        <v>216</v>
+      </c>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="76"/>
+    </row>
+    <row r="13" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="110"/>
+      <c r="C13" s="112" t="s">
+        <v>225</v>
+      </c>
+      <c r="D13" s="75" t="s">
+        <v>233</v>
+      </c>
+      <c r="E13" s="75"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="75"/>
+      <c r="J13" s="75"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B14" s="110"/>
+      <c r="C14" s="112" t="s">
+        <v>226</v>
+      </c>
+      <c r="D14" s="75" t="s">
+        <v>234</v>
+      </c>
+      <c r="E14" s="75"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="75"/>
+      <c r="J14" s="75"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B15" s="110"/>
+      <c r="C15" s="112" t="s">
+        <v>227</v>
+      </c>
+      <c r="D15" s="75" t="s">
+        <v>237</v>
+      </c>
+      <c r="E15" s="75"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="75"/>
+      <c r="J15" s="75"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B16" s="110"/>
+      <c r="C16" s="112" t="s">
+        <v>228</v>
+      </c>
+      <c r="D16" s="75" t="s">
+        <v>236</v>
+      </c>
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="75"/>
+      <c r="J16" s="75"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B17" s="110"/>
+      <c r="C17" s="112" t="s">
+        <v>229</v>
+      </c>
+      <c r="D17" s="75" t="s">
+        <v>235</v>
+      </c>
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="75"/>
+      <c r="I17" s="75"/>
+      <c r="J17" s="75"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B18" s="110"/>
+      <c r="C18" s="112" t="s">
+        <v>230</v>
+      </c>
+      <c r="D18" s="75" t="s">
+        <v>238</v>
+      </c>
+      <c r="E18" s="75"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="75"/>
+      <c r="I18" s="75"/>
+      <c r="J18" s="75"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B19" s="110"/>
+      <c r="C19" s="112" t="s">
+        <v>239</v>
+      </c>
+      <c r="D19" s="75" t="s">
+        <v>246</v>
+      </c>
+      <c r="E19" s="75"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="75"/>
+      <c r="I19" s="75"/>
+      <c r="J19" s="75"/>
+    </row>
+    <row r="20" spans="2:10" s="16" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="110"/>
+      <c r="C20" s="112" t="s">
+        <v>240</v>
+      </c>
+      <c r="D20" s="75" t="s">
+        <v>241</v>
+      </c>
+      <c r="E20" s="75"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="75"/>
+      <c r="I20" s="75"/>
+      <c r="J20" s="75"/>
+    </row>
+    <row r="21" spans="2:10" s="16" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="110"/>
+      <c r="C21" s="112" t="s">
+        <v>231</v>
+      </c>
+      <c r="D21" s="75" t="s">
+        <v>242</v>
+      </c>
+      <c r="E21" s="75"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="75"/>
+      <c r="I21" s="75"/>
+      <c r="J21" s="75"/>
+    </row>
+    <row r="22" spans="2:10" s="16" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="111"/>
+      <c r="C22" s="112" t="s">
+        <v>232</v>
+      </c>
+      <c r="D22" s="75" t="s">
+        <v>243</v>
+      </c>
+      <c r="E22" s="75"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="75"/>
+      <c r="H22" s="75"/>
+      <c r="I22" s="75"/>
+      <c r="J22" s="75"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B24" s="108" t="s">
+        <v>219</v>
+      </c>
+      <c r="C24" s="83" t="s">
+        <v>220</v>
+      </c>
+      <c r="D24" s="83"/>
+      <c r="E24" s="83"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="83"/>
+      <c r="H24" s="83"/>
+      <c r="I24" s="83"/>
+      <c r="J24" s="83"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B25" s="108"/>
+      <c r="C25" s="83"/>
+      <c r="D25" s="83"/>
+      <c r="E25" s="83"/>
+      <c r="F25" s="83"/>
+      <c r="G25" s="83"/>
+      <c r="H25" s="83"/>
+      <c r="I25" s="83"/>
+      <c r="J25" s="83"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B26" s="108"/>
+      <c r="C26" s="83"/>
+      <c r="D26" s="83"/>
+      <c r="E26" s="83"/>
+      <c r="F26" s="83"/>
+      <c r="G26" s="83"/>
+      <c r="H26" s="83"/>
+      <c r="I26" s="83"/>
+      <c r="J26" s="83"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B27" s="108"/>
+      <c r="C27" s="83"/>
+      <c r="D27" s="83"/>
+      <c r="E27" s="83"/>
+      <c r="F27" s="83"/>
+      <c r="G27" s="83"/>
+      <c r="H27" s="83"/>
+      <c r="I27" s="83"/>
+      <c r="J27" s="83"/>
+    </row>
+    <row r="29" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B30" s="69" t="s">
+        <v>195</v>
+      </c>
+      <c r="C30" s="70"/>
+      <c r="D30" s="71"/>
+    </row>
+    <row r="31" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="72"/>
+      <c r="C31" s="73"/>
+      <c r="D31" s="74"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B33" s="105" t="s">
+        <v>197</v>
+      </c>
+      <c r="C33" s="83" t="s">
+        <v>196</v>
+      </c>
+      <c r="D33" s="75"/>
+      <c r="E33" s="75"/>
+      <c r="F33" s="75"/>
+      <c r="G33" s="75"/>
+      <c r="H33" s="75"/>
+      <c r="I33" s="75"/>
+      <c r="J33" s="75"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B34" s="105"/>
+      <c r="C34" s="75"/>
+      <c r="D34" s="75"/>
+      <c r="E34" s="75"/>
+      <c r="F34" s="75"/>
+      <c r="G34" s="75"/>
+      <c r="H34" s="75"/>
+      <c r="I34" s="75"/>
+      <c r="J34" s="75"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B35" s="105" t="s">
+        <v>198</v>
+      </c>
+      <c r="C35" s="83" t="s">
+        <v>199</v>
+      </c>
+      <c r="D35" s="75"/>
+      <c r="E35" s="75"/>
+      <c r="F35" s="75"/>
+      <c r="G35" s="75"/>
+      <c r="H35" s="75"/>
+      <c r="I35" s="75"/>
+      <c r="J35" s="75"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B36" s="105"/>
+      <c r="C36" s="75"/>
+      <c r="D36" s="75"/>
+      <c r="E36" s="75"/>
+      <c r="F36" s="75"/>
+      <c r="G36" s="75"/>
+      <c r="H36" s="75"/>
+      <c r="I36" s="75"/>
+      <c r="J36" s="75"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="C37" s="15"/>
+    </row>
+    <row r="38" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B39" s="69" t="s">
+        <v>208</v>
+      </c>
+      <c r="C39" s="70"/>
+      <c r="D39" s="71"/>
+    </row>
+    <row r="40" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="72"/>
+      <c r="C40" s="73"/>
+      <c r="D40" s="74"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B42" s="76" t="s">
+        <v>201</v>
+      </c>
+      <c r="C42" s="101" t="s">
+        <v>200</v>
+      </c>
+      <c r="D42" s="101"/>
+      <c r="E42" s="102">
+        <v>0</v>
+      </c>
+      <c r="F42" s="102"/>
+      <c r="G42" s="102">
+        <v>0</v>
+      </c>
+      <c r="H42" s="102"/>
+      <c r="I42" s="102">
+        <v>0</v>
+      </c>
+      <c r="J42" s="102"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B43" s="76"/>
+      <c r="C43" s="101"/>
+      <c r="D43" s="101"/>
+      <c r="E43" s="102"/>
+      <c r="F43" s="102"/>
+      <c r="G43" s="102"/>
+      <c r="H43" s="102"/>
+      <c r="I43" s="102"/>
+      <c r="J43" s="102"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B44" s="76" t="s">
+        <v>202</v>
+      </c>
+      <c r="C44" s="103" t="s">
+        <v>204</v>
+      </c>
+      <c r="D44" s="104"/>
+      <c r="E44" s="103" t="s">
+        <v>205</v>
+      </c>
+      <c r="F44" s="103"/>
+      <c r="G44" s="103" t="s">
+        <v>206</v>
+      </c>
+      <c r="H44" s="103"/>
+      <c r="I44" s="103" t="s">
+        <v>207</v>
+      </c>
+      <c r="J44" s="103"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B45" s="76"/>
+      <c r="C45" s="104"/>
+      <c r="D45" s="104"/>
+      <c r="E45" s="103"/>
+      <c r="F45" s="103"/>
+      <c r="G45" s="103"/>
+      <c r="H45" s="103"/>
+      <c r="I45" s="103"/>
+      <c r="J45" s="103"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B46" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+    </row>
+    <row r="48" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B49" s="69" t="s">
+        <v>245</v>
+      </c>
+      <c r="C49" s="70"/>
+      <c r="D49" s="71"/>
+    </row>
+    <row r="50" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B50" s="72"/>
+      <c r="C50" s="73"/>
+      <c r="D50" s="74"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B52" s="77" t="s">
+        <v>247</v>
+      </c>
+      <c r="C52" s="77"/>
+      <c r="D52" s="59" t="s">
+        <v>248</v>
+      </c>
+      <c r="E52" s="55"/>
+      <c r="F52" s="55"/>
+      <c r="G52" s="55"/>
+      <c r="H52" s="55"/>
+      <c r="I52" s="55"/>
+      <c r="J52" s="55"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B53" s="77"/>
+      <c r="C53" s="77"/>
+      <c r="D53" s="55"/>
+      <c r="E53" s="55"/>
+      <c r="F53" s="55"/>
+      <c r="G53" s="55"/>
+      <c r="H53" s="55"/>
+      <c r="I53" s="55"/>
+      <c r="J53" s="55"/>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B54" s="77"/>
+      <c r="C54" s="77"/>
+      <c r="D54" s="55"/>
+      <c r="E54" s="55"/>
+      <c r="F54" s="55"/>
+      <c r="G54" s="55"/>
+      <c r="H54" s="55"/>
+      <c r="I54" s="55"/>
+      <c r="J54" s="55"/>
+    </row>
+    <row r="56" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B57" s="69" t="s">
+        <v>250</v>
+      </c>
+      <c r="C57" s="70"/>
+      <c r="D57" s="71"/>
+    </row>
+    <row r="58" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B58" s="72"/>
+      <c r="C58" s="73"/>
+      <c r="D58" s="74"/>
+    </row>
+    <row r="60" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B60" s="116" t="s">
+        <v>251</v>
+      </c>
+      <c r="C60" s="116"/>
+      <c r="D60" s="116"/>
+      <c r="E60" s="116"/>
+      <c r="F60" s="116"/>
+      <c r="G60" s="116"/>
+      <c r="H60" s="116"/>
+      <c r="I60" s="116"/>
+      <c r="J60" s="116"/>
+    </row>
+    <row r="61" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B61" s="116"/>
+      <c r="C61" s="116"/>
+      <c r="D61" s="116"/>
+      <c r="E61" s="116"/>
+      <c r="F61" s="116"/>
+      <c r="G61" s="116"/>
+      <c r="H61" s="116"/>
+      <c r="I61" s="116"/>
+      <c r="J61" s="116"/>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B62" s="116"/>
+      <c r="C62" s="116"/>
+      <c r="D62" s="116"/>
+      <c r="E62" s="116"/>
+      <c r="F62" s="116"/>
+      <c r="G62" s="116"/>
+      <c r="H62" s="116"/>
+      <c r="I62" s="116"/>
+      <c r="J62" s="116"/>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B63" s="116"/>
+      <c r="C63" s="116"/>
+      <c r="D63" s="116"/>
+      <c r="E63" s="116"/>
+      <c r="F63" s="116"/>
+      <c r="G63" s="116"/>
+      <c r="H63" s="116"/>
+      <c r="I63" s="116"/>
+      <c r="J63" s="116"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="44">
+    <mergeCell ref="B57:D58"/>
+    <mergeCell ref="B60:J63"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="B49:D50"/>
+    <mergeCell ref="B12:B22"/>
+    <mergeCell ref="B52:C54"/>
+    <mergeCell ref="D52:J54"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:J27"/>
+    <mergeCell ref="D13:J13"/>
+    <mergeCell ref="D14:J14"/>
+    <mergeCell ref="D15:J15"/>
+    <mergeCell ref="D16:J16"/>
+    <mergeCell ref="D17:J17"/>
+    <mergeCell ref="D18:J18"/>
+    <mergeCell ref="D19:J19"/>
+    <mergeCell ref="D20:J20"/>
+    <mergeCell ref="D21:J21"/>
+    <mergeCell ref="D22:J22"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="B39:D40"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B44:B45"/>
     <mergeCell ref="B2:J3"/>
+    <mergeCell ref="B30:D31"/>
+    <mergeCell ref="C33:J34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:J36"/>
+    <mergeCell ref="B5:D6"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C42:D43"/>
+    <mergeCell ref="E42:F43"/>
+    <mergeCell ref="G42:H43"/>
+    <mergeCell ref="I42:J43"/>
+    <mergeCell ref="C44:D45"/>
+    <mergeCell ref="E44:F45"/>
+    <mergeCell ref="G44:H45"/>
+    <mergeCell ref="I44:J45"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/書類やスケジュール/タワーディフェンス・コーディングルール.xlsx
+++ b/書類やスケジュール/タワーディフェンス・コーディングルール.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="261">
   <si>
     <t>目次</t>
     <rPh sb="0" eb="2">
@@ -3118,6 +3118,43 @@
   <si>
     <t>タグ(ver)の付け方</t>
   </si>
+  <si>
+    <t>　</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※プルリクエストを送った後にフィーチャーブランチを完了するのですが
+　その際に、フィーチャーブランチを削除のチェックを外してください。
+　リモートからブランチが消え細かなver管理ができなくなってしまいます。</t>
+    <rPh sb="9" eb="10">
+      <t>オク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>ハズ</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>コマ</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -3764,7 +3801,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3801,6 +3838,44 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3894,38 +3969,23 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3936,117 +3996,126 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4060,37 +4129,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4387,282 +4430,274 @@
   <sheetData>
     <row r="1" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="20"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="34"/>
     </row>
     <row r="3" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="21"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="23"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="37"/>
     </row>
     <row r="4" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="5" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="37" t="s">
+      <c r="C5" s="39"/>
+      <c r="D5" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="38"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="52"/>
     </row>
     <row r="6" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="48"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="62"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="41" t="s">
+      <c r="C7" s="41"/>
+      <c r="D7" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="42"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="56"/>
     </row>
     <row r="8" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="43" t="s">
+      <c r="C8" s="43"/>
+      <c r="D8" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="45"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="59"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="43" t="s">
+      <c r="C9" s="43"/>
+      <c r="D9" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="45"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="59"/>
     </row>
     <row r="10" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="36"/>
-      <c r="D10" s="39" t="s">
+      <c r="C10" s="50"/>
+      <c r="D10" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="40"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="54"/>
     </row>
     <row r="12" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="31"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="45"/>
     </row>
     <row r="14" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="32"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="34"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="48"/>
     </row>
     <row r="15" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="16" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="49">
+      <c r="C16" s="21">
         <v>43656</v>
       </c>
-      <c r="D16" s="49"/>
+      <c r="D16" s="21"/>
       <c r="E16" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="50" t="s">
+      <c r="F16" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="52"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="24"/>
     </row>
     <row r="17" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="53" t="s">
+      <c r="B17" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="59" t="s">
+      <c r="C17" s="31" t="s">
         <v>194</v>
       </c>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="55"/>
-      <c r="J17" s="56"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="28"/>
     </row>
     <row r="18" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="53"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="56"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="28"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B19" s="53"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="56"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="28"/>
     </row>
     <row r="20" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="54"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="58"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="30"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B21" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
       <c r="E21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F21" s="50"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="52"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="24"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B22" s="53" t="s">
+      <c r="B22" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="55"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="56"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="28"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B23" s="53"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="55"/>
-      <c r="J23" s="56"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="28"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B24" s="53"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="55"/>
-      <c r="J24" s="56"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="28"/>
     </row>
     <row r="25" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="54"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="57"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="57"/>
-      <c r="J25" s="58"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="C22:J25"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="C17:J20"/>
-    <mergeCell ref="F16:J16"/>
     <mergeCell ref="B2:J3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B7:C7"/>
@@ -4676,6 +4711,14 @@
     <mergeCell ref="D8:J8"/>
     <mergeCell ref="D9:J9"/>
     <mergeCell ref="B6:J6"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C22:J25"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="C17:J20"/>
+    <mergeCell ref="F16:J16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4699,35 +4742,35 @@
   <sheetData>
     <row r="1" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="20"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="34"/>
     </row>
     <row r="3" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="21"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="23"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="37"/>
     </row>
     <row r="4" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="5" spans="2:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="66"/>
+      <c r="C5" s="74"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -4740,10 +4783,10 @@
       <c r="B6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="67" t="s">
+      <c r="C6" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="67"/>
+      <c r="D6" s="75"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -4755,189 +4798,189 @@
       <c r="B7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="68" t="s">
+      <c r="C7" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="68"/>
+      <c r="D7" s="76"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="60" t="s">
+      <c r="C8" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="60"/>
+      <c r="D8" s="69"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B9" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="60" t="s">
+      <c r="C9" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="60"/>
+      <c r="D9" s="69"/>
     </row>
     <row r="10" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B10" s="1"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B11" s="69" t="s">
+      <c r="B11" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="70"/>
-      <c r="D11" s="71"/>
-      <c r="G11" s="69" t="s">
+      <c r="C11" s="64"/>
+      <c r="D11" s="65"/>
+      <c r="G11" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="H11" s="70"/>
-      <c r="I11" s="71"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="65"/>
     </row>
     <row r="12" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="72"/>
-      <c r="C12" s="73"/>
-      <c r="D12" s="74"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="73"/>
-      <c r="I12" s="74"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="68"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="68"/>
     </row>
     <row r="13" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="61" t="s">
+      <c r="B13" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="62"/>
+      <c r="C13" s="71"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="114" t="s">
+      <c r="G13" s="20" t="s">
         <v>252</v>
       </c>
-      <c r="H13" s="115" t="s">
+      <c r="H13" s="72" t="s">
         <v>209</v>
       </c>
-      <c r="I13" s="115"/>
+      <c r="I13" s="72"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B14" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C14" s="60" t="s">
+      <c r="C14" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="60"/>
-      <c r="G14" s="114" t="s">
+      <c r="D14" s="69"/>
+      <c r="G14" s="20" t="s">
         <v>253</v>
       </c>
-      <c r="H14" s="115" t="s">
+      <c r="H14" s="72" t="s">
         <v>257</v>
       </c>
-      <c r="I14" s="115"/>
+      <c r="I14" s="72"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B15" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C15" s="60" t="s">
+      <c r="C15" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="60"/>
-      <c r="G15" s="114" t="s">
+      <c r="D15" s="69"/>
+      <c r="G15" s="20" t="s">
         <v>254</v>
       </c>
-      <c r="H15" s="115" t="s">
+      <c r="H15" s="72" t="s">
         <v>258</v>
       </c>
-      <c r="I15" s="115"/>
+      <c r="I15" s="72"/>
     </row>
     <row r="16" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="5"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
-      <c r="G16" s="114" t="s">
+      <c r="G16" s="20" t="s">
         <v>255</v>
       </c>
-      <c r="H16" s="115" t="s">
+      <c r="H16" s="72" t="s">
         <v>244</v>
       </c>
-      <c r="I16" s="115"/>
+      <c r="I16" s="72"/>
     </row>
     <row r="17" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="61" t="s">
+      <c r="B17" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="62"/>
+      <c r="C17" s="71"/>
       <c r="D17" s="7"/>
-      <c r="G17" s="114" t="s">
+      <c r="G17" s="20" t="s">
         <v>256</v>
       </c>
-      <c r="H17" s="115" t="s">
+      <c r="H17" s="72" t="s">
         <v>249</v>
       </c>
-      <c r="I17" s="115"/>
+      <c r="I17" s="72"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B18" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C18" s="60" t="s">
+      <c r="C18" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="60"/>
+      <c r="D18" s="69"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B19" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="60" t="s">
+      <c r="C19" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="60"/>
+      <c r="D19" s="69"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B20" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="60" t="s">
+      <c r="C20" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="60"/>
+      <c r="D20" s="69"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B21" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="60" t="s">
+      <c r="C21" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="60"/>
+      <c r="D21" s="69"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B22" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="60" t="s">
+      <c r="C22" s="69" t="s">
         <v>84</v>
       </c>
-      <c r="D22" s="60"/>
+      <c r="D22" s="69"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B23" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="60" t="s">
+      <c r="C23" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="60"/>
+      <c r="D23" s="69"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B24" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="60" t="s">
+      <c r="C24" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="60"/>
+      <c r="D24" s="69"/>
     </row>
     <row r="25" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B25" s="5"/>
@@ -4945,90 +4988,109 @@
       <c r="D25" s="7"/>
     </row>
     <row r="26" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="63" t="s">
+      <c r="B26" s="77" t="s">
         <v>104</v>
       </c>
-      <c r="C26" s="64"/>
+      <c r="C26" s="78"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B27" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C27" s="60" t="s">
+      <c r="C27" s="69" t="s">
         <v>190</v>
       </c>
-      <c r="D27" s="60"/>
+      <c r="D27" s="69"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B28" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C28" s="60" t="s">
+      <c r="C28" s="69" t="s">
         <v>126</v>
       </c>
-      <c r="D28" s="60"/>
+      <c r="D28" s="69"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B29" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C29" s="60" t="s">
+      <c r="C29" s="69" t="s">
         <v>133</v>
       </c>
-      <c r="D29" s="60"/>
+      <c r="D29" s="69"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B30" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C30" s="60" t="s">
+      <c r="C30" s="69" t="s">
         <v>143</v>
       </c>
-      <c r="D30" s="60"/>
+      <c r="D30" s="69"/>
     </row>
     <row r="31" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="32" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="61" t="s">
+      <c r="B32" s="70" t="s">
         <v>154</v>
       </c>
-      <c r="C32" s="62"/>
+      <c r="C32" s="71"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B33" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="C33" s="60" t="s">
+      <c r="C33" s="69" t="s">
         <v>153</v>
       </c>
-      <c r="D33" s="60"/>
+      <c r="D33" s="69"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B34" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C34" s="60" t="s">
+      <c r="C34" s="69" t="s">
         <v>167</v>
       </c>
-      <c r="D34" s="60"/>
+      <c r="D34" s="69"/>
     </row>
     <row r="35" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="36" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="61" t="s">
+      <c r="B36" s="70" t="s">
         <v>176</v>
       </c>
-      <c r="C36" s="62"/>
+      <c r="C36" s="71"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B37" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="C37" s="60" t="s">
+      <c r="C37" s="69" t="s">
         <v>193</v>
       </c>
-      <c r="D37" s="60"/>
+      <c r="D37" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B2:J3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
     <mergeCell ref="G11:I12"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C18:D18"/>
@@ -5044,25 +5106,6 @@
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="H16:I16"/>
     <mergeCell ref="H17:I17"/>
-    <mergeCell ref="B2:J3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B17:C17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -5112,322 +5155,322 @@
   <sheetData>
     <row r="1" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="20"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="34"/>
     </row>
     <row r="3" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="21"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="23"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="37"/>
     </row>
     <row r="4" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="5" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="70"/>
-      <c r="D5" s="71"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="65"/>
     </row>
     <row r="6" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="72"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="74"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="68"/>
     </row>
     <row r="8" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="108" t="s">
+      <c r="B8" s="93" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="92" t="s">
+      <c r="C8" s="79" t="s">
         <v>113</v>
       </c>
-      <c r="D8" s="92"/>
-      <c r="E8" s="92"/>
-      <c r="F8" s="92"/>
-      <c r="G8" s="92"/>
-      <c r="H8" s="92"/>
-      <c r="I8" s="92"/>
-      <c r="J8" s="92"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="79"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B9" s="108"/>
-      <c r="C9" s="113" t="s">
+      <c r="B9" s="93"/>
+      <c r="C9" s="80" t="s">
         <v>114</v>
       </c>
-      <c r="D9" s="113"/>
-      <c r="E9" s="113"/>
-      <c r="F9" s="113"/>
-      <c r="G9" s="113"/>
-      <c r="H9" s="113"/>
-      <c r="I9" s="113"/>
-      <c r="J9" s="113"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="80"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B10" s="108"/>
-      <c r="C10" s="113" t="s">
+      <c r="B10" s="93"/>
+      <c r="C10" s="80" t="s">
         <v>115</v>
       </c>
-      <c r="D10" s="113"/>
-      <c r="E10" s="113"/>
-      <c r="F10" s="113"/>
-      <c r="G10" s="113"/>
-      <c r="H10" s="113"/>
-      <c r="I10" s="113"/>
-      <c r="J10" s="113"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="80"/>
+      <c r="H10" s="80"/>
+      <c r="I10" s="80"/>
+      <c r="J10" s="80"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B11" s="108"/>
-      <c r="C11" s="113" t="s">
+      <c r="B11" s="93"/>
+      <c r="C11" s="80" t="s">
         <v>116</v>
       </c>
-      <c r="D11" s="113"/>
-      <c r="E11" s="113"/>
-      <c r="F11" s="113"/>
-      <c r="G11" s="113"/>
-      <c r="H11" s="113"/>
-      <c r="I11" s="113"/>
-      <c r="J11" s="113"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="80"/>
+      <c r="J11" s="80"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B13" s="77" t="s">
+      <c r="B13" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="44" t="s">
+      <c r="C13" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="44"/>
-      <c r="E13" s="100" t="s">
+      <c r="D13" s="58"/>
+      <c r="E13" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="F13" s="100"/>
-      <c r="G13" s="100"/>
-      <c r="H13" s="100"/>
-      <c r="I13" s="100"/>
-      <c r="J13" s="100"/>
+      <c r="F13" s="89"/>
+      <c r="G13" s="89"/>
+      <c r="H13" s="89"/>
+      <c r="I13" s="89"/>
+      <c r="J13" s="89"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B14" s="108"/>
-      <c r="C14" s="44" t="s">
+      <c r="B14" s="93"/>
+      <c r="C14" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="44"/>
-      <c r="E14" s="100" t="s">
+      <c r="D14" s="58"/>
+      <c r="E14" s="89" t="s">
         <v>54</v>
       </c>
-      <c r="F14" s="100"/>
-      <c r="G14" s="100"/>
-      <c r="H14" s="100"/>
-      <c r="I14" s="100"/>
-      <c r="J14" s="100"/>
+      <c r="F14" s="89"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="89"/>
+      <c r="J14" s="89"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B15" s="108"/>
-      <c r="C15" s="44" t="s">
+      <c r="B15" s="93"/>
+      <c r="C15" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="44"/>
-      <c r="E15" s="100" t="s">
+      <c r="D15" s="58"/>
+      <c r="E15" s="89" t="s">
         <v>56</v>
       </c>
-      <c r="F15" s="100"/>
-      <c r="G15" s="100"/>
-      <c r="H15" s="100"/>
-      <c r="I15" s="100"/>
-      <c r="J15" s="100"/>
+      <c r="F15" s="89"/>
+      <c r="G15" s="89"/>
+      <c r="H15" s="89"/>
+      <c r="I15" s="89"/>
+      <c r="J15" s="89"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B16" s="108"/>
-      <c r="C16" s="44" t="s">
+      <c r="B16" s="93"/>
+      <c r="C16" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="44"/>
-      <c r="E16" s="100" t="s">
+      <c r="D16" s="58"/>
+      <c r="E16" s="89" t="s">
         <v>57</v>
       </c>
-      <c r="F16" s="100"/>
-      <c r="G16" s="100"/>
-      <c r="H16" s="100"/>
-      <c r="I16" s="100"/>
-      <c r="J16" s="100"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="89"/>
+      <c r="H16" s="89"/>
+      <c r="I16" s="89"/>
+      <c r="J16" s="89"/>
     </row>
     <row r="18" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="19" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B19" s="69" t="s">
+      <c r="B19" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="70"/>
-      <c r="D19" s="71"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="65"/>
     </row>
     <row r="20" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="72"/>
-      <c r="C20" s="73"/>
-      <c r="D20" s="74"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="68"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B22" s="77" t="s">
+      <c r="B22" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="81" t="s">
+      <c r="C22" s="84" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="81"/>
-      <c r="E22" s="81"/>
-      <c r="F22" s="81"/>
-      <c r="G22" s="81" t="s">
+      <c r="D22" s="84"/>
+      <c r="E22" s="84"/>
+      <c r="F22" s="84"/>
+      <c r="G22" s="84" t="s">
         <v>46</v>
       </c>
-      <c r="H22" s="81"/>
-      <c r="I22" s="81"/>
-      <c r="J22" s="81"/>
+      <c r="H22" s="84"/>
+      <c r="I22" s="84"/>
+      <c r="J22" s="84"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B23" s="77"/>
-      <c r="C23" s="82" t="s">
+      <c r="B23" s="83"/>
+      <c r="C23" s="81" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="82"/>
-      <c r="E23" s="82"/>
-      <c r="F23" s="82"/>
-      <c r="G23" s="82" t="s">
+      <c r="D23" s="81"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="81"/>
+      <c r="G23" s="81" t="s">
         <v>58</v>
       </c>
-      <c r="H23" s="82"/>
-      <c r="I23" s="82"/>
-      <c r="J23" s="82"/>
+      <c r="H23" s="81"/>
+      <c r="I23" s="81"/>
+      <c r="J23" s="81"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B24" s="77"/>
-      <c r="C24" s="82" t="s">
+      <c r="B24" s="83"/>
+      <c r="C24" s="81" t="s">
         <v>60</v>
       </c>
-      <c r="D24" s="82"/>
-      <c r="E24" s="82"/>
-      <c r="F24" s="82"/>
-      <c r="G24" s="82" t="s">
+      <c r="D24" s="81"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="81" t="s">
         <v>61</v>
       </c>
-      <c r="H24" s="82"/>
-      <c r="I24" s="82"/>
-      <c r="J24" s="82"/>
+      <c r="H24" s="81"/>
+      <c r="I24" s="81"/>
+      <c r="J24" s="81"/>
     </row>
     <row r="25" spans="2:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="77"/>
-      <c r="C25" s="82" t="s">
+      <c r="B25" s="83"/>
+      <c r="C25" s="81" t="s">
         <v>62</v>
       </c>
-      <c r="D25" s="82"/>
-      <c r="E25" s="82"/>
-      <c r="F25" s="82"/>
-      <c r="G25" s="83" t="s">
+      <c r="D25" s="81"/>
+      <c r="E25" s="81"/>
+      <c r="F25" s="81"/>
+      <c r="G25" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="H25" s="83"/>
-      <c r="I25" s="83"/>
-      <c r="J25" s="83"/>
+      <c r="H25" s="82"/>
+      <c r="I25" s="82"/>
+      <c r="J25" s="82"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B26" s="77"/>
-      <c r="C26" s="82" t="s">
+      <c r="B26" s="83"/>
+      <c r="C26" s="81" t="s">
         <v>64</v>
       </c>
-      <c r="D26" s="82"/>
-      <c r="E26" s="82"/>
-      <c r="F26" s="82"/>
-      <c r="G26" s="82" t="s">
+      <c r="D26" s="81"/>
+      <c r="E26" s="81"/>
+      <c r="F26" s="81"/>
+      <c r="G26" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="H26" s="82"/>
-      <c r="I26" s="82"/>
-      <c r="J26" s="82"/>
+      <c r="H26" s="81"/>
+      <c r="I26" s="81"/>
+      <c r="J26" s="81"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B27" s="77"/>
-      <c r="C27" s="82" t="s">
+      <c r="B27" s="83"/>
+      <c r="C27" s="81" t="s">
         <v>68</v>
       </c>
-      <c r="D27" s="82"/>
-      <c r="E27" s="82"/>
-      <c r="F27" s="82"/>
-      <c r="G27" s="82" t="s">
+      <c r="D27" s="81"/>
+      <c r="E27" s="81"/>
+      <c r="F27" s="81"/>
+      <c r="G27" s="81" t="s">
         <v>74</v>
       </c>
-      <c r="H27" s="82"/>
-      <c r="I27" s="82"/>
-      <c r="J27" s="82"/>
+      <c r="H27" s="81"/>
+      <c r="I27" s="81"/>
+      <c r="J27" s="81"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B28" s="77"/>
-      <c r="C28" s="82" t="s">
+      <c r="B28" s="83"/>
+      <c r="C28" s="81" t="s">
         <v>70</v>
       </c>
-      <c r="D28" s="82"/>
-      <c r="E28" s="82"/>
-      <c r="F28" s="82"/>
-      <c r="G28" s="82" t="s">
+      <c r="D28" s="81"/>
+      <c r="E28" s="81"/>
+      <c r="F28" s="81"/>
+      <c r="G28" s="81" t="s">
         <v>69</v>
       </c>
-      <c r="H28" s="82"/>
-      <c r="I28" s="82"/>
-      <c r="J28" s="82"/>
+      <c r="H28" s="81"/>
+      <c r="I28" s="81"/>
+      <c r="J28" s="81"/>
     </row>
     <row r="29" spans="2:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="77"/>
-      <c r="C29" s="44" t="s">
+      <c r="B29" s="83"/>
+      <c r="C29" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="82" t="s">
+      <c r="D29" s="58"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="81" t="s">
         <v>75</v>
       </c>
-      <c r="H29" s="100"/>
-      <c r="I29" s="100"/>
-      <c r="J29" s="100"/>
+      <c r="H29" s="89"/>
+      <c r="I29" s="89"/>
+      <c r="J29" s="89"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B30" s="77"/>
-      <c r="C30" s="100" t="s">
+      <c r="B30" s="83"/>
+      <c r="C30" s="89" t="s">
         <v>80</v>
       </c>
-      <c r="D30" s="100"/>
-      <c r="E30" s="100"/>
-      <c r="F30" s="100"/>
-      <c r="G30" s="100" t="s">
+      <c r="D30" s="89"/>
+      <c r="E30" s="89"/>
+      <c r="F30" s="89"/>
+      <c r="G30" s="89" t="s">
         <v>58</v>
       </c>
-      <c r="H30" s="100"/>
-      <c r="I30" s="100"/>
-      <c r="J30" s="100"/>
+      <c r="H30" s="89"/>
+      <c r="I30" s="89"/>
+      <c r="J30" s="89"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B31" s="77"/>
-      <c r="C31" s="100" t="s">
+      <c r="B31" s="83"/>
+      <c r="C31" s="89" t="s">
         <v>79</v>
       </c>
-      <c r="D31" s="100"/>
-      <c r="E31" s="100"/>
-      <c r="F31" s="100"/>
-      <c r="G31" s="100" t="s">
+      <c r="D31" s="89"/>
+      <c r="E31" s="89"/>
+      <c r="F31" s="89"/>
+      <c r="G31" s="89" t="s">
         <v>58</v>
       </c>
-      <c r="H31" s="100"/>
-      <c r="I31" s="100"/>
-      <c r="J31" s="100"/>
+      <c r="H31" s="89"/>
+      <c r="I31" s="89"/>
+      <c r="J31" s="89"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B32" s="10"/>
@@ -5455,78 +5498,78 @@
       <c r="B34" s="94" t="s">
         <v>40</v>
       </c>
-      <c r="C34" s="81" t="s">
+      <c r="C34" s="84" t="s">
         <v>47</v>
       </c>
-      <c r="D34" s="81"/>
-      <c r="E34" s="81"/>
-      <c r="F34" s="81"/>
-      <c r="G34" s="81" t="s">
+      <c r="D34" s="84"/>
+      <c r="E34" s="84"/>
+      <c r="F34" s="84"/>
+      <c r="G34" s="84" t="s">
         <v>46</v>
       </c>
-      <c r="H34" s="81"/>
-      <c r="I34" s="81"/>
-      <c r="J34" s="81"/>
+      <c r="H34" s="84"/>
+      <c r="I34" s="84"/>
+      <c r="J34" s="84"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B35" s="95"/>
-      <c r="C35" s="82" t="s">
+      <c r="C35" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="D35" s="82"/>
-      <c r="E35" s="82"/>
-      <c r="F35" s="82"/>
-      <c r="G35" s="82" t="s">
+      <c r="D35" s="81"/>
+      <c r="E35" s="81"/>
+      <c r="F35" s="81"/>
+      <c r="G35" s="81" t="s">
         <v>67</v>
       </c>
-      <c r="H35" s="82"/>
-      <c r="I35" s="82"/>
-      <c r="J35" s="82"/>
+      <c r="H35" s="81"/>
+      <c r="I35" s="81"/>
+      <c r="J35" s="81"/>
     </row>
     <row r="36" spans="2:10" s="9" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B36" s="95"/>
-      <c r="C36" s="97" t="s">
+      <c r="C36" s="90" t="s">
         <v>118</v>
       </c>
-      <c r="D36" s="98"/>
-      <c r="E36" s="98"/>
-      <c r="F36" s="99"/>
-      <c r="G36" s="78" t="s">
+      <c r="D36" s="91"/>
+      <c r="E36" s="91"/>
+      <c r="F36" s="92"/>
+      <c r="G36" s="86" t="s">
         <v>117</v>
       </c>
-      <c r="H36" s="79"/>
-      <c r="I36" s="79"/>
-      <c r="J36" s="80"/>
+      <c r="H36" s="87"/>
+      <c r="I36" s="87"/>
+      <c r="J36" s="88"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B37" s="95"/>
       <c r="C37" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="D37" s="82" t="s">
+      <c r="D37" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="E37" s="82"/>
-      <c r="F37" s="82"/>
-      <c r="G37" s="82"/>
-      <c r="H37" s="82"/>
-      <c r="I37" s="82"/>
-      <c r="J37" s="82"/>
+      <c r="E37" s="81"/>
+      <c r="F37" s="81"/>
+      <c r="G37" s="81"/>
+      <c r="H37" s="81"/>
+      <c r="I37" s="81"/>
+      <c r="J37" s="81"/>
     </row>
     <row r="38" spans="2:10" s="9" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B38" s="96"/>
       <c r="C38" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="D38" s="82" t="s">
+      <c r="D38" s="81" t="s">
         <v>119</v>
       </c>
-      <c r="E38" s="82"/>
-      <c r="F38" s="82"/>
-      <c r="G38" s="82"/>
-      <c r="H38" s="82"/>
-      <c r="I38" s="82"/>
-      <c r="J38" s="82"/>
+      <c r="E38" s="81"/>
+      <c r="F38" s="81"/>
+      <c r="G38" s="81"/>
+      <c r="H38" s="81"/>
+      <c r="I38" s="81"/>
+      <c r="J38" s="81"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B39" s="10"/>
@@ -5551,96 +5594,96 @@
       <c r="J40" s="10"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B41" s="77" t="s">
+      <c r="B41" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="C41" s="81" t="s">
+      <c r="C41" s="84" t="s">
         <v>47</v>
       </c>
-      <c r="D41" s="81"/>
-      <c r="E41" s="81"/>
-      <c r="F41" s="81"/>
-      <c r="G41" s="81" t="s">
+      <c r="D41" s="84"/>
+      <c r="E41" s="84"/>
+      <c r="F41" s="84"/>
+      <c r="G41" s="84" t="s">
         <v>46</v>
       </c>
-      <c r="H41" s="81"/>
-      <c r="I41" s="81"/>
-      <c r="J41" s="81"/>
+      <c r="H41" s="84"/>
+      <c r="I41" s="84"/>
+      <c r="J41" s="84"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B42" s="77"/>
-      <c r="C42" s="82" t="s">
+      <c r="B42" s="83"/>
+      <c r="C42" s="81" t="s">
         <v>72</v>
       </c>
-      <c r="D42" s="82"/>
-      <c r="E42" s="82"/>
-      <c r="F42" s="82"/>
-      <c r="G42" s="82" t="s">
+      <c r="D42" s="81"/>
+      <c r="E42" s="81"/>
+      <c r="F42" s="81"/>
+      <c r="G42" s="81" t="s">
         <v>67</v>
       </c>
-      <c r="H42" s="82"/>
-      <c r="I42" s="82"/>
-      <c r="J42" s="82"/>
+      <c r="H42" s="81"/>
+      <c r="I42" s="81"/>
+      <c r="J42" s="81"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B43" s="77"/>
-      <c r="C43" s="82" t="s">
+      <c r="B43" s="83"/>
+      <c r="C43" s="81" t="s">
         <v>96</v>
       </c>
-      <c r="D43" s="82"/>
-      <c r="E43" s="82"/>
-      <c r="F43" s="82"/>
-      <c r="G43" s="82" t="s">
+      <c r="D43" s="81"/>
+      <c r="E43" s="81"/>
+      <c r="F43" s="81"/>
+      <c r="G43" s="81" t="s">
         <v>78</v>
       </c>
-      <c r="H43" s="82"/>
-      <c r="I43" s="82"/>
-      <c r="J43" s="82"/>
+      <c r="H43" s="81"/>
+      <c r="I43" s="81"/>
+      <c r="J43" s="81"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B44" s="77"/>
-      <c r="C44" s="82" t="s">
+      <c r="B44" s="83"/>
+      <c r="C44" s="81" t="s">
         <v>81</v>
       </c>
-      <c r="D44" s="82"/>
-      <c r="E44" s="82"/>
-      <c r="F44" s="82"/>
-      <c r="G44" s="82" t="s">
+      <c r="D44" s="81"/>
+      <c r="E44" s="81"/>
+      <c r="F44" s="81"/>
+      <c r="G44" s="81" t="s">
         <v>58</v>
       </c>
-      <c r="H44" s="82"/>
-      <c r="I44" s="82"/>
-      <c r="J44" s="82"/>
+      <c r="H44" s="81"/>
+      <c r="I44" s="81"/>
+      <c r="J44" s="81"/>
     </row>
     <row r="45" spans="2:10" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B45" s="77"/>
-      <c r="C45" s="78" t="s">
+      <c r="B45" s="83"/>
+      <c r="C45" s="86" t="s">
         <v>173</v>
       </c>
-      <c r="D45" s="79"/>
-      <c r="E45" s="79"/>
-      <c r="F45" s="80"/>
-      <c r="G45" s="82" t="s">
+      <c r="D45" s="87"/>
+      <c r="E45" s="87"/>
+      <c r="F45" s="88"/>
+      <c r="G45" s="81" t="s">
         <v>58</v>
       </c>
-      <c r="H45" s="82"/>
-      <c r="I45" s="82"/>
-      <c r="J45" s="82"/>
+      <c r="H45" s="81"/>
+      <c r="I45" s="81"/>
+      <c r="J45" s="81"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B46" s="77"/>
+      <c r="B46" s="83"/>
       <c r="C46" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="D46" s="82" t="s">
+      <c r="D46" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="E46" s="82"/>
-      <c r="F46" s="82"/>
-      <c r="G46" s="82"/>
-      <c r="H46" s="82"/>
-      <c r="I46" s="82"/>
-      <c r="J46" s="82"/>
+      <c r="E46" s="81"/>
+      <c r="F46" s="81"/>
+      <c r="G46" s="81"/>
+      <c r="H46" s="81"/>
+      <c r="I46" s="81"/>
+      <c r="J46" s="81"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B47" s="10"/>
@@ -5665,66 +5708,66 @@
       <c r="J48" s="10"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B49" s="77" t="s">
+      <c r="B49" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="C49" s="81" t="s">
+      <c r="C49" s="84" t="s">
         <v>47</v>
       </c>
-      <c r="D49" s="81"/>
-      <c r="E49" s="81"/>
-      <c r="F49" s="81"/>
-      <c r="G49" s="81" t="s">
+      <c r="D49" s="84"/>
+      <c r="E49" s="84"/>
+      <c r="F49" s="84"/>
+      <c r="G49" s="84" t="s">
         <v>46</v>
       </c>
-      <c r="H49" s="81"/>
-      <c r="I49" s="81"/>
-      <c r="J49" s="81"/>
+      <c r="H49" s="84"/>
+      <c r="I49" s="84"/>
+      <c r="J49" s="84"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B50" s="77"/>
-      <c r="C50" s="82" t="s">
+      <c r="B50" s="83"/>
+      <c r="C50" s="81" t="s">
         <v>73</v>
       </c>
-      <c r="D50" s="82"/>
-      <c r="E50" s="82"/>
-      <c r="F50" s="82"/>
-      <c r="G50" s="82" t="s">
+      <c r="D50" s="81"/>
+      <c r="E50" s="81"/>
+      <c r="F50" s="81"/>
+      <c r="G50" s="81" t="s">
         <v>67</v>
       </c>
-      <c r="H50" s="82"/>
-      <c r="I50" s="82"/>
-      <c r="J50" s="82"/>
+      <c r="H50" s="81"/>
+      <c r="I50" s="81"/>
+      <c r="J50" s="81"/>
     </row>
     <row r="51" spans="2:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B51" s="77"/>
-      <c r="C51" s="83" t="s">
+      <c r="B51" s="83"/>
+      <c r="C51" s="82" t="s">
         <v>174</v>
       </c>
-      <c r="D51" s="83"/>
-      <c r="E51" s="83"/>
-      <c r="F51" s="83"/>
-      <c r="G51" s="83" t="s">
+      <c r="D51" s="82"/>
+      <c r="E51" s="82"/>
+      <c r="F51" s="82"/>
+      <c r="G51" s="82" t="s">
         <v>82</v>
       </c>
-      <c r="H51" s="83"/>
-      <c r="I51" s="83"/>
-      <c r="J51" s="83"/>
+      <c r="H51" s="82"/>
+      <c r="I51" s="82"/>
+      <c r="J51" s="82"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B52" s="77"/>
+      <c r="B52" s="83"/>
       <c r="C52" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="D52" s="82" t="s">
+      <c r="D52" s="81" t="s">
         <v>83</v>
       </c>
-      <c r="E52" s="82"/>
-      <c r="F52" s="82"/>
-      <c r="G52" s="82"/>
-      <c r="H52" s="82"/>
-      <c r="I52" s="82"/>
-      <c r="J52" s="82"/>
+      <c r="E52" s="81"/>
+      <c r="F52" s="81"/>
+      <c r="G52" s="81"/>
+      <c r="H52" s="81"/>
+      <c r="I52" s="81"/>
+      <c r="J52" s="81"/>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B53" s="10"/>
@@ -5749,96 +5792,96 @@
       <c r="J54" s="10"/>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B55" s="77" t="s">
+      <c r="B55" s="83" t="s">
         <v>84</v>
       </c>
-      <c r="C55" s="81" t="s">
+      <c r="C55" s="84" t="s">
         <v>47</v>
       </c>
-      <c r="D55" s="81"/>
-      <c r="E55" s="81"/>
-      <c r="F55" s="81"/>
-      <c r="G55" s="81" t="s">
+      <c r="D55" s="84"/>
+      <c r="E55" s="84"/>
+      <c r="F55" s="84"/>
+      <c r="G55" s="84" t="s">
         <v>46</v>
       </c>
-      <c r="H55" s="81"/>
-      <c r="I55" s="81"/>
-      <c r="J55" s="81"/>
+      <c r="H55" s="84"/>
+      <c r="I55" s="84"/>
+      <c r="J55" s="84"/>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B56" s="77"/>
-      <c r="C56" s="82" t="s">
+      <c r="B56" s="83"/>
+      <c r="C56" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="D56" s="82"/>
-      <c r="E56" s="82"/>
-      <c r="F56" s="82"/>
-      <c r="G56" s="82" t="s">
+      <c r="D56" s="81"/>
+      <c r="E56" s="81"/>
+      <c r="F56" s="81"/>
+      <c r="G56" s="81" t="s">
         <v>67</v>
       </c>
-      <c r="H56" s="82"/>
-      <c r="I56" s="82"/>
-      <c r="J56" s="82"/>
+      <c r="H56" s="81"/>
+      <c r="I56" s="81"/>
+      <c r="J56" s="81"/>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B57" s="77"/>
-      <c r="C57" s="82" t="s">
+      <c r="B57" s="83"/>
+      <c r="C57" s="81" t="s">
         <v>91</v>
       </c>
-      <c r="D57" s="82"/>
-      <c r="E57" s="82"/>
-      <c r="F57" s="82"/>
-      <c r="G57" s="82" t="s">
+      <c r="D57" s="81"/>
+      <c r="E57" s="81"/>
+      <c r="F57" s="81"/>
+      <c r="G57" s="81" t="s">
         <v>58</v>
       </c>
-      <c r="H57" s="82"/>
-      <c r="I57" s="82"/>
-      <c r="J57" s="82"/>
+      <c r="H57" s="81"/>
+      <c r="I57" s="81"/>
+      <c r="J57" s="81"/>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B58" s="77"/>
-      <c r="C58" s="82" t="s">
+      <c r="B58" s="83"/>
+      <c r="C58" s="81" t="s">
         <v>86</v>
       </c>
-      <c r="D58" s="82"/>
-      <c r="E58" s="82"/>
-      <c r="F58" s="82"/>
-      <c r="G58" s="82" t="s">
+      <c r="D58" s="81"/>
+      <c r="E58" s="81"/>
+      <c r="F58" s="81"/>
+      <c r="G58" s="81" t="s">
         <v>67</v>
       </c>
-      <c r="H58" s="82"/>
-      <c r="I58" s="82"/>
-      <c r="J58" s="82"/>
+      <c r="H58" s="81"/>
+      <c r="I58" s="81"/>
+      <c r="J58" s="81"/>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B59" s="77"/>
-      <c r="C59" s="82" t="s">
+      <c r="B59" s="83"/>
+      <c r="C59" s="81" t="s">
         <v>90</v>
       </c>
-      <c r="D59" s="82"/>
-      <c r="E59" s="82"/>
-      <c r="F59" s="82"/>
-      <c r="G59" s="82" t="s">
+      <c r="D59" s="81"/>
+      <c r="E59" s="81"/>
+      <c r="F59" s="81"/>
+      <c r="G59" s="81" t="s">
         <v>58</v>
       </c>
-      <c r="H59" s="82"/>
-      <c r="I59" s="82"/>
-      <c r="J59" s="82"/>
+      <c r="H59" s="81"/>
+      <c r="I59" s="81"/>
+      <c r="J59" s="81"/>
     </row>
     <row r="60" spans="2:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B60" s="77"/>
+      <c r="B60" s="83"/>
       <c r="C60" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="D60" s="93" t="s">
+      <c r="D60" s="85" t="s">
         <v>89</v>
       </c>
-      <c r="E60" s="83"/>
-      <c r="F60" s="83"/>
-      <c r="G60" s="83"/>
-      <c r="H60" s="83"/>
-      <c r="I60" s="83"/>
-      <c r="J60" s="83"/>
+      <c r="E60" s="82"/>
+      <c r="F60" s="82"/>
+      <c r="G60" s="82"/>
+      <c r="H60" s="82"/>
+      <c r="I60" s="82"/>
+      <c r="J60" s="82"/>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B61" s="10"/>
@@ -5852,246 +5895,246 @@
       <c r="J61" s="10"/>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B63" s="77" t="s">
+      <c r="B63" s="83" t="s">
         <v>43</v>
       </c>
-      <c r="C63" s="81" t="s">
+      <c r="C63" s="84" t="s">
         <v>47</v>
       </c>
-      <c r="D63" s="81"/>
-      <c r="E63" s="81"/>
-      <c r="F63" s="81"/>
-      <c r="G63" s="81" t="s">
+      <c r="D63" s="84"/>
+      <c r="E63" s="84"/>
+      <c r="F63" s="84"/>
+      <c r="G63" s="84" t="s">
         <v>46</v>
       </c>
-      <c r="H63" s="81"/>
-      <c r="I63" s="81"/>
-      <c r="J63" s="81"/>
+      <c r="H63" s="84"/>
+      <c r="I63" s="84"/>
+      <c r="J63" s="84"/>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B64" s="77"/>
-      <c r="C64" s="82" t="s">
+      <c r="B64" s="83"/>
+      <c r="C64" s="81" t="s">
         <v>87</v>
       </c>
-      <c r="D64" s="82"/>
-      <c r="E64" s="82"/>
-      <c r="F64" s="82"/>
-      <c r="G64" s="82" t="s">
+      <c r="D64" s="81"/>
+      <c r="E64" s="81"/>
+      <c r="F64" s="81"/>
+      <c r="G64" s="81" t="s">
         <v>67</v>
       </c>
-      <c r="H64" s="82"/>
-      <c r="I64" s="82"/>
-      <c r="J64" s="82"/>
+      <c r="H64" s="81"/>
+      <c r="I64" s="81"/>
+      <c r="J64" s="81"/>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B65" s="77"/>
-      <c r="C65" s="82" t="s">
+      <c r="B65" s="83"/>
+      <c r="C65" s="81" t="s">
         <v>93</v>
       </c>
-      <c r="D65" s="82"/>
-      <c r="E65" s="82"/>
-      <c r="F65" s="82"/>
-      <c r="G65" s="82" t="s">
+      <c r="D65" s="81"/>
+      <c r="E65" s="81"/>
+      <c r="F65" s="81"/>
+      <c r="G65" s="81" t="s">
         <v>58</v>
       </c>
-      <c r="H65" s="82"/>
-      <c r="I65" s="82"/>
-      <c r="J65" s="82"/>
+      <c r="H65" s="81"/>
+      <c r="I65" s="81"/>
+      <c r="J65" s="81"/>
     </row>
     <row r="66" spans="2:10" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B66" s="77"/>
-      <c r="C66" s="82" t="s">
+      <c r="B66" s="83"/>
+      <c r="C66" s="81" t="s">
         <v>102</v>
       </c>
-      <c r="D66" s="82"/>
-      <c r="E66" s="82"/>
-      <c r="F66" s="82"/>
-      <c r="G66" s="83" t="s">
+      <c r="D66" s="81"/>
+      <c r="E66" s="81"/>
+      <c r="F66" s="81"/>
+      <c r="G66" s="82" t="s">
         <v>58</v>
       </c>
-      <c r="H66" s="83"/>
-      <c r="I66" s="83"/>
-      <c r="J66" s="83"/>
+      <c r="H66" s="82"/>
+      <c r="I66" s="82"/>
+      <c r="J66" s="82"/>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B67" s="77"/>
-      <c r="C67" s="82" t="s">
+      <c r="B67" s="83"/>
+      <c r="C67" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="D67" s="82"/>
-      <c r="E67" s="82"/>
-      <c r="F67" s="82"/>
-      <c r="G67" s="82" t="s">
+      <c r="D67" s="81"/>
+      <c r="E67" s="81"/>
+      <c r="F67" s="81"/>
+      <c r="G67" s="81" t="s">
         <v>67</v>
       </c>
-      <c r="H67" s="82"/>
-      <c r="I67" s="82"/>
-      <c r="J67" s="82"/>
+      <c r="H67" s="81"/>
+      <c r="I67" s="81"/>
+      <c r="J67" s="81"/>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B68" s="77"/>
-      <c r="C68" s="82" t="s">
+      <c r="B68" s="83"/>
+      <c r="C68" s="81" t="s">
         <v>92</v>
       </c>
-      <c r="D68" s="82"/>
-      <c r="E68" s="82"/>
-      <c r="F68" s="82"/>
-      <c r="G68" s="82" t="s">
+      <c r="D68" s="81"/>
+      <c r="E68" s="81"/>
+      <c r="F68" s="81"/>
+      <c r="G68" s="81" t="s">
         <v>58</v>
       </c>
-      <c r="H68" s="82"/>
-      <c r="I68" s="82"/>
-      <c r="J68" s="82"/>
+      <c r="H68" s="81"/>
+      <c r="I68" s="81"/>
+      <c r="J68" s="81"/>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B69" s="77"/>
-      <c r="C69" s="82" t="s">
+      <c r="B69" s="83"/>
+      <c r="C69" s="81" t="s">
         <v>98</v>
       </c>
-      <c r="D69" s="82"/>
-      <c r="E69" s="82"/>
-      <c r="F69" s="82"/>
-      <c r="G69" s="82" t="s">
+      <c r="D69" s="81"/>
+      <c r="E69" s="81"/>
+      <c r="F69" s="81"/>
+      <c r="G69" s="81" t="s">
         <v>67</v>
       </c>
-      <c r="H69" s="82"/>
-      <c r="I69" s="82"/>
-      <c r="J69" s="82"/>
+      <c r="H69" s="81"/>
+      <c r="I69" s="81"/>
+      <c r="J69" s="81"/>
     </row>
     <row r="70" spans="2:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B70" s="77"/>
-      <c r="C70" s="82" t="s">
+      <c r="B70" s="83"/>
+      <c r="C70" s="81" t="s">
         <v>95</v>
       </c>
-      <c r="D70" s="82"/>
-      <c r="E70" s="82"/>
-      <c r="F70" s="82"/>
-      <c r="G70" s="83" t="s">
+      <c r="D70" s="81"/>
+      <c r="E70" s="81"/>
+      <c r="F70" s="81"/>
+      <c r="G70" s="82" t="s">
         <v>78</v>
       </c>
-      <c r="H70" s="83"/>
-      <c r="I70" s="83"/>
-      <c r="J70" s="83"/>
+      <c r="H70" s="82"/>
+      <c r="I70" s="82"/>
+      <c r="J70" s="82"/>
     </row>
     <row r="71" spans="2:10" ht="113.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B71" s="77"/>
+      <c r="B71" s="83"/>
       <c r="C71" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="D71" s="93" t="s">
+      <c r="D71" s="85" t="s">
         <v>94</v>
       </c>
-      <c r="E71" s="83"/>
-      <c r="F71" s="83"/>
-      <c r="G71" s="83"/>
-      <c r="H71" s="83"/>
-      <c r="I71" s="83"/>
-      <c r="J71" s="83"/>
+      <c r="E71" s="82"/>
+      <c r="F71" s="82"/>
+      <c r="G71" s="82"/>
+      <c r="H71" s="82"/>
+      <c r="I71" s="82"/>
+      <c r="J71" s="82"/>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B74" s="77" t="s">
+      <c r="B74" s="83" t="s">
         <v>44</v>
       </c>
-      <c r="C74" s="81" t="s">
+      <c r="C74" s="84" t="s">
         <v>47</v>
       </c>
-      <c r="D74" s="81"/>
-      <c r="E74" s="81"/>
-      <c r="F74" s="81"/>
-      <c r="G74" s="81" t="s">
+      <c r="D74" s="84"/>
+      <c r="E74" s="84"/>
+      <c r="F74" s="84"/>
+      <c r="G74" s="84" t="s">
         <v>46</v>
       </c>
-      <c r="H74" s="81"/>
-      <c r="I74" s="81"/>
-      <c r="J74" s="81"/>
+      <c r="H74" s="84"/>
+      <c r="I74" s="84"/>
+      <c r="J74" s="84"/>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B75" s="77"/>
-      <c r="C75" s="82" t="s">
+      <c r="B75" s="83"/>
+      <c r="C75" s="81" t="s">
         <v>87</v>
       </c>
-      <c r="D75" s="82"/>
-      <c r="E75" s="82"/>
-      <c r="F75" s="82"/>
-      <c r="G75" s="82" t="s">
+      <c r="D75" s="81"/>
+      <c r="E75" s="81"/>
+      <c r="F75" s="81"/>
+      <c r="G75" s="81" t="s">
         <v>67</v>
       </c>
-      <c r="H75" s="82"/>
-      <c r="I75" s="82"/>
-      <c r="J75" s="82"/>
+      <c r="H75" s="81"/>
+      <c r="I75" s="81"/>
+      <c r="J75" s="81"/>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B76" s="77"/>
-      <c r="C76" s="82" t="s">
+      <c r="B76" s="83"/>
+      <c r="C76" s="81" t="s">
         <v>99</v>
       </c>
-      <c r="D76" s="82"/>
-      <c r="E76" s="82"/>
-      <c r="F76" s="82"/>
-      <c r="G76" s="82" t="s">
+      <c r="D76" s="81"/>
+      <c r="E76" s="81"/>
+      <c r="F76" s="81"/>
+      <c r="G76" s="81" t="s">
         <v>58</v>
       </c>
-      <c r="H76" s="82"/>
-      <c r="I76" s="82"/>
-      <c r="J76" s="82"/>
+      <c r="H76" s="81"/>
+      <c r="I76" s="81"/>
+      <c r="J76" s="81"/>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B77" s="77"/>
-      <c r="C77" s="82" t="s">
+      <c r="B77" s="83"/>
+      <c r="C77" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="D77" s="82"/>
-      <c r="E77" s="82"/>
-      <c r="F77" s="82"/>
-      <c r="G77" s="82" t="s">
+      <c r="D77" s="81"/>
+      <c r="E77" s="81"/>
+      <c r="F77" s="81"/>
+      <c r="G77" s="81" t="s">
         <v>67</v>
       </c>
-      <c r="H77" s="82"/>
-      <c r="I77" s="82"/>
-      <c r="J77" s="82"/>
+      <c r="H77" s="81"/>
+      <c r="I77" s="81"/>
+      <c r="J77" s="81"/>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B78" s="77"/>
-      <c r="C78" s="82" t="s">
+      <c r="B78" s="83"/>
+      <c r="C78" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="D78" s="82"/>
-      <c r="E78" s="82"/>
-      <c r="F78" s="82"/>
-      <c r="G78" s="82" t="s">
+      <c r="D78" s="81"/>
+      <c r="E78" s="81"/>
+      <c r="F78" s="81"/>
+      <c r="G78" s="81" t="s">
         <v>78</v>
       </c>
-      <c r="H78" s="82"/>
-      <c r="I78" s="82"/>
-      <c r="J78" s="82"/>
+      <c r="H78" s="81"/>
+      <c r="I78" s="81"/>
+      <c r="J78" s="81"/>
     </row>
     <row r="79" spans="2:10" ht="72.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="77"/>
+      <c r="B79" s="83"/>
       <c r="C79" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="D79" s="93" t="s">
+      <c r="D79" s="85" t="s">
         <v>100</v>
       </c>
-      <c r="E79" s="83"/>
-      <c r="F79" s="83"/>
-      <c r="G79" s="83"/>
-      <c r="H79" s="83"/>
-      <c r="I79" s="83"/>
-      <c r="J79" s="83"/>
+      <c r="E79" s="82"/>
+      <c r="F79" s="82"/>
+      <c r="G79" s="82"/>
+      <c r="H79" s="82"/>
+      <c r="I79" s="82"/>
+      <c r="J79" s="82"/>
     </row>
     <row r="81" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="82" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B82" s="69" t="s">
+      <c r="B82" s="63" t="s">
         <v>103</v>
       </c>
-      <c r="C82" s="70"/>
-      <c r="D82" s="71"/>
+      <c r="C82" s="64"/>
+      <c r="D82" s="65"/>
     </row>
     <row r="83" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="72"/>
-      <c r="C83" s="73"/>
-      <c r="D83" s="74"/>
+      <c r="B83" s="66"/>
+      <c r="C83" s="67"/>
+      <c r="D83" s="68"/>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B84" s="15"/>
@@ -6108,681 +6151,853 @@
       <c r="B85" s="94" t="s">
         <v>120</v>
       </c>
-      <c r="C85" s="81" t="s">
+      <c r="C85" s="84" t="s">
         <v>47</v>
       </c>
-      <c r="D85" s="81"/>
-      <c r="E85" s="81"/>
-      <c r="F85" s="81"/>
-      <c r="G85" s="81" t="s">
+      <c r="D85" s="84"/>
+      <c r="E85" s="84"/>
+      <c r="F85" s="84"/>
+      <c r="G85" s="84" t="s">
         <v>46</v>
       </c>
-      <c r="H85" s="81"/>
-      <c r="I85" s="81"/>
-      <c r="J85" s="81"/>
+      <c r="H85" s="84"/>
+      <c r="I85" s="84"/>
+      <c r="J85" s="84"/>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B86" s="95"/>
-      <c r="C86" s="82" t="s">
+      <c r="C86" s="81" t="s">
         <v>121</v>
       </c>
-      <c r="D86" s="82"/>
-      <c r="E86" s="82"/>
-      <c r="F86" s="82"/>
-      <c r="G86" s="82" t="s">
+      <c r="D86" s="81"/>
+      <c r="E86" s="81"/>
+      <c r="F86" s="81"/>
+      <c r="G86" s="81" t="s">
         <v>117</v>
       </c>
-      <c r="H86" s="82"/>
-      <c r="I86" s="82"/>
-      <c r="J86" s="82"/>
+      <c r="H86" s="81"/>
+      <c r="I86" s="81"/>
+      <c r="J86" s="81"/>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B87" s="95"/>
-      <c r="C87" s="97" t="s">
+      <c r="C87" s="90" t="s">
         <v>122</v>
       </c>
-      <c r="D87" s="98"/>
-      <c r="E87" s="98"/>
-      <c r="F87" s="99"/>
-      <c r="G87" s="97" t="s">
+      <c r="D87" s="91"/>
+      <c r="E87" s="91"/>
+      <c r="F87" s="92"/>
+      <c r="G87" s="90" t="s">
         <v>123</v>
       </c>
-      <c r="H87" s="98"/>
-      <c r="I87" s="98"/>
-      <c r="J87" s="99"/>
+      <c r="H87" s="91"/>
+      <c r="I87" s="91"/>
+      <c r="J87" s="92"/>
     </row>
     <row r="88" spans="2:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="95"/>
       <c r="C88" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="D88" s="93" t="s">
+      <c r="D88" s="85" t="s">
         <v>124</v>
       </c>
-      <c r="E88" s="83"/>
-      <c r="F88" s="83"/>
-      <c r="G88" s="83"/>
-      <c r="H88" s="83"/>
-      <c r="I88" s="83"/>
-      <c r="J88" s="83"/>
+      <c r="E88" s="82"/>
+      <c r="F88" s="82"/>
+      <c r="G88" s="82"/>
+      <c r="H88" s="82"/>
+      <c r="I88" s="82"/>
+      <c r="J88" s="82"/>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B89" s="96"/>
       <c r="C89" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="D89" s="93" t="s">
+      <c r="D89" s="85" t="s">
         <v>125</v>
       </c>
-      <c r="E89" s="83"/>
-      <c r="F89" s="83"/>
-      <c r="G89" s="83"/>
-      <c r="H89" s="83"/>
-      <c r="I89" s="83"/>
-      <c r="J89" s="83"/>
+      <c r="E89" s="82"/>
+      <c r="F89" s="82"/>
+      <c r="G89" s="82"/>
+      <c r="H89" s="82"/>
+      <c r="I89" s="82"/>
+      <c r="J89" s="82"/>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B92" s="94" t="s">
         <v>127</v>
       </c>
-      <c r="C92" s="81" t="s">
+      <c r="C92" s="84" t="s">
         <v>47</v>
       </c>
-      <c r="D92" s="81"/>
-      <c r="E92" s="81"/>
-      <c r="F92" s="81"/>
-      <c r="G92" s="81" t="s">
+      <c r="D92" s="84"/>
+      <c r="E92" s="84"/>
+      <c r="F92" s="84"/>
+      <c r="G92" s="84" t="s">
         <v>46</v>
       </c>
-      <c r="H92" s="81"/>
-      <c r="I92" s="81"/>
-      <c r="J92" s="81"/>
+      <c r="H92" s="84"/>
+      <c r="I92" s="84"/>
+      <c r="J92" s="84"/>
     </row>
     <row r="93" spans="2:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B93" s="95"/>
-      <c r="C93" s="82" t="s">
+      <c r="C93" s="81" t="s">
         <v>135</v>
       </c>
-      <c r="D93" s="82"/>
-      <c r="E93" s="82"/>
-      <c r="F93" s="82"/>
-      <c r="G93" s="83" t="s">
+      <c r="D93" s="81"/>
+      <c r="E93" s="81"/>
+      <c r="F93" s="81"/>
+      <c r="G93" s="82" t="s">
         <v>136</v>
       </c>
-      <c r="H93" s="83"/>
-      <c r="I93" s="83"/>
-      <c r="J93" s="83"/>
+      <c r="H93" s="82"/>
+      <c r="I93" s="82"/>
+      <c r="J93" s="82"/>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B94" s="95"/>
-      <c r="C94" s="78" t="s">
+      <c r="C94" s="86" t="s">
         <v>128</v>
       </c>
-      <c r="D94" s="90"/>
-      <c r="E94" s="90"/>
-      <c r="F94" s="91"/>
-      <c r="G94" s="97" t="s">
+      <c r="D94" s="97"/>
+      <c r="E94" s="97"/>
+      <c r="F94" s="98"/>
+      <c r="G94" s="90" t="s">
         <v>129</v>
       </c>
-      <c r="H94" s="98"/>
-      <c r="I94" s="98"/>
-      <c r="J94" s="99"/>
+      <c r="H94" s="91"/>
+      <c r="I94" s="91"/>
+      <c r="J94" s="92"/>
     </row>
     <row r="95" spans="2:10" s="9" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B95" s="95"/>
-      <c r="C95" s="78" t="s">
+      <c r="C95" s="86" t="s">
         <v>130</v>
       </c>
-      <c r="D95" s="79"/>
-      <c r="E95" s="79"/>
-      <c r="F95" s="80"/>
-      <c r="G95" s="78" t="s">
+      <c r="D95" s="87"/>
+      <c r="E95" s="87"/>
+      <c r="F95" s="88"/>
+      <c r="G95" s="86" t="s">
         <v>131</v>
       </c>
-      <c r="H95" s="79"/>
-      <c r="I95" s="79"/>
-      <c r="J95" s="80"/>
+      <c r="H95" s="87"/>
+      <c r="I95" s="87"/>
+      <c r="J95" s="88"/>
     </row>
     <row r="96" spans="2:10" s="9" customFormat="1" ht="339" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B96" s="95"/>
-      <c r="C96" s="78" t="s">
+      <c r="C96" s="86" t="s">
         <v>137</v>
       </c>
-      <c r="D96" s="79"/>
-      <c r="E96" s="79"/>
-      <c r="F96" s="80"/>
-      <c r="G96" s="78" t="s">
+      <c r="D96" s="87"/>
+      <c r="E96" s="87"/>
+      <c r="F96" s="88"/>
+      <c r="G96" s="86" t="s">
         <v>132</v>
       </c>
-      <c r="H96" s="79"/>
-      <c r="I96" s="79"/>
-      <c r="J96" s="80"/>
+      <c r="H96" s="87"/>
+      <c r="I96" s="87"/>
+      <c r="J96" s="88"/>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B97" s="95"/>
       <c r="C97" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="D97" s="93" t="s">
+      <c r="D97" s="85" t="s">
         <v>138</v>
       </c>
-      <c r="E97" s="83"/>
-      <c r="F97" s="83"/>
-      <c r="G97" s="83"/>
-      <c r="H97" s="83"/>
-      <c r="I97" s="83"/>
-      <c r="J97" s="83"/>
+      <c r="E97" s="82"/>
+      <c r="F97" s="82"/>
+      <c r="G97" s="82"/>
+      <c r="H97" s="82"/>
+      <c r="I97" s="82"/>
+      <c r="J97" s="82"/>
     </row>
     <row r="98" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="96"/>
       <c r="C98" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="D98" s="93" t="s">
+      <c r="D98" s="85" t="s">
         <v>139</v>
       </c>
-      <c r="E98" s="83"/>
-      <c r="F98" s="83"/>
-      <c r="G98" s="83"/>
-      <c r="H98" s="83"/>
-      <c r="I98" s="83"/>
-      <c r="J98" s="83"/>
+      <c r="E98" s="82"/>
+      <c r="F98" s="82"/>
+      <c r="G98" s="82"/>
+      <c r="H98" s="82"/>
+      <c r="I98" s="82"/>
+      <c r="J98" s="82"/>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B101" s="94" t="s">
         <v>134</v>
       </c>
-      <c r="C101" s="81" t="s">
+      <c r="C101" s="84" t="s">
         <v>47</v>
       </c>
-      <c r="D101" s="81"/>
-      <c r="E101" s="81"/>
-      <c r="F101" s="81"/>
-      <c r="G101" s="81" t="s">
+      <c r="D101" s="84"/>
+      <c r="E101" s="84"/>
+      <c r="F101" s="84"/>
+      <c r="G101" s="84" t="s">
         <v>46</v>
       </c>
-      <c r="H101" s="81"/>
-      <c r="I101" s="81"/>
-      <c r="J101" s="81"/>
+      <c r="H101" s="84"/>
+      <c r="I101" s="84"/>
+      <c r="J101" s="84"/>
     </row>
     <row r="102" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B102" s="95"/>
-      <c r="C102" s="82" t="s">
+      <c r="C102" s="81" t="s">
         <v>140</v>
       </c>
-      <c r="D102" s="82"/>
-      <c r="E102" s="82"/>
-      <c r="F102" s="82"/>
-      <c r="G102" s="82" t="s">
+      <c r="D102" s="81"/>
+      <c r="E102" s="81"/>
+      <c r="F102" s="81"/>
+      <c r="G102" s="81" t="s">
         <v>141</v>
       </c>
-      <c r="H102" s="82"/>
-      <c r="I102" s="82"/>
-      <c r="J102" s="82"/>
+      <c r="H102" s="81"/>
+      <c r="I102" s="81"/>
+      <c r="J102" s="81"/>
     </row>
     <row r="103" spans="2:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="96"/>
-      <c r="C103" s="78" t="s">
+      <c r="C103" s="86" t="s">
         <v>166</v>
       </c>
-      <c r="D103" s="79"/>
-      <c r="E103" s="79"/>
-      <c r="F103" s="80"/>
-      <c r="G103" s="78" t="s">
+      <c r="D103" s="87"/>
+      <c r="E103" s="87"/>
+      <c r="F103" s="88"/>
+      <c r="G103" s="86" t="s">
         <v>142</v>
       </c>
-      <c r="H103" s="79"/>
-      <c r="I103" s="79"/>
-      <c r="J103" s="80"/>
+      <c r="H103" s="87"/>
+      <c r="I103" s="87"/>
+      <c r="J103" s="88"/>
     </row>
     <row r="105" spans="2:10" s="9" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="106" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B106" s="77" t="s">
+      <c r="B106" s="83" t="s">
         <v>144</v>
       </c>
-      <c r="C106" s="81" t="s">
+      <c r="C106" s="84" t="s">
         <v>47</v>
       </c>
-      <c r="D106" s="81"/>
-      <c r="E106" s="81"/>
-      <c r="F106" s="81"/>
-      <c r="G106" s="81" t="s">
+      <c r="D106" s="84"/>
+      <c r="E106" s="84"/>
+      <c r="F106" s="84"/>
+      <c r="G106" s="84" t="s">
         <v>46</v>
       </c>
-      <c r="H106" s="81"/>
-      <c r="I106" s="81"/>
-      <c r="J106" s="81"/>
+      <c r="H106" s="84"/>
+      <c r="I106" s="84"/>
+      <c r="J106" s="84"/>
     </row>
     <row r="107" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B107" s="77"/>
-      <c r="C107" s="82" t="s">
+      <c r="B107" s="83"/>
+      <c r="C107" s="81" t="s">
         <v>145</v>
       </c>
-      <c r="D107" s="82"/>
-      <c r="E107" s="82"/>
-      <c r="F107" s="82"/>
-      <c r="G107" s="83" t="s">
+      <c r="D107" s="81"/>
+      <c r="E107" s="81"/>
+      <c r="F107" s="81"/>
+      <c r="G107" s="82" t="s">
         <v>147</v>
       </c>
-      <c r="H107" s="83"/>
-      <c r="I107" s="83"/>
-      <c r="J107" s="83"/>
+      <c r="H107" s="82"/>
+      <c r="I107" s="82"/>
+      <c r="J107" s="82"/>
     </row>
     <row r="108" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B108" s="77"/>
-      <c r="C108" s="78" t="s">
+      <c r="B108" s="83"/>
+      <c r="C108" s="86" t="s">
         <v>146</v>
       </c>
-      <c r="D108" s="79"/>
-      <c r="E108" s="79"/>
-      <c r="F108" s="80"/>
-      <c r="G108" s="78" t="s">
+      <c r="D108" s="87"/>
+      <c r="E108" s="87"/>
+      <c r="F108" s="88"/>
+      <c r="G108" s="86" t="s">
         <v>117</v>
       </c>
-      <c r="H108" s="79"/>
-      <c r="I108" s="79"/>
-      <c r="J108" s="80"/>
+      <c r="H108" s="87"/>
+      <c r="I108" s="87"/>
+      <c r="J108" s="88"/>
     </row>
     <row r="109" spans="2:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B109" s="77"/>
-      <c r="C109" s="83" t="s">
+      <c r="B109" s="83"/>
+      <c r="C109" s="82" t="s">
         <v>148</v>
       </c>
-      <c r="D109" s="83"/>
-      <c r="E109" s="83"/>
-      <c r="F109" s="83"/>
-      <c r="G109" s="83" t="s">
+      <c r="D109" s="82"/>
+      <c r="E109" s="82"/>
+      <c r="F109" s="82"/>
+      <c r="G109" s="82" t="s">
         <v>117</v>
       </c>
-      <c r="H109" s="83"/>
-      <c r="I109" s="83"/>
-      <c r="J109" s="83"/>
+      <c r="H109" s="82"/>
+      <c r="I109" s="82"/>
+      <c r="J109" s="82"/>
     </row>
     <row r="110" spans="2:10" ht="39" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B110" s="77"/>
-      <c r="C110" s="78" t="s">
+      <c r="B110" s="83"/>
+      <c r="C110" s="86" t="s">
         <v>149</v>
       </c>
-      <c r="D110" s="79"/>
-      <c r="E110" s="79"/>
-      <c r="F110" s="80"/>
-      <c r="G110" s="78" t="s">
+      <c r="D110" s="87"/>
+      <c r="E110" s="87"/>
+      <c r="F110" s="88"/>
+      <c r="G110" s="86" t="s">
         <v>152</v>
       </c>
-      <c r="H110" s="90"/>
-      <c r="I110" s="90"/>
-      <c r="J110" s="91"/>
+      <c r="H110" s="97"/>
+      <c r="I110" s="97"/>
+      <c r="J110" s="98"/>
     </row>
     <row r="111" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B111" s="77"/>
-      <c r="C111" s="83" t="s">
+      <c r="B111" s="83"/>
+      <c r="C111" s="82" t="s">
         <v>150</v>
       </c>
-      <c r="D111" s="75"/>
-      <c r="E111" s="75"/>
-      <c r="F111" s="75"/>
-      <c r="G111" s="83" t="s">
+      <c r="D111" s="99"/>
+      <c r="E111" s="99"/>
+      <c r="F111" s="99"/>
+      <c r="G111" s="82" t="s">
         <v>117</v>
       </c>
-      <c r="H111" s="83"/>
-      <c r="I111" s="83"/>
-      <c r="J111" s="83"/>
+      <c r="H111" s="82"/>
+      <c r="I111" s="82"/>
+      <c r="J111" s="82"/>
     </row>
     <row r="112" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B112" s="77"/>
-      <c r="C112" s="83" t="s">
+      <c r="B112" s="83"/>
+      <c r="C112" s="82" t="s">
         <v>151</v>
       </c>
-      <c r="D112" s="75"/>
-      <c r="E112" s="75"/>
-      <c r="F112" s="75"/>
-      <c r="G112" s="83" t="s">
+      <c r="D112" s="99"/>
+      <c r="E112" s="99"/>
+      <c r="F112" s="99"/>
+      <c r="G112" s="82" t="s">
         <v>117</v>
       </c>
-      <c r="H112" s="83"/>
-      <c r="I112" s="83"/>
-      <c r="J112" s="83"/>
+      <c r="H112" s="82"/>
+      <c r="I112" s="82"/>
+      <c r="J112" s="82"/>
     </row>
     <row r="113" spans="2:10" s="9" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B113" s="77"/>
-      <c r="C113" s="78" t="s">
+      <c r="B113" s="83"/>
+      <c r="C113" s="86" t="s">
         <v>170</v>
       </c>
-      <c r="D113" s="79"/>
-      <c r="E113" s="79"/>
-      <c r="F113" s="80"/>
-      <c r="G113" s="78" t="s">
+      <c r="D113" s="87"/>
+      <c r="E113" s="87"/>
+      <c r="F113" s="88"/>
+      <c r="G113" s="86" t="s">
         <v>171</v>
       </c>
-      <c r="H113" s="79"/>
-      <c r="I113" s="79"/>
-      <c r="J113" s="80"/>
+      <c r="H113" s="87"/>
+      <c r="I113" s="87"/>
+      <c r="J113" s="88"/>
     </row>
     <row r="114" spans="2:10" s="9" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B114" s="77"/>
-      <c r="C114" s="78" t="s">
+      <c r="B114" s="83"/>
+      <c r="C114" s="86" t="s">
         <v>175</v>
       </c>
-      <c r="D114" s="79"/>
-      <c r="E114" s="79"/>
-      <c r="F114" s="80"/>
-      <c r="G114" s="78" t="s">
+      <c r="D114" s="87"/>
+      <c r="E114" s="87"/>
+      <c r="F114" s="88"/>
+      <c r="G114" s="86" t="s">
         <v>142</v>
       </c>
-      <c r="H114" s="79"/>
-      <c r="I114" s="79"/>
-      <c r="J114" s="80"/>
+      <c r="H114" s="87"/>
+      <c r="I114" s="87"/>
+      <c r="J114" s="88"/>
     </row>
     <row r="115" spans="2:10" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B115" s="77"/>
-      <c r="C115" s="78" t="s">
+      <c r="B115" s="83"/>
+      <c r="C115" s="86" t="s">
         <v>165</v>
       </c>
-      <c r="D115" s="79"/>
-      <c r="E115" s="79"/>
-      <c r="F115" s="80"/>
-      <c r="G115" s="78" t="s">
+      <c r="D115" s="87"/>
+      <c r="E115" s="87"/>
+      <c r="F115" s="88"/>
+      <c r="G115" s="86" t="s">
         <v>142</v>
       </c>
-      <c r="H115" s="79"/>
-      <c r="I115" s="79"/>
-      <c r="J115" s="80"/>
+      <c r="H115" s="87"/>
+      <c r="I115" s="87"/>
+      <c r="J115" s="88"/>
     </row>
     <row r="116" spans="2:10" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B116" s="77"/>
-      <c r="C116" s="83" t="s">
+      <c r="B116" s="83"/>
+      <c r="C116" s="82" t="s">
         <v>157</v>
       </c>
-      <c r="D116" s="83"/>
-      <c r="E116" s="83"/>
-      <c r="F116" s="83"/>
-      <c r="G116" s="83" t="s">
+      <c r="D116" s="82"/>
+      <c r="E116" s="82"/>
+      <c r="F116" s="82"/>
+      <c r="G116" s="82" t="s">
         <v>117</v>
       </c>
-      <c r="H116" s="83"/>
-      <c r="I116" s="83"/>
-      <c r="J116" s="83"/>
+      <c r="H116" s="82"/>
+      <c r="I116" s="82"/>
+      <c r="J116" s="82"/>
     </row>
     <row r="117" spans="2:10" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B117" s="77"/>
-      <c r="C117" s="92" t="s">
+      <c r="B117" s="83"/>
+      <c r="C117" s="79" t="s">
         <v>160</v>
       </c>
-      <c r="D117" s="92"/>
-      <c r="E117" s="92"/>
-      <c r="F117" s="92"/>
-      <c r="G117" s="83" t="s">
+      <c r="D117" s="79"/>
+      <c r="E117" s="79"/>
+      <c r="F117" s="79"/>
+      <c r="G117" s="82" t="s">
         <v>117</v>
       </c>
-      <c r="H117" s="83"/>
-      <c r="I117" s="83"/>
-      <c r="J117" s="83"/>
+      <c r="H117" s="82"/>
+      <c r="I117" s="82"/>
+      <c r="J117" s="82"/>
     </row>
     <row r="118" spans="2:10" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B118" s="77"/>
+      <c r="B118" s="83"/>
       <c r="C118" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="D118" s="75" t="s">
+      <c r="D118" s="99" t="s">
         <v>159</v>
       </c>
-      <c r="E118" s="75"/>
-      <c r="F118" s="75"/>
-      <c r="G118" s="75"/>
-      <c r="H118" s="75"/>
-      <c r="I118" s="75"/>
-      <c r="J118" s="75"/>
+      <c r="E118" s="99"/>
+      <c r="F118" s="99"/>
+      <c r="G118" s="99"/>
+      <c r="H118" s="99"/>
+      <c r="I118" s="99"/>
+      <c r="J118" s="99"/>
     </row>
     <row r="120" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="121" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B121" s="69" t="s">
+      <c r="B121" s="63" t="s">
         <v>154</v>
       </c>
-      <c r="C121" s="70"/>
-      <c r="D121" s="71"/>
+      <c r="C121" s="64"/>
+      <c r="D121" s="65"/>
     </row>
     <row r="122" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B122" s="72"/>
-      <c r="C122" s="73"/>
-      <c r="D122" s="74"/>
+      <c r="B122" s="66"/>
+      <c r="C122" s="67"/>
+      <c r="D122" s="68"/>
     </row>
     <row r="124" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B124" s="77" t="s">
+      <c r="B124" s="83" t="s">
         <v>156</v>
       </c>
-      <c r="C124" s="81" t="s">
+      <c r="C124" s="84" t="s">
         <v>47</v>
       </c>
-      <c r="D124" s="81"/>
-      <c r="E124" s="81"/>
-      <c r="F124" s="81"/>
-      <c r="G124" s="81" t="s">
+      <c r="D124" s="84"/>
+      <c r="E124" s="84"/>
+      <c r="F124" s="84"/>
+      <c r="G124" s="84" t="s">
         <v>46</v>
       </c>
-      <c r="H124" s="81"/>
-      <c r="I124" s="81"/>
-      <c r="J124" s="81"/>
+      <c r="H124" s="84"/>
+      <c r="I124" s="84"/>
+      <c r="J124" s="84"/>
     </row>
     <row r="125" spans="2:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B125" s="77"/>
-      <c r="C125" s="82" t="s">
+      <c r="B125" s="83"/>
+      <c r="C125" s="81" t="s">
         <v>161</v>
       </c>
-      <c r="D125" s="82"/>
-      <c r="E125" s="82"/>
-      <c r="F125" s="82"/>
-      <c r="G125" s="83" t="s">
+      <c r="D125" s="81"/>
+      <c r="E125" s="81"/>
+      <c r="F125" s="81"/>
+      <c r="G125" s="82" t="s">
         <v>155</v>
       </c>
-      <c r="H125" s="83"/>
-      <c r="I125" s="83"/>
-      <c r="J125" s="83"/>
+      <c r="H125" s="82"/>
+      <c r="I125" s="82"/>
+      <c r="J125" s="82"/>
     </row>
     <row r="126" spans="2:10" s="9" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B126" s="77"/>
-      <c r="C126" s="78" t="s">
+      <c r="B126" s="83"/>
+      <c r="C126" s="86" t="s">
         <v>162</v>
       </c>
-      <c r="D126" s="79"/>
-      <c r="E126" s="79"/>
-      <c r="F126" s="80"/>
-      <c r="G126" s="83" t="s">
+      <c r="D126" s="87"/>
+      <c r="E126" s="87"/>
+      <c r="F126" s="88"/>
+      <c r="G126" s="82" t="s">
         <v>155</v>
       </c>
-      <c r="H126" s="83"/>
-      <c r="I126" s="83"/>
-      <c r="J126" s="83"/>
+      <c r="H126" s="82"/>
+      <c r="I126" s="82"/>
+      <c r="J126" s="82"/>
     </row>
     <row r="127" spans="2:10" ht="130.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B127" s="77"/>
-      <c r="C127" s="78" t="s">
+      <c r="B127" s="83"/>
+      <c r="C127" s="86" t="s">
         <v>163</v>
       </c>
-      <c r="D127" s="79"/>
-      <c r="E127" s="79"/>
-      <c r="F127" s="80"/>
-      <c r="G127" s="78" t="s">
+      <c r="D127" s="87"/>
+      <c r="E127" s="87"/>
+      <c r="F127" s="88"/>
+      <c r="G127" s="86" t="s">
         <v>164</v>
       </c>
-      <c r="H127" s="79"/>
-      <c r="I127" s="79"/>
-      <c r="J127" s="80"/>
+      <c r="H127" s="87"/>
+      <c r="I127" s="87"/>
+      <c r="J127" s="88"/>
     </row>
     <row r="130" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B130" s="77" t="s">
+      <c r="B130" s="83" t="s">
         <v>168</v>
       </c>
-      <c r="C130" s="81" t="s">
+      <c r="C130" s="84" t="s">
         <v>47</v>
       </c>
-      <c r="D130" s="81"/>
-      <c r="E130" s="81"/>
-      <c r="F130" s="81"/>
-      <c r="G130" s="81" t="s">
+      <c r="D130" s="84"/>
+      <c r="E130" s="84"/>
+      <c r="F130" s="84"/>
+      <c r="G130" s="84" t="s">
         <v>46</v>
       </c>
-      <c r="H130" s="81"/>
-      <c r="I130" s="81"/>
-      <c r="J130" s="81"/>
+      <c r="H130" s="84"/>
+      <c r="I130" s="84"/>
+      <c r="J130" s="84"/>
     </row>
     <row r="131" spans="2:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B131" s="77"/>
-      <c r="C131" s="82" t="s">
+      <c r="B131" s="83"/>
+      <c r="C131" s="81" t="s">
         <v>169</v>
       </c>
-      <c r="D131" s="82"/>
-      <c r="E131" s="82"/>
-      <c r="F131" s="82"/>
-      <c r="G131" s="83" t="s">
+      <c r="D131" s="81"/>
+      <c r="E131" s="81"/>
+      <c r="F131" s="81"/>
+      <c r="G131" s="82" t="s">
         <v>117</v>
       </c>
-      <c r="H131" s="83"/>
-      <c r="I131" s="83"/>
-      <c r="J131" s="83"/>
+      <c r="H131" s="82"/>
+      <c r="I131" s="82"/>
+      <c r="J131" s="82"/>
     </row>
     <row r="132" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B132" s="77"/>
-      <c r="C132" s="84" t="s">
+      <c r="B132" s="83"/>
+      <c r="C132" s="100" t="s">
         <v>172</v>
       </c>
-      <c r="D132" s="85"/>
-      <c r="E132" s="85"/>
-      <c r="F132" s="85"/>
-      <c r="G132" s="85"/>
-      <c r="H132" s="85"/>
-      <c r="I132" s="85"/>
-      <c r="J132" s="86"/>
+      <c r="D132" s="101"/>
+      <c r="E132" s="101"/>
+      <c r="F132" s="101"/>
+      <c r="G132" s="101"/>
+      <c r="H132" s="101"/>
+      <c r="I132" s="101"/>
+      <c r="J132" s="102"/>
     </row>
     <row r="133" spans="2:10" ht="150.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B133" s="77"/>
-      <c r="C133" s="87"/>
-      <c r="D133" s="88"/>
-      <c r="E133" s="88"/>
-      <c r="F133" s="88"/>
-      <c r="G133" s="88"/>
-      <c r="H133" s="88"/>
-      <c r="I133" s="88"/>
-      <c r="J133" s="89"/>
+      <c r="B133" s="83"/>
+      <c r="C133" s="103"/>
+      <c r="D133" s="104"/>
+      <c r="E133" s="104"/>
+      <c r="F133" s="104"/>
+      <c r="G133" s="104"/>
+      <c r="H133" s="104"/>
+      <c r="I133" s="104"/>
+      <c r="J133" s="105"/>
     </row>
     <row r="135" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="136" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B136" s="69" t="s">
+      <c r="B136" s="63" t="s">
         <v>176</v>
       </c>
-      <c r="C136" s="70"/>
-      <c r="D136" s="71"/>
+      <c r="C136" s="64"/>
+      <c r="D136" s="65"/>
     </row>
     <row r="137" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B137" s="72"/>
-      <c r="C137" s="73"/>
-      <c r="D137" s="74"/>
+      <c r="B137" s="66"/>
+      <c r="C137" s="67"/>
+      <c r="D137" s="68"/>
       <c r="E137" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="139" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B139" s="76" t="s">
+      <c r="B139" s="106" t="s">
         <v>177</v>
       </c>
-      <c r="C139" s="76"/>
-      <c r="D139" s="76" t="s">
+      <c r="C139" s="106"/>
+      <c r="D139" s="106" t="s">
         <v>178</v>
       </c>
-      <c r="E139" s="76"/>
-      <c r="F139" s="76"/>
-      <c r="G139" s="76"/>
-      <c r="H139" s="76"/>
-      <c r="I139" s="76"/>
-      <c r="J139" s="76"/>
+      <c r="E139" s="106"/>
+      <c r="F139" s="106"/>
+      <c r="G139" s="106"/>
+      <c r="H139" s="106"/>
+      <c r="I139" s="106"/>
+      <c r="J139" s="106"/>
     </row>
     <row r="140" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B140" s="75" t="s">
+      <c r="B140" s="99" t="s">
         <v>179</v>
       </c>
-      <c r="C140" s="75"/>
-      <c r="D140" s="75" t="s">
+      <c r="C140" s="99"/>
+      <c r="D140" s="99" t="s">
         <v>180</v>
       </c>
-      <c r="E140" s="75"/>
-      <c r="F140" s="75"/>
-      <c r="G140" s="75"/>
-      <c r="H140" s="75"/>
-      <c r="I140" s="75"/>
-      <c r="J140" s="75"/>
+      <c r="E140" s="99"/>
+      <c r="F140" s="99"/>
+      <c r="G140" s="99"/>
+      <c r="H140" s="99"/>
+      <c r="I140" s="99"/>
+      <c r="J140" s="99"/>
     </row>
     <row r="141" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B141" s="75" t="s">
+      <c r="B141" s="99" t="s">
         <v>185</v>
       </c>
-      <c r="C141" s="75"/>
-      <c r="D141" s="75" t="s">
+      <c r="C141" s="99"/>
+      <c r="D141" s="99" t="s">
         <v>186</v>
       </c>
-      <c r="E141" s="75"/>
-      <c r="F141" s="75"/>
-      <c r="G141" s="75"/>
-      <c r="H141" s="75"/>
-      <c r="I141" s="75"/>
-      <c r="J141" s="75"/>
+      <c r="E141" s="99"/>
+      <c r="F141" s="99"/>
+      <c r="G141" s="99"/>
+      <c r="H141" s="99"/>
+      <c r="I141" s="99"/>
+      <c r="J141" s="99"/>
     </row>
     <row r="142" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B142" s="75" t="s">
+      <c r="B142" s="99" t="s">
         <v>182</v>
       </c>
-      <c r="C142" s="75"/>
-      <c r="D142" s="75" t="s">
+      <c r="C142" s="99"/>
+      <c r="D142" s="99" t="s">
         <v>183</v>
       </c>
-      <c r="E142" s="75"/>
-      <c r="F142" s="75"/>
-      <c r="G142" s="75"/>
-      <c r="H142" s="75"/>
-      <c r="I142" s="75"/>
-      <c r="J142" s="75"/>
+      <c r="E142" s="99"/>
+      <c r="F142" s="99"/>
+      <c r="G142" s="99"/>
+      <c r="H142" s="99"/>
+      <c r="I142" s="99"/>
+      <c r="J142" s="99"/>
     </row>
     <row r="143" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B143" s="75" t="s">
+      <c r="B143" s="99" t="s">
         <v>184</v>
       </c>
-      <c r="C143" s="75"/>
-      <c r="D143" s="75" t="s">
+      <c r="C143" s="99"/>
+      <c r="D143" s="99" t="s">
         <v>181</v>
       </c>
-      <c r="E143" s="75"/>
-      <c r="F143" s="75"/>
-      <c r="G143" s="75"/>
-      <c r="H143" s="75"/>
-      <c r="I143" s="75"/>
-      <c r="J143" s="75"/>
+      <c r="E143" s="99"/>
+      <c r="F143" s="99"/>
+      <c r="G143" s="99"/>
+      <c r="H143" s="99"/>
+      <c r="I143" s="99"/>
+      <c r="J143" s="99"/>
     </row>
     <row r="144" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B144" s="75" t="s">
+      <c r="B144" s="99" t="s">
         <v>187</v>
       </c>
-      <c r="C144" s="75"/>
-      <c r="D144" s="75" t="s">
+      <c r="C144" s="99"/>
+      <c r="D144" s="99" t="s">
         <v>188</v>
       </c>
-      <c r="E144" s="75"/>
-      <c r="F144" s="75"/>
-      <c r="G144" s="75"/>
-      <c r="H144" s="75"/>
-      <c r="I144" s="75"/>
-      <c r="J144" s="75"/>
+      <c r="E144" s="99"/>
+      <c r="F144" s="99"/>
+      <c r="G144" s="99"/>
+      <c r="H144" s="99"/>
+      <c r="I144" s="99"/>
+      <c r="J144" s="99"/>
     </row>
     <row r="145" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B145" s="75"/>
-      <c r="C145" s="75"/>
-      <c r="D145" s="75"/>
-      <c r="E145" s="75"/>
-      <c r="F145" s="75"/>
-      <c r="G145" s="75"/>
-      <c r="H145" s="75"/>
-      <c r="I145" s="75"/>
-      <c r="J145" s="75"/>
+      <c r="B145" s="99"/>
+      <c r="C145" s="99"/>
+      <c r="D145" s="99"/>
+      <c r="E145" s="99"/>
+      <c r="F145" s="99"/>
+      <c r="G145" s="99"/>
+      <c r="H145" s="99"/>
+      <c r="I145" s="99"/>
+      <c r="J145" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="196">
+    <mergeCell ref="B143:C143"/>
+    <mergeCell ref="D143:J143"/>
+    <mergeCell ref="B144:C144"/>
+    <mergeCell ref="D144:J144"/>
+    <mergeCell ref="B145:C145"/>
+    <mergeCell ref="D145:J145"/>
+    <mergeCell ref="B136:D137"/>
+    <mergeCell ref="B139:C139"/>
+    <mergeCell ref="D139:J139"/>
+    <mergeCell ref="B140:C140"/>
+    <mergeCell ref="D140:J140"/>
+    <mergeCell ref="B141:C141"/>
+    <mergeCell ref="D141:J141"/>
+    <mergeCell ref="B142:C142"/>
+    <mergeCell ref="D142:J142"/>
+    <mergeCell ref="B106:B118"/>
+    <mergeCell ref="C115:F115"/>
+    <mergeCell ref="G115:J115"/>
+    <mergeCell ref="B130:B133"/>
+    <mergeCell ref="C130:F130"/>
+    <mergeCell ref="G130:J130"/>
+    <mergeCell ref="C131:F131"/>
+    <mergeCell ref="G131:J131"/>
+    <mergeCell ref="C132:J133"/>
+    <mergeCell ref="C113:F113"/>
+    <mergeCell ref="G113:J113"/>
+    <mergeCell ref="C114:F114"/>
+    <mergeCell ref="G114:J114"/>
+    <mergeCell ref="B121:D122"/>
+    <mergeCell ref="B124:B127"/>
+    <mergeCell ref="C124:F124"/>
+    <mergeCell ref="G124:J124"/>
+    <mergeCell ref="C125:F125"/>
+    <mergeCell ref="G125:J125"/>
+    <mergeCell ref="C127:F127"/>
+    <mergeCell ref="G127:J127"/>
+    <mergeCell ref="C126:F126"/>
+    <mergeCell ref="G126:J126"/>
+    <mergeCell ref="C110:F110"/>
+    <mergeCell ref="G110:J110"/>
+    <mergeCell ref="C111:F111"/>
+    <mergeCell ref="G111:J111"/>
+    <mergeCell ref="C112:F112"/>
+    <mergeCell ref="G112:J112"/>
+    <mergeCell ref="C116:F116"/>
+    <mergeCell ref="G116:J116"/>
+    <mergeCell ref="D118:J118"/>
+    <mergeCell ref="C117:F117"/>
+    <mergeCell ref="G117:J117"/>
+    <mergeCell ref="C106:F106"/>
+    <mergeCell ref="G106:J106"/>
+    <mergeCell ref="C107:F107"/>
+    <mergeCell ref="G107:J107"/>
+    <mergeCell ref="C108:F108"/>
+    <mergeCell ref="G108:J108"/>
+    <mergeCell ref="C109:F109"/>
+    <mergeCell ref="G109:J109"/>
+    <mergeCell ref="D98:J98"/>
+    <mergeCell ref="B92:B98"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="C101:F101"/>
+    <mergeCell ref="G101:J101"/>
+    <mergeCell ref="C102:F102"/>
+    <mergeCell ref="G102:J102"/>
+    <mergeCell ref="C103:F103"/>
+    <mergeCell ref="G103:J103"/>
+    <mergeCell ref="D89:J89"/>
+    <mergeCell ref="B85:B89"/>
+    <mergeCell ref="C92:F92"/>
+    <mergeCell ref="G92:J92"/>
+    <mergeCell ref="C93:F93"/>
+    <mergeCell ref="G93:J93"/>
+    <mergeCell ref="C94:F94"/>
+    <mergeCell ref="G94:J94"/>
+    <mergeCell ref="D97:J97"/>
+    <mergeCell ref="C95:F95"/>
+    <mergeCell ref="G95:J95"/>
+    <mergeCell ref="C96:F96"/>
+    <mergeCell ref="G96:J96"/>
+    <mergeCell ref="C85:F85"/>
+    <mergeCell ref="G85:J85"/>
+    <mergeCell ref="C86:F86"/>
+    <mergeCell ref="G86:J86"/>
+    <mergeCell ref="C87:F87"/>
+    <mergeCell ref="G87:J87"/>
+    <mergeCell ref="D88:J88"/>
+    <mergeCell ref="B2:J3"/>
+    <mergeCell ref="B5:D6"/>
+    <mergeCell ref="B19:D20"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="E16:J16"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="D38:J38"/>
+    <mergeCell ref="B22:B31"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E13:J13"/>
+    <mergeCell ref="E14:J14"/>
+    <mergeCell ref="E15:J15"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="G43:J43"/>
+    <mergeCell ref="G51:J51"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="D37:J37"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="B41:B46"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="G41:J41"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="G42:J42"/>
+    <mergeCell ref="G44:J44"/>
+    <mergeCell ref="D46:J46"/>
+    <mergeCell ref="D52:J52"/>
+    <mergeCell ref="D60:J60"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="G45:J45"/>
+    <mergeCell ref="B55:B60"/>
+    <mergeCell ref="C55:F55"/>
+    <mergeCell ref="G55:J55"/>
+    <mergeCell ref="C56:F56"/>
+    <mergeCell ref="G56:J56"/>
+    <mergeCell ref="C58:F58"/>
+    <mergeCell ref="G58:J58"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="G49:J49"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="G50:J50"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="G57:J57"/>
+    <mergeCell ref="C59:F59"/>
+    <mergeCell ref="G59:J59"/>
+    <mergeCell ref="B63:B71"/>
+    <mergeCell ref="C63:F63"/>
+    <mergeCell ref="G63:J63"/>
+    <mergeCell ref="C64:F64"/>
+    <mergeCell ref="G64:J64"/>
+    <mergeCell ref="C65:F65"/>
+    <mergeCell ref="G65:J65"/>
+    <mergeCell ref="C68:F68"/>
+    <mergeCell ref="G68:J68"/>
+    <mergeCell ref="D71:J71"/>
+    <mergeCell ref="C67:F67"/>
+    <mergeCell ref="G67:J67"/>
     <mergeCell ref="C8:J8"/>
     <mergeCell ref="C9:J9"/>
     <mergeCell ref="C10:J10"/>
@@ -6807,178 +7022,6 @@
     <mergeCell ref="G78:J78"/>
     <mergeCell ref="D79:J79"/>
     <mergeCell ref="C57:F57"/>
-    <mergeCell ref="G57:J57"/>
-    <mergeCell ref="C59:F59"/>
-    <mergeCell ref="G59:J59"/>
-    <mergeCell ref="B63:B71"/>
-    <mergeCell ref="C63:F63"/>
-    <mergeCell ref="G63:J63"/>
-    <mergeCell ref="C64:F64"/>
-    <mergeCell ref="G64:J64"/>
-    <mergeCell ref="C65:F65"/>
-    <mergeCell ref="G65:J65"/>
-    <mergeCell ref="C68:F68"/>
-    <mergeCell ref="G68:J68"/>
-    <mergeCell ref="D71:J71"/>
-    <mergeCell ref="C67:F67"/>
-    <mergeCell ref="G67:J67"/>
-    <mergeCell ref="B41:B46"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="G41:J41"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="G42:J42"/>
-    <mergeCell ref="G44:J44"/>
-    <mergeCell ref="D46:J46"/>
-    <mergeCell ref="D52:J52"/>
-    <mergeCell ref="D60:J60"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="G45:J45"/>
-    <mergeCell ref="B55:B60"/>
-    <mergeCell ref="C55:F55"/>
-    <mergeCell ref="G55:J55"/>
-    <mergeCell ref="C56:F56"/>
-    <mergeCell ref="G56:J56"/>
-    <mergeCell ref="C58:F58"/>
-    <mergeCell ref="G58:J58"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="G49:J49"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="G50:J50"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="G51:J51"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="G35:J35"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="D37:J37"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="E14:J14"/>
-    <mergeCell ref="E15:J15"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="G31:J31"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="G43:J43"/>
-    <mergeCell ref="G86:J86"/>
-    <mergeCell ref="C87:F87"/>
-    <mergeCell ref="G87:J87"/>
-    <mergeCell ref="D88:J88"/>
-    <mergeCell ref="B2:J3"/>
-    <mergeCell ref="B5:D6"/>
-    <mergeCell ref="B19:D20"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="E16:J16"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="G36:J36"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="D38:J38"/>
-    <mergeCell ref="B22:B31"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E13:J13"/>
-    <mergeCell ref="B92:B98"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="C101:F101"/>
-    <mergeCell ref="G101:J101"/>
-    <mergeCell ref="C102:F102"/>
-    <mergeCell ref="G102:J102"/>
-    <mergeCell ref="C103:F103"/>
-    <mergeCell ref="G103:J103"/>
-    <mergeCell ref="D89:J89"/>
-    <mergeCell ref="B85:B89"/>
-    <mergeCell ref="C92:F92"/>
-    <mergeCell ref="G92:J92"/>
-    <mergeCell ref="C93:F93"/>
-    <mergeCell ref="G93:J93"/>
-    <mergeCell ref="C94:F94"/>
-    <mergeCell ref="G94:J94"/>
-    <mergeCell ref="D97:J97"/>
-    <mergeCell ref="C95:F95"/>
-    <mergeCell ref="G95:J95"/>
-    <mergeCell ref="C96:F96"/>
-    <mergeCell ref="G96:J96"/>
-    <mergeCell ref="C85:F85"/>
-    <mergeCell ref="G85:J85"/>
-    <mergeCell ref="C86:F86"/>
-    <mergeCell ref="C106:F106"/>
-    <mergeCell ref="G106:J106"/>
-    <mergeCell ref="C107:F107"/>
-    <mergeCell ref="G107:J107"/>
-    <mergeCell ref="C108:F108"/>
-    <mergeCell ref="G108:J108"/>
-    <mergeCell ref="C109:F109"/>
-    <mergeCell ref="G109:J109"/>
-    <mergeCell ref="D98:J98"/>
-    <mergeCell ref="G110:J110"/>
-    <mergeCell ref="C111:F111"/>
-    <mergeCell ref="G111:J111"/>
-    <mergeCell ref="C112:F112"/>
-    <mergeCell ref="G112:J112"/>
-    <mergeCell ref="C116:F116"/>
-    <mergeCell ref="G116:J116"/>
-    <mergeCell ref="D118:J118"/>
-    <mergeCell ref="C117:F117"/>
-    <mergeCell ref="G117:J117"/>
-    <mergeCell ref="B106:B118"/>
-    <mergeCell ref="C115:F115"/>
-    <mergeCell ref="G115:J115"/>
-    <mergeCell ref="B130:B133"/>
-    <mergeCell ref="C130:F130"/>
-    <mergeCell ref="G130:J130"/>
-    <mergeCell ref="C131:F131"/>
-    <mergeCell ref="G131:J131"/>
-    <mergeCell ref="C132:J133"/>
-    <mergeCell ref="C113:F113"/>
-    <mergeCell ref="G113:J113"/>
-    <mergeCell ref="C114:F114"/>
-    <mergeCell ref="G114:J114"/>
-    <mergeCell ref="B121:D122"/>
-    <mergeCell ref="B124:B127"/>
-    <mergeCell ref="C124:F124"/>
-    <mergeCell ref="G124:J124"/>
-    <mergeCell ref="C125:F125"/>
-    <mergeCell ref="G125:J125"/>
-    <mergeCell ref="C127:F127"/>
-    <mergeCell ref="G127:J127"/>
-    <mergeCell ref="C126:F126"/>
-    <mergeCell ref="G126:J126"/>
-    <mergeCell ref="C110:F110"/>
-    <mergeCell ref="B143:C143"/>
-    <mergeCell ref="D143:J143"/>
-    <mergeCell ref="B144:C144"/>
-    <mergeCell ref="D144:J144"/>
-    <mergeCell ref="B145:C145"/>
-    <mergeCell ref="D145:J145"/>
-    <mergeCell ref="B136:D137"/>
-    <mergeCell ref="B139:C139"/>
-    <mergeCell ref="D139:J139"/>
-    <mergeCell ref="B140:C140"/>
-    <mergeCell ref="D140:J140"/>
-    <mergeCell ref="B141:C141"/>
-    <mergeCell ref="D141:J141"/>
-    <mergeCell ref="B142:C142"/>
-    <mergeCell ref="D142:J142"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -6993,10 +7036,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J63"/>
+  <dimension ref="B1:J67"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H50" sqref="H50"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="J68" sqref="J68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7007,454 +7050,454 @@
   <sheetData>
     <row r="1" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="20"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="34"/>
     </row>
     <row r="3" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="21"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="23"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="37"/>
     </row>
     <row r="4" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="5" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="63" t="s">
         <v>210</v>
       </c>
-      <c r="C5" s="70"/>
-      <c r="D5" s="71"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="65"/>
     </row>
     <row r="6" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="72"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="74"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="68"/>
     </row>
     <row r="8" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="106" t="s">
+      <c r="B8" s="18" t="s">
         <v>211</v>
       </c>
-      <c r="C8" s="75" t="s">
+      <c r="C8" s="99" t="s">
         <v>221</v>
       </c>
-      <c r="D8" s="75"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="109" t="s">
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="108" t="s">
         <v>216</v>
       </c>
-      <c r="G8" s="107" t="s">
+      <c r="G8" s="111" t="s">
         <v>222</v>
       </c>
-      <c r="H8" s="90"/>
-      <c r="I8" s="90"/>
-      <c r="J8" s="91"/>
+      <c r="H8" s="97"/>
+      <c r="I8" s="97"/>
+      <c r="J8" s="98"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B9" s="106" t="s">
+      <c r="B9" s="18" t="s">
         <v>212</v>
       </c>
-      <c r="C9" s="75" t="s">
+      <c r="C9" s="99" t="s">
         <v>214</v>
       </c>
-      <c r="D9" s="75"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="110"/>
-      <c r="G9" s="75" t="s">
+      <c r="D9" s="99"/>
+      <c r="E9" s="99"/>
+      <c r="F9" s="109"/>
+      <c r="G9" s="99" t="s">
         <v>217</v>
       </c>
-      <c r="H9" s="75"/>
-      <c r="I9" s="75"/>
-      <c r="J9" s="75"/>
+      <c r="H9" s="99"/>
+      <c r="I9" s="99"/>
+      <c r="J9" s="99"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B10" s="106" t="s">
+      <c r="B10" s="18" t="s">
         <v>213</v>
       </c>
-      <c r="C10" s="75" t="s">
+      <c r="C10" s="99" t="s">
         <v>215</v>
       </c>
-      <c r="D10" s="75"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="111"/>
-      <c r="G10" s="75" t="s">
+      <c r="D10" s="99"/>
+      <c r="E10" s="99"/>
+      <c r="F10" s="110"/>
+      <c r="G10" s="99" t="s">
         <v>218</v>
       </c>
-      <c r="H10" s="75"/>
-      <c r="I10" s="75"/>
-      <c r="J10" s="75"/>
+      <c r="H10" s="99"/>
+      <c r="I10" s="99"/>
+      <c r="J10" s="99"/>
     </row>
     <row r="12" spans="2:10" s="16" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="109" t="s">
+      <c r="B12" s="108" t="s">
         <v>223</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>224</v>
       </c>
-      <c r="D12" s="76" t="s">
+      <c r="D12" s="106" t="s">
         <v>216</v>
       </c>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="76"/>
-      <c r="H12" s="76"/>
-      <c r="I12" s="76"/>
-      <c r="J12" s="76"/>
+      <c r="E12" s="106"/>
+      <c r="F12" s="106"/>
+      <c r="G12" s="106"/>
+      <c r="H12" s="106"/>
+      <c r="I12" s="106"/>
+      <c r="J12" s="106"/>
     </row>
     <row r="13" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="110"/>
-      <c r="C13" s="112" t="s">
+      <c r="B13" s="109"/>
+      <c r="C13" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="D13" s="75" t="s">
+      <c r="D13" s="99" t="s">
         <v>233</v>
       </c>
-      <c r="E13" s="75"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="75"/>
-      <c r="I13" s="75"/>
-      <c r="J13" s="75"/>
+      <c r="E13" s="99"/>
+      <c r="F13" s="99"/>
+      <c r="G13" s="99"/>
+      <c r="H13" s="99"/>
+      <c r="I13" s="99"/>
+      <c r="J13" s="99"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B14" s="110"/>
-      <c r="C14" s="112" t="s">
+      <c r="B14" s="109"/>
+      <c r="C14" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="D14" s="75" t="s">
+      <c r="D14" s="99" t="s">
         <v>234</v>
       </c>
-      <c r="E14" s="75"/>
-      <c r="F14" s="75"/>
-      <c r="G14" s="75"/>
-      <c r="H14" s="75"/>
-      <c r="I14" s="75"/>
-      <c r="J14" s="75"/>
+      <c r="E14" s="99"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="99"/>
+      <c r="H14" s="99"/>
+      <c r="I14" s="99"/>
+      <c r="J14" s="99"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B15" s="110"/>
-      <c r="C15" s="112" t="s">
+      <c r="B15" s="109"/>
+      <c r="C15" s="19" t="s">
         <v>227</v>
       </c>
-      <c r="D15" s="75" t="s">
+      <c r="D15" s="99" t="s">
         <v>237</v>
       </c>
-      <c r="E15" s="75"/>
-      <c r="F15" s="75"/>
-      <c r="G15" s="75"/>
-      <c r="H15" s="75"/>
-      <c r="I15" s="75"/>
-      <c r="J15" s="75"/>
+      <c r="E15" s="99"/>
+      <c r="F15" s="99"/>
+      <c r="G15" s="99"/>
+      <c r="H15" s="99"/>
+      <c r="I15" s="99"/>
+      <c r="J15" s="99"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B16" s="110"/>
-      <c r="C16" s="112" t="s">
+      <c r="B16" s="109"/>
+      <c r="C16" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="D16" s="75" t="s">
+      <c r="D16" s="99" t="s">
         <v>236</v>
       </c>
-      <c r="E16" s="75"/>
-      <c r="F16" s="75"/>
-      <c r="G16" s="75"/>
-      <c r="H16" s="75"/>
-      <c r="I16" s="75"/>
-      <c r="J16" s="75"/>
+      <c r="E16" s="99"/>
+      <c r="F16" s="99"/>
+      <c r="G16" s="99"/>
+      <c r="H16" s="99"/>
+      <c r="I16" s="99"/>
+      <c r="J16" s="99"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B17" s="110"/>
-      <c r="C17" s="112" t="s">
+      <c r="B17" s="109"/>
+      <c r="C17" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="D17" s="75" t="s">
+      <c r="D17" s="99" t="s">
         <v>235</v>
       </c>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="75"/>
-      <c r="I17" s="75"/>
-      <c r="J17" s="75"/>
+      <c r="E17" s="99"/>
+      <c r="F17" s="99"/>
+      <c r="G17" s="99"/>
+      <c r="H17" s="99"/>
+      <c r="I17" s="99"/>
+      <c r="J17" s="99"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B18" s="110"/>
-      <c r="C18" s="112" t="s">
+      <c r="B18" s="109"/>
+      <c r="C18" s="19" t="s">
         <v>230</v>
       </c>
-      <c r="D18" s="75" t="s">
+      <c r="D18" s="99" t="s">
         <v>238</v>
       </c>
-      <c r="E18" s="75"/>
-      <c r="F18" s="75"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="75"/>
-      <c r="I18" s="75"/>
-      <c r="J18" s="75"/>
+      <c r="E18" s="99"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="99"/>
+      <c r="H18" s="99"/>
+      <c r="I18" s="99"/>
+      <c r="J18" s="99"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B19" s="110"/>
-      <c r="C19" s="112" t="s">
+      <c r="B19" s="109"/>
+      <c r="C19" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="D19" s="75" t="s">
+      <c r="D19" s="99" t="s">
         <v>246</v>
       </c>
-      <c r="E19" s="75"/>
-      <c r="F19" s="75"/>
-      <c r="G19" s="75"/>
-      <c r="H19" s="75"/>
-      <c r="I19" s="75"/>
-      <c r="J19" s="75"/>
+      <c r="E19" s="99"/>
+      <c r="F19" s="99"/>
+      <c r="G19" s="99"/>
+      <c r="H19" s="99"/>
+      <c r="I19" s="99"/>
+      <c r="J19" s="99"/>
     </row>
     <row r="20" spans="2:10" s="16" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="110"/>
-      <c r="C20" s="112" t="s">
+      <c r="B20" s="109"/>
+      <c r="C20" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="D20" s="75" t="s">
+      <c r="D20" s="99" t="s">
         <v>241</v>
       </c>
-      <c r="E20" s="75"/>
-      <c r="F20" s="75"/>
-      <c r="G20" s="75"/>
-      <c r="H20" s="75"/>
-      <c r="I20" s="75"/>
-      <c r="J20" s="75"/>
+      <c r="E20" s="99"/>
+      <c r="F20" s="99"/>
+      <c r="G20" s="99"/>
+      <c r="H20" s="99"/>
+      <c r="I20" s="99"/>
+      <c r="J20" s="99"/>
     </row>
     <row r="21" spans="2:10" s="16" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="110"/>
-      <c r="C21" s="112" t="s">
+      <c r="B21" s="109"/>
+      <c r="C21" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="D21" s="75" t="s">
+      <c r="D21" s="99" t="s">
         <v>242</v>
       </c>
-      <c r="E21" s="75"/>
-      <c r="F21" s="75"/>
-      <c r="G21" s="75"/>
-      <c r="H21" s="75"/>
-      <c r="I21" s="75"/>
-      <c r="J21" s="75"/>
+      <c r="E21" s="99"/>
+      <c r="F21" s="99"/>
+      <c r="G21" s="99"/>
+      <c r="H21" s="99"/>
+      <c r="I21" s="99"/>
+      <c r="J21" s="99"/>
     </row>
     <row r="22" spans="2:10" s="16" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="111"/>
-      <c r="C22" s="112" t="s">
+      <c r="B22" s="110"/>
+      <c r="C22" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="D22" s="75" t="s">
+      <c r="D22" s="99" t="s">
         <v>243</v>
       </c>
-      <c r="E22" s="75"/>
-      <c r="F22" s="75"/>
-      <c r="G22" s="75"/>
-      <c r="H22" s="75"/>
-      <c r="I22" s="75"/>
-      <c r="J22" s="75"/>
+      <c r="E22" s="99"/>
+      <c r="F22" s="99"/>
+      <c r="G22" s="99"/>
+      <c r="H22" s="99"/>
+      <c r="I22" s="99"/>
+      <c r="J22" s="99"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B24" s="108" t="s">
+      <c r="B24" s="93" t="s">
         <v>219</v>
       </c>
-      <c r="C24" s="83" t="s">
+      <c r="C24" s="82" t="s">
         <v>220</v>
       </c>
-      <c r="D24" s="83"/>
-      <c r="E24" s="83"/>
-      <c r="F24" s="83"/>
-      <c r="G24" s="83"/>
-      <c r="H24" s="83"/>
-      <c r="I24" s="83"/>
-      <c r="J24" s="83"/>
+      <c r="D24" s="82"/>
+      <c r="E24" s="82"/>
+      <c r="F24" s="82"/>
+      <c r="G24" s="82"/>
+      <c r="H24" s="82"/>
+      <c r="I24" s="82"/>
+      <c r="J24" s="82"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B25" s="108"/>
-      <c r="C25" s="83"/>
-      <c r="D25" s="83"/>
-      <c r="E25" s="83"/>
-      <c r="F25" s="83"/>
-      <c r="G25" s="83"/>
-      <c r="H25" s="83"/>
-      <c r="I25" s="83"/>
-      <c r="J25" s="83"/>
+      <c r="B25" s="93"/>
+      <c r="C25" s="82"/>
+      <c r="D25" s="82"/>
+      <c r="E25" s="82"/>
+      <c r="F25" s="82"/>
+      <c r="G25" s="82"/>
+      <c r="H25" s="82"/>
+      <c r="I25" s="82"/>
+      <c r="J25" s="82"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B26" s="108"/>
-      <c r="C26" s="83"/>
-      <c r="D26" s="83"/>
-      <c r="E26" s="83"/>
-      <c r="F26" s="83"/>
-      <c r="G26" s="83"/>
-      <c r="H26" s="83"/>
-      <c r="I26" s="83"/>
-      <c r="J26" s="83"/>
+      <c r="B26" s="93"/>
+      <c r="C26" s="82"/>
+      <c r="D26" s="82"/>
+      <c r="E26" s="82"/>
+      <c r="F26" s="82"/>
+      <c r="G26" s="82"/>
+      <c r="H26" s="82"/>
+      <c r="I26" s="82"/>
+      <c r="J26" s="82"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B27" s="108"/>
-      <c r="C27" s="83"/>
-      <c r="D27" s="83"/>
-      <c r="E27" s="83"/>
-      <c r="F27" s="83"/>
-      <c r="G27" s="83"/>
-      <c r="H27" s="83"/>
-      <c r="I27" s="83"/>
-      <c r="J27" s="83"/>
+      <c r="B27" s="93"/>
+      <c r="C27" s="82"/>
+      <c r="D27" s="82"/>
+      <c r="E27" s="82"/>
+      <c r="F27" s="82"/>
+      <c r="G27" s="82"/>
+      <c r="H27" s="82"/>
+      <c r="I27" s="82"/>
+      <c r="J27" s="82"/>
     </row>
     <row r="29" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="30" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B30" s="69" t="s">
+      <c r="B30" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="C30" s="70"/>
-      <c r="D30" s="71"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="65"/>
     </row>
     <row r="31" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="72"/>
-      <c r="C31" s="73"/>
-      <c r="D31" s="74"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="67"/>
+      <c r="D31" s="68"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B33" s="105" t="s">
+      <c r="B33" s="112" t="s">
         <v>197</v>
       </c>
-      <c r="C33" s="83" t="s">
+      <c r="C33" s="82" t="s">
         <v>196</v>
       </c>
-      <c r="D33" s="75"/>
-      <c r="E33" s="75"/>
-      <c r="F33" s="75"/>
-      <c r="G33" s="75"/>
-      <c r="H33" s="75"/>
-      <c r="I33" s="75"/>
-      <c r="J33" s="75"/>
+      <c r="D33" s="99"/>
+      <c r="E33" s="99"/>
+      <c r="F33" s="99"/>
+      <c r="G33" s="99"/>
+      <c r="H33" s="99"/>
+      <c r="I33" s="99"/>
+      <c r="J33" s="99"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B34" s="105"/>
-      <c r="C34" s="75"/>
-      <c r="D34" s="75"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="75"/>
-      <c r="G34" s="75"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="75"/>
-      <c r="J34" s="75"/>
+      <c r="B34" s="112"/>
+      <c r="C34" s="99"/>
+      <c r="D34" s="99"/>
+      <c r="E34" s="99"/>
+      <c r="F34" s="99"/>
+      <c r="G34" s="99"/>
+      <c r="H34" s="99"/>
+      <c r="I34" s="99"/>
+      <c r="J34" s="99"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B35" s="105" t="s">
+      <c r="B35" s="112" t="s">
         <v>198</v>
       </c>
-      <c r="C35" s="83" t="s">
+      <c r="C35" s="82" t="s">
         <v>199</v>
       </c>
-      <c r="D35" s="75"/>
-      <c r="E35" s="75"/>
-      <c r="F35" s="75"/>
-      <c r="G35" s="75"/>
-      <c r="H35" s="75"/>
-      <c r="I35" s="75"/>
-      <c r="J35" s="75"/>
+      <c r="D35" s="99"/>
+      <c r="E35" s="99"/>
+      <c r="F35" s="99"/>
+      <c r="G35" s="99"/>
+      <c r="H35" s="99"/>
+      <c r="I35" s="99"/>
+      <c r="J35" s="99"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B36" s="105"/>
-      <c r="C36" s="75"/>
-      <c r="D36" s="75"/>
-      <c r="E36" s="75"/>
-      <c r="F36" s="75"/>
-      <c r="G36" s="75"/>
-      <c r="H36" s="75"/>
-      <c r="I36" s="75"/>
-      <c r="J36" s="75"/>
+      <c r="B36" s="112"/>
+      <c r="C36" s="99"/>
+      <c r="D36" s="99"/>
+      <c r="E36" s="99"/>
+      <c r="F36" s="99"/>
+      <c r="G36" s="99"/>
+      <c r="H36" s="99"/>
+      <c r="I36" s="99"/>
+      <c r="J36" s="99"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.4">
       <c r="C37" s="15"/>
     </row>
     <row r="38" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="39" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B39" s="69" t="s">
+      <c r="B39" s="63" t="s">
         <v>208</v>
       </c>
-      <c r="C39" s="70"/>
-      <c r="D39" s="71"/>
+      <c r="C39" s="64"/>
+      <c r="D39" s="65"/>
     </row>
     <row r="40" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="72"/>
-      <c r="C40" s="73"/>
-      <c r="D40" s="74"/>
+      <c r="B40" s="66"/>
+      <c r="C40" s="67"/>
+      <c r="D40" s="68"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B42" s="76" t="s">
+      <c r="B42" s="106" t="s">
         <v>201</v>
       </c>
-      <c r="C42" s="101" t="s">
+      <c r="C42" s="113" t="s">
         <v>200</v>
       </c>
-      <c r="D42" s="101"/>
-      <c r="E42" s="102">
+      <c r="D42" s="113"/>
+      <c r="E42" s="114">
         <v>0</v>
       </c>
-      <c r="F42" s="102"/>
-      <c r="G42" s="102">
+      <c r="F42" s="114"/>
+      <c r="G42" s="114">
         <v>0</v>
       </c>
-      <c r="H42" s="102"/>
-      <c r="I42" s="102">
+      <c r="H42" s="114"/>
+      <c r="I42" s="114">
         <v>0</v>
       </c>
-      <c r="J42" s="102"/>
+      <c r="J42" s="114"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B43" s="76"/>
-      <c r="C43" s="101"/>
-      <c r="D43" s="101"/>
-      <c r="E43" s="102"/>
-      <c r="F43" s="102"/>
-      <c r="G43" s="102"/>
-      <c r="H43" s="102"/>
-      <c r="I43" s="102"/>
-      <c r="J43" s="102"/>
+      <c r="B43" s="106"/>
+      <c r="C43" s="113"/>
+      <c r="D43" s="113"/>
+      <c r="E43" s="114"/>
+      <c r="F43" s="114"/>
+      <c r="G43" s="114"/>
+      <c r="H43" s="114"/>
+      <c r="I43" s="114"/>
+      <c r="J43" s="114"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B44" s="76" t="s">
+      <c r="B44" s="106" t="s">
         <v>202</v>
       </c>
-      <c r="C44" s="103" t="s">
+      <c r="C44" s="115" t="s">
         <v>204</v>
       </c>
-      <c r="D44" s="104"/>
-      <c r="E44" s="103" t="s">
+      <c r="D44" s="116"/>
+      <c r="E44" s="115" t="s">
         <v>205</v>
       </c>
-      <c r="F44" s="103"/>
-      <c r="G44" s="103" t="s">
+      <c r="F44" s="115"/>
+      <c r="G44" s="115" t="s">
         <v>206</v>
       </c>
-      <c r="H44" s="103"/>
-      <c r="I44" s="103" t="s">
+      <c r="H44" s="115"/>
+      <c r="I44" s="115" t="s">
         <v>207</v>
       </c>
-      <c r="J44" s="103"/>
+      <c r="J44" s="115"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B45" s="76"/>
-      <c r="C45" s="104"/>
-      <c r="D45" s="104"/>
-      <c r="E45" s="103"/>
-      <c r="F45" s="103"/>
-      <c r="G45" s="103"/>
-      <c r="H45" s="103"/>
-      <c r="I45" s="103"/>
-      <c r="J45" s="103"/>
+      <c r="B45" s="106"/>
+      <c r="C45" s="116"/>
+      <c r="D45" s="116"/>
+      <c r="E45" s="115"/>
+      <c r="F45" s="115"/>
+      <c r="G45" s="115"/>
+      <c r="H45" s="115"/>
+      <c r="I45" s="115"/>
+      <c r="J45" s="115"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B46" s="7" t="s">
@@ -7470,115 +7513,184 @@
     </row>
     <row r="48" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="49" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B49" s="69" t="s">
+      <c r="B49" s="63" t="s">
         <v>245</v>
       </c>
-      <c r="C49" s="70"/>
-      <c r="D49" s="71"/>
+      <c r="C49" s="64"/>
+      <c r="D49" s="65"/>
     </row>
     <row r="50" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B50" s="72"/>
-      <c r="C50" s="73"/>
-      <c r="D50" s="74"/>
+      <c r="B50" s="66"/>
+      <c r="C50" s="67"/>
+      <c r="D50" s="68"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B52" s="77" t="s">
+      <c r="B52" s="83" t="s">
         <v>247</v>
       </c>
-      <c r="C52" s="77"/>
-      <c r="D52" s="59" t="s">
+      <c r="C52" s="83"/>
+      <c r="D52" s="31" t="s">
         <v>248</v>
       </c>
-      <c r="E52" s="55"/>
-      <c r="F52" s="55"/>
-      <c r="G52" s="55"/>
-      <c r="H52" s="55"/>
-      <c r="I52" s="55"/>
-      <c r="J52" s="55"/>
+      <c r="E52" s="27"/>
+      <c r="F52" s="27"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="27"/>
+      <c r="I52" s="27"/>
+      <c r="J52" s="27"/>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B53" s="77"/>
-      <c r="C53" s="77"/>
-      <c r="D53" s="55"/>
-      <c r="E53" s="55"/>
-      <c r="F53" s="55"/>
-      <c r="G53" s="55"/>
-      <c r="H53" s="55"/>
-      <c r="I53" s="55"/>
-      <c r="J53" s="55"/>
+      <c r="B53" s="83"/>
+      <c r="C53" s="83"/>
+      <c r="D53" s="27"/>
+      <c r="E53" s="27"/>
+      <c r="F53" s="27"/>
+      <c r="G53" s="27"/>
+      <c r="H53" s="27"/>
+      <c r="I53" s="27"/>
+      <c r="J53" s="27"/>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B54" s="77"/>
-      <c r="C54" s="77"/>
-      <c r="D54" s="55"/>
-      <c r="E54" s="55"/>
-      <c r="F54" s="55"/>
-      <c r="G54" s="55"/>
-      <c r="H54" s="55"/>
-      <c r="I54" s="55"/>
-      <c r="J54" s="55"/>
+      <c r="B54" s="83"/>
+      <c r="C54" s="83"/>
+      <c r="D54" s="27"/>
+      <c r="E54" s="27"/>
+      <c r="F54" s="27"/>
+      <c r="G54" s="27"/>
+      <c r="H54" s="27"/>
+      <c r="I54" s="27"/>
+      <c r="J54" s="27"/>
     </row>
     <row r="56" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="57" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B57" s="69" t="s">
+      <c r="B57" s="63" t="s">
         <v>250</v>
       </c>
-      <c r="C57" s="70"/>
-      <c r="D57" s="71"/>
+      <c r="C57" s="64"/>
+      <c r="D57" s="65"/>
     </row>
     <row r="58" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B58" s="72"/>
-      <c r="C58" s="73"/>
-      <c r="D58" s="74"/>
+      <c r="B58" s="66"/>
+      <c r="C58" s="67"/>
+      <c r="D58" s="68"/>
     </row>
     <row r="60" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B60" s="116" t="s">
+      <c r="B60" s="107" t="s">
         <v>251</v>
       </c>
-      <c r="C60" s="116"/>
-      <c r="D60" s="116"/>
-      <c r="E60" s="116"/>
-      <c r="F60" s="116"/>
-      <c r="G60" s="116"/>
-      <c r="H60" s="116"/>
-      <c r="I60" s="116"/>
-      <c r="J60" s="116"/>
+      <c r="C60" s="107"/>
+      <c r="D60" s="107"/>
+      <c r="E60" s="107"/>
+      <c r="F60" s="107"/>
+      <c r="G60" s="107"/>
+      <c r="H60" s="107"/>
+      <c r="I60" s="107"/>
+      <c r="J60" s="107"/>
     </row>
     <row r="61" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B61" s="116"/>
-      <c r="C61" s="116"/>
-      <c r="D61" s="116"/>
-      <c r="E61" s="116"/>
-      <c r="F61" s="116"/>
-      <c r="G61" s="116"/>
-      <c r="H61" s="116"/>
-      <c r="I61" s="116"/>
-      <c r="J61" s="116"/>
+      <c r="B61" s="107"/>
+      <c r="C61" s="107"/>
+      <c r="D61" s="107"/>
+      <c r="E61" s="107"/>
+      <c r="F61" s="107"/>
+      <c r="G61" s="107"/>
+      <c r="H61" s="107"/>
+      <c r="I61" s="107"/>
+      <c r="J61" s="107"/>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B62" s="116"/>
-      <c r="C62" s="116"/>
-      <c r="D62" s="116"/>
-      <c r="E62" s="116"/>
-      <c r="F62" s="116"/>
-      <c r="G62" s="116"/>
-      <c r="H62" s="116"/>
-      <c r="I62" s="116"/>
-      <c r="J62" s="116"/>
+      <c r="B62" s="107"/>
+      <c r="C62" s="107"/>
+      <c r="D62" s="107"/>
+      <c r="E62" s="107"/>
+      <c r="F62" s="107"/>
+      <c r="G62" s="107"/>
+      <c r="H62" s="107"/>
+      <c r="I62" s="107"/>
+      <c r="J62" s="107"/>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B63" s="116"/>
-      <c r="C63" s="116"/>
-      <c r="D63" s="116"/>
-      <c r="E63" s="116"/>
-      <c r="F63" s="116"/>
-      <c r="G63" s="116"/>
-      <c r="H63" s="116"/>
-      <c r="I63" s="116"/>
-      <c r="J63" s="116"/>
+      <c r="B63" s="107"/>
+      <c r="C63" s="107"/>
+      <c r="D63" s="107"/>
+      <c r="E63" s="107"/>
+      <c r="F63" s="107"/>
+      <c r="G63" s="107"/>
+      <c r="H63" s="107"/>
+      <c r="I63" s="107"/>
+      <c r="J63" s="107"/>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B64" s="118" t="s">
+        <v>260</v>
+      </c>
+      <c r="C64" s="117"/>
+      <c r="D64" s="117"/>
+      <c r="E64" s="117"/>
+      <c r="F64" s="117"/>
+      <c r="G64" s="117"/>
+      <c r="H64" s="117"/>
+      <c r="I64" s="117"/>
+      <c r="J64" s="117"/>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B65" s="117"/>
+      <c r="C65" s="117"/>
+      <c r="D65" s="117"/>
+      <c r="E65" s="117"/>
+      <c r="F65" s="117"/>
+      <c r="G65" s="117"/>
+      <c r="H65" s="117"/>
+      <c r="I65" s="117"/>
+      <c r="J65" s="117"/>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B66" s="117"/>
+      <c r="C66" s="117"/>
+      <c r="D66" s="117"/>
+      <c r="E66" s="117"/>
+      <c r="F66" s="117"/>
+      <c r="G66" s="117"/>
+      <c r="H66" s="117"/>
+      <c r="I66" s="117"/>
+      <c r="J66" s="117"/>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B67" t="s">
+        <v>259</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="44">
+  <mergeCells count="45">
+    <mergeCell ref="C44:D45"/>
+    <mergeCell ref="E44:F45"/>
+    <mergeCell ref="G44:H45"/>
+    <mergeCell ref="I44:J45"/>
+    <mergeCell ref="B64:J66"/>
+    <mergeCell ref="B39:D40"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B2:J3"/>
+    <mergeCell ref="B30:D31"/>
+    <mergeCell ref="C33:J34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:J36"/>
+    <mergeCell ref="B5:D6"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C42:D43"/>
+    <mergeCell ref="E42:F43"/>
+    <mergeCell ref="G42:H43"/>
+    <mergeCell ref="I42:J43"/>
+    <mergeCell ref="D20:J20"/>
+    <mergeCell ref="D21:J21"/>
+    <mergeCell ref="D22:J22"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="G10:J10"/>
     <mergeCell ref="B57:D58"/>
     <mergeCell ref="B60:J63"/>
     <mergeCell ref="D12:J12"/>
@@ -7595,34 +7707,6 @@
     <mergeCell ref="D17:J17"/>
     <mergeCell ref="D18:J18"/>
     <mergeCell ref="D19:J19"/>
-    <mergeCell ref="D20:J20"/>
-    <mergeCell ref="D21:J21"/>
-    <mergeCell ref="D22:J22"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="B39:D40"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B2:J3"/>
-    <mergeCell ref="B30:D31"/>
-    <mergeCell ref="C33:J34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:J36"/>
-    <mergeCell ref="B5:D6"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C42:D43"/>
-    <mergeCell ref="E42:F43"/>
-    <mergeCell ref="G42:H43"/>
-    <mergeCell ref="I42:J43"/>
-    <mergeCell ref="C44:D45"/>
-    <mergeCell ref="E44:F45"/>
-    <mergeCell ref="G44:H45"/>
-    <mergeCell ref="I44:J45"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/書類やスケジュール/タワーディフェンス・コーディングルール.xlsx
+++ b/書類やスケジュール/タワーディフェンス・コーディングルール.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="概要&amp;更新履歴" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="263">
   <si>
     <t>目次</t>
     <rPh sb="0" eb="2">
@@ -2562,10 +2562,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>BackGroundMusic</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Init</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -3152,6 +3148,27 @@
     </rPh>
     <rPh sb="88" eb="90">
       <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EVM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BackGroundMusic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>環境音　Enviromentの略</t>
+    <rPh sb="0" eb="2">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>オン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>リャク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3843,6 +3860,99 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3876,99 +3986,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3987,153 +4029,128 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4418,8 +4435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J25"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:J20"/>
+    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4430,274 +4447,282 @@
   <sheetData>
     <row r="1" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="34"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="23"/>
     </row>
     <row r="3" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="35"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="37"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="26"/>
     </row>
     <row r="4" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="5" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="51" t="s">
+      <c r="C5" s="28"/>
+      <c r="D5" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="52"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="41"/>
     </row>
     <row r="6" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="62"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="51"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="55" t="s">
+      <c r="C7" s="30"/>
+      <c r="D7" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="56"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="45"/>
     </row>
     <row r="8" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="43"/>
-      <c r="D8" s="57" t="s">
+      <c r="C8" s="32"/>
+      <c r="D8" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="58"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="59"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="48"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="43"/>
-      <c r="D9" s="57" t="s">
+      <c r="C9" s="32"/>
+      <c r="D9" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="59"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="48"/>
     </row>
     <row r="10" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="50"/>
-      <c r="D10" s="53" t="s">
+      <c r="C10" s="39"/>
+      <c r="D10" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="54"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="43"/>
     </row>
     <row r="12" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="45"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="34"/>
     </row>
     <row r="14" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="46"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="48"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="37"/>
     </row>
     <row r="15" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="16" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="52">
         <v>43656</v>
       </c>
-      <c r="D16" s="21"/>
+      <c r="D16" s="52"/>
       <c r="E16" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="22" t="s">
+      <c r="F16" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="24"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="55"/>
     </row>
     <row r="17" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="31" t="s">
-        <v>194</v>
-      </c>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="28"/>
+      <c r="C17" s="62" t="s">
+        <v>193</v>
+      </c>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="59"/>
     </row>
     <row r="18" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="25"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="28"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="59"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B19" s="25"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="28"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="59"/>
     </row>
     <row r="20" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="26"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="30"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="61"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B21" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
       <c r="E21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F21" s="22"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="24"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="55"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="28"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="59"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B23" s="25"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="28"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="58"/>
+      <c r="J23" s="59"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B24" s="25"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="28"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="58"/>
+      <c r="J24" s="59"/>
     </row>
     <row r="25" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="26"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="30"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C22:J25"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="C17:J20"/>
+    <mergeCell ref="F16:J16"/>
     <mergeCell ref="B2:J3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B7:C7"/>
@@ -4711,14 +4736,6 @@
     <mergeCell ref="D8:J8"/>
     <mergeCell ref="D9:J9"/>
     <mergeCell ref="B6:J6"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="C22:J25"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="C17:J20"/>
-    <mergeCell ref="F16:J16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4730,8 +4747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J37"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16:I16"/>
+    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27:D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4742,35 +4759,35 @@
   <sheetData>
     <row r="1" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="34"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="23"/>
     </row>
     <row r="3" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="35"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="37"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="26"/>
     </row>
     <row r="4" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="5" spans="2:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="74"/>
+      <c r="C5" s="69"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -4783,10 +4800,10 @@
       <c r="B6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="75" t="s">
+      <c r="C6" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="75"/>
+      <c r="D6" s="70"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -4798,189 +4815,189 @@
       <c r="B7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="76" t="s">
+      <c r="C7" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="76"/>
+      <c r="D7" s="71"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="69" t="s">
+      <c r="C8" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="69"/>
+      <c r="D8" s="63"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B9" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="69" t="s">
+      <c r="C9" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="69"/>
+      <c r="D9" s="63"/>
     </row>
     <row r="10" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B10" s="1"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B11" s="63" t="s">
+      <c r="B11" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="64"/>
-      <c r="D11" s="65"/>
-      <c r="G11" s="63" t="s">
+      <c r="C11" s="73"/>
+      <c r="D11" s="74"/>
+      <c r="G11" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="H11" s="64"/>
-      <c r="I11" s="65"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="74"/>
     </row>
     <row r="12" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="66"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="68"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="68"/>
+      <c r="B12" s="75"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="77"/>
+      <c r="G12" s="75"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="77"/>
     </row>
     <row r="13" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="70" t="s">
+      <c r="B13" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="71"/>
+      <c r="C13" s="65"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="8"/>
       <c r="G13" s="20" t="s">
-        <v>252</v>
-      </c>
-      <c r="H13" s="72" t="s">
-        <v>209</v>
-      </c>
-      <c r="I13" s="72"/>
+        <v>251</v>
+      </c>
+      <c r="H13" s="78" t="s">
+        <v>208</v>
+      </c>
+      <c r="I13" s="78"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B14" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C14" s="69" t="s">
+      <c r="C14" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="69"/>
+      <c r="D14" s="63"/>
       <c r="G14" s="20" t="s">
-        <v>253</v>
-      </c>
-      <c r="H14" s="72" t="s">
-        <v>257</v>
-      </c>
-      <c r="I14" s="72"/>
+        <v>252</v>
+      </c>
+      <c r="H14" s="78" t="s">
+        <v>256</v>
+      </c>
+      <c r="I14" s="78"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B15" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C15" s="69" t="s">
+      <c r="C15" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="69"/>
+      <c r="D15" s="63"/>
       <c r="G15" s="20" t="s">
-        <v>254</v>
-      </c>
-      <c r="H15" s="72" t="s">
-        <v>258</v>
-      </c>
-      <c r="I15" s="72"/>
+        <v>253</v>
+      </c>
+      <c r="H15" s="78" t="s">
+        <v>257</v>
+      </c>
+      <c r="I15" s="78"/>
     </row>
     <row r="16" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="5"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="G16" s="20" t="s">
-        <v>255</v>
-      </c>
-      <c r="H16" s="72" t="s">
-        <v>244</v>
-      </c>
-      <c r="I16" s="72"/>
+        <v>254</v>
+      </c>
+      <c r="H16" s="78" t="s">
+        <v>243</v>
+      </c>
+      <c r="I16" s="78"/>
     </row>
     <row r="17" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="70" t="s">
+      <c r="B17" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="71"/>
+      <c r="C17" s="65"/>
       <c r="D17" s="7"/>
       <c r="G17" s="20" t="s">
-        <v>256</v>
-      </c>
-      <c r="H17" s="72" t="s">
-        <v>249</v>
-      </c>
-      <c r="I17" s="72"/>
+        <v>255</v>
+      </c>
+      <c r="H17" s="78" t="s">
+        <v>248</v>
+      </c>
+      <c r="I17" s="78"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B18" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C18" s="69" t="s">
+      <c r="C18" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="69"/>
+      <c r="D18" s="63"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B19" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="69" t="s">
+      <c r="C19" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="69"/>
+      <c r="D19" s="63"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B20" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="69" t="s">
+      <c r="C20" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="69"/>
+      <c r="D20" s="63"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B21" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="69" t="s">
+      <c r="C21" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="69"/>
+      <c r="D21" s="63"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B22" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="69" t="s">
+      <c r="C22" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="D22" s="69"/>
+      <c r="D22" s="63"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B23" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="69" t="s">
+      <c r="C23" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="69"/>
+      <c r="D23" s="63"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B24" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="69" t="s">
+      <c r="C24" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="69"/>
+      <c r="D24" s="63"/>
     </row>
     <row r="25" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B25" s="5"/>
@@ -4988,109 +5005,90 @@
       <c r="D25" s="7"/>
     </row>
     <row r="26" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="77" t="s">
+      <c r="B26" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="C26" s="78"/>
+      <c r="C26" s="67"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B27" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C27" s="69" t="s">
-        <v>190</v>
-      </c>
-      <c r="D27" s="69"/>
+      <c r="C27" s="63" t="s">
+        <v>189</v>
+      </c>
+      <c r="D27" s="63"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B28" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C28" s="69" t="s">
+      <c r="C28" s="63" t="s">
         <v>126</v>
       </c>
-      <c r="D28" s="69"/>
+      <c r="D28" s="63"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B29" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C29" s="69" t="s">
+      <c r="C29" s="63" t="s">
         <v>133</v>
       </c>
-      <c r="D29" s="69"/>
+      <c r="D29" s="63"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B30" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C30" s="69" t="s">
+      <c r="C30" s="63" t="s">
         <v>143</v>
       </c>
-      <c r="D30" s="69"/>
+      <c r="D30" s="63"/>
     </row>
     <row r="31" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="32" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="70" t="s">
+      <c r="B32" s="64" t="s">
         <v>154</v>
       </c>
-      <c r="C32" s="71"/>
+      <c r="C32" s="65"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B33" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="C33" s="69" t="s">
+        <v>190</v>
+      </c>
+      <c r="C33" s="63" t="s">
         <v>153</v>
       </c>
-      <c r="D33" s="69"/>
+      <c r="D33" s="63"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B34" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C34" s="69" t="s">
+      <c r="C34" s="63" t="s">
         <v>167</v>
       </c>
-      <c r="D34" s="69"/>
+      <c r="D34" s="63"/>
     </row>
     <row r="35" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="36" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="70" t="s">
+      <c r="B36" s="64" t="s">
         <v>176</v>
       </c>
-      <c r="C36" s="71"/>
+      <c r="C36" s="65"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B37" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C37" s="63" t="s">
         <v>192</v>
       </c>
-      <c r="C37" s="69" t="s">
-        <v>193</v>
-      </c>
-      <c r="D37" s="69"/>
+      <c r="D37" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B2:J3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
     <mergeCell ref="G11:I12"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C18:D18"/>
@@ -5106,6 +5104,25 @@
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="H16:I16"/>
     <mergeCell ref="H17:I17"/>
+    <mergeCell ref="B2:J3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B17:C17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -5143,8 +5160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J145"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:B31"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G127" sqref="G127:J127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5155,322 +5172,322 @@
   <sheetData>
     <row r="1" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="34"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="23"/>
     </row>
     <row r="3" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="35"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="37"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="26"/>
     </row>
     <row r="4" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="5" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="64"/>
-      <c r="D5" s="65"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="74"/>
     </row>
     <row r="6" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="66"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="68"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="77"/>
     </row>
     <row r="8" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="93" t="s">
+      <c r="B8" s="104" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="79" t="s">
+      <c r="C8" s="96" t="s">
         <v>113</v>
       </c>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="79"/>
-      <c r="H8" s="79"/>
-      <c r="I8" s="79"/>
-      <c r="J8" s="79"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="96"/>
+      <c r="I8" s="96"/>
+      <c r="J8" s="96"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B9" s="93"/>
-      <c r="C9" s="80" t="s">
+      <c r="B9" s="104"/>
+      <c r="C9" s="106" t="s">
         <v>114</v>
       </c>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="80"/>
-      <c r="I9" s="80"/>
-      <c r="J9" s="80"/>
+      <c r="D9" s="106"/>
+      <c r="E9" s="106"/>
+      <c r="F9" s="106"/>
+      <c r="G9" s="106"/>
+      <c r="H9" s="106"/>
+      <c r="I9" s="106"/>
+      <c r="J9" s="106"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B10" s="93"/>
-      <c r="C10" s="80" t="s">
+      <c r="B10" s="104"/>
+      <c r="C10" s="106" t="s">
         <v>115</v>
       </c>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="80"/>
-      <c r="H10" s="80"/>
-      <c r="I10" s="80"/>
-      <c r="J10" s="80"/>
+      <c r="D10" s="106"/>
+      <c r="E10" s="106"/>
+      <c r="F10" s="106"/>
+      <c r="G10" s="106"/>
+      <c r="H10" s="106"/>
+      <c r="I10" s="106"/>
+      <c r="J10" s="106"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B11" s="93"/>
-      <c r="C11" s="80" t="s">
+      <c r="B11" s="104"/>
+      <c r="C11" s="106" t="s">
         <v>116</v>
       </c>
-      <c r="D11" s="80"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="80"/>
-      <c r="G11" s="80"/>
-      <c r="H11" s="80"/>
-      <c r="I11" s="80"/>
-      <c r="J11" s="80"/>
+      <c r="D11" s="106"/>
+      <c r="E11" s="106"/>
+      <c r="F11" s="106"/>
+      <c r="G11" s="106"/>
+      <c r="H11" s="106"/>
+      <c r="I11" s="106"/>
+      <c r="J11" s="106"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B13" s="83" t="s">
+      <c r="B13" s="81" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="58" t="s">
+      <c r="C13" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="58"/>
-      <c r="E13" s="89" t="s">
+      <c r="D13" s="47"/>
+      <c r="E13" s="105" t="s">
         <v>53</v>
       </c>
-      <c r="F13" s="89"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="89"/>
-      <c r="I13" s="89"/>
-      <c r="J13" s="89"/>
+      <c r="F13" s="105"/>
+      <c r="G13" s="105"/>
+      <c r="H13" s="105"/>
+      <c r="I13" s="105"/>
+      <c r="J13" s="105"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B14" s="93"/>
-      <c r="C14" s="58" t="s">
+      <c r="B14" s="104"/>
+      <c r="C14" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="58"/>
-      <c r="E14" s="89" t="s">
+      <c r="D14" s="47"/>
+      <c r="E14" s="105" t="s">
         <v>54</v>
       </c>
-      <c r="F14" s="89"/>
-      <c r="G14" s="89"/>
-      <c r="H14" s="89"/>
-      <c r="I14" s="89"/>
-      <c r="J14" s="89"/>
+      <c r="F14" s="105"/>
+      <c r="G14" s="105"/>
+      <c r="H14" s="105"/>
+      <c r="I14" s="105"/>
+      <c r="J14" s="105"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B15" s="93"/>
-      <c r="C15" s="58" t="s">
+      <c r="B15" s="104"/>
+      <c r="C15" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="58"/>
-      <c r="E15" s="89" t="s">
+      <c r="D15" s="47"/>
+      <c r="E15" s="105" t="s">
         <v>56</v>
       </c>
-      <c r="F15" s="89"/>
-      <c r="G15" s="89"/>
-      <c r="H15" s="89"/>
-      <c r="I15" s="89"/>
-      <c r="J15" s="89"/>
+      <c r="F15" s="105"/>
+      <c r="G15" s="105"/>
+      <c r="H15" s="105"/>
+      <c r="I15" s="105"/>
+      <c r="J15" s="105"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B16" s="93"/>
-      <c r="C16" s="58" t="s">
+      <c r="B16" s="104"/>
+      <c r="C16" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="58"/>
-      <c r="E16" s="89" t="s">
+      <c r="D16" s="47"/>
+      <c r="E16" s="105" t="s">
         <v>57</v>
       </c>
-      <c r="F16" s="89"/>
-      <c r="G16" s="89"/>
-      <c r="H16" s="89"/>
-      <c r="I16" s="89"/>
-      <c r="J16" s="89"/>
+      <c r="F16" s="105"/>
+      <c r="G16" s="105"/>
+      <c r="H16" s="105"/>
+      <c r="I16" s="105"/>
+      <c r="J16" s="105"/>
     </row>
     <row r="18" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="19" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B19" s="63" t="s">
+      <c r="B19" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="64"/>
-      <c r="D19" s="65"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="74"/>
     </row>
     <row r="20" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="66"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="68"/>
+      <c r="B20" s="75"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="77"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B22" s="83" t="s">
+      <c r="B22" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="84" t="s">
+      <c r="C22" s="85" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="84"/>
-      <c r="E22" s="84"/>
-      <c r="F22" s="84"/>
-      <c r="G22" s="84" t="s">
+      <c r="D22" s="85"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="85"/>
+      <c r="G22" s="85" t="s">
         <v>46</v>
       </c>
-      <c r="H22" s="84"/>
-      <c r="I22" s="84"/>
-      <c r="J22" s="84"/>
+      <c r="H22" s="85"/>
+      <c r="I22" s="85"/>
+      <c r="J22" s="85"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B23" s="83"/>
-      <c r="C23" s="81" t="s">
+      <c r="B23" s="81"/>
+      <c r="C23" s="86" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="81"/>
-      <c r="E23" s="81"/>
-      <c r="F23" s="81"/>
-      <c r="G23" s="81" t="s">
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="86" t="s">
         <v>58</v>
       </c>
-      <c r="H23" s="81"/>
-      <c r="I23" s="81"/>
-      <c r="J23" s="81"/>
+      <c r="H23" s="86"/>
+      <c r="I23" s="86"/>
+      <c r="J23" s="86"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B24" s="83"/>
-      <c r="C24" s="81" t="s">
+      <c r="B24" s="81"/>
+      <c r="C24" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="D24" s="81"/>
-      <c r="E24" s="81"/>
-      <c r="F24" s="81"/>
-      <c r="G24" s="81" t="s">
+      <c r="D24" s="86"/>
+      <c r="E24" s="86"/>
+      <c r="F24" s="86"/>
+      <c r="G24" s="86" t="s">
         <v>61</v>
       </c>
-      <c r="H24" s="81"/>
-      <c r="I24" s="81"/>
-      <c r="J24" s="81"/>
+      <c r="H24" s="86"/>
+      <c r="I24" s="86"/>
+      <c r="J24" s="86"/>
     </row>
     <row r="25" spans="2:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="83"/>
-      <c r="C25" s="81" t="s">
+      <c r="B25" s="81"/>
+      <c r="C25" s="86" t="s">
         <v>62</v>
       </c>
-      <c r="D25" s="81"/>
-      <c r="E25" s="81"/>
-      <c r="F25" s="81"/>
-      <c r="G25" s="82" t="s">
+      <c r="D25" s="86"/>
+      <c r="E25" s="86"/>
+      <c r="F25" s="86"/>
+      <c r="G25" s="87" t="s">
         <v>63</v>
       </c>
-      <c r="H25" s="82"/>
-      <c r="I25" s="82"/>
-      <c r="J25" s="82"/>
+      <c r="H25" s="87"/>
+      <c r="I25" s="87"/>
+      <c r="J25" s="87"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B26" s="83"/>
-      <c r="C26" s="81" t="s">
+      <c r="B26" s="81"/>
+      <c r="C26" s="86" t="s">
         <v>64</v>
       </c>
-      <c r="D26" s="81"/>
-      <c r="E26" s="81"/>
-      <c r="F26" s="81"/>
-      <c r="G26" s="81" t="s">
+      <c r="D26" s="86"/>
+      <c r="E26" s="86"/>
+      <c r="F26" s="86"/>
+      <c r="G26" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="H26" s="81"/>
-      <c r="I26" s="81"/>
-      <c r="J26" s="81"/>
+      <c r="H26" s="86"/>
+      <c r="I26" s="86"/>
+      <c r="J26" s="86"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B27" s="83"/>
-      <c r="C27" s="81" t="s">
+      <c r="B27" s="81"/>
+      <c r="C27" s="86" t="s">
         <v>68</v>
       </c>
-      <c r="D27" s="81"/>
-      <c r="E27" s="81"/>
-      <c r="F27" s="81"/>
-      <c r="G27" s="81" t="s">
+      <c r="D27" s="86"/>
+      <c r="E27" s="86"/>
+      <c r="F27" s="86"/>
+      <c r="G27" s="86" t="s">
         <v>74</v>
       </c>
-      <c r="H27" s="81"/>
-      <c r="I27" s="81"/>
-      <c r="J27" s="81"/>
+      <c r="H27" s="86"/>
+      <c r="I27" s="86"/>
+      <c r="J27" s="86"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B28" s="83"/>
-      <c r="C28" s="81" t="s">
+      <c r="B28" s="81"/>
+      <c r="C28" s="86" t="s">
         <v>70</v>
       </c>
-      <c r="D28" s="81"/>
-      <c r="E28" s="81"/>
-      <c r="F28" s="81"/>
-      <c r="G28" s="81" t="s">
+      <c r="D28" s="86"/>
+      <c r="E28" s="86"/>
+      <c r="F28" s="86"/>
+      <c r="G28" s="86" t="s">
         <v>69</v>
       </c>
-      <c r="H28" s="81"/>
-      <c r="I28" s="81"/>
-      <c r="J28" s="81"/>
+      <c r="H28" s="86"/>
+      <c r="I28" s="86"/>
+      <c r="J28" s="86"/>
     </row>
     <row r="29" spans="2:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="83"/>
-      <c r="C29" s="58" t="s">
+      <c r="B29" s="81"/>
+      <c r="C29" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="D29" s="58"/>
-      <c r="E29" s="58"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="81" t="s">
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="86" t="s">
         <v>75</v>
       </c>
-      <c r="H29" s="89"/>
-      <c r="I29" s="89"/>
-      <c r="J29" s="89"/>
+      <c r="H29" s="105"/>
+      <c r="I29" s="105"/>
+      <c r="J29" s="105"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B30" s="83"/>
-      <c r="C30" s="89" t="s">
+      <c r="B30" s="81"/>
+      <c r="C30" s="105" t="s">
         <v>80</v>
       </c>
-      <c r="D30" s="89"/>
-      <c r="E30" s="89"/>
-      <c r="F30" s="89"/>
-      <c r="G30" s="89" t="s">
+      <c r="D30" s="105"/>
+      <c r="E30" s="105"/>
+      <c r="F30" s="105"/>
+      <c r="G30" s="105" t="s">
         <v>58</v>
       </c>
-      <c r="H30" s="89"/>
-      <c r="I30" s="89"/>
-      <c r="J30" s="89"/>
+      <c r="H30" s="105"/>
+      <c r="I30" s="105"/>
+      <c r="J30" s="105"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B31" s="83"/>
-      <c r="C31" s="89" t="s">
+      <c r="B31" s="81"/>
+      <c r="C31" s="105" t="s">
         <v>79</v>
       </c>
-      <c r="D31" s="89"/>
-      <c r="E31" s="89"/>
-      <c r="F31" s="89"/>
-      <c r="G31" s="89" t="s">
+      <c r="D31" s="105"/>
+      <c r="E31" s="105"/>
+      <c r="F31" s="105"/>
+      <c r="G31" s="105" t="s">
         <v>58</v>
       </c>
-      <c r="H31" s="89"/>
-      <c r="I31" s="89"/>
-      <c r="J31" s="89"/>
+      <c r="H31" s="105"/>
+      <c r="I31" s="105"/>
+      <c r="J31" s="105"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B32" s="10"/>
@@ -5495,81 +5512,81 @@
       <c r="J33" s="10"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B34" s="94" t="s">
+      <c r="B34" s="98" t="s">
         <v>40</v>
       </c>
-      <c r="C34" s="84" t="s">
+      <c r="C34" s="85" t="s">
         <v>47</v>
       </c>
-      <c r="D34" s="84"/>
-      <c r="E34" s="84"/>
-      <c r="F34" s="84"/>
-      <c r="G34" s="84" t="s">
+      <c r="D34" s="85"/>
+      <c r="E34" s="85"/>
+      <c r="F34" s="85"/>
+      <c r="G34" s="85" t="s">
         <v>46</v>
       </c>
-      <c r="H34" s="84"/>
-      <c r="I34" s="84"/>
-      <c r="J34" s="84"/>
+      <c r="H34" s="85"/>
+      <c r="I34" s="85"/>
+      <c r="J34" s="85"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B35" s="95"/>
-      <c r="C35" s="81" t="s">
+      <c r="B35" s="99"/>
+      <c r="C35" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="D35" s="81"/>
-      <c r="E35" s="81"/>
-      <c r="F35" s="81"/>
-      <c r="G35" s="81" t="s">
+      <c r="D35" s="86"/>
+      <c r="E35" s="86"/>
+      <c r="F35" s="86"/>
+      <c r="G35" s="86" t="s">
         <v>67</v>
       </c>
-      <c r="H35" s="81"/>
-      <c r="I35" s="81"/>
-      <c r="J35" s="81"/>
+      <c r="H35" s="86"/>
+      <c r="I35" s="86"/>
+      <c r="J35" s="86"/>
     </row>
     <row r="36" spans="2:10" s="9" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="95"/>
-      <c r="C36" s="90" t="s">
+      <c r="B36" s="99"/>
+      <c r="C36" s="101" t="s">
         <v>118</v>
       </c>
-      <c r="D36" s="91"/>
-      <c r="E36" s="91"/>
-      <c r="F36" s="92"/>
-      <c r="G36" s="86" t="s">
+      <c r="D36" s="102"/>
+      <c r="E36" s="102"/>
+      <c r="F36" s="103"/>
+      <c r="G36" s="82" t="s">
         <v>117</v>
       </c>
-      <c r="H36" s="87"/>
-      <c r="I36" s="87"/>
-      <c r="J36" s="88"/>
+      <c r="H36" s="83"/>
+      <c r="I36" s="83"/>
+      <c r="J36" s="84"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B37" s="95"/>
+      <c r="B37" s="99"/>
       <c r="C37" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="D37" s="81" t="s">
+      <c r="D37" s="86" t="s">
         <v>77</v>
       </c>
-      <c r="E37" s="81"/>
-      <c r="F37" s="81"/>
-      <c r="G37" s="81"/>
-      <c r="H37" s="81"/>
-      <c r="I37" s="81"/>
-      <c r="J37" s="81"/>
+      <c r="E37" s="86"/>
+      <c r="F37" s="86"/>
+      <c r="G37" s="86"/>
+      <c r="H37" s="86"/>
+      <c r="I37" s="86"/>
+      <c r="J37" s="86"/>
     </row>
     <row r="38" spans="2:10" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="96"/>
+      <c r="B38" s="100"/>
       <c r="C38" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="D38" s="81" t="s">
+      <c r="D38" s="86" t="s">
         <v>119</v>
       </c>
-      <c r="E38" s="81"/>
-      <c r="F38" s="81"/>
-      <c r="G38" s="81"/>
-      <c r="H38" s="81"/>
-      <c r="I38" s="81"/>
-      <c r="J38" s="81"/>
+      <c r="E38" s="86"/>
+      <c r="F38" s="86"/>
+      <c r="G38" s="86"/>
+      <c r="H38" s="86"/>
+      <c r="I38" s="86"/>
+      <c r="J38" s="86"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B39" s="10"/>
@@ -5594,96 +5611,96 @@
       <c r="J40" s="10"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B41" s="83" t="s">
+      <c r="B41" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="C41" s="84" t="s">
+      <c r="C41" s="85" t="s">
         <v>47</v>
       </c>
-      <c r="D41" s="84"/>
-      <c r="E41" s="84"/>
-      <c r="F41" s="84"/>
-      <c r="G41" s="84" t="s">
+      <c r="D41" s="85"/>
+      <c r="E41" s="85"/>
+      <c r="F41" s="85"/>
+      <c r="G41" s="85" t="s">
         <v>46</v>
       </c>
-      <c r="H41" s="84"/>
-      <c r="I41" s="84"/>
-      <c r="J41" s="84"/>
+      <c r="H41" s="85"/>
+      <c r="I41" s="85"/>
+      <c r="J41" s="85"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B42" s="83"/>
-      <c r="C42" s="81" t="s">
+      <c r="B42" s="81"/>
+      <c r="C42" s="86" t="s">
         <v>72</v>
       </c>
-      <c r="D42" s="81"/>
-      <c r="E42" s="81"/>
-      <c r="F42" s="81"/>
-      <c r="G42" s="81" t="s">
+      <c r="D42" s="86"/>
+      <c r="E42" s="86"/>
+      <c r="F42" s="86"/>
+      <c r="G42" s="86" t="s">
         <v>67</v>
       </c>
-      <c r="H42" s="81"/>
-      <c r="I42" s="81"/>
-      <c r="J42" s="81"/>
+      <c r="H42" s="86"/>
+      <c r="I42" s="86"/>
+      <c r="J42" s="86"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B43" s="83"/>
-      <c r="C43" s="81" t="s">
+      <c r="B43" s="81"/>
+      <c r="C43" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="D43" s="81"/>
-      <c r="E43" s="81"/>
-      <c r="F43" s="81"/>
-      <c r="G43" s="81" t="s">
+      <c r="D43" s="86"/>
+      <c r="E43" s="86"/>
+      <c r="F43" s="86"/>
+      <c r="G43" s="86" t="s">
         <v>78</v>
       </c>
-      <c r="H43" s="81"/>
-      <c r="I43" s="81"/>
-      <c r="J43" s="81"/>
+      <c r="H43" s="86"/>
+      <c r="I43" s="86"/>
+      <c r="J43" s="86"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B44" s="83"/>
-      <c r="C44" s="81" t="s">
+      <c r="B44" s="81"/>
+      <c r="C44" s="86" t="s">
         <v>81</v>
       </c>
-      <c r="D44" s="81"/>
-      <c r="E44" s="81"/>
-      <c r="F44" s="81"/>
-      <c r="G44" s="81" t="s">
+      <c r="D44" s="86"/>
+      <c r="E44" s="86"/>
+      <c r="F44" s="86"/>
+      <c r="G44" s="86" t="s">
         <v>58</v>
       </c>
-      <c r="H44" s="81"/>
-      <c r="I44" s="81"/>
-      <c r="J44" s="81"/>
+      <c r="H44" s="86"/>
+      <c r="I44" s="86"/>
+      <c r="J44" s="86"/>
     </row>
     <row r="45" spans="2:10" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B45" s="83"/>
-      <c r="C45" s="86" t="s">
+      <c r="B45" s="81"/>
+      <c r="C45" s="82" t="s">
         <v>173</v>
       </c>
-      <c r="D45" s="87"/>
-      <c r="E45" s="87"/>
-      <c r="F45" s="88"/>
-      <c r="G45" s="81" t="s">
+      <c r="D45" s="83"/>
+      <c r="E45" s="83"/>
+      <c r="F45" s="84"/>
+      <c r="G45" s="86" t="s">
         <v>58</v>
       </c>
-      <c r="H45" s="81"/>
-      <c r="I45" s="81"/>
-      <c r="J45" s="81"/>
+      <c r="H45" s="86"/>
+      <c r="I45" s="86"/>
+      <c r="J45" s="86"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B46" s="83"/>
+      <c r="B46" s="81"/>
       <c r="C46" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="D46" s="81" t="s">
+      <c r="D46" s="86" t="s">
         <v>97</v>
       </c>
-      <c r="E46" s="81"/>
-      <c r="F46" s="81"/>
-      <c r="G46" s="81"/>
-      <c r="H46" s="81"/>
-      <c r="I46" s="81"/>
-      <c r="J46" s="81"/>
+      <c r="E46" s="86"/>
+      <c r="F46" s="86"/>
+      <c r="G46" s="86"/>
+      <c r="H46" s="86"/>
+      <c r="I46" s="86"/>
+      <c r="J46" s="86"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B47" s="10"/>
@@ -5708,66 +5725,66 @@
       <c r="J48" s="10"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B49" s="83" t="s">
+      <c r="B49" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="C49" s="84" t="s">
+      <c r="C49" s="85" t="s">
         <v>47</v>
       </c>
-      <c r="D49" s="84"/>
-      <c r="E49" s="84"/>
-      <c r="F49" s="84"/>
-      <c r="G49" s="84" t="s">
+      <c r="D49" s="85"/>
+      <c r="E49" s="85"/>
+      <c r="F49" s="85"/>
+      <c r="G49" s="85" t="s">
         <v>46</v>
       </c>
-      <c r="H49" s="84"/>
-      <c r="I49" s="84"/>
-      <c r="J49" s="84"/>
+      <c r="H49" s="85"/>
+      <c r="I49" s="85"/>
+      <c r="J49" s="85"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B50" s="83"/>
-      <c r="C50" s="81" t="s">
+      <c r="B50" s="81"/>
+      <c r="C50" s="86" t="s">
         <v>73</v>
       </c>
-      <c r="D50" s="81"/>
-      <c r="E50" s="81"/>
-      <c r="F50" s="81"/>
-      <c r="G50" s="81" t="s">
+      <c r="D50" s="86"/>
+      <c r="E50" s="86"/>
+      <c r="F50" s="86"/>
+      <c r="G50" s="86" t="s">
         <v>67</v>
       </c>
-      <c r="H50" s="81"/>
-      <c r="I50" s="81"/>
-      <c r="J50" s="81"/>
+      <c r="H50" s="86"/>
+      <c r="I50" s="86"/>
+      <c r="J50" s="86"/>
     </row>
     <row r="51" spans="2:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B51" s="83"/>
-      <c r="C51" s="82" t="s">
+      <c r="B51" s="81"/>
+      <c r="C51" s="87" t="s">
         <v>174</v>
       </c>
-      <c r="D51" s="82"/>
-      <c r="E51" s="82"/>
-      <c r="F51" s="82"/>
-      <c r="G51" s="82" t="s">
+      <c r="D51" s="87"/>
+      <c r="E51" s="87"/>
+      <c r="F51" s="87"/>
+      <c r="G51" s="87" t="s">
         <v>82</v>
       </c>
-      <c r="H51" s="82"/>
-      <c r="I51" s="82"/>
-      <c r="J51" s="82"/>
+      <c r="H51" s="87"/>
+      <c r="I51" s="87"/>
+      <c r="J51" s="87"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B52" s="83"/>
+      <c r="B52" s="81"/>
       <c r="C52" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="D52" s="81" t="s">
+      <c r="D52" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="E52" s="81"/>
-      <c r="F52" s="81"/>
-      <c r="G52" s="81"/>
-      <c r="H52" s="81"/>
-      <c r="I52" s="81"/>
-      <c r="J52" s="81"/>
+      <c r="E52" s="86"/>
+      <c r="F52" s="86"/>
+      <c r="G52" s="86"/>
+      <c r="H52" s="86"/>
+      <c r="I52" s="86"/>
+      <c r="J52" s="86"/>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B53" s="10"/>
@@ -5792,96 +5809,96 @@
       <c r="J54" s="10"/>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B55" s="83" t="s">
+      <c r="B55" s="81" t="s">
         <v>84</v>
       </c>
-      <c r="C55" s="84" t="s">
+      <c r="C55" s="85" t="s">
         <v>47</v>
       </c>
-      <c r="D55" s="84"/>
-      <c r="E55" s="84"/>
-      <c r="F55" s="84"/>
-      <c r="G55" s="84" t="s">
+      <c r="D55" s="85"/>
+      <c r="E55" s="85"/>
+      <c r="F55" s="85"/>
+      <c r="G55" s="85" t="s">
         <v>46</v>
       </c>
-      <c r="H55" s="84"/>
-      <c r="I55" s="84"/>
-      <c r="J55" s="84"/>
+      <c r="H55" s="85"/>
+      <c r="I55" s="85"/>
+      <c r="J55" s="85"/>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B56" s="83"/>
-      <c r="C56" s="81" t="s">
+      <c r="B56" s="81"/>
+      <c r="C56" s="86" t="s">
         <v>85</v>
       </c>
-      <c r="D56" s="81"/>
-      <c r="E56" s="81"/>
-      <c r="F56" s="81"/>
-      <c r="G56" s="81" t="s">
+      <c r="D56" s="86"/>
+      <c r="E56" s="86"/>
+      <c r="F56" s="86"/>
+      <c r="G56" s="86" t="s">
         <v>67</v>
       </c>
-      <c r="H56" s="81"/>
-      <c r="I56" s="81"/>
-      <c r="J56" s="81"/>
+      <c r="H56" s="86"/>
+      <c r="I56" s="86"/>
+      <c r="J56" s="86"/>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B57" s="83"/>
-      <c r="C57" s="81" t="s">
+      <c r="B57" s="81"/>
+      <c r="C57" s="86" t="s">
         <v>91</v>
       </c>
-      <c r="D57" s="81"/>
-      <c r="E57" s="81"/>
-      <c r="F57" s="81"/>
-      <c r="G57" s="81" t="s">
+      <c r="D57" s="86"/>
+      <c r="E57" s="86"/>
+      <c r="F57" s="86"/>
+      <c r="G57" s="86" t="s">
         <v>58</v>
       </c>
-      <c r="H57" s="81"/>
-      <c r="I57" s="81"/>
-      <c r="J57" s="81"/>
+      <c r="H57" s="86"/>
+      <c r="I57" s="86"/>
+      <c r="J57" s="86"/>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B58" s="83"/>
-      <c r="C58" s="81" t="s">
+      <c r="B58" s="81"/>
+      <c r="C58" s="86" t="s">
         <v>86</v>
       </c>
-      <c r="D58" s="81"/>
-      <c r="E58" s="81"/>
-      <c r="F58" s="81"/>
-      <c r="G58" s="81" t="s">
+      <c r="D58" s="86"/>
+      <c r="E58" s="86"/>
+      <c r="F58" s="86"/>
+      <c r="G58" s="86" t="s">
         <v>67</v>
       </c>
-      <c r="H58" s="81"/>
-      <c r="I58" s="81"/>
-      <c r="J58" s="81"/>
+      <c r="H58" s="86"/>
+      <c r="I58" s="86"/>
+      <c r="J58" s="86"/>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B59" s="83"/>
-      <c r="C59" s="81" t="s">
+      <c r="B59" s="81"/>
+      <c r="C59" s="86" t="s">
         <v>90</v>
       </c>
-      <c r="D59" s="81"/>
-      <c r="E59" s="81"/>
-      <c r="F59" s="81"/>
-      <c r="G59" s="81" t="s">
+      <c r="D59" s="86"/>
+      <c r="E59" s="86"/>
+      <c r="F59" s="86"/>
+      <c r="G59" s="86" t="s">
         <v>58</v>
       </c>
-      <c r="H59" s="81"/>
-      <c r="I59" s="81"/>
-      <c r="J59" s="81"/>
+      <c r="H59" s="86"/>
+      <c r="I59" s="86"/>
+      <c r="J59" s="86"/>
     </row>
     <row r="60" spans="2:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B60" s="83"/>
+      <c r="B60" s="81"/>
       <c r="C60" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="D60" s="85" t="s">
+      <c r="D60" s="97" t="s">
         <v>89</v>
       </c>
-      <c r="E60" s="82"/>
-      <c r="F60" s="82"/>
-      <c r="G60" s="82"/>
-      <c r="H60" s="82"/>
-      <c r="I60" s="82"/>
-      <c r="J60" s="82"/>
+      <c r="E60" s="87"/>
+      <c r="F60" s="87"/>
+      <c r="G60" s="87"/>
+      <c r="H60" s="87"/>
+      <c r="I60" s="87"/>
+      <c r="J60" s="87"/>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B61" s="10"/>
@@ -5895,246 +5912,246 @@
       <c r="J61" s="10"/>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B63" s="83" t="s">
+      <c r="B63" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="C63" s="84" t="s">
+      <c r="C63" s="85" t="s">
         <v>47</v>
       </c>
-      <c r="D63" s="84"/>
-      <c r="E63" s="84"/>
-      <c r="F63" s="84"/>
-      <c r="G63" s="84" t="s">
+      <c r="D63" s="85"/>
+      <c r="E63" s="85"/>
+      <c r="F63" s="85"/>
+      <c r="G63" s="85" t="s">
         <v>46</v>
       </c>
-      <c r="H63" s="84"/>
-      <c r="I63" s="84"/>
-      <c r="J63" s="84"/>
+      <c r="H63" s="85"/>
+      <c r="I63" s="85"/>
+      <c r="J63" s="85"/>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B64" s="83"/>
-      <c r="C64" s="81" t="s">
+      <c r="B64" s="81"/>
+      <c r="C64" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="D64" s="81"/>
-      <c r="E64" s="81"/>
-      <c r="F64" s="81"/>
-      <c r="G64" s="81" t="s">
+      <c r="D64" s="86"/>
+      <c r="E64" s="86"/>
+      <c r="F64" s="86"/>
+      <c r="G64" s="86" t="s">
         <v>67</v>
       </c>
-      <c r="H64" s="81"/>
-      <c r="I64" s="81"/>
-      <c r="J64" s="81"/>
+      <c r="H64" s="86"/>
+      <c r="I64" s="86"/>
+      <c r="J64" s="86"/>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B65" s="83"/>
-      <c r="C65" s="81" t="s">
+      <c r="B65" s="81"/>
+      <c r="C65" s="86" t="s">
         <v>93</v>
       </c>
-      <c r="D65" s="81"/>
-      <c r="E65" s="81"/>
-      <c r="F65" s="81"/>
-      <c r="G65" s="81" t="s">
+      <c r="D65" s="86"/>
+      <c r="E65" s="86"/>
+      <c r="F65" s="86"/>
+      <c r="G65" s="86" t="s">
         <v>58</v>
       </c>
-      <c r="H65" s="81"/>
-      <c r="I65" s="81"/>
-      <c r="J65" s="81"/>
+      <c r="H65" s="86"/>
+      <c r="I65" s="86"/>
+      <c r="J65" s="86"/>
     </row>
     <row r="66" spans="2:10" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B66" s="83"/>
-      <c r="C66" s="81" t="s">
+      <c r="B66" s="81"/>
+      <c r="C66" s="86" t="s">
         <v>102</v>
       </c>
-      <c r="D66" s="81"/>
-      <c r="E66" s="81"/>
-      <c r="F66" s="81"/>
-      <c r="G66" s="82" t="s">
+      <c r="D66" s="86"/>
+      <c r="E66" s="86"/>
+      <c r="F66" s="86"/>
+      <c r="G66" s="87" t="s">
         <v>58</v>
       </c>
-      <c r="H66" s="82"/>
-      <c r="I66" s="82"/>
-      <c r="J66" s="82"/>
+      <c r="H66" s="87"/>
+      <c r="I66" s="87"/>
+      <c r="J66" s="87"/>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B67" s="83"/>
-      <c r="C67" s="81" t="s">
+      <c r="B67" s="81"/>
+      <c r="C67" s="86" t="s">
         <v>88</v>
       </c>
-      <c r="D67" s="81"/>
-      <c r="E67" s="81"/>
-      <c r="F67" s="81"/>
-      <c r="G67" s="81" t="s">
+      <c r="D67" s="86"/>
+      <c r="E67" s="86"/>
+      <c r="F67" s="86"/>
+      <c r="G67" s="86" t="s">
         <v>67</v>
       </c>
-      <c r="H67" s="81"/>
-      <c r="I67" s="81"/>
-      <c r="J67" s="81"/>
+      <c r="H67" s="86"/>
+      <c r="I67" s="86"/>
+      <c r="J67" s="86"/>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B68" s="83"/>
-      <c r="C68" s="81" t="s">
+      <c r="B68" s="81"/>
+      <c r="C68" s="86" t="s">
         <v>92</v>
       </c>
-      <c r="D68" s="81"/>
-      <c r="E68" s="81"/>
-      <c r="F68" s="81"/>
-      <c r="G68" s="81" t="s">
+      <c r="D68" s="86"/>
+      <c r="E68" s="86"/>
+      <c r="F68" s="86"/>
+      <c r="G68" s="86" t="s">
         <v>58</v>
       </c>
-      <c r="H68" s="81"/>
-      <c r="I68" s="81"/>
-      <c r="J68" s="81"/>
+      <c r="H68" s="86"/>
+      <c r="I68" s="86"/>
+      <c r="J68" s="86"/>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B69" s="83"/>
-      <c r="C69" s="81" t="s">
+      <c r="B69" s="81"/>
+      <c r="C69" s="86" t="s">
         <v>98</v>
       </c>
-      <c r="D69" s="81"/>
-      <c r="E69" s="81"/>
-      <c r="F69" s="81"/>
-      <c r="G69" s="81" t="s">
+      <c r="D69" s="86"/>
+      <c r="E69" s="86"/>
+      <c r="F69" s="86"/>
+      <c r="G69" s="86" t="s">
         <v>67</v>
       </c>
-      <c r="H69" s="81"/>
-      <c r="I69" s="81"/>
-      <c r="J69" s="81"/>
+      <c r="H69" s="86"/>
+      <c r="I69" s="86"/>
+      <c r="J69" s="86"/>
     </row>
     <row r="70" spans="2:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B70" s="83"/>
-      <c r="C70" s="81" t="s">
+      <c r="B70" s="81"/>
+      <c r="C70" s="86" t="s">
         <v>95</v>
       </c>
-      <c r="D70" s="81"/>
-      <c r="E70" s="81"/>
-      <c r="F70" s="81"/>
-      <c r="G70" s="82" t="s">
+      <c r="D70" s="86"/>
+      <c r="E70" s="86"/>
+      <c r="F70" s="86"/>
+      <c r="G70" s="87" t="s">
         <v>78</v>
       </c>
-      <c r="H70" s="82"/>
-      <c r="I70" s="82"/>
-      <c r="J70" s="82"/>
+      <c r="H70" s="87"/>
+      <c r="I70" s="87"/>
+      <c r="J70" s="87"/>
     </row>
     <row r="71" spans="2:10" ht="113.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B71" s="83"/>
+      <c r="B71" s="81"/>
       <c r="C71" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="D71" s="85" t="s">
+      <c r="D71" s="97" t="s">
         <v>94</v>
       </c>
-      <c r="E71" s="82"/>
-      <c r="F71" s="82"/>
-      <c r="G71" s="82"/>
-      <c r="H71" s="82"/>
-      <c r="I71" s="82"/>
-      <c r="J71" s="82"/>
+      <c r="E71" s="87"/>
+      <c r="F71" s="87"/>
+      <c r="G71" s="87"/>
+      <c r="H71" s="87"/>
+      <c r="I71" s="87"/>
+      <c r="J71" s="87"/>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B74" s="83" t="s">
+      <c r="B74" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="C74" s="84" t="s">
+      <c r="C74" s="85" t="s">
         <v>47</v>
       </c>
-      <c r="D74" s="84"/>
-      <c r="E74" s="84"/>
-      <c r="F74" s="84"/>
-      <c r="G74" s="84" t="s">
+      <c r="D74" s="85"/>
+      <c r="E74" s="85"/>
+      <c r="F74" s="85"/>
+      <c r="G74" s="85" t="s">
         <v>46</v>
       </c>
-      <c r="H74" s="84"/>
-      <c r="I74" s="84"/>
-      <c r="J74" s="84"/>
+      <c r="H74" s="85"/>
+      <c r="I74" s="85"/>
+      <c r="J74" s="85"/>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B75" s="83"/>
-      <c r="C75" s="81" t="s">
+      <c r="B75" s="81"/>
+      <c r="C75" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="D75" s="81"/>
-      <c r="E75" s="81"/>
-      <c r="F75" s="81"/>
-      <c r="G75" s="81" t="s">
+      <c r="D75" s="86"/>
+      <c r="E75" s="86"/>
+      <c r="F75" s="86"/>
+      <c r="G75" s="86" t="s">
         <v>67</v>
       </c>
-      <c r="H75" s="81"/>
-      <c r="I75" s="81"/>
-      <c r="J75" s="81"/>
+      <c r="H75" s="86"/>
+      <c r="I75" s="86"/>
+      <c r="J75" s="86"/>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B76" s="83"/>
-      <c r="C76" s="81" t="s">
+      <c r="B76" s="81"/>
+      <c r="C76" s="86" t="s">
         <v>99</v>
       </c>
-      <c r="D76" s="81"/>
-      <c r="E76" s="81"/>
-      <c r="F76" s="81"/>
-      <c r="G76" s="81" t="s">
+      <c r="D76" s="86"/>
+      <c r="E76" s="86"/>
+      <c r="F76" s="86"/>
+      <c r="G76" s="86" t="s">
         <v>58</v>
       </c>
-      <c r="H76" s="81"/>
-      <c r="I76" s="81"/>
-      <c r="J76" s="81"/>
+      <c r="H76" s="86"/>
+      <c r="I76" s="86"/>
+      <c r="J76" s="86"/>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B77" s="83"/>
-      <c r="C77" s="81" t="s">
+      <c r="B77" s="81"/>
+      <c r="C77" s="86" t="s">
         <v>88</v>
       </c>
-      <c r="D77" s="81"/>
-      <c r="E77" s="81"/>
-      <c r="F77" s="81"/>
-      <c r="G77" s="81" t="s">
+      <c r="D77" s="86"/>
+      <c r="E77" s="86"/>
+      <c r="F77" s="86"/>
+      <c r="G77" s="86" t="s">
         <v>67</v>
       </c>
-      <c r="H77" s="81"/>
-      <c r="I77" s="81"/>
-      <c r="J77" s="81"/>
+      <c r="H77" s="86"/>
+      <c r="I77" s="86"/>
+      <c r="J77" s="86"/>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B78" s="83"/>
-      <c r="C78" s="81" t="s">
+      <c r="B78" s="81"/>
+      <c r="C78" s="86" t="s">
         <v>101</v>
       </c>
-      <c r="D78" s="81"/>
-      <c r="E78" s="81"/>
-      <c r="F78" s="81"/>
-      <c r="G78" s="81" t="s">
+      <c r="D78" s="86"/>
+      <c r="E78" s="86"/>
+      <c r="F78" s="86"/>
+      <c r="G78" s="86" t="s">
         <v>78</v>
       </c>
-      <c r="H78" s="81"/>
-      <c r="I78" s="81"/>
-      <c r="J78" s="81"/>
+      <c r="H78" s="86"/>
+      <c r="I78" s="86"/>
+      <c r="J78" s="86"/>
     </row>
     <row r="79" spans="2:10" ht="72.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="83"/>
+      <c r="B79" s="81"/>
       <c r="C79" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="D79" s="85" t="s">
+      <c r="D79" s="97" t="s">
         <v>100</v>
       </c>
-      <c r="E79" s="82"/>
-      <c r="F79" s="82"/>
-      <c r="G79" s="82"/>
-      <c r="H79" s="82"/>
-      <c r="I79" s="82"/>
-      <c r="J79" s="82"/>
+      <c r="E79" s="87"/>
+      <c r="F79" s="87"/>
+      <c r="G79" s="87"/>
+      <c r="H79" s="87"/>
+      <c r="I79" s="87"/>
+      <c r="J79" s="87"/>
     </row>
     <row r="81" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="82" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B82" s="63" t="s">
+      <c r="B82" s="72" t="s">
         <v>103</v>
       </c>
-      <c r="C82" s="64"/>
-      <c r="D82" s="65"/>
+      <c r="C82" s="73"/>
+      <c r="D82" s="74"/>
     </row>
     <row r="83" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="66"/>
-      <c r="C83" s="67"/>
-      <c r="D83" s="68"/>
+      <c r="B83" s="75"/>
+      <c r="C83" s="76"/>
+      <c r="D83" s="77"/>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B84" s="15"/>
@@ -6148,699 +6165,845 @@
       <c r="J84" s="15"/>
     </row>
     <row r="85" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="94" t="s">
+      <c r="B85" s="98" t="s">
         <v>120</v>
       </c>
-      <c r="C85" s="84" t="s">
+      <c r="C85" s="85" t="s">
         <v>47</v>
       </c>
-      <c r="D85" s="84"/>
-      <c r="E85" s="84"/>
-      <c r="F85" s="84"/>
-      <c r="G85" s="84" t="s">
+      <c r="D85" s="85"/>
+      <c r="E85" s="85"/>
+      <c r="F85" s="85"/>
+      <c r="G85" s="85" t="s">
         <v>46</v>
       </c>
-      <c r="H85" s="84"/>
-      <c r="I85" s="84"/>
-      <c r="J85" s="84"/>
+      <c r="H85" s="85"/>
+      <c r="I85" s="85"/>
+      <c r="J85" s="85"/>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B86" s="95"/>
-      <c r="C86" s="81" t="s">
+      <c r="B86" s="99"/>
+      <c r="C86" s="86" t="s">
         <v>121</v>
       </c>
-      <c r="D86" s="81"/>
-      <c r="E86" s="81"/>
-      <c r="F86" s="81"/>
-      <c r="G86" s="81" t="s">
+      <c r="D86" s="86"/>
+      <c r="E86" s="86"/>
+      <c r="F86" s="86"/>
+      <c r="G86" s="86" t="s">
         <v>117</v>
       </c>
-      <c r="H86" s="81"/>
-      <c r="I86" s="81"/>
-      <c r="J86" s="81"/>
+      <c r="H86" s="86"/>
+      <c r="I86" s="86"/>
+      <c r="J86" s="86"/>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B87" s="95"/>
-      <c r="C87" s="90" t="s">
+      <c r="B87" s="99"/>
+      <c r="C87" s="101" t="s">
         <v>122</v>
       </c>
-      <c r="D87" s="91"/>
-      <c r="E87" s="91"/>
-      <c r="F87" s="92"/>
-      <c r="G87" s="90" t="s">
+      <c r="D87" s="102"/>
+      <c r="E87" s="102"/>
+      <c r="F87" s="103"/>
+      <c r="G87" s="101" t="s">
         <v>123</v>
       </c>
-      <c r="H87" s="91"/>
-      <c r="I87" s="91"/>
-      <c r="J87" s="92"/>
+      <c r="H87" s="102"/>
+      <c r="I87" s="102"/>
+      <c r="J87" s="103"/>
     </row>
     <row r="88" spans="2:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B88" s="95"/>
+      <c r="B88" s="99"/>
       <c r="C88" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="D88" s="85" t="s">
+      <c r="D88" s="97" t="s">
         <v>124</v>
       </c>
-      <c r="E88" s="82"/>
-      <c r="F88" s="82"/>
-      <c r="G88" s="82"/>
-      <c r="H88" s="82"/>
-      <c r="I88" s="82"/>
-      <c r="J88" s="82"/>
+      <c r="E88" s="87"/>
+      <c r="F88" s="87"/>
+      <c r="G88" s="87"/>
+      <c r="H88" s="87"/>
+      <c r="I88" s="87"/>
+      <c r="J88" s="87"/>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B89" s="96"/>
+      <c r="B89" s="100"/>
       <c r="C89" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="D89" s="85" t="s">
+      <c r="D89" s="97" t="s">
         <v>125</v>
       </c>
-      <c r="E89" s="82"/>
-      <c r="F89" s="82"/>
-      <c r="G89" s="82"/>
-      <c r="H89" s="82"/>
-      <c r="I89" s="82"/>
-      <c r="J89" s="82"/>
+      <c r="E89" s="87"/>
+      <c r="F89" s="87"/>
+      <c r="G89" s="87"/>
+      <c r="H89" s="87"/>
+      <c r="I89" s="87"/>
+      <c r="J89" s="87"/>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B92" s="94" t="s">
+      <c r="B92" s="98" t="s">
         <v>127</v>
       </c>
-      <c r="C92" s="84" t="s">
+      <c r="C92" s="85" t="s">
         <v>47</v>
       </c>
-      <c r="D92" s="84"/>
-      <c r="E92" s="84"/>
-      <c r="F92" s="84"/>
-      <c r="G92" s="84" t="s">
+      <c r="D92" s="85"/>
+      <c r="E92" s="85"/>
+      <c r="F92" s="85"/>
+      <c r="G92" s="85" t="s">
         <v>46</v>
       </c>
-      <c r="H92" s="84"/>
-      <c r="I92" s="84"/>
-      <c r="J92" s="84"/>
+      <c r="H92" s="85"/>
+      <c r="I92" s="85"/>
+      <c r="J92" s="85"/>
     </row>
     <row r="93" spans="2:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B93" s="95"/>
-      <c r="C93" s="81" t="s">
+      <c r="B93" s="99"/>
+      <c r="C93" s="86" t="s">
         <v>135</v>
       </c>
-      <c r="D93" s="81"/>
-      <c r="E93" s="81"/>
-      <c r="F93" s="81"/>
-      <c r="G93" s="82" t="s">
+      <c r="D93" s="86"/>
+      <c r="E93" s="86"/>
+      <c r="F93" s="86"/>
+      <c r="G93" s="87" t="s">
         <v>136</v>
       </c>
-      <c r="H93" s="82"/>
-      <c r="I93" s="82"/>
-      <c r="J93" s="82"/>
+      <c r="H93" s="87"/>
+      <c r="I93" s="87"/>
+      <c r="J93" s="87"/>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B94" s="95"/>
-      <c r="C94" s="86" t="s">
+      <c r="B94" s="99"/>
+      <c r="C94" s="82" t="s">
         <v>128</v>
       </c>
-      <c r="D94" s="97"/>
-      <c r="E94" s="97"/>
-      <c r="F94" s="98"/>
-      <c r="G94" s="90" t="s">
+      <c r="D94" s="94"/>
+      <c r="E94" s="94"/>
+      <c r="F94" s="95"/>
+      <c r="G94" s="101" t="s">
         <v>129</v>
       </c>
-      <c r="H94" s="91"/>
-      <c r="I94" s="91"/>
-      <c r="J94" s="92"/>
+      <c r="H94" s="102"/>
+      <c r="I94" s="102"/>
+      <c r="J94" s="103"/>
     </row>
     <row r="95" spans="2:10" s="9" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B95" s="95"/>
-      <c r="C95" s="86" t="s">
+      <c r="B95" s="99"/>
+      <c r="C95" s="82" t="s">
         <v>130</v>
       </c>
-      <c r="D95" s="87"/>
-      <c r="E95" s="87"/>
-      <c r="F95" s="88"/>
-      <c r="G95" s="86" t="s">
+      <c r="D95" s="83"/>
+      <c r="E95" s="83"/>
+      <c r="F95" s="84"/>
+      <c r="G95" s="82" t="s">
         <v>131</v>
       </c>
-      <c r="H95" s="87"/>
-      <c r="I95" s="87"/>
-      <c r="J95" s="88"/>
+      <c r="H95" s="83"/>
+      <c r="I95" s="83"/>
+      <c r="J95" s="84"/>
     </row>
     <row r="96" spans="2:10" s="9" customFormat="1" ht="339" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B96" s="95"/>
-      <c r="C96" s="86" t="s">
+      <c r="B96" s="99"/>
+      <c r="C96" s="82" t="s">
         <v>137</v>
       </c>
-      <c r="D96" s="87"/>
-      <c r="E96" s="87"/>
-      <c r="F96" s="88"/>
-      <c r="G96" s="86" t="s">
+      <c r="D96" s="83"/>
+      <c r="E96" s="83"/>
+      <c r="F96" s="84"/>
+      <c r="G96" s="82" t="s">
         <v>132</v>
       </c>
-      <c r="H96" s="87"/>
-      <c r="I96" s="87"/>
-      <c r="J96" s="88"/>
+      <c r="H96" s="83"/>
+      <c r="I96" s="83"/>
+      <c r="J96" s="84"/>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B97" s="95"/>
+      <c r="B97" s="99"/>
       <c r="C97" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="D97" s="85" t="s">
+      <c r="D97" s="97" t="s">
         <v>138</v>
       </c>
-      <c r="E97" s="82"/>
-      <c r="F97" s="82"/>
-      <c r="G97" s="82"/>
-      <c r="H97" s="82"/>
-      <c r="I97" s="82"/>
-      <c r="J97" s="82"/>
+      <c r="E97" s="87"/>
+      <c r="F97" s="87"/>
+      <c r="G97" s="87"/>
+      <c r="H97" s="87"/>
+      <c r="I97" s="87"/>
+      <c r="J97" s="87"/>
     </row>
     <row r="98" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B98" s="96"/>
+      <c r="B98" s="100"/>
       <c r="C98" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="D98" s="85" t="s">
+      <c r="D98" s="97" t="s">
         <v>139</v>
       </c>
-      <c r="E98" s="82"/>
-      <c r="F98" s="82"/>
-      <c r="G98" s="82"/>
-      <c r="H98" s="82"/>
-      <c r="I98" s="82"/>
-      <c r="J98" s="82"/>
+      <c r="E98" s="87"/>
+      <c r="F98" s="87"/>
+      <c r="G98" s="87"/>
+      <c r="H98" s="87"/>
+      <c r="I98" s="87"/>
+      <c r="J98" s="87"/>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B101" s="94" t="s">
+      <c r="B101" s="98" t="s">
         <v>134</v>
       </c>
-      <c r="C101" s="84" t="s">
+      <c r="C101" s="85" t="s">
         <v>47</v>
       </c>
-      <c r="D101" s="84"/>
-      <c r="E101" s="84"/>
-      <c r="F101" s="84"/>
-      <c r="G101" s="84" t="s">
+      <c r="D101" s="85"/>
+      <c r="E101" s="85"/>
+      <c r="F101" s="85"/>
+      <c r="G101" s="85" t="s">
         <v>46</v>
       </c>
-      <c r="H101" s="84"/>
-      <c r="I101" s="84"/>
-      <c r="J101" s="84"/>
+      <c r="H101" s="85"/>
+      <c r="I101" s="85"/>
+      <c r="J101" s="85"/>
     </row>
     <row r="102" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B102" s="95"/>
-      <c r="C102" s="81" t="s">
+      <c r="B102" s="99"/>
+      <c r="C102" s="86" t="s">
         <v>140</v>
       </c>
-      <c r="D102" s="81"/>
-      <c r="E102" s="81"/>
-      <c r="F102" s="81"/>
-      <c r="G102" s="81" t="s">
+      <c r="D102" s="86"/>
+      <c r="E102" s="86"/>
+      <c r="F102" s="86"/>
+      <c r="G102" s="86" t="s">
         <v>141</v>
       </c>
-      <c r="H102" s="81"/>
-      <c r="I102" s="81"/>
-      <c r="J102" s="81"/>
+      <c r="H102" s="86"/>
+      <c r="I102" s="86"/>
+      <c r="J102" s="86"/>
     </row>
     <row r="103" spans="2:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B103" s="96"/>
-      <c r="C103" s="86" t="s">
+      <c r="B103" s="100"/>
+      <c r="C103" s="82" t="s">
         <v>166</v>
       </c>
-      <c r="D103" s="87"/>
-      <c r="E103" s="87"/>
-      <c r="F103" s="88"/>
-      <c r="G103" s="86" t="s">
+      <c r="D103" s="83"/>
+      <c r="E103" s="83"/>
+      <c r="F103" s="84"/>
+      <c r="G103" s="82" t="s">
         <v>142</v>
       </c>
-      <c r="H103" s="87"/>
-      <c r="I103" s="87"/>
-      <c r="J103" s="88"/>
+      <c r="H103" s="83"/>
+      <c r="I103" s="83"/>
+      <c r="J103" s="84"/>
     </row>
     <row r="105" spans="2:10" s="9" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="106" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B106" s="83" t="s">
+      <c r="B106" s="81" t="s">
         <v>144</v>
       </c>
-      <c r="C106" s="84" t="s">
+      <c r="C106" s="85" t="s">
         <v>47</v>
       </c>
-      <c r="D106" s="84"/>
-      <c r="E106" s="84"/>
-      <c r="F106" s="84"/>
-      <c r="G106" s="84" t="s">
+      <c r="D106" s="85"/>
+      <c r="E106" s="85"/>
+      <c r="F106" s="85"/>
+      <c r="G106" s="85" t="s">
         <v>46</v>
       </c>
-      <c r="H106" s="84"/>
-      <c r="I106" s="84"/>
-      <c r="J106" s="84"/>
+      <c r="H106" s="85"/>
+      <c r="I106" s="85"/>
+      <c r="J106" s="85"/>
     </row>
     <row r="107" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B107" s="83"/>
-      <c r="C107" s="81" t="s">
+      <c r="B107" s="81"/>
+      <c r="C107" s="86" t="s">
         <v>145</v>
       </c>
-      <c r="D107" s="81"/>
-      <c r="E107" s="81"/>
-      <c r="F107" s="81"/>
-      <c r="G107" s="82" t="s">
+      <c r="D107" s="86"/>
+      <c r="E107" s="86"/>
+      <c r="F107" s="86"/>
+      <c r="G107" s="87" t="s">
         <v>147</v>
       </c>
-      <c r="H107" s="82"/>
-      <c r="I107" s="82"/>
-      <c r="J107" s="82"/>
+      <c r="H107" s="87"/>
+      <c r="I107" s="87"/>
+      <c r="J107" s="87"/>
     </row>
     <row r="108" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B108" s="83"/>
-      <c r="C108" s="86" t="s">
+      <c r="B108" s="81"/>
+      <c r="C108" s="82" t="s">
         <v>146</v>
       </c>
-      <c r="D108" s="87"/>
-      <c r="E108" s="87"/>
-      <c r="F108" s="88"/>
-      <c r="G108" s="86" t="s">
+      <c r="D108" s="83"/>
+      <c r="E108" s="83"/>
+      <c r="F108" s="84"/>
+      <c r="G108" s="82" t="s">
         <v>117</v>
       </c>
-      <c r="H108" s="87"/>
-      <c r="I108" s="87"/>
-      <c r="J108" s="88"/>
+      <c r="H108" s="83"/>
+      <c r="I108" s="83"/>
+      <c r="J108" s="84"/>
     </row>
     <row r="109" spans="2:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B109" s="83"/>
-      <c r="C109" s="82" t="s">
+      <c r="B109" s="81"/>
+      <c r="C109" s="87" t="s">
         <v>148</v>
       </c>
-      <c r="D109" s="82"/>
-      <c r="E109" s="82"/>
-      <c r="F109" s="82"/>
-      <c r="G109" s="82" t="s">
+      <c r="D109" s="87"/>
+      <c r="E109" s="87"/>
+      <c r="F109" s="87"/>
+      <c r="G109" s="87" t="s">
         <v>117</v>
       </c>
-      <c r="H109" s="82"/>
-      <c r="I109" s="82"/>
-      <c r="J109" s="82"/>
+      <c r="H109" s="87"/>
+      <c r="I109" s="87"/>
+      <c r="J109" s="87"/>
     </row>
     <row r="110" spans="2:10" ht="39" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B110" s="83"/>
-      <c r="C110" s="86" t="s">
+      <c r="B110" s="81"/>
+      <c r="C110" s="82" t="s">
         <v>149</v>
       </c>
-      <c r="D110" s="87"/>
-      <c r="E110" s="87"/>
-      <c r="F110" s="88"/>
-      <c r="G110" s="86" t="s">
+      <c r="D110" s="83"/>
+      <c r="E110" s="83"/>
+      <c r="F110" s="84"/>
+      <c r="G110" s="82" t="s">
         <v>152</v>
       </c>
-      <c r="H110" s="97"/>
-      <c r="I110" s="97"/>
-      <c r="J110" s="98"/>
+      <c r="H110" s="94"/>
+      <c r="I110" s="94"/>
+      <c r="J110" s="95"/>
     </row>
     <row r="111" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B111" s="83"/>
-      <c r="C111" s="82" t="s">
+      <c r="B111" s="81"/>
+      <c r="C111" s="87" t="s">
         <v>150</v>
       </c>
-      <c r="D111" s="99"/>
-      <c r="E111" s="99"/>
-      <c r="F111" s="99"/>
-      <c r="G111" s="82" t="s">
+      <c r="D111" s="79"/>
+      <c r="E111" s="79"/>
+      <c r="F111" s="79"/>
+      <c r="G111" s="87" t="s">
         <v>117</v>
       </c>
-      <c r="H111" s="82"/>
-      <c r="I111" s="82"/>
-      <c r="J111" s="82"/>
+      <c r="H111" s="87"/>
+      <c r="I111" s="87"/>
+      <c r="J111" s="87"/>
     </row>
     <row r="112" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B112" s="83"/>
-      <c r="C112" s="82" t="s">
+      <c r="B112" s="81"/>
+      <c r="C112" s="87" t="s">
         <v>151</v>
       </c>
-      <c r="D112" s="99"/>
-      <c r="E112" s="99"/>
-      <c r="F112" s="99"/>
-      <c r="G112" s="82" t="s">
+      <c r="D112" s="79"/>
+      <c r="E112" s="79"/>
+      <c r="F112" s="79"/>
+      <c r="G112" s="87" t="s">
         <v>117</v>
       </c>
-      <c r="H112" s="82"/>
-      <c r="I112" s="82"/>
-      <c r="J112" s="82"/>
+      <c r="H112" s="87"/>
+      <c r="I112" s="87"/>
+      <c r="J112" s="87"/>
     </row>
     <row r="113" spans="2:10" s="9" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B113" s="83"/>
-      <c r="C113" s="86" t="s">
+      <c r="B113" s="81"/>
+      <c r="C113" s="82" t="s">
         <v>170</v>
       </c>
-      <c r="D113" s="87"/>
-      <c r="E113" s="87"/>
-      <c r="F113" s="88"/>
-      <c r="G113" s="86" t="s">
+      <c r="D113" s="83"/>
+      <c r="E113" s="83"/>
+      <c r="F113" s="84"/>
+      <c r="G113" s="82" t="s">
         <v>171</v>
       </c>
-      <c r="H113" s="87"/>
-      <c r="I113" s="87"/>
-      <c r="J113" s="88"/>
+      <c r="H113" s="83"/>
+      <c r="I113" s="83"/>
+      <c r="J113" s="84"/>
     </row>
     <row r="114" spans="2:10" s="9" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B114" s="83"/>
-      <c r="C114" s="86" t="s">
+      <c r="B114" s="81"/>
+      <c r="C114" s="82" t="s">
         <v>175</v>
       </c>
-      <c r="D114" s="87"/>
-      <c r="E114" s="87"/>
-      <c r="F114" s="88"/>
-      <c r="G114" s="86" t="s">
+      <c r="D114" s="83"/>
+      <c r="E114" s="83"/>
+      <c r="F114" s="84"/>
+      <c r="G114" s="82" t="s">
         <v>142</v>
       </c>
-      <c r="H114" s="87"/>
-      <c r="I114" s="87"/>
-      <c r="J114" s="88"/>
+      <c r="H114" s="83"/>
+      <c r="I114" s="83"/>
+      <c r="J114" s="84"/>
     </row>
     <row r="115" spans="2:10" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B115" s="83"/>
-      <c r="C115" s="86" t="s">
+      <c r="B115" s="81"/>
+      <c r="C115" s="82" t="s">
         <v>165</v>
       </c>
-      <c r="D115" s="87"/>
-      <c r="E115" s="87"/>
-      <c r="F115" s="88"/>
-      <c r="G115" s="86" t="s">
+      <c r="D115" s="83"/>
+      <c r="E115" s="83"/>
+      <c r="F115" s="84"/>
+      <c r="G115" s="82" t="s">
         <v>142</v>
       </c>
-      <c r="H115" s="87"/>
-      <c r="I115" s="87"/>
-      <c r="J115" s="88"/>
+      <c r="H115" s="83"/>
+      <c r="I115" s="83"/>
+      <c r="J115" s="84"/>
     </row>
     <row r="116" spans="2:10" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B116" s="83"/>
-      <c r="C116" s="82" t="s">
+      <c r="B116" s="81"/>
+      <c r="C116" s="87" t="s">
         <v>157</v>
       </c>
-      <c r="D116" s="82"/>
-      <c r="E116" s="82"/>
-      <c r="F116" s="82"/>
-      <c r="G116" s="82" t="s">
+      <c r="D116" s="87"/>
+      <c r="E116" s="87"/>
+      <c r="F116" s="87"/>
+      <c r="G116" s="87" t="s">
         <v>117</v>
       </c>
-      <c r="H116" s="82"/>
-      <c r="I116" s="82"/>
-      <c r="J116" s="82"/>
+      <c r="H116" s="87"/>
+      <c r="I116" s="87"/>
+      <c r="J116" s="87"/>
     </row>
     <row r="117" spans="2:10" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B117" s="83"/>
-      <c r="C117" s="79" t="s">
+      <c r="B117" s="81"/>
+      <c r="C117" s="96" t="s">
         <v>160</v>
       </c>
-      <c r="D117" s="79"/>
-      <c r="E117" s="79"/>
-      <c r="F117" s="79"/>
-      <c r="G117" s="82" t="s">
+      <c r="D117" s="96"/>
+      <c r="E117" s="96"/>
+      <c r="F117" s="96"/>
+      <c r="G117" s="87" t="s">
         <v>117</v>
       </c>
-      <c r="H117" s="82"/>
-      <c r="I117" s="82"/>
-      <c r="J117" s="82"/>
+      <c r="H117" s="87"/>
+      <c r="I117" s="87"/>
+      <c r="J117" s="87"/>
     </row>
     <row r="118" spans="2:10" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B118" s="83"/>
+      <c r="B118" s="81"/>
       <c r="C118" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="D118" s="99" t="s">
+      <c r="D118" s="79" t="s">
         <v>159</v>
       </c>
-      <c r="E118" s="99"/>
-      <c r="F118" s="99"/>
-      <c r="G118" s="99"/>
-      <c r="H118" s="99"/>
-      <c r="I118" s="99"/>
-      <c r="J118" s="99"/>
+      <c r="E118" s="79"/>
+      <c r="F118" s="79"/>
+      <c r="G118" s="79"/>
+      <c r="H118" s="79"/>
+      <c r="I118" s="79"/>
+      <c r="J118" s="79"/>
     </row>
     <row r="120" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="121" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B121" s="63" t="s">
+      <c r="B121" s="72" t="s">
         <v>154</v>
       </c>
-      <c r="C121" s="64"/>
-      <c r="D121" s="65"/>
+      <c r="C121" s="73"/>
+      <c r="D121" s="74"/>
     </row>
     <row r="122" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B122" s="66"/>
-      <c r="C122" s="67"/>
-      <c r="D122" s="68"/>
+      <c r="B122" s="75"/>
+      <c r="C122" s="76"/>
+      <c r="D122" s="77"/>
     </row>
     <row r="124" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B124" s="83" t="s">
+      <c r="B124" s="81" t="s">
         <v>156</v>
       </c>
-      <c r="C124" s="84" t="s">
+      <c r="C124" s="85" t="s">
         <v>47</v>
       </c>
-      <c r="D124" s="84"/>
-      <c r="E124" s="84"/>
-      <c r="F124" s="84"/>
-      <c r="G124" s="84" t="s">
+      <c r="D124" s="85"/>
+      <c r="E124" s="85"/>
+      <c r="F124" s="85"/>
+      <c r="G124" s="85" t="s">
         <v>46</v>
       </c>
-      <c r="H124" s="84"/>
-      <c r="I124" s="84"/>
-      <c r="J124" s="84"/>
+      <c r="H124" s="85"/>
+      <c r="I124" s="85"/>
+      <c r="J124" s="85"/>
     </row>
     <row r="125" spans="2:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B125" s="83"/>
-      <c r="C125" s="81" t="s">
+      <c r="B125" s="81"/>
+      <c r="C125" s="86" t="s">
         <v>161</v>
       </c>
-      <c r="D125" s="81"/>
-      <c r="E125" s="81"/>
-      <c r="F125" s="81"/>
-      <c r="G125" s="82" t="s">
+      <c r="D125" s="86"/>
+      <c r="E125" s="86"/>
+      <c r="F125" s="86"/>
+      <c r="G125" s="87" t="s">
         <v>155</v>
       </c>
-      <c r="H125" s="82"/>
-      <c r="I125" s="82"/>
-      <c r="J125" s="82"/>
+      <c r="H125" s="87"/>
+      <c r="I125" s="87"/>
+      <c r="J125" s="87"/>
     </row>
     <row r="126" spans="2:10" s="9" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B126" s="83"/>
-      <c r="C126" s="86" t="s">
+      <c r="B126" s="81"/>
+      <c r="C126" s="82" t="s">
         <v>162</v>
       </c>
-      <c r="D126" s="87"/>
-      <c r="E126" s="87"/>
-      <c r="F126" s="88"/>
-      <c r="G126" s="82" t="s">
+      <c r="D126" s="83"/>
+      <c r="E126" s="83"/>
+      <c r="F126" s="84"/>
+      <c r="G126" s="87" t="s">
         <v>155</v>
       </c>
-      <c r="H126" s="82"/>
-      <c r="I126" s="82"/>
-      <c r="J126" s="82"/>
+      <c r="H126" s="87"/>
+      <c r="I126" s="87"/>
+      <c r="J126" s="87"/>
     </row>
     <row r="127" spans="2:10" ht="130.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B127" s="83"/>
-      <c r="C127" s="86" t="s">
+      <c r="B127" s="81"/>
+      <c r="C127" s="82" t="s">
         <v>163</v>
       </c>
-      <c r="D127" s="87"/>
-      <c r="E127" s="87"/>
-      <c r="F127" s="88"/>
-      <c r="G127" s="86" t="s">
+      <c r="D127" s="83"/>
+      <c r="E127" s="83"/>
+      <c r="F127" s="84"/>
+      <c r="G127" s="82" t="s">
         <v>164</v>
       </c>
-      <c r="H127" s="87"/>
-      <c r="I127" s="87"/>
-      <c r="J127" s="88"/>
+      <c r="H127" s="83"/>
+      <c r="I127" s="83"/>
+      <c r="J127" s="84"/>
     </row>
     <row r="130" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B130" s="83" t="s">
+      <c r="B130" s="81" t="s">
         <v>168</v>
       </c>
-      <c r="C130" s="84" t="s">
+      <c r="C130" s="85" t="s">
         <v>47</v>
       </c>
-      <c r="D130" s="84"/>
-      <c r="E130" s="84"/>
-      <c r="F130" s="84"/>
-      <c r="G130" s="84" t="s">
+      <c r="D130" s="85"/>
+      <c r="E130" s="85"/>
+      <c r="F130" s="85"/>
+      <c r="G130" s="85" t="s">
         <v>46</v>
       </c>
-      <c r="H130" s="84"/>
-      <c r="I130" s="84"/>
-      <c r="J130" s="84"/>
+      <c r="H130" s="85"/>
+      <c r="I130" s="85"/>
+      <c r="J130" s="85"/>
     </row>
     <row r="131" spans="2:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B131" s="83"/>
-      <c r="C131" s="81" t="s">
+      <c r="B131" s="81"/>
+      <c r="C131" s="86" t="s">
         <v>169</v>
       </c>
-      <c r="D131" s="81"/>
-      <c r="E131" s="81"/>
-      <c r="F131" s="81"/>
-      <c r="G131" s="82" t="s">
+      <c r="D131" s="86"/>
+      <c r="E131" s="86"/>
+      <c r="F131" s="86"/>
+      <c r="G131" s="87" t="s">
         <v>117</v>
       </c>
-      <c r="H131" s="82"/>
-      <c r="I131" s="82"/>
-      <c r="J131" s="82"/>
+      <c r="H131" s="87"/>
+      <c r="I131" s="87"/>
+      <c r="J131" s="87"/>
     </row>
     <row r="132" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B132" s="83"/>
-      <c r="C132" s="100" t="s">
+      <c r="B132" s="81"/>
+      <c r="C132" s="88" t="s">
         <v>172</v>
       </c>
-      <c r="D132" s="101"/>
-      <c r="E132" s="101"/>
-      <c r="F132" s="101"/>
-      <c r="G132" s="101"/>
-      <c r="H132" s="101"/>
-      <c r="I132" s="101"/>
-      <c r="J132" s="102"/>
+      <c r="D132" s="89"/>
+      <c r="E132" s="89"/>
+      <c r="F132" s="89"/>
+      <c r="G132" s="89"/>
+      <c r="H132" s="89"/>
+      <c r="I132" s="89"/>
+      <c r="J132" s="90"/>
     </row>
     <row r="133" spans="2:10" ht="150.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B133" s="83"/>
-      <c r="C133" s="103"/>
-      <c r="D133" s="104"/>
-      <c r="E133" s="104"/>
-      <c r="F133" s="104"/>
-      <c r="G133" s="104"/>
-      <c r="H133" s="104"/>
-      <c r="I133" s="104"/>
-      <c r="J133" s="105"/>
+      <c r="B133" s="81"/>
+      <c r="C133" s="91"/>
+      <c r="D133" s="92"/>
+      <c r="E133" s="92"/>
+      <c r="F133" s="92"/>
+      <c r="G133" s="92"/>
+      <c r="H133" s="92"/>
+      <c r="I133" s="92"/>
+      <c r="J133" s="93"/>
     </row>
     <row r="135" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="136" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B136" s="63" t="s">
+      <c r="B136" s="72" t="s">
         <v>176</v>
       </c>
-      <c r="C136" s="64"/>
-      <c r="D136" s="65"/>
+      <c r="C136" s="73"/>
+      <c r="D136" s="74"/>
     </row>
     <row r="137" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B137" s="66"/>
-      <c r="C137" s="67"/>
-      <c r="D137" s="68"/>
+      <c r="B137" s="75"/>
+      <c r="C137" s="76"/>
+      <c r="D137" s="77"/>
       <c r="E137" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="139" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B139" s="106" t="s">
+      <c r="B139" s="80" t="s">
         <v>177</v>
       </c>
-      <c r="C139" s="106"/>
-      <c r="D139" s="106" t="s">
+      <c r="C139" s="80"/>
+      <c r="D139" s="80" t="s">
         <v>178</v>
       </c>
-      <c r="E139" s="106"/>
-      <c r="F139" s="106"/>
-      <c r="G139" s="106"/>
-      <c r="H139" s="106"/>
-      <c r="I139" s="106"/>
-      <c r="J139" s="106"/>
+      <c r="E139" s="80"/>
+      <c r="F139" s="80"/>
+      <c r="G139" s="80"/>
+      <c r="H139" s="80"/>
+      <c r="I139" s="80"/>
+      <c r="J139" s="80"/>
     </row>
     <row r="140" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B140" s="99" t="s">
+      <c r="B140" s="79" t="s">
         <v>179</v>
       </c>
-      <c r="C140" s="99"/>
-      <c r="D140" s="99" t="s">
+      <c r="C140" s="79"/>
+      <c r="D140" s="79" t="s">
         <v>180</v>
       </c>
-      <c r="E140" s="99"/>
-      <c r="F140" s="99"/>
-      <c r="G140" s="99"/>
-      <c r="H140" s="99"/>
-      <c r="I140" s="99"/>
-      <c r="J140" s="99"/>
+      <c r="E140" s="79"/>
+      <c r="F140" s="79"/>
+      <c r="G140" s="79"/>
+      <c r="H140" s="79"/>
+      <c r="I140" s="79"/>
+      <c r="J140" s="79"/>
     </row>
     <row r="141" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B141" s="99" t="s">
+      <c r="B141" s="79" t="s">
         <v>185</v>
       </c>
-      <c r="C141" s="99"/>
-      <c r="D141" s="99" t="s">
+      <c r="C141" s="79"/>
+      <c r="D141" s="79" t="s">
+        <v>261</v>
+      </c>
+      <c r="E141" s="79"/>
+      <c r="F141" s="79"/>
+      <c r="G141" s="79"/>
+      <c r="H141" s="79"/>
+      <c r="I141" s="79"/>
+      <c r="J141" s="79"/>
+    </row>
+    <row r="142" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B142" s="79" t="s">
+        <v>182</v>
+      </c>
+      <c r="C142" s="79"/>
+      <c r="D142" s="79" t="s">
+        <v>183</v>
+      </c>
+      <c r="E142" s="79"/>
+      <c r="F142" s="79"/>
+      <c r="G142" s="79"/>
+      <c r="H142" s="79"/>
+      <c r="I142" s="79"/>
+      <c r="J142" s="79"/>
+    </row>
+    <row r="143" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B143" s="79" t="s">
+        <v>184</v>
+      </c>
+      <c r="C143" s="79"/>
+      <c r="D143" s="79" t="s">
+        <v>181</v>
+      </c>
+      <c r="E143" s="79"/>
+      <c r="F143" s="79"/>
+      <c r="G143" s="79"/>
+      <c r="H143" s="79"/>
+      <c r="I143" s="79"/>
+      <c r="J143" s="79"/>
+    </row>
+    <row r="144" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B144" s="79" t="s">
         <v>186</v>
       </c>
-      <c r="E141" s="99"/>
-      <c r="F141" s="99"/>
-      <c r="G141" s="99"/>
-      <c r="H141" s="99"/>
-      <c r="I141" s="99"/>
-      <c r="J141" s="99"/>
-    </row>
-    <row r="142" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B142" s="99" t="s">
-        <v>182</v>
-      </c>
-      <c r="C142" s="99"/>
-      <c r="D142" s="99" t="s">
-        <v>183</v>
-      </c>
-      <c r="E142" s="99"/>
-      <c r="F142" s="99"/>
-      <c r="G142" s="99"/>
-      <c r="H142" s="99"/>
-      <c r="I142" s="99"/>
-      <c r="J142" s="99"/>
-    </row>
-    <row r="143" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B143" s="99" t="s">
-        <v>184</v>
-      </c>
-      <c r="C143" s="99"/>
-      <c r="D143" s="99" t="s">
-        <v>181</v>
-      </c>
-      <c r="E143" s="99"/>
-      <c r="F143" s="99"/>
-      <c r="G143" s="99"/>
-      <c r="H143" s="99"/>
-      <c r="I143" s="99"/>
-      <c r="J143" s="99"/>
-    </row>
-    <row r="144" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B144" s="99" t="s">
+      <c r="C144" s="79"/>
+      <c r="D144" s="79" t="s">
         <v>187</v>
       </c>
-      <c r="C144" s="99"/>
-      <c r="D144" s="99" t="s">
-        <v>188</v>
-      </c>
-      <c r="E144" s="99"/>
-      <c r="F144" s="99"/>
-      <c r="G144" s="99"/>
-      <c r="H144" s="99"/>
-      <c r="I144" s="99"/>
-      <c r="J144" s="99"/>
+      <c r="E144" s="79"/>
+      <c r="F144" s="79"/>
+      <c r="G144" s="79"/>
+      <c r="H144" s="79"/>
+      <c r="I144" s="79"/>
+      <c r="J144" s="79"/>
     </row>
     <row r="145" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B145" s="99"/>
-      <c r="C145" s="99"/>
-      <c r="D145" s="99"/>
-      <c r="E145" s="99"/>
-      <c r="F145" s="99"/>
-      <c r="G145" s="99"/>
-      <c r="H145" s="99"/>
-      <c r="I145" s="99"/>
-      <c r="J145" s="99"/>
+      <c r="B145" s="79" t="s">
+        <v>260</v>
+      </c>
+      <c r="C145" s="79"/>
+      <c r="D145" s="79" t="s">
+        <v>262</v>
+      </c>
+      <c r="E145" s="79"/>
+      <c r="F145" s="79"/>
+      <c r="G145" s="79"/>
+      <c r="H145" s="79"/>
+      <c r="I145" s="79"/>
+      <c r="J145" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="196">
-    <mergeCell ref="B143:C143"/>
-    <mergeCell ref="D143:J143"/>
-    <mergeCell ref="B144:C144"/>
-    <mergeCell ref="D144:J144"/>
-    <mergeCell ref="B145:C145"/>
-    <mergeCell ref="D145:J145"/>
-    <mergeCell ref="B136:D137"/>
-    <mergeCell ref="B139:C139"/>
-    <mergeCell ref="D139:J139"/>
-    <mergeCell ref="B140:C140"/>
-    <mergeCell ref="D140:J140"/>
-    <mergeCell ref="B141:C141"/>
-    <mergeCell ref="D141:J141"/>
-    <mergeCell ref="B142:C142"/>
-    <mergeCell ref="D142:J142"/>
+    <mergeCell ref="C8:J8"/>
+    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="C10:J10"/>
+    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="B82:D83"/>
+    <mergeCell ref="C69:F69"/>
+    <mergeCell ref="G69:J69"/>
+    <mergeCell ref="C66:F66"/>
+    <mergeCell ref="G66:J66"/>
+    <mergeCell ref="C70:F70"/>
+    <mergeCell ref="G70:J70"/>
+    <mergeCell ref="B74:B79"/>
+    <mergeCell ref="C74:F74"/>
+    <mergeCell ref="G74:J74"/>
+    <mergeCell ref="C75:F75"/>
+    <mergeCell ref="G75:J75"/>
+    <mergeCell ref="C76:F76"/>
+    <mergeCell ref="G76:J76"/>
+    <mergeCell ref="C77:F77"/>
+    <mergeCell ref="G77:J77"/>
+    <mergeCell ref="C78:F78"/>
+    <mergeCell ref="G78:J78"/>
+    <mergeCell ref="D79:J79"/>
+    <mergeCell ref="C57:F57"/>
+    <mergeCell ref="G57:J57"/>
+    <mergeCell ref="C59:F59"/>
+    <mergeCell ref="G59:J59"/>
+    <mergeCell ref="B63:B71"/>
+    <mergeCell ref="C63:F63"/>
+    <mergeCell ref="G63:J63"/>
+    <mergeCell ref="C64:F64"/>
+    <mergeCell ref="G64:J64"/>
+    <mergeCell ref="C65:F65"/>
+    <mergeCell ref="G65:J65"/>
+    <mergeCell ref="C68:F68"/>
+    <mergeCell ref="G68:J68"/>
+    <mergeCell ref="D71:J71"/>
+    <mergeCell ref="C67:F67"/>
+    <mergeCell ref="G67:J67"/>
+    <mergeCell ref="B41:B46"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="G41:J41"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="G42:J42"/>
+    <mergeCell ref="G44:J44"/>
+    <mergeCell ref="D46:J46"/>
+    <mergeCell ref="D52:J52"/>
+    <mergeCell ref="D60:J60"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="G45:J45"/>
+    <mergeCell ref="B55:B60"/>
+    <mergeCell ref="C55:F55"/>
+    <mergeCell ref="G55:J55"/>
+    <mergeCell ref="C56:F56"/>
+    <mergeCell ref="G56:J56"/>
+    <mergeCell ref="C58:F58"/>
+    <mergeCell ref="G58:J58"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="G49:J49"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="G50:J50"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="G51:J51"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="D37:J37"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="E14:J14"/>
+    <mergeCell ref="E15:J15"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="G43:J43"/>
+    <mergeCell ref="G86:J86"/>
+    <mergeCell ref="C87:F87"/>
+    <mergeCell ref="G87:J87"/>
+    <mergeCell ref="D88:J88"/>
+    <mergeCell ref="B2:J3"/>
+    <mergeCell ref="B5:D6"/>
+    <mergeCell ref="B19:D20"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="E16:J16"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="D38:J38"/>
+    <mergeCell ref="B22:B31"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E13:J13"/>
+    <mergeCell ref="B92:B98"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="C101:F101"/>
+    <mergeCell ref="G101:J101"/>
+    <mergeCell ref="C102:F102"/>
+    <mergeCell ref="G102:J102"/>
+    <mergeCell ref="C103:F103"/>
+    <mergeCell ref="G103:J103"/>
+    <mergeCell ref="D89:J89"/>
+    <mergeCell ref="B85:B89"/>
+    <mergeCell ref="C92:F92"/>
+    <mergeCell ref="G92:J92"/>
+    <mergeCell ref="C93:F93"/>
+    <mergeCell ref="G93:J93"/>
+    <mergeCell ref="C94:F94"/>
+    <mergeCell ref="G94:J94"/>
+    <mergeCell ref="D97:J97"/>
+    <mergeCell ref="C95:F95"/>
+    <mergeCell ref="G95:J95"/>
+    <mergeCell ref="C96:F96"/>
+    <mergeCell ref="G96:J96"/>
+    <mergeCell ref="C85:F85"/>
+    <mergeCell ref="G85:J85"/>
+    <mergeCell ref="C86:F86"/>
+    <mergeCell ref="C106:F106"/>
+    <mergeCell ref="G106:J106"/>
+    <mergeCell ref="C107:F107"/>
+    <mergeCell ref="G107:J107"/>
+    <mergeCell ref="C108:F108"/>
+    <mergeCell ref="G108:J108"/>
+    <mergeCell ref="C109:F109"/>
+    <mergeCell ref="G109:J109"/>
+    <mergeCell ref="D98:J98"/>
+    <mergeCell ref="G110:J110"/>
+    <mergeCell ref="C111:F111"/>
+    <mergeCell ref="G111:J111"/>
+    <mergeCell ref="C112:F112"/>
+    <mergeCell ref="G112:J112"/>
+    <mergeCell ref="C116:F116"/>
+    <mergeCell ref="G116:J116"/>
+    <mergeCell ref="D118:J118"/>
+    <mergeCell ref="C117:F117"/>
+    <mergeCell ref="G117:J117"/>
     <mergeCell ref="B106:B118"/>
     <mergeCell ref="C115:F115"/>
     <mergeCell ref="G115:J115"/>
@@ -6865,163 +7028,21 @@
     <mergeCell ref="C126:F126"/>
     <mergeCell ref="G126:J126"/>
     <mergeCell ref="C110:F110"/>
-    <mergeCell ref="G110:J110"/>
-    <mergeCell ref="C111:F111"/>
-    <mergeCell ref="G111:J111"/>
-    <mergeCell ref="C112:F112"/>
-    <mergeCell ref="G112:J112"/>
-    <mergeCell ref="C116:F116"/>
-    <mergeCell ref="G116:J116"/>
-    <mergeCell ref="D118:J118"/>
-    <mergeCell ref="C117:F117"/>
-    <mergeCell ref="G117:J117"/>
-    <mergeCell ref="C106:F106"/>
-    <mergeCell ref="G106:J106"/>
-    <mergeCell ref="C107:F107"/>
-    <mergeCell ref="G107:J107"/>
-    <mergeCell ref="C108:F108"/>
-    <mergeCell ref="G108:J108"/>
-    <mergeCell ref="C109:F109"/>
-    <mergeCell ref="G109:J109"/>
-    <mergeCell ref="D98:J98"/>
-    <mergeCell ref="B92:B98"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="C101:F101"/>
-    <mergeCell ref="G101:J101"/>
-    <mergeCell ref="C102:F102"/>
-    <mergeCell ref="G102:J102"/>
-    <mergeCell ref="C103:F103"/>
-    <mergeCell ref="G103:J103"/>
-    <mergeCell ref="D89:J89"/>
-    <mergeCell ref="B85:B89"/>
-    <mergeCell ref="C92:F92"/>
-    <mergeCell ref="G92:J92"/>
-    <mergeCell ref="C93:F93"/>
-    <mergeCell ref="G93:J93"/>
-    <mergeCell ref="C94:F94"/>
-    <mergeCell ref="G94:J94"/>
-    <mergeCell ref="D97:J97"/>
-    <mergeCell ref="C95:F95"/>
-    <mergeCell ref="G95:J95"/>
-    <mergeCell ref="C96:F96"/>
-    <mergeCell ref="G96:J96"/>
-    <mergeCell ref="C85:F85"/>
-    <mergeCell ref="G85:J85"/>
-    <mergeCell ref="C86:F86"/>
-    <mergeCell ref="G86:J86"/>
-    <mergeCell ref="C87:F87"/>
-    <mergeCell ref="G87:J87"/>
-    <mergeCell ref="D88:J88"/>
-    <mergeCell ref="B2:J3"/>
-    <mergeCell ref="B5:D6"/>
-    <mergeCell ref="B19:D20"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="E16:J16"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="G36:J36"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="D38:J38"/>
-    <mergeCell ref="B22:B31"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E13:J13"/>
-    <mergeCell ref="E14:J14"/>
-    <mergeCell ref="E15:J15"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="G31:J31"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="G43:J43"/>
-    <mergeCell ref="G51:J51"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="G35:J35"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="D37:J37"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="B41:B46"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="G41:J41"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="G42:J42"/>
-    <mergeCell ref="G44:J44"/>
-    <mergeCell ref="D46:J46"/>
-    <mergeCell ref="D52:J52"/>
-    <mergeCell ref="D60:J60"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="G45:J45"/>
-    <mergeCell ref="B55:B60"/>
-    <mergeCell ref="C55:F55"/>
-    <mergeCell ref="G55:J55"/>
-    <mergeCell ref="C56:F56"/>
-    <mergeCell ref="G56:J56"/>
-    <mergeCell ref="C58:F58"/>
-    <mergeCell ref="G58:J58"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="G49:J49"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="G50:J50"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="G57:J57"/>
-    <mergeCell ref="C59:F59"/>
-    <mergeCell ref="G59:J59"/>
-    <mergeCell ref="B63:B71"/>
-    <mergeCell ref="C63:F63"/>
-    <mergeCell ref="G63:J63"/>
-    <mergeCell ref="C64:F64"/>
-    <mergeCell ref="G64:J64"/>
-    <mergeCell ref="C65:F65"/>
-    <mergeCell ref="G65:J65"/>
-    <mergeCell ref="C68:F68"/>
-    <mergeCell ref="G68:J68"/>
-    <mergeCell ref="D71:J71"/>
-    <mergeCell ref="C67:F67"/>
-    <mergeCell ref="G67:J67"/>
-    <mergeCell ref="C8:J8"/>
-    <mergeCell ref="C9:J9"/>
-    <mergeCell ref="C10:J10"/>
-    <mergeCell ref="C11:J11"/>
-    <mergeCell ref="B82:D83"/>
-    <mergeCell ref="C69:F69"/>
-    <mergeCell ref="G69:J69"/>
-    <mergeCell ref="C66:F66"/>
-    <mergeCell ref="G66:J66"/>
-    <mergeCell ref="C70:F70"/>
-    <mergeCell ref="G70:J70"/>
-    <mergeCell ref="B74:B79"/>
-    <mergeCell ref="C74:F74"/>
-    <mergeCell ref="G74:J74"/>
-    <mergeCell ref="C75:F75"/>
-    <mergeCell ref="G75:J75"/>
-    <mergeCell ref="C76:F76"/>
-    <mergeCell ref="G76:J76"/>
-    <mergeCell ref="C77:F77"/>
-    <mergeCell ref="G77:J77"/>
-    <mergeCell ref="C78:F78"/>
-    <mergeCell ref="G78:J78"/>
-    <mergeCell ref="D79:J79"/>
-    <mergeCell ref="C57:F57"/>
+    <mergeCell ref="B143:C143"/>
+    <mergeCell ref="D143:J143"/>
+    <mergeCell ref="B144:C144"/>
+    <mergeCell ref="D144:J144"/>
+    <mergeCell ref="B145:C145"/>
+    <mergeCell ref="D145:J145"/>
+    <mergeCell ref="B136:D137"/>
+    <mergeCell ref="B139:C139"/>
+    <mergeCell ref="D139:J139"/>
+    <mergeCell ref="B140:C140"/>
+    <mergeCell ref="D140:J140"/>
+    <mergeCell ref="B141:C141"/>
+    <mergeCell ref="D141:J141"/>
+    <mergeCell ref="B142:C142"/>
+    <mergeCell ref="D142:J142"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -7038,8 +7059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J67"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="J68" sqref="J68"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="M65" sqref="M65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7050,458 +7071,458 @@
   <sheetData>
     <row r="1" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="34"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="23"/>
     </row>
     <row r="3" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="35"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="37"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="26"/>
     </row>
     <row r="4" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="5" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B5" s="63" t="s">
-        <v>210</v>
-      </c>
-      <c r="C5" s="64"/>
-      <c r="D5" s="65"/>
+      <c r="B5" s="72" t="s">
+        <v>209</v>
+      </c>
+      <c r="C5" s="73"/>
+      <c r="D5" s="74"/>
     </row>
     <row r="6" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="66"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="68"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="77"/>
     </row>
     <row r="8" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="18" t="s">
-        <v>211</v>
-      </c>
-      <c r="C8" s="99" t="s">
+        <v>210</v>
+      </c>
+      <c r="C8" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="114" t="s">
+        <v>215</v>
+      </c>
+      <c r="G8" s="117" t="s">
         <v>221</v>
       </c>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="108" t="s">
-        <v>216</v>
-      </c>
-      <c r="G8" s="111" t="s">
-        <v>222</v>
-      </c>
-      <c r="H8" s="97"/>
-      <c r="I8" s="97"/>
-      <c r="J8" s="98"/>
+      <c r="H8" s="94"/>
+      <c r="I8" s="94"/>
+      <c r="J8" s="95"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B9" s="18" t="s">
-        <v>212</v>
-      </c>
-      <c r="C9" s="99" t="s">
-        <v>214</v>
-      </c>
-      <c r="D9" s="99"/>
-      <c r="E9" s="99"/>
-      <c r="F9" s="109"/>
-      <c r="G9" s="99" t="s">
-        <v>217</v>
-      </c>
-      <c r="H9" s="99"/>
-      <c r="I9" s="99"/>
-      <c r="J9" s="99"/>
+        <v>211</v>
+      </c>
+      <c r="C9" s="79" t="s">
+        <v>213</v>
+      </c>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="115"/>
+      <c r="G9" s="79" t="s">
+        <v>216</v>
+      </c>
+      <c r="H9" s="79"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="79"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B10" s="18" t="s">
-        <v>213</v>
-      </c>
-      <c r="C10" s="99" t="s">
+        <v>212</v>
+      </c>
+      <c r="C10" s="79" t="s">
+        <v>214</v>
+      </c>
+      <c r="D10" s="79"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="116"/>
+      <c r="G10" s="79" t="s">
+        <v>217</v>
+      </c>
+      <c r="H10" s="79"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="79"/>
+    </row>
+    <row r="12" spans="2:10" s="16" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="114" t="s">
+        <v>222</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="D12" s="80" t="s">
         <v>215</v>
       </c>
-      <c r="D10" s="99"/>
-      <c r="E10" s="99"/>
-      <c r="F10" s="110"/>
-      <c r="G10" s="99" t="s">
+      <c r="E12" s="80"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="80"/>
+      <c r="I12" s="80"/>
+      <c r="J12" s="80"/>
+    </row>
+    <row r="13" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="115"/>
+      <c r="C13" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="D13" s="79" t="s">
+        <v>232</v>
+      </c>
+      <c r="E13" s="79"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="79"/>
+      <c r="I13" s="79"/>
+      <c r="J13" s="79"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B14" s="115"/>
+      <c r="C14" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="D14" s="79" t="s">
+        <v>233</v>
+      </c>
+      <c r="E14" s="79"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="79"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B15" s="115"/>
+      <c r="C15" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="D15" s="79" t="s">
+        <v>236</v>
+      </c>
+      <c r="E15" s="79"/>
+      <c r="F15" s="79"/>
+      <c r="G15" s="79"/>
+      <c r="H15" s="79"/>
+      <c r="I15" s="79"/>
+      <c r="J15" s="79"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B16" s="115"/>
+      <c r="C16" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="D16" s="79" t="s">
+        <v>235</v>
+      </c>
+      <c r="E16" s="79"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="79"/>
+      <c r="I16" s="79"/>
+      <c r="J16" s="79"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B17" s="115"/>
+      <c r="C17" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="D17" s="79" t="s">
+        <v>234</v>
+      </c>
+      <c r="E17" s="79"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="79"/>
+      <c r="J17" s="79"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B18" s="115"/>
+      <c r="C18" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="D18" s="79" t="s">
+        <v>237</v>
+      </c>
+      <c r="E18" s="79"/>
+      <c r="F18" s="79"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="79"/>
+      <c r="I18" s="79"/>
+      <c r="J18" s="79"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B19" s="115"/>
+      <c r="C19" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="D19" s="79" t="s">
+        <v>245</v>
+      </c>
+      <c r="E19" s="79"/>
+      <c r="F19" s="79"/>
+      <c r="G19" s="79"/>
+      <c r="H19" s="79"/>
+      <c r="I19" s="79"/>
+      <c r="J19" s="79"/>
+    </row>
+    <row r="20" spans="2:10" s="16" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="115"/>
+      <c r="C20" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="D20" s="79" t="s">
+        <v>240</v>
+      </c>
+      <c r="E20" s="79"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="79"/>
+      <c r="I20" s="79"/>
+      <c r="J20" s="79"/>
+    </row>
+    <row r="21" spans="2:10" s="16" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="115"/>
+      <c r="C21" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="D21" s="79" t="s">
+        <v>241</v>
+      </c>
+      <c r="E21" s="79"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="79"/>
+      <c r="H21" s="79"/>
+      <c r="I21" s="79"/>
+      <c r="J21" s="79"/>
+    </row>
+    <row r="22" spans="2:10" s="16" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="116"/>
+      <c r="C22" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="D22" s="79" t="s">
+        <v>242</v>
+      </c>
+      <c r="E22" s="79"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="79"/>
+      <c r="H22" s="79"/>
+      <c r="I22" s="79"/>
+      <c r="J22" s="79"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B24" s="104" t="s">
         <v>218</v>
       </c>
-      <c r="H10" s="99"/>
-      <c r="I10" s="99"/>
-      <c r="J10" s="99"/>
-    </row>
-    <row r="12" spans="2:10" s="16" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="108" t="s">
-        <v>223</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>224</v>
-      </c>
-      <c r="D12" s="106" t="s">
-        <v>216</v>
-      </c>
-      <c r="E12" s="106"/>
-      <c r="F12" s="106"/>
-      <c r="G12" s="106"/>
-      <c r="H12" s="106"/>
-      <c r="I12" s="106"/>
-      <c r="J12" s="106"/>
-    </row>
-    <row r="13" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="109"/>
-      <c r="C13" s="19" t="s">
-        <v>225</v>
-      </c>
-      <c r="D13" s="99" t="s">
-        <v>233</v>
-      </c>
-      <c r="E13" s="99"/>
-      <c r="F13" s="99"/>
-      <c r="G13" s="99"/>
-      <c r="H13" s="99"/>
-      <c r="I13" s="99"/>
-      <c r="J13" s="99"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B14" s="109"/>
-      <c r="C14" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="D14" s="99" t="s">
-        <v>234</v>
-      </c>
-      <c r="E14" s="99"/>
-      <c r="F14" s="99"/>
-      <c r="G14" s="99"/>
-      <c r="H14" s="99"/>
-      <c r="I14" s="99"/>
-      <c r="J14" s="99"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B15" s="109"/>
-      <c r="C15" s="19" t="s">
-        <v>227</v>
-      </c>
-      <c r="D15" s="99" t="s">
-        <v>237</v>
-      </c>
-      <c r="E15" s="99"/>
-      <c r="F15" s="99"/>
-      <c r="G15" s="99"/>
-      <c r="H15" s="99"/>
-      <c r="I15" s="99"/>
-      <c r="J15" s="99"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B16" s="109"/>
-      <c r="C16" s="19" t="s">
-        <v>228</v>
-      </c>
-      <c r="D16" s="99" t="s">
-        <v>236</v>
-      </c>
-      <c r="E16" s="99"/>
-      <c r="F16" s="99"/>
-      <c r="G16" s="99"/>
-      <c r="H16" s="99"/>
-      <c r="I16" s="99"/>
-      <c r="J16" s="99"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B17" s="109"/>
-      <c r="C17" s="19" t="s">
-        <v>229</v>
-      </c>
-      <c r="D17" s="99" t="s">
-        <v>235</v>
-      </c>
-      <c r="E17" s="99"/>
-      <c r="F17" s="99"/>
-      <c r="G17" s="99"/>
-      <c r="H17" s="99"/>
-      <c r="I17" s="99"/>
-      <c r="J17" s="99"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B18" s="109"/>
-      <c r="C18" s="19" t="s">
-        <v>230</v>
-      </c>
-      <c r="D18" s="99" t="s">
-        <v>238</v>
-      </c>
-      <c r="E18" s="99"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="99"/>
-      <c r="H18" s="99"/>
-      <c r="I18" s="99"/>
-      <c r="J18" s="99"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B19" s="109"/>
-      <c r="C19" s="19" t="s">
-        <v>239</v>
-      </c>
-      <c r="D19" s="99" t="s">
-        <v>246</v>
-      </c>
-      <c r="E19" s="99"/>
-      <c r="F19" s="99"/>
-      <c r="G19" s="99"/>
-      <c r="H19" s="99"/>
-      <c r="I19" s="99"/>
-      <c r="J19" s="99"/>
-    </row>
-    <row r="20" spans="2:10" s="16" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="109"/>
-      <c r="C20" s="19" t="s">
-        <v>240</v>
-      </c>
-      <c r="D20" s="99" t="s">
-        <v>241</v>
-      </c>
-      <c r="E20" s="99"/>
-      <c r="F20" s="99"/>
-      <c r="G20" s="99"/>
-      <c r="H20" s="99"/>
-      <c r="I20" s="99"/>
-      <c r="J20" s="99"/>
-    </row>
-    <row r="21" spans="2:10" s="16" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="109"/>
-      <c r="C21" s="19" t="s">
-        <v>231</v>
-      </c>
-      <c r="D21" s="99" t="s">
-        <v>242</v>
-      </c>
-      <c r="E21" s="99"/>
-      <c r="F21" s="99"/>
-      <c r="G21" s="99"/>
-      <c r="H21" s="99"/>
-      <c r="I21" s="99"/>
-      <c r="J21" s="99"/>
-    </row>
-    <row r="22" spans="2:10" s="16" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="110"/>
-      <c r="C22" s="19" t="s">
-        <v>232</v>
-      </c>
-      <c r="D22" s="99" t="s">
-        <v>243</v>
-      </c>
-      <c r="E22" s="99"/>
-      <c r="F22" s="99"/>
-      <c r="G22" s="99"/>
-      <c r="H22" s="99"/>
-      <c r="I22" s="99"/>
-      <c r="J22" s="99"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B24" s="93" t="s">
+      <c r="C24" s="87" t="s">
         <v>219</v>
       </c>
-      <c r="C24" s="82" t="s">
-        <v>220</v>
-      </c>
-      <c r="D24" s="82"/>
-      <c r="E24" s="82"/>
-      <c r="F24" s="82"/>
-      <c r="G24" s="82"/>
-      <c r="H24" s="82"/>
-      <c r="I24" s="82"/>
-      <c r="J24" s="82"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="87"/>
+      <c r="G24" s="87"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="87"/>
+      <c r="J24" s="87"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B25" s="93"/>
-      <c r="C25" s="82"/>
-      <c r="D25" s="82"/>
-      <c r="E25" s="82"/>
-      <c r="F25" s="82"/>
-      <c r="G25" s="82"/>
-      <c r="H25" s="82"/>
-      <c r="I25" s="82"/>
-      <c r="J25" s="82"/>
+      <c r="B25" s="104"/>
+      <c r="C25" s="87"/>
+      <c r="D25" s="87"/>
+      <c r="E25" s="87"/>
+      <c r="F25" s="87"/>
+      <c r="G25" s="87"/>
+      <c r="H25" s="87"/>
+      <c r="I25" s="87"/>
+      <c r="J25" s="87"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B26" s="93"/>
-      <c r="C26" s="82"/>
-      <c r="D26" s="82"/>
-      <c r="E26" s="82"/>
-      <c r="F26" s="82"/>
-      <c r="G26" s="82"/>
-      <c r="H26" s="82"/>
-      <c r="I26" s="82"/>
-      <c r="J26" s="82"/>
+      <c r="B26" s="104"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="87"/>
+      <c r="E26" s="87"/>
+      <c r="F26" s="87"/>
+      <c r="G26" s="87"/>
+      <c r="H26" s="87"/>
+      <c r="I26" s="87"/>
+      <c r="J26" s="87"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B27" s="93"/>
-      <c r="C27" s="82"/>
-      <c r="D27" s="82"/>
-      <c r="E27" s="82"/>
-      <c r="F27" s="82"/>
-      <c r="G27" s="82"/>
-      <c r="H27" s="82"/>
-      <c r="I27" s="82"/>
-      <c r="J27" s="82"/>
+      <c r="B27" s="104"/>
+      <c r="C27" s="87"/>
+      <c r="D27" s="87"/>
+      <c r="E27" s="87"/>
+      <c r="F27" s="87"/>
+      <c r="G27" s="87"/>
+      <c r="H27" s="87"/>
+      <c r="I27" s="87"/>
+      <c r="J27" s="87"/>
     </row>
     <row r="29" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="30" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B30" s="63" t="s">
+      <c r="B30" s="72" t="s">
+        <v>194</v>
+      </c>
+      <c r="C30" s="73"/>
+      <c r="D30" s="74"/>
+    </row>
+    <row r="31" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="75"/>
+      <c r="C31" s="76"/>
+      <c r="D31" s="77"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B33" s="111" t="s">
+        <v>196</v>
+      </c>
+      <c r="C33" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="C30" s="64"/>
-      <c r="D30" s="65"/>
-    </row>
-    <row r="31" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="66"/>
-      <c r="C31" s="67"/>
-      <c r="D31" s="68"/>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B33" s="112" t="s">
+      <c r="D33" s="79"/>
+      <c r="E33" s="79"/>
+      <c r="F33" s="79"/>
+      <c r="G33" s="79"/>
+      <c r="H33" s="79"/>
+      <c r="I33" s="79"/>
+      <c r="J33" s="79"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B34" s="111"/>
+      <c r="C34" s="79"/>
+      <c r="D34" s="79"/>
+      <c r="E34" s="79"/>
+      <c r="F34" s="79"/>
+      <c r="G34" s="79"/>
+      <c r="H34" s="79"/>
+      <c r="I34" s="79"/>
+      <c r="J34" s="79"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B35" s="111" t="s">
         <v>197</v>
       </c>
-      <c r="C33" s="82" t="s">
-        <v>196</v>
-      </c>
-      <c r="D33" s="99"/>
-      <c r="E33" s="99"/>
-      <c r="F33" s="99"/>
-      <c r="G33" s="99"/>
-      <c r="H33" s="99"/>
-      <c r="I33" s="99"/>
-      <c r="J33" s="99"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B34" s="112"/>
-      <c r="C34" s="99"/>
-      <c r="D34" s="99"/>
-      <c r="E34" s="99"/>
-      <c r="F34" s="99"/>
-      <c r="G34" s="99"/>
-      <c r="H34" s="99"/>
-      <c r="I34" s="99"/>
-      <c r="J34" s="99"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B35" s="112" t="s">
+      <c r="C35" s="87" t="s">
         <v>198</v>
       </c>
-      <c r="C35" s="82" t="s">
-        <v>199</v>
-      </c>
-      <c r="D35" s="99"/>
-      <c r="E35" s="99"/>
-      <c r="F35" s="99"/>
-      <c r="G35" s="99"/>
-      <c r="H35" s="99"/>
-      <c r="I35" s="99"/>
-      <c r="J35" s="99"/>
+      <c r="D35" s="79"/>
+      <c r="E35" s="79"/>
+      <c r="F35" s="79"/>
+      <c r="G35" s="79"/>
+      <c r="H35" s="79"/>
+      <c r="I35" s="79"/>
+      <c r="J35" s="79"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B36" s="112"/>
-      <c r="C36" s="99"/>
-      <c r="D36" s="99"/>
-      <c r="E36" s="99"/>
-      <c r="F36" s="99"/>
-      <c r="G36" s="99"/>
-      <c r="H36" s="99"/>
-      <c r="I36" s="99"/>
-      <c r="J36" s="99"/>
+      <c r="B36" s="111"/>
+      <c r="C36" s="79"/>
+      <c r="D36" s="79"/>
+      <c r="E36" s="79"/>
+      <c r="F36" s="79"/>
+      <c r="G36" s="79"/>
+      <c r="H36" s="79"/>
+      <c r="I36" s="79"/>
+      <c r="J36" s="79"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.4">
       <c r="C37" s="15"/>
     </row>
     <row r="38" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="39" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B39" s="63" t="s">
-        <v>208</v>
-      </c>
-      <c r="C39" s="64"/>
-      <c r="D39" s="65"/>
+      <c r="B39" s="72" t="s">
+        <v>207</v>
+      </c>
+      <c r="C39" s="73"/>
+      <c r="D39" s="74"/>
     </row>
     <row r="40" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="66"/>
-      <c r="C40" s="67"/>
-      <c r="D40" s="68"/>
+      <c r="B40" s="75"/>
+      <c r="C40" s="76"/>
+      <c r="D40" s="77"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B42" s="106" t="s">
+      <c r="B42" s="80" t="s">
+        <v>200</v>
+      </c>
+      <c r="C42" s="112" t="s">
+        <v>199</v>
+      </c>
+      <c r="D42" s="112"/>
+      <c r="E42" s="113">
+        <v>0</v>
+      </c>
+      <c r="F42" s="113"/>
+      <c r="G42" s="113">
+        <v>0</v>
+      </c>
+      <c r="H42" s="113"/>
+      <c r="I42" s="113">
+        <v>0</v>
+      </c>
+      <c r="J42" s="113"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B43" s="80"/>
+      <c r="C43" s="112"/>
+      <c r="D43" s="112"/>
+      <c r="E43" s="113"/>
+      <c r="F43" s="113"/>
+      <c r="G43" s="113"/>
+      <c r="H43" s="113"/>
+      <c r="I43" s="113"/>
+      <c r="J43" s="113"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B44" s="80" t="s">
         <v>201</v>
       </c>
-      <c r="C42" s="113" t="s">
-        <v>200</v>
-      </c>
-      <c r="D42" s="113"/>
-      <c r="E42" s="114">
-        <v>0</v>
-      </c>
-      <c r="F42" s="114"/>
-      <c r="G42" s="114">
-        <v>0</v>
-      </c>
-      <c r="H42" s="114"/>
-      <c r="I42" s="114">
-        <v>0</v>
-      </c>
-      <c r="J42" s="114"/>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B43" s="106"/>
-      <c r="C43" s="113"/>
-      <c r="D43" s="113"/>
-      <c r="E43" s="114"/>
-      <c r="F43" s="114"/>
-      <c r="G43" s="114"/>
-      <c r="H43" s="114"/>
-      <c r="I43" s="114"/>
-      <c r="J43" s="114"/>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B44" s="106" t="s">
-        <v>202</v>
-      </c>
-      <c r="C44" s="115" t="s">
+      <c r="C44" s="107" t="s">
+        <v>203</v>
+      </c>
+      <c r="D44" s="108"/>
+      <c r="E44" s="107" t="s">
         <v>204</v>
       </c>
-      <c r="D44" s="116"/>
-      <c r="E44" s="115" t="s">
+      <c r="F44" s="107"/>
+      <c r="G44" s="107" t="s">
         <v>205</v>
       </c>
-      <c r="F44" s="115"/>
-      <c r="G44" s="115" t="s">
+      <c r="H44" s="107"/>
+      <c r="I44" s="107" t="s">
         <v>206</v>
       </c>
-      <c r="H44" s="115"/>
-      <c r="I44" s="115" t="s">
-        <v>207</v>
-      </c>
-      <c r="J44" s="115"/>
+      <c r="J44" s="107"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B45" s="106"/>
-      <c r="C45" s="116"/>
-      <c r="D45" s="116"/>
-      <c r="E45" s="115"/>
-      <c r="F45" s="115"/>
-      <c r="G45" s="115"/>
-      <c r="H45" s="115"/>
-      <c r="I45" s="115"/>
-      <c r="J45" s="115"/>
+      <c r="B45" s="80"/>
+      <c r="C45" s="108"/>
+      <c r="D45" s="108"/>
+      <c r="E45" s="107"/>
+      <c r="F45" s="107"/>
+      <c r="G45" s="107"/>
+      <c r="H45" s="107"/>
+      <c r="I45" s="107"/>
+      <c r="J45" s="107"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B46" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -7513,160 +7534,176 @@
     </row>
     <row r="48" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="49" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B49" s="63" t="s">
-        <v>245</v>
-      </c>
-      <c r="C49" s="64"/>
-      <c r="D49" s="65"/>
+      <c r="B49" s="72" t="s">
+        <v>244</v>
+      </c>
+      <c r="C49" s="73"/>
+      <c r="D49" s="74"/>
     </row>
     <row r="50" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B50" s="66"/>
-      <c r="C50" s="67"/>
-      <c r="D50" s="68"/>
+      <c r="B50" s="75"/>
+      <c r="C50" s="76"/>
+      <c r="D50" s="77"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B52" s="83" t="s">
+      <c r="B52" s="81" t="s">
+        <v>246</v>
+      </c>
+      <c r="C52" s="81"/>
+      <c r="D52" s="62" t="s">
         <v>247</v>
       </c>
-      <c r="C52" s="83"/>
-      <c r="D52" s="31" t="s">
-        <v>248</v>
-      </c>
-      <c r="E52" s="27"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="27"/>
-      <c r="I52" s="27"/>
-      <c r="J52" s="27"/>
+      <c r="E52" s="58"/>
+      <c r="F52" s="58"/>
+      <c r="G52" s="58"/>
+      <c r="H52" s="58"/>
+      <c r="I52" s="58"/>
+      <c r="J52" s="58"/>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B53" s="83"/>
-      <c r="C53" s="83"/>
-      <c r="D53" s="27"/>
-      <c r="E53" s="27"/>
-      <c r="F53" s="27"/>
-      <c r="G53" s="27"/>
-      <c r="H53" s="27"/>
-      <c r="I53" s="27"/>
-      <c r="J53" s="27"/>
+      <c r="B53" s="81"/>
+      <c r="C53" s="81"/>
+      <c r="D53" s="58"/>
+      <c r="E53" s="58"/>
+      <c r="F53" s="58"/>
+      <c r="G53" s="58"/>
+      <c r="H53" s="58"/>
+      <c r="I53" s="58"/>
+      <c r="J53" s="58"/>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B54" s="83"/>
-      <c r="C54" s="83"/>
-      <c r="D54" s="27"/>
-      <c r="E54" s="27"/>
-      <c r="F54" s="27"/>
-      <c r="G54" s="27"/>
-      <c r="H54" s="27"/>
-      <c r="I54" s="27"/>
-      <c r="J54" s="27"/>
+      <c r="B54" s="81"/>
+      <c r="C54" s="81"/>
+      <c r="D54" s="58"/>
+      <c r="E54" s="58"/>
+      <c r="F54" s="58"/>
+      <c r="G54" s="58"/>
+      <c r="H54" s="58"/>
+      <c r="I54" s="58"/>
+      <c r="J54" s="58"/>
     </row>
     <row r="56" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="57" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B57" s="63" t="s">
+      <c r="B57" s="72" t="s">
+        <v>249</v>
+      </c>
+      <c r="C57" s="73"/>
+      <c r="D57" s="74"/>
+    </row>
+    <row r="58" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B58" s="75"/>
+      <c r="C58" s="76"/>
+      <c r="D58" s="77"/>
+    </row>
+    <row r="60" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B60" s="118" t="s">
         <v>250</v>
       </c>
-      <c r="C57" s="64"/>
-      <c r="D57" s="65"/>
-    </row>
-    <row r="58" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B58" s="66"/>
-      <c r="C58" s="67"/>
-      <c r="D58" s="68"/>
-    </row>
-    <row r="60" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B60" s="107" t="s">
-        <v>251</v>
-      </c>
-      <c r="C60" s="107"/>
-      <c r="D60" s="107"/>
-      <c r="E60" s="107"/>
-      <c r="F60" s="107"/>
-      <c r="G60" s="107"/>
-      <c r="H60" s="107"/>
-      <c r="I60" s="107"/>
-      <c r="J60" s="107"/>
+      <c r="C60" s="118"/>
+      <c r="D60" s="118"/>
+      <c r="E60" s="118"/>
+      <c r="F60" s="118"/>
+      <c r="G60" s="118"/>
+      <c r="H60" s="118"/>
+      <c r="I60" s="118"/>
+      <c r="J60" s="118"/>
     </row>
     <row r="61" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B61" s="107"/>
-      <c r="C61" s="107"/>
-      <c r="D61" s="107"/>
-      <c r="E61" s="107"/>
-      <c r="F61" s="107"/>
-      <c r="G61" s="107"/>
-      <c r="H61" s="107"/>
-      <c r="I61" s="107"/>
-      <c r="J61" s="107"/>
+      <c r="B61" s="118"/>
+      <c r="C61" s="118"/>
+      <c r="D61" s="118"/>
+      <c r="E61" s="118"/>
+      <c r="F61" s="118"/>
+      <c r="G61" s="118"/>
+      <c r="H61" s="118"/>
+      <c r="I61" s="118"/>
+      <c r="J61" s="118"/>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B62" s="107"/>
-      <c r="C62" s="107"/>
-      <c r="D62" s="107"/>
-      <c r="E62" s="107"/>
-      <c r="F62" s="107"/>
-      <c r="G62" s="107"/>
-      <c r="H62" s="107"/>
-      <c r="I62" s="107"/>
-      <c r="J62" s="107"/>
+      <c r="B62" s="118"/>
+      <c r="C62" s="118"/>
+      <c r="D62" s="118"/>
+      <c r="E62" s="118"/>
+      <c r="F62" s="118"/>
+      <c r="G62" s="118"/>
+      <c r="H62" s="118"/>
+      <c r="I62" s="118"/>
+      <c r="J62" s="118"/>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B63" s="107"/>
-      <c r="C63" s="107"/>
-      <c r="D63" s="107"/>
-      <c r="E63" s="107"/>
-      <c r="F63" s="107"/>
-      <c r="G63" s="107"/>
-      <c r="H63" s="107"/>
-      <c r="I63" s="107"/>
-      <c r="J63" s="107"/>
+      <c r="B63" s="118"/>
+      <c r="C63" s="118"/>
+      <c r="D63" s="118"/>
+      <c r="E63" s="118"/>
+      <c r="F63" s="118"/>
+      <c r="G63" s="118"/>
+      <c r="H63" s="118"/>
+      <c r="I63" s="118"/>
+      <c r="J63" s="118"/>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B64" s="118" t="s">
-        <v>260</v>
-      </c>
-      <c r="C64" s="117"/>
-      <c r="D64" s="117"/>
-      <c r="E64" s="117"/>
-      <c r="F64" s="117"/>
-      <c r="G64" s="117"/>
-      <c r="H64" s="117"/>
-      <c r="I64" s="117"/>
-      <c r="J64" s="117"/>
+      <c r="B64" s="109" t="s">
+        <v>259</v>
+      </c>
+      <c r="C64" s="110"/>
+      <c r="D64" s="110"/>
+      <c r="E64" s="110"/>
+      <c r="F64" s="110"/>
+      <c r="G64" s="110"/>
+      <c r="H64" s="110"/>
+      <c r="I64" s="110"/>
+      <c r="J64" s="110"/>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B65" s="117"/>
-      <c r="C65" s="117"/>
-      <c r="D65" s="117"/>
-      <c r="E65" s="117"/>
-      <c r="F65" s="117"/>
-      <c r="G65" s="117"/>
-      <c r="H65" s="117"/>
-      <c r="I65" s="117"/>
-      <c r="J65" s="117"/>
+      <c r="B65" s="110"/>
+      <c r="C65" s="110"/>
+      <c r="D65" s="110"/>
+      <c r="E65" s="110"/>
+      <c r="F65" s="110"/>
+      <c r="G65" s="110"/>
+      <c r="H65" s="110"/>
+      <c r="I65" s="110"/>
+      <c r="J65" s="110"/>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B66" s="117"/>
-      <c r="C66" s="117"/>
-      <c r="D66" s="117"/>
-      <c r="E66" s="117"/>
-      <c r="F66" s="117"/>
-      <c r="G66" s="117"/>
-      <c r="H66" s="117"/>
-      <c r="I66" s="117"/>
-      <c r="J66" s="117"/>
+      <c r="B66" s="110"/>
+      <c r="C66" s="110"/>
+      <c r="D66" s="110"/>
+      <c r="E66" s="110"/>
+      <c r="F66" s="110"/>
+      <c r="G66" s="110"/>
+      <c r="H66" s="110"/>
+      <c r="I66" s="110"/>
+      <c r="J66" s="110"/>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B67" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="C44:D45"/>
-    <mergeCell ref="E44:F45"/>
-    <mergeCell ref="G44:H45"/>
-    <mergeCell ref="I44:J45"/>
-    <mergeCell ref="B64:J66"/>
+    <mergeCell ref="B12:B22"/>
+    <mergeCell ref="B52:C54"/>
+    <mergeCell ref="D52:J54"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:J27"/>
+    <mergeCell ref="D13:J13"/>
+    <mergeCell ref="D14:J14"/>
+    <mergeCell ref="D15:J15"/>
+    <mergeCell ref="D16:J16"/>
+    <mergeCell ref="D17:J17"/>
+    <mergeCell ref="D18:J18"/>
+    <mergeCell ref="D19:J19"/>
+    <mergeCell ref="D20:J20"/>
+    <mergeCell ref="D21:J21"/>
+    <mergeCell ref="D22:J22"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="D12:J12"/>
     <mergeCell ref="B39:D40"/>
     <mergeCell ref="B42:B43"/>
     <mergeCell ref="B44:B45"/>
@@ -7683,30 +7720,14 @@
     <mergeCell ref="E42:F43"/>
     <mergeCell ref="G42:H43"/>
     <mergeCell ref="I42:J43"/>
-    <mergeCell ref="D20:J20"/>
-    <mergeCell ref="D21:J21"/>
-    <mergeCell ref="D22:J22"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="C44:D45"/>
+    <mergeCell ref="E44:F45"/>
+    <mergeCell ref="G44:H45"/>
+    <mergeCell ref="I44:J45"/>
+    <mergeCell ref="B64:J66"/>
     <mergeCell ref="B57:D58"/>
     <mergeCell ref="B60:J63"/>
-    <mergeCell ref="D12:J12"/>
     <mergeCell ref="B49:D50"/>
-    <mergeCell ref="B12:B22"/>
-    <mergeCell ref="B52:C54"/>
-    <mergeCell ref="D52:J54"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:J27"/>
-    <mergeCell ref="D13:J13"/>
-    <mergeCell ref="D14:J14"/>
-    <mergeCell ref="D15:J15"/>
-    <mergeCell ref="D16:J16"/>
-    <mergeCell ref="D17:J17"/>
-    <mergeCell ref="D18:J18"/>
-    <mergeCell ref="D19:J19"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
